--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF154140-14FE-436A-A18A-4857A88C0313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F97A1-A7AC-4E33-9CC4-89695A135AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$151</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6458" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="652">
   <si>
     <t>SearchID</t>
   </si>
@@ -3936,9 +3936,6 @@
     <t>Evidence of entanglement in anthropogenic material</t>
   </si>
   <si>
-    <t>The mean biomass (kg/km2) indices</t>
-  </si>
-  <si>
     <t>Merluccius merluccius _ Mullus barbatus _ Eledone cirrhosa _ Nephrops norvegicus _ Parapenaeus longirostris</t>
   </si>
   <si>
@@ -4041,9 +4038,6 @@
     <t>Caught biomass</t>
   </si>
   <si>
-    <t>The available evidence suggests that the reduction of fishing effort has been more important than environmental factors.</t>
-  </si>
-  <si>
     <t>ROV video images were recorded during the PROMARES-OASIS DEL MAR cruise</t>
   </si>
   <si>
@@ -4065,9 +4059,6 @@
     <t>Beam trawling appears as a strong risk component to benthic communities, likely to exceed the limit reference value.</t>
   </si>
   <si>
-    <t>Trawler _ Merluccius merluccius _ Mullus barbatus _ Eledone cirrhosa _ Nephrops norvegicus _ Parapenaeus longirostris</t>
-  </si>
-  <si>
     <t>Gravel extraction</t>
   </si>
   <si>
@@ -4288,6 +4279,10 @@
   </si>
   <si>
     <t>In turn, total risk scores for otter trawling (OTB) in the EEZ are &lt;0.1 and thus comparably low.</t>
+  </si>
+  <si>
+    <t>The two techniques provided coherent results, indicating that the two most important trends in the response variables are an increase in terms of both LPUE and survey biomass index, and a fluctuating pattern, even though characterized by a general increasing tendency. What drove these trends is less clear, even
+though the available evidence suggests that the reduction of fishing effort has been more important than environmental factors.</t>
   </si>
 </sst>
 </file>
@@ -4799,45 +4794,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX154"/>
+  <dimension ref="A1:AX151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX140" sqref="AX140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="18" max="18" width="25.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" customWidth="1"/>
-    <col min="24" max="24" width="32.88671875" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="32.85546875" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" customWidth="1"/>
-    <col min="33" max="33" width="21.109375" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="18.109375" customWidth="1"/>
-    <col min="40" max="40" width="15.88671875" customWidth="1"/>
-    <col min="41" max="41" width="21.109375" customWidth="1"/>
-    <col min="42" max="42" width="17.33203125" customWidth="1"/>
-    <col min="44" max="44" width="15.88671875" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
-    <col min="48" max="48" width="20.44140625" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" customWidth="1"/>
+    <col min="33" max="33" width="21.140625" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" customWidth="1"/>
+    <col min="36" max="36" width="18.7109375" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" customWidth="1"/>
+    <col min="39" max="39" width="18.140625" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
+    <col min="41" max="41" width="21.140625" customWidth="1"/>
+    <col min="42" max="42" width="17.28515625" customWidth="1"/>
+    <col min="44" max="44" width="15.85546875" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" customWidth="1"/>
+    <col min="48" max="48" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
@@ -4903,7 +4898,7 @@
       <c r="AW1" s="29"/>
       <c r="AX1" s="29"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5055,7 +5050,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>277</v>
       </c>
@@ -5189,7 +5184,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>356</v>
       </c>
@@ -5260,7 +5255,7 @@
         <v>220</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AA4" s="14">
         <v>3</v>
@@ -5296,7 +5291,7 @@
         <v>533</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AQ4" s="14" t="s">
         <v>166</v>
@@ -5311,7 +5306,7 @@
         <v>462</v>
       </c>
       <c r="AU4" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AV4" s="14" t="s">
         <v>214</v>
@@ -5320,10 +5315,10 @@
         <v>210</v>
       </c>
       <c r="AX4" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>356</v>
       </c>
@@ -5395,7 +5390,7 @@
         <v>220</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AA5" s="10">
         <v>3</v>
@@ -5431,7 +5426,7 @@
         <v>533</v>
       </c>
       <c r="AP5" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AQ5" s="10" t="s">
         <v>166</v>
@@ -5443,7 +5438,7 @@
         <v>462</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AV5" s="10" t="s">
         <v>214</v>
@@ -5452,10 +5447,10 @@
         <v>210</v>
       </c>
       <c r="AX5" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>356</v>
       </c>
@@ -5527,7 +5522,7 @@
         <v>220</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AA6" s="10">
         <v>3</v>
@@ -5563,7 +5558,7 @@
         <v>533</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AQ6" s="10" t="s">
         <v>167</v>
@@ -5578,7 +5573,7 @@
         <v>462</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AV6" s="10" t="s">
         <v>214</v>
@@ -5587,10 +5582,10 @@
         <v>210</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>379</v>
       </c>
@@ -5697,7 +5692,7 @@
         <v>463</v>
       </c>
       <c r="AP7" s="14" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AQ7" s="14" t="s">
         <v>166</v>
@@ -5712,7 +5707,7 @@
         <v>459</v>
       </c>
       <c r="AU7" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AV7" s="14" t="s">
         <v>201</v>
@@ -5724,7 +5719,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>379</v>
       </c>
@@ -5831,7 +5826,7 @@
         <v>463</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AQ8" s="10" t="s">
         <v>166</v>
@@ -5846,7 +5841,7 @@
         <v>459</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AV8" s="10" t="s">
         <v>201</v>
@@ -5858,7 +5853,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>379</v>
       </c>
@@ -5962,7 +5957,7 @@
         <v>463</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AQ9" s="10" t="s">
         <v>166</v>
@@ -5977,7 +5972,7 @@
         <v>459</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AV9" s="10" t="s">
         <v>201</v>
@@ -5989,7 +5984,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>379</v>
       </c>
@@ -6096,7 +6091,7 @@
         <v>463</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AQ10" s="10" t="s">
         <v>166</v>
@@ -6111,7 +6106,7 @@
         <v>459</v>
       </c>
       <c r="AU10" s="21" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AV10" s="10" t="s">
         <v>201</v>
@@ -6123,7 +6118,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>418</v>
       </c>
@@ -6233,7 +6228,7 @@
         <v>464</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AQ11" s="14" t="s">
         <v>166</v>
@@ -6254,10 +6249,10 @@
         <v>209</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>418</v>
       </c>
@@ -6367,7 +6362,7 @@
         <v>464</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AQ12" s="10" t="s">
         <v>166</v>
@@ -6388,10 +6383,10 @@
         <v>209</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>418</v>
       </c>
@@ -6501,7 +6496,7 @@
         <v>464</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AQ13" s="10" t="s">
         <v>166</v>
@@ -6525,10 +6520,10 @@
         <v>209</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>418</v>
       </c>
@@ -6638,7 +6633,7 @@
         <v>464</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AQ14" s="10" t="s">
         <v>166</v>
@@ -6662,10 +6657,10 @@
         <v>209</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>286</v>
       </c>
@@ -6787,7 +6782,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>286</v>
       </c>
@@ -6909,7 +6904,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>286</v>
       </c>
@@ -7031,7 +7026,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>286</v>
       </c>
@@ -7153,7 +7148,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>286</v>
       </c>
@@ -7272,10 +7267,10 @@
         <v>209</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>286</v>
       </c>
@@ -7394,10 +7389,10 @@
         <v>209</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>268</v>
       </c>
@@ -7468,7 +7463,7 @@
         <v>72</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z21" s="14" t="s">
         <v>528</v>
@@ -7501,13 +7496,13 @@
         <v>527</v>
       </c>
       <c r="AP21" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="AU21" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV21" s="14" t="s">
         <v>201</v>
@@ -7519,7 +7514,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>268</v>
       </c>
@@ -7590,7 +7585,7 @@
         <v>72</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z22" s="10" t="s">
         <v>528</v>
@@ -7623,13 +7618,13 @@
         <v>527</v>
       </c>
       <c r="AP22" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ22" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU22" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV22" s="10" t="s">
         <v>201</v>
@@ -7641,7 +7636,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>268</v>
       </c>
@@ -7712,7 +7707,7 @@
         <v>72</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z23" s="10" t="s">
         <v>528</v>
@@ -7748,13 +7743,13 @@
         <v>527</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ23" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV23" s="10" t="s">
         <v>201</v>
@@ -7766,7 +7761,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>347</v>
       </c>
@@ -7873,7 +7868,7 @@
         <v>522</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AQ24" s="10" t="s">
         <v>166</v>
@@ -7882,7 +7877,7 @@
         <v>241</v>
       </c>
       <c r="AU24" s="18" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AV24" s="12" t="s">
         <v>214</v>
@@ -7891,10 +7886,10 @@
         <v>211</v>
       </c>
       <c r="AX24" s="12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>314</v>
       </c>
@@ -7966,7 +7961,7 @@
         <v>72</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA25" s="14">
         <v>3</v>
@@ -7996,16 +7991,16 @@
         <v>150</v>
       </c>
       <c r="AL25" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM25" s="14" t="s">
         <v>235</v>
       </c>
       <c r="AO25" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AP25" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AQ25" s="14" t="s">
         <v>167</v>
@@ -8020,7 +8015,7 @@
         <v>152</v>
       </c>
       <c r="AU25" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AV25" s="14" t="s">
         <v>201</v>
@@ -8029,10 +8024,10 @@
         <v>210</v>
       </c>
       <c r="AX25" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>314</v>
       </c>
@@ -8104,7 +8099,7 @@
         <v>72</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA26" s="10">
         <v>3</v>
@@ -8134,16 +8129,16 @@
         <v>150</v>
       </c>
       <c r="AL26" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM26" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO26" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AP26" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AQ26" s="10" t="s">
         <v>167</v>
@@ -8158,7 +8153,7 @@
         <v>152</v>
       </c>
       <c r="AU26" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AV26" s="10" t="s">
         <v>201</v>
@@ -8167,10 +8162,10 @@
         <v>210</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>314</v>
       </c>
@@ -8242,7 +8237,7 @@
         <v>72</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA27" s="10">
         <v>3</v>
@@ -8272,16 +8267,16 @@
         <v>150</v>
       </c>
       <c r="AL27" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM27" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO27" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AP27" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AQ27" s="10" t="s">
         <v>166</v>
@@ -8290,10 +8285,10 @@
         <v>241</v>
       </c>
       <c r="AT27" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AU27" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AV27" s="10" t="s">
         <v>201</v>
@@ -8302,10 +8297,10 @@
         <v>210</v>
       </c>
       <c r="AX27" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>364</v>
       </c>
@@ -8376,7 +8371,7 @@
         <v>217</v>
       </c>
       <c r="Z28" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AA28" s="14">
         <v>3</v>
@@ -8400,7 +8395,7 @@
         <v>146</v>
       </c>
       <c r="AL28" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM28" s="14" t="s">
         <v>234</v>
@@ -8418,10 +8413,10 @@
         <v>241</v>
       </c>
       <c r="AT28" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AU28" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AV28" s="14" t="s">
         <v>201</v>
@@ -8430,10 +8425,10 @@
         <v>210</v>
       </c>
       <c r="AX28" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>364</v>
       </c>
@@ -8504,7 +8499,7 @@
         <v>217</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AA29" s="10">
         <v>3</v>
@@ -8528,7 +8523,7 @@
         <v>147</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM29" s="10" t="s">
         <v>234</v>
@@ -8546,10 +8541,10 @@
         <v>241</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AV29" s="10" t="s">
         <v>201</v>
@@ -8558,10 +8553,10 @@
         <v>210</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>364</v>
       </c>
@@ -8632,7 +8627,7 @@
         <v>217</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AA30" s="10">
         <v>3</v>
@@ -8656,7 +8651,7 @@
         <v>152</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM30" s="10" t="s">
         <v>234</v>
@@ -8674,10 +8669,10 @@
         <v>241</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AV30" s="10" t="s">
         <v>201</v>
@@ -8686,10 +8681,10 @@
         <v>210</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>364</v>
       </c>
@@ -8760,7 +8755,7 @@
         <v>217</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AA31" s="10">
         <v>3</v>
@@ -8784,7 +8779,7 @@
         <v>146</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM31" s="10" t="s">
         <v>234</v>
@@ -8802,10 +8797,10 @@
         <v>241</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AV31" s="10" t="s">
         <v>208</v>
@@ -8814,10 +8809,10 @@
         <v>210</v>
       </c>
       <c r="AX31" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>364</v>
       </c>
@@ -8888,7 +8883,7 @@
         <v>217</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AA32" s="10">
         <v>3</v>
@@ -8912,7 +8907,7 @@
         <v>147</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM32" s="10" t="s">
         <v>234</v>
@@ -8930,10 +8925,10 @@
         <v>241</v>
       </c>
       <c r="AT32" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AV32" s="10" t="s">
         <v>208</v>
@@ -8942,10 +8937,10 @@
         <v>210</v>
       </c>
       <c r="AX32" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>364</v>
       </c>
@@ -9016,7 +9011,7 @@
         <v>217</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AA33" s="10">
         <v>3</v>
@@ -9040,7 +9035,7 @@
         <v>152</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM33" s="10" t="s">
         <v>234</v>
@@ -9058,10 +9053,10 @@
         <v>241</v>
       </c>
       <c r="AT33" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AV33" s="10" t="s">
         <v>208</v>
@@ -9070,10 +9065,10 @@
         <v>210</v>
       </c>
       <c r="AX33" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>304</v>
       </c>
@@ -9147,7 +9142,7 @@
         <v>313</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA34" s="14">
         <v>3</v>
@@ -9198,7 +9193,7 @@
         <v>496</v>
       </c>
       <c r="AU34" s="15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV34" s="14" t="s">
         <v>201</v>
@@ -9207,10 +9202,10 @@
         <v>210</v>
       </c>
       <c r="AX34" s="23" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>304</v>
       </c>
@@ -9284,7 +9279,7 @@
         <v>313</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA35" s="19">
         <v>3</v>
@@ -9332,7 +9327,7 @@
         <v>497</v>
       </c>
       <c r="AU35" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV35" s="19" t="s">
         <v>201</v>
@@ -9341,10 +9336,10 @@
         <v>210</v>
       </c>
       <c r="AX35" s="24" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>304</v>
       </c>
@@ -9418,7 +9413,7 @@
         <v>313</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA36" s="19">
         <v>3</v>
@@ -9466,7 +9461,7 @@
         <v>498</v>
       </c>
       <c r="AU36" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV36" s="19" t="s">
         <v>201</v>
@@ -9475,10 +9470,10 @@
         <v>210</v>
       </c>
       <c r="AX36" s="24" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>304</v>
       </c>
@@ -9552,7 +9547,7 @@
         <v>313</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA37" s="19">
         <v>3</v>
@@ -9600,7 +9595,7 @@
         <v>496</v>
       </c>
       <c r="AU37" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV37" s="19" t="s">
         <v>201</v>
@@ -9609,10 +9604,10 @@
         <v>210</v>
       </c>
       <c r="AX37" s="24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>304</v>
       </c>
@@ -9686,7 +9681,7 @@
         <v>313</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA38" s="19">
         <v>3</v>
@@ -9731,7 +9726,7 @@
         <v>497</v>
       </c>
       <c r="AU38" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV38" s="19" t="s">
         <v>201</v>
@@ -9740,10 +9735,10 @@
         <v>210</v>
       </c>
       <c r="AX38" s="24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>304</v>
       </c>
@@ -9817,7 +9812,7 @@
         <v>313</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA39" s="19">
         <v>3</v>
@@ -9862,7 +9857,7 @@
         <v>498</v>
       </c>
       <c r="AU39" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV39" s="19" t="s">
         <v>201</v>
@@ -9871,10 +9866,10 @@
         <v>210</v>
       </c>
       <c r="AX39" s="24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>304</v>
       </c>
@@ -9948,7 +9943,7 @@
         <v>313</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AA40" s="19">
         <v>3</v>
@@ -9975,7 +9970,7 @@
         <v>152</v>
       </c>
       <c r="AL40" s="19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AM40" s="19" t="s">
         <v>234</v>
@@ -10002,7 +9997,7 @@
         <v>496</v>
       </c>
       <c r="AU40" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV40" s="19" t="s">
         <v>201</v>
@@ -10011,10 +10006,10 @@
         <v>212</v>
       </c>
       <c r="AX40" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>304</v>
       </c>
@@ -10088,7 +10083,7 @@
         <v>313</v>
       </c>
       <c r="Z41" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AA41" s="19">
         <v>3</v>
@@ -10115,7 +10110,7 @@
         <v>152</v>
       </c>
       <c r="AL41" s="19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AM41" s="19" t="s">
         <v>234</v>
@@ -10139,7 +10134,7 @@
         <v>497</v>
       </c>
       <c r="AU41" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV41" s="19" t="s">
         <v>201</v>
@@ -10148,10 +10143,10 @@
         <v>212</v>
       </c>
       <c r="AX41" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>304</v>
       </c>
@@ -10225,7 +10220,7 @@
         <v>313</v>
       </c>
       <c r="Z42" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AA42" s="19">
         <v>3</v>
@@ -10252,7 +10247,7 @@
         <v>152</v>
       </c>
       <c r="AL42" s="19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AM42" s="19" t="s">
         <v>234</v>
@@ -10276,7 +10271,7 @@
         <v>498</v>
       </c>
       <c r="AU42" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV42" s="19" t="s">
         <v>201</v>
@@ -10285,10 +10280,10 @@
         <v>212</v>
       </c>
       <c r="AX42" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>304</v>
       </c>
@@ -10362,7 +10357,7 @@
         <v>313</v>
       </c>
       <c r="Z43" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AA43" s="19">
         <v>3</v>
@@ -10389,7 +10384,7 @@
         <v>152</v>
       </c>
       <c r="AL43" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AM43" s="19" t="s">
         <v>235</v>
@@ -10413,7 +10408,7 @@
         <v>496</v>
       </c>
       <c r="AU43" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV43" s="19" t="s">
         <v>201</v>
@@ -10422,10 +10417,10 @@
         <v>209</v>
       </c>
       <c r="AX43" s="24" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>304</v>
       </c>
@@ -10499,7 +10494,7 @@
         <v>313</v>
       </c>
       <c r="Z44" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AA44" s="19">
         <v>3</v>
@@ -10526,7 +10521,7 @@
         <v>152</v>
       </c>
       <c r="AL44" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AM44" s="19" t="s">
         <v>235</v>
@@ -10547,7 +10542,7 @@
         <v>497</v>
       </c>
       <c r="AU44" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV44" s="19" t="s">
         <v>201</v>
@@ -10556,10 +10551,10 @@
         <v>209</v>
       </c>
       <c r="AX44" s="24" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="45" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>304</v>
       </c>
@@ -10633,7 +10628,7 @@
         <v>313</v>
       </c>
       <c r="Z45" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AA45" s="19">
         <v>3</v>
@@ -10660,7 +10655,7 @@
         <v>152</v>
       </c>
       <c r="AL45" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AM45" s="19" t="s">
         <v>235</v>
@@ -10681,7 +10676,7 @@
         <v>498</v>
       </c>
       <c r="AU45" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV45" s="19" t="s">
         <v>201</v>
@@ -10690,10 +10685,10 @@
         <v>209</v>
       </c>
       <c r="AX45" s="24" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>304</v>
       </c>
@@ -10767,7 +10762,7 @@
         <v>313</v>
       </c>
       <c r="Z46" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AA46" s="19">
         <v>3</v>
@@ -10816,7 +10811,7 @@
         <v>498</v>
       </c>
       <c r="AU46" s="20" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AV46" s="19" t="s">
         <v>204</v>
@@ -10825,10 +10820,10 @@
         <v>212</v>
       </c>
       <c r="AX46" s="24" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>304</v>
       </c>
@@ -10902,7 +10897,7 @@
         <v>313</v>
       </c>
       <c r="Z47" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA47" s="19">
         <v>3</v>
@@ -10953,7 +10948,7 @@
         <v>496</v>
       </c>
       <c r="AU47" s="20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AV47" s="19" t="s">
         <v>207</v>
@@ -10962,10 +10957,10 @@
         <v>209</v>
       </c>
       <c r="AX47" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>304</v>
       </c>
@@ -11039,7 +11034,7 @@
         <v>313</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA48" s="19">
         <v>3</v>
@@ -11087,7 +11082,7 @@
         <v>497</v>
       </c>
       <c r="AU48" s="20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AV48" s="19" t="s">
         <v>207</v>
@@ -11096,10 +11091,10 @@
         <v>209</v>
       </c>
       <c r="AX48" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>304</v>
       </c>
@@ -11173,7 +11168,7 @@
         <v>313</v>
       </c>
       <c r="Z49" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA49" s="19">
         <v>3</v>
@@ -11221,7 +11216,7 @@
         <v>498</v>
       </c>
       <c r="AU49" s="20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AV49" s="19" t="s">
         <v>207</v>
@@ -11230,10 +11225,10 @@
         <v>209</v>
       </c>
       <c r="AX49" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="50" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>304</v>
       </c>
@@ -11307,7 +11302,7 @@
         <v>313</v>
       </c>
       <c r="Z50" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA50" s="19">
         <v>3</v>
@@ -11355,7 +11350,7 @@
         <v>496</v>
       </c>
       <c r="AU50" s="20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AV50" s="19" t="s">
         <v>207</v>
@@ -11364,10 +11359,10 @@
         <v>209</v>
       </c>
       <c r="AX50" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>304</v>
       </c>
@@ -11441,7 +11436,7 @@
         <v>313</v>
       </c>
       <c r="Z51" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA51" s="19">
         <v>3</v>
@@ -11486,7 +11481,7 @@
         <v>497</v>
       </c>
       <c r="AU51" s="20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AV51" s="19" t="s">
         <v>207</v>
@@ -11495,10 +11490,10 @@
         <v>209</v>
       </c>
       <c r="AX51" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="52" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>304</v>
       </c>
@@ -11572,7 +11567,7 @@
         <v>313</v>
       </c>
       <c r="Z52" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA52" s="19">
         <v>3</v>
@@ -11617,7 +11612,7 @@
         <v>498</v>
       </c>
       <c r="AU52" s="20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AV52" s="19" t="s">
         <v>207</v>
@@ -11626,10 +11621,10 @@
         <v>209</v>
       </c>
       <c r="AX52" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="53" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>331</v>
       </c>
@@ -11730,10 +11725,10 @@
         <v>164</v>
       </c>
       <c r="AO53" s="14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP53" s="14" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ53" s="14" t="s">
         <v>166</v>
@@ -11748,7 +11743,7 @@
         <v>503</v>
       </c>
       <c r="AU53" s="14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV53" s="14" t="s">
         <v>201</v>
@@ -11757,10 +11752,10 @@
         <v>210</v>
       </c>
       <c r="AX53" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>331</v>
       </c>
@@ -11861,10 +11856,10 @@
         <v>164</v>
       </c>
       <c r="AO54" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP54" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ54" s="10" t="s">
         <v>166</v>
@@ -11879,7 +11874,7 @@
         <v>504</v>
       </c>
       <c r="AU54" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV54" s="10" t="s">
         <v>201</v>
@@ -11888,10 +11883,10 @@
         <v>210</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>331</v>
       </c>
@@ -11992,10 +11987,10 @@
         <v>164</v>
       </c>
       <c r="AO55" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ55" s="10" t="s">
         <v>166</v>
@@ -12010,7 +12005,7 @@
         <v>505</v>
       </c>
       <c r="AU55" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV55" s="10" t="s">
         <v>201</v>
@@ -12019,10 +12014,10 @@
         <v>210</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="56" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>331</v>
       </c>
@@ -12123,10 +12118,10 @@
         <v>164</v>
       </c>
       <c r="AO56" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP56" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ56" s="10" t="s">
         <v>166</v>
@@ -12141,7 +12136,7 @@
         <v>506</v>
       </c>
       <c r="AU56" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV56" s="10" t="s">
         <v>201</v>
@@ -12150,10 +12145,10 @@
         <v>210</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="57" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>331</v>
       </c>
@@ -12254,10 +12249,10 @@
         <v>164</v>
       </c>
       <c r="AO57" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP57" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ57" s="10" t="s">
         <v>166</v>
@@ -12272,7 +12267,7 @@
         <v>502</v>
       </c>
       <c r="AU57" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV57" s="10" t="s">
         <v>201</v>
@@ -12281,10 +12276,10 @@
         <v>210</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="58" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>331</v>
       </c>
@@ -12385,10 +12380,10 @@
         <v>164</v>
       </c>
       <c r="AO58" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ58" s="10" t="s">
         <v>166</v>
@@ -12403,7 +12398,7 @@
         <v>503</v>
       </c>
       <c r="AU58" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV58" s="10" t="s">
         <v>201</v>
@@ -12412,10 +12407,10 @@
         <v>210</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="59" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>331</v>
       </c>
@@ -12516,10 +12511,10 @@
         <v>164</v>
       </c>
       <c r="AO59" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP59" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ59" s="10" t="s">
         <v>166</v>
@@ -12534,7 +12529,7 @@
         <v>504</v>
       </c>
       <c r="AU59" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV59" s="10" t="s">
         <v>201</v>
@@ -12543,10 +12538,10 @@
         <v>210</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="60" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>331</v>
       </c>
@@ -12647,10 +12642,10 @@
         <v>164</v>
       </c>
       <c r="AO60" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP60" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ60" s="10" t="s">
         <v>166</v>
@@ -12665,7 +12660,7 @@
         <v>505</v>
       </c>
       <c r="AU60" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV60" s="10" t="s">
         <v>201</v>
@@ -12674,10 +12669,10 @@
         <v>210</v>
       </c>
       <c r="AX60" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="61" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>331</v>
       </c>
@@ -12778,10 +12773,10 @@
         <v>164</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP61" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ61" s="10" t="s">
         <v>166</v>
@@ -12796,7 +12791,7 @@
         <v>506</v>
       </c>
       <c r="AU61" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV61" s="10" t="s">
         <v>201</v>
@@ -12805,10 +12800,10 @@
         <v>210</v>
       </c>
       <c r="AX61" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="62" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>331</v>
       </c>
@@ -12909,10 +12904,10 @@
         <v>164</v>
       </c>
       <c r="AO62" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP62" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ62" s="10" t="s">
         <v>166</v>
@@ -12927,7 +12922,7 @@
         <v>502</v>
       </c>
       <c r="AU62" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV62" s="10" t="s">
         <v>201</v>
@@ -12936,10 +12931,10 @@
         <v>210</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="63" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>331</v>
       </c>
@@ -13043,10 +13038,10 @@
         <v>164</v>
       </c>
       <c r="AO63" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP63" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ63" s="10" t="s">
         <v>166</v>
@@ -13061,7 +13056,7 @@
         <v>503</v>
       </c>
       <c r="AU63" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV63" s="10" t="s">
         <v>201</v>
@@ -13070,10 +13065,10 @@
         <v>210</v>
       </c>
       <c r="AX63" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="64" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>331</v>
       </c>
@@ -13177,10 +13172,10 @@
         <v>164</v>
       </c>
       <c r="AO64" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP64" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ64" s="10" t="s">
         <v>166</v>
@@ -13195,7 +13190,7 @@
         <v>504</v>
       </c>
       <c r="AU64" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV64" s="10" t="s">
         <v>201</v>
@@ -13204,10 +13199,10 @@
         <v>210</v>
       </c>
       <c r="AX64" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="65" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>331</v>
       </c>
@@ -13311,10 +13306,10 @@
         <v>164</v>
       </c>
       <c r="AO65" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ65" s="10" t="s">
         <v>166</v>
@@ -13329,7 +13324,7 @@
         <v>505</v>
       </c>
       <c r="AU65" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV65" s="10" t="s">
         <v>201</v>
@@ -13338,10 +13333,10 @@
         <v>210</v>
       </c>
       <c r="AX65" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>331</v>
       </c>
@@ -13445,10 +13440,10 @@
         <v>164</v>
       </c>
       <c r="AO66" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP66" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ66" s="10" t="s">
         <v>166</v>
@@ -13463,7 +13458,7 @@
         <v>506</v>
       </c>
       <c r="AU66" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV66" s="10" t="s">
         <v>201</v>
@@ -13472,10 +13467,10 @@
         <v>210</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="67" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>331</v>
       </c>
@@ -13579,10 +13574,10 @@
         <v>164</v>
       </c>
       <c r="AO67" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AP67" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AQ67" s="10" t="s">
         <v>166</v>
@@ -13597,7 +13592,7 @@
         <v>502</v>
       </c>
       <c r="AU67" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AV67" s="10" t="s">
         <v>201</v>
@@ -13606,10 +13601,10 @@
         <v>210</v>
       </c>
       <c r="AX67" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="68" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>387</v>
       </c>
@@ -13680,7 +13675,7 @@
         <v>69</v>
       </c>
       <c r="Z68" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AA68" s="14">
         <v>2</v>
@@ -13722,7 +13717,7 @@
         <v>510</v>
       </c>
       <c r="AU68" s="14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AV68" s="14" t="s">
         <v>201</v>
@@ -13731,10 +13726,10 @@
         <v>209</v>
       </c>
       <c r="AX68" s="15" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>387</v>
       </c>
@@ -13805,7 +13800,7 @@
         <v>69</v>
       </c>
       <c r="Z69" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AA69" s="10">
         <v>2</v>
@@ -13847,7 +13842,7 @@
         <v>510</v>
       </c>
       <c r="AU69" s="14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AV69" s="10" t="s">
         <v>201</v>
@@ -13856,10 +13851,10 @@
         <v>209</v>
       </c>
       <c r="AX69" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="70" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>244</v>
       </c>
@@ -13930,7 +13925,7 @@
         <v>217</v>
       </c>
       <c r="Z70" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AA70" s="14">
         <v>3</v>
@@ -13954,7 +13949,7 @@
         <v>152</v>
       </c>
       <c r="AL70" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AM70" s="14" t="s">
         <v>235</v>
@@ -13963,7 +13958,7 @@
         <v>533</v>
       </c>
       <c r="AP70" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AQ70" s="14" t="s">
         <v>166</v>
@@ -13972,7 +13967,7 @@
         <v>241</v>
       </c>
       <c r="AT70" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU70" s="14" t="s">
         <v>458</v>
@@ -13984,10 +13979,10 @@
         <v>210</v>
       </c>
       <c r="AX70" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="71" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>244</v>
       </c>
@@ -14058,7 +14053,7 @@
         <v>217</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AA71" s="10">
         <v>3</v>
@@ -14079,7 +14074,7 @@
         <v>120</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM71" s="10" t="s">
         <v>235</v>
@@ -14088,7 +14083,7 @@
         <v>533</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AQ71" s="10" t="s">
         <v>166</v>
@@ -14097,7 +14092,7 @@
         <v>241</v>
       </c>
       <c r="AT71" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU71" s="10" t="s">
         <v>458</v>
@@ -14109,10 +14104,10 @@
         <v>210</v>
       </c>
       <c r="AX71" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>244</v>
       </c>
@@ -14183,7 +14178,7 @@
         <v>217</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AA72" s="10">
         <v>3</v>
@@ -14213,7 +14208,7 @@
         <v>152</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AM72" s="10" t="s">
         <v>235</v>
@@ -14222,7 +14217,7 @@
         <v>533</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AQ72" s="10" t="s">
         <v>166</v>
@@ -14231,7 +14226,7 @@
         <v>241</v>
       </c>
       <c r="AT72" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU72" s="10" t="s">
         <v>458</v>
@@ -14243,10 +14238,10 @@
         <v>210</v>
       </c>
       <c r="AX72" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="73" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>244</v>
       </c>
@@ -14317,7 +14312,7 @@
         <v>217</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AA73" s="10">
         <v>3</v>
@@ -14347,7 +14342,7 @@
         <v>152</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AM73" s="10" t="s">
         <v>235</v>
@@ -14356,7 +14351,7 @@
         <v>533</v>
       </c>
       <c r="AP73" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AQ73" s="10" t="s">
         <v>166</v>
@@ -14365,7 +14360,7 @@
         <v>241</v>
       </c>
       <c r="AT73" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU73" s="10" t="s">
         <v>458</v>
@@ -14377,10 +14372,10 @@
         <v>210</v>
       </c>
       <c r="AX73" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="74" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>244</v>
       </c>
@@ -14451,7 +14446,7 @@
         <v>217</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AA74" s="10">
         <v>3</v>
@@ -14481,7 +14476,7 @@
         <v>152</v>
       </c>
       <c r="AL74" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AM74" s="10" t="s">
         <v>235</v>
@@ -14490,7 +14485,7 @@
         <v>533</v>
       </c>
       <c r="AP74" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AQ74" s="10" t="s">
         <v>166</v>
@@ -14499,7 +14494,7 @@
         <v>241</v>
       </c>
       <c r="AT74" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU74" s="10" t="s">
         <v>458</v>
@@ -14511,10 +14506,10 @@
         <v>210</v>
       </c>
       <c r="AX74" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="75" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>403</v>
       </c>
@@ -14615,7 +14610,7 @@
         <v>164</v>
       </c>
       <c r="AO75" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ75" s="14" t="s">
         <v>166</v>
@@ -14642,7 +14637,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="76" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>403</v>
       </c>
@@ -14746,7 +14741,7 @@
         <v>162</v>
       </c>
       <c r="AO76" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ76" s="10" t="s">
         <v>166</v>
@@ -14773,7 +14768,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>403</v>
       </c>
@@ -14877,7 +14872,7 @@
         <v>162</v>
       </c>
       <c r="AO77" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ77" s="10" t="s">
         <v>166</v>
@@ -14904,7 +14899,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>403</v>
       </c>
@@ -15005,7 +15000,7 @@
         <v>164</v>
       </c>
       <c r="AO78" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ78" s="10" t="s">
         <v>166</v>
@@ -15029,7 +15024,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="79" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>403</v>
       </c>
@@ -15133,7 +15128,7 @@
         <v>162</v>
       </c>
       <c r="AO79" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ79" s="10" t="s">
         <v>166</v>
@@ -15157,7 +15152,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="80" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>403</v>
       </c>
@@ -15261,7 +15256,7 @@
         <v>162</v>
       </c>
       <c r="AO80" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ80" s="10" t="s">
         <v>166</v>
@@ -15285,7 +15280,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="81" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>403</v>
       </c>
@@ -15386,7 +15381,7 @@
         <v>164</v>
       </c>
       <c r="AO81" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ81" s="10" t="s">
         <v>166</v>
@@ -15410,7 +15405,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="82" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>403</v>
       </c>
@@ -15514,7 +15509,7 @@
         <v>162</v>
       </c>
       <c r="AO82" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ82" s="10" t="s">
         <v>166</v>
@@ -15538,7 +15533,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="83" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>403</v>
       </c>
@@ -15642,7 +15637,7 @@
         <v>162</v>
       </c>
       <c r="AO83" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ83" s="10" t="s">
         <v>166</v>
@@ -15666,7 +15661,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="84" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>403</v>
       </c>
@@ -15767,7 +15762,7 @@
         <v>164</v>
       </c>
       <c r="AO84" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ84" s="10" t="s">
         <v>166</v>
@@ -15791,10 +15786,10 @@
         <v>211</v>
       </c>
       <c r="AX84" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="85" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>403</v>
       </c>
@@ -15898,7 +15893,7 @@
         <v>162</v>
       </c>
       <c r="AO85" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ85" s="10" t="s">
         <v>166</v>
@@ -15922,10 +15917,10 @@
         <v>211</v>
       </c>
       <c r="AX85" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="86" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>403</v>
       </c>
@@ -16029,7 +16024,7 @@
         <v>162</v>
       </c>
       <c r="AO86" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ86" s="10" t="s">
         <v>166</v>
@@ -16053,10 +16048,10 @@
         <v>211</v>
       </c>
       <c r="AX86" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="87" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>403</v>
       </c>
@@ -16157,7 +16152,7 @@
         <v>164</v>
       </c>
       <c r="AO87" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ87" s="10" t="s">
         <v>166</v>
@@ -16178,10 +16173,10 @@
         <v>211</v>
       </c>
       <c r="AX87" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="88" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>403</v>
       </c>
@@ -16285,7 +16280,7 @@
         <v>162</v>
       </c>
       <c r="AO88" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ88" s="10" t="s">
         <v>166</v>
@@ -16306,10 +16301,10 @@
         <v>211</v>
       </c>
       <c r="AX88" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="89" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>403</v>
       </c>
@@ -16413,7 +16408,7 @@
         <v>162</v>
       </c>
       <c r="AO89" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ89" s="10" t="s">
         <v>166</v>
@@ -16434,10 +16429,10 @@
         <v>211</v>
       </c>
       <c r="AX89" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="90" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>403</v>
       </c>
@@ -16538,7 +16533,7 @@
         <v>164</v>
       </c>
       <c r="AO90" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ90" s="10" t="s">
         <v>166</v>
@@ -16559,10 +16554,10 @@
         <v>211</v>
       </c>
       <c r="AX90" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="91" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>403</v>
       </c>
@@ -16666,7 +16661,7 @@
         <v>162</v>
       </c>
       <c r="AO91" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ91" s="10" t="s">
         <v>166</v>
@@ -16687,10 +16682,10 @@
         <v>211</v>
       </c>
       <c r="AX91" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="92" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>403</v>
       </c>
@@ -16794,7 +16789,7 @@
         <v>162</v>
       </c>
       <c r="AO92" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ92" s="10" t="s">
         <v>166</v>
@@ -16815,10 +16810,10 @@
         <v>211</v>
       </c>
       <c r="AX92" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="93" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>403</v>
       </c>
@@ -16919,7 +16914,7 @@
         <v>162</v>
       </c>
       <c r="AO93" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ93" s="10" t="s">
         <v>166</v>
@@ -16946,7 +16941,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="94" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>403</v>
       </c>
@@ -17050,7 +17045,7 @@
         <v>162</v>
       </c>
       <c r="AO94" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ94" s="10" t="s">
         <v>166</v>
@@ -17077,7 +17072,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="95" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>403</v>
       </c>
@@ -17181,7 +17176,7 @@
         <v>162</v>
       </c>
       <c r="AO95" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ95" s="10" t="s">
         <v>166</v>
@@ -17208,7 +17203,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="96" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>403</v>
       </c>
@@ -17309,7 +17304,7 @@
         <v>162</v>
       </c>
       <c r="AO96" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ96" s="10" t="s">
         <v>166</v>
@@ -17333,7 +17328,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="97" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>403</v>
       </c>
@@ -17437,7 +17432,7 @@
         <v>162</v>
       </c>
       <c r="AO97" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ97" s="10" t="s">
         <v>166</v>
@@ -17461,7 +17456,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="98" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>403</v>
       </c>
@@ -17565,7 +17560,7 @@
         <v>162</v>
       </c>
       <c r="AO98" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ98" s="10" t="s">
         <v>166</v>
@@ -17589,7 +17584,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="99" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>403</v>
       </c>
@@ -17690,7 +17685,7 @@
         <v>162</v>
       </c>
       <c r="AO99" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ99" s="10" t="s">
         <v>166</v>
@@ -17717,7 +17712,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="100" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>403</v>
       </c>
@@ -17821,7 +17816,7 @@
         <v>162</v>
       </c>
       <c r="AO100" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ100" s="10" t="s">
         <v>166</v>
@@ -17848,7 +17843,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="101" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>403</v>
       </c>
@@ -17952,7 +17947,7 @@
         <v>162</v>
       </c>
       <c r="AO101" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ101" s="10" t="s">
         <v>166</v>
@@ -17979,7 +17974,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="102" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>403</v>
       </c>
@@ -18080,7 +18075,7 @@
         <v>162</v>
       </c>
       <c r="AO102" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ102" s="10" t="s">
         <v>166</v>
@@ -18101,10 +18096,10 @@
         <v>211</v>
       </c>
       <c r="AX102" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>403</v>
       </c>
@@ -18208,7 +18203,7 @@
         <v>162</v>
       </c>
       <c r="AO103" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ103" s="10" t="s">
         <v>166</v>
@@ -18229,10 +18224,10 @@
         <v>211</v>
       </c>
       <c r="AX103" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="104" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>403</v>
       </c>
@@ -18336,7 +18331,7 @@
         <v>162</v>
       </c>
       <c r="AO104" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ104" s="10" t="s">
         <v>166</v>
@@ -18357,10 +18352,10 @@
         <v>211</v>
       </c>
       <c r="AX104" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="105" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>403</v>
       </c>
@@ -18461,7 +18456,7 @@
         <v>162</v>
       </c>
       <c r="AO105" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ105" s="10" t="s">
         <v>166</v>
@@ -18485,10 +18480,10 @@
         <v>211</v>
       </c>
       <c r="AX105" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="106" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>403</v>
       </c>
@@ -18592,7 +18587,7 @@
         <v>162</v>
       </c>
       <c r="AO106" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ106" s="10" t="s">
         <v>166</v>
@@ -18616,10 +18611,10 @@
         <v>211</v>
       </c>
       <c r="AX106" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>403</v>
       </c>
@@ -18723,7 +18718,7 @@
         <v>162</v>
       </c>
       <c r="AO107" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ107" s="10" t="s">
         <v>166</v>
@@ -18747,10 +18742,10 @@
         <v>211</v>
       </c>
       <c r="AX107" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="108" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>403</v>
       </c>
@@ -18851,7 +18846,7 @@
         <v>162</v>
       </c>
       <c r="AO108" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ108" s="10" t="s">
         <v>166</v>
@@ -18872,10 +18867,10 @@
         <v>211</v>
       </c>
       <c r="AX108" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="109" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>403</v>
       </c>
@@ -18979,7 +18974,7 @@
         <v>162</v>
       </c>
       <c r="AO109" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ109" s="10" t="s">
         <v>166</v>
@@ -19000,10 +18995,10 @@
         <v>211</v>
       </c>
       <c r="AX109" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="110" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>403</v>
       </c>
@@ -19107,7 +19102,7 @@
         <v>162</v>
       </c>
       <c r="AO110" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ110" s="10" t="s">
         <v>166</v>
@@ -19128,10 +19123,10 @@
         <v>211</v>
       </c>
       <c r="AX110" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="111" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>258</v>
       </c>
@@ -19235,7 +19230,7 @@
         <v>162</v>
       </c>
       <c r="AO111" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ111" s="14" t="s">
         <v>167</v>
@@ -19250,7 +19245,7 @@
         <v>480</v>
       </c>
       <c r="AU111" s="14" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV111" s="14" t="s">
         <v>206</v>
@@ -19262,7 +19257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="112" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>258</v>
       </c>
@@ -19366,7 +19361,7 @@
         <v>162</v>
       </c>
       <c r="AO112" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ112" s="10" t="s">
         <v>167</v>
@@ -19381,7 +19376,7 @@
         <v>480</v>
       </c>
       <c r="AU112" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV112" s="10" t="s">
         <v>206</v>
@@ -19393,7 +19388,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="113" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>258</v>
       </c>
@@ -19500,7 +19495,7 @@
         <v>162</v>
       </c>
       <c r="AO113" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ113" s="10" t="s">
         <v>167</v>
@@ -19515,7 +19510,7 @@
         <v>480</v>
       </c>
       <c r="AU113" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV113" s="10" t="s">
         <v>206</v>
@@ -19527,7 +19522,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="114" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>258</v>
       </c>
@@ -19634,7 +19629,7 @@
         <v>162</v>
       </c>
       <c r="AO114" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ114" s="10" t="s">
         <v>167</v>
@@ -19649,7 +19644,7 @@
         <v>480</v>
       </c>
       <c r="AU114" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV114" s="10" t="s">
         <v>206</v>
@@ -19661,7 +19656,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>258</v>
       </c>
@@ -19762,7 +19757,7 @@
         <v>162</v>
       </c>
       <c r="AO115" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ115" s="10" t="s">
         <v>167</v>
@@ -19777,7 +19772,7 @@
         <v>480</v>
       </c>
       <c r="AU115" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV115" s="10" t="s">
         <v>206</v>
@@ -19789,7 +19784,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="116" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>258</v>
       </c>
@@ -19890,7 +19885,7 @@
         <v>162</v>
       </c>
       <c r="AO116" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ116" s="10" t="s">
         <v>167</v>
@@ -19905,7 +19900,7 @@
         <v>480</v>
       </c>
       <c r="AU116" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV116" s="10" t="s">
         <v>206</v>
@@ -19917,7 +19912,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="117" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>258</v>
       </c>
@@ -20021,7 +20016,7 @@
         <v>162</v>
       </c>
       <c r="AO117" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ117" s="10" t="s">
         <v>167</v>
@@ -20036,7 +20031,7 @@
         <v>480</v>
       </c>
       <c r="AU117" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV117" s="10" t="s">
         <v>206</v>
@@ -20048,7 +20043,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="118" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>258</v>
       </c>
@@ -20152,7 +20147,7 @@
         <v>162</v>
       </c>
       <c r="AO118" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ118" s="10" t="s">
         <v>167</v>
@@ -20167,7 +20162,7 @@
         <v>480</v>
       </c>
       <c r="AU118" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV118" s="10" t="s">
         <v>206</v>
@@ -20179,7 +20174,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>393</v>
       </c>
@@ -20250,7 +20245,7 @@
         <v>71</v>
       </c>
       <c r="Z119" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA119" s="14">
         <v>3</v>
@@ -20277,10 +20272,10 @@
         <v>161</v>
       </c>
       <c r="AO119" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AP119" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AQ119" s="14" t="s">
         <v>166</v>
@@ -20301,10 +20296,10 @@
         <v>209</v>
       </c>
       <c r="AX119" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="120" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>393</v>
       </c>
@@ -20402,10 +20397,10 @@
         <v>161</v>
       </c>
       <c r="AO120" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AP120" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AQ120" s="10" t="s">
         <v>166</v>
@@ -20426,10 +20421,10 @@
         <v>209</v>
       </c>
       <c r="AX120" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="121" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>393</v>
       </c>
@@ -20527,10 +20522,10 @@
         <v>161</v>
       </c>
       <c r="AO121" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AP121" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AQ121" s="10" t="s">
         <v>166</v>
@@ -20551,10 +20546,10 @@
         <v>209</v>
       </c>
       <c r="AX121" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="122" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>393</v>
       </c>
@@ -20652,10 +20647,10 @@
         <v>161</v>
       </c>
       <c r="AO122" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AP122" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AQ122" s="10" t="s">
         <v>166</v>
@@ -20676,10 +20671,10 @@
         <v>209</v>
       </c>
       <c r="AX122" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="123" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>427</v>
       </c>
@@ -20750,10 +20745,10 @@
         <v>115</v>
       </c>
       <c r="Y123" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z123" s="14" t="s">
         <v>568</v>
-      </c>
-      <c r="Z123" s="14" t="s">
-        <v>569</v>
       </c>
       <c r="AA123" s="14">
         <v>3</v>
@@ -20813,7 +20808,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="124" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>427</v>
       </c>
@@ -20884,10 +20879,10 @@
         <v>115</v>
       </c>
       <c r="Y124" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z124" s="10" t="s">
         <v>568</v>
-      </c>
-      <c r="Z124" s="10" t="s">
-        <v>569</v>
       </c>
       <c r="AA124" s="10">
         <v>3</v>
@@ -20941,7 +20936,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="125" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>410</v>
       </c>
@@ -21015,7 +21010,7 @@
         <v>313</v>
       </c>
       <c r="Z125" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA125" s="14">
         <v>3</v>
@@ -21027,7 +21022,7 @@
         <v>3</v>
       </c>
       <c r="AE125" s="14" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AF125" s="14" t="s">
         <v>445</v>
@@ -21039,7 +21034,7 @@
         <v>118</v>
       </c>
       <c r="AL125" s="14" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AM125" s="14" t="s">
         <v>234</v>
@@ -21048,7 +21043,7 @@
         <v>164</v>
       </c>
       <c r="AO125" s="14" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AQ125" s="14" t="s">
         <v>166</v>
@@ -21060,7 +21055,7 @@
         <v>177</v>
       </c>
       <c r="AU125" s="14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV125" s="14" t="s">
         <v>201</v>
@@ -21069,10 +21064,10 @@
         <v>212</v>
       </c>
       <c r="AX125" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="126" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>410</v>
       </c>
@@ -21146,7 +21141,7 @@
         <v>313</v>
       </c>
       <c r="Z126" s="19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA126" s="19">
         <v>3</v>
@@ -21158,7 +21153,7 @@
         <v>3</v>
       </c>
       <c r="AE126" s="19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AF126" s="19" t="s">
         <v>445</v>
@@ -21179,10 +21174,10 @@
         <v>235</v>
       </c>
       <c r="AO126" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AP126" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AQ126" s="19" t="s">
         <v>166</v>
@@ -21194,7 +21189,7 @@
         <v>177</v>
       </c>
       <c r="AU126" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV126" s="19" t="s">
         <v>201</v>
@@ -21203,10 +21198,10 @@
         <v>210</v>
       </c>
       <c r="AX126" s="19" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
-    <row r="127" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>410</v>
       </c>
@@ -21280,7 +21275,7 @@
         <v>313</v>
       </c>
       <c r="Z127" s="19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA127" s="19">
         <v>3</v>
@@ -21292,7 +21287,7 @@
         <v>3</v>
       </c>
       <c r="AE127" s="19" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AF127" s="19" t="s">
         <v>445</v>
@@ -21304,7 +21299,7 @@
         <v>118</v>
       </c>
       <c r="AL127" s="19" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AM127" s="19" t="s">
         <v>234</v>
@@ -21313,7 +21308,7 @@
         <v>164</v>
       </c>
       <c r="AO127" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AQ127" s="19" t="s">
         <v>166</v>
@@ -21325,7 +21320,7 @@
         <v>190</v>
       </c>
       <c r="AU127" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV127" s="19" t="s">
         <v>201</v>
@@ -21334,10 +21329,10 @@
         <v>212</v>
       </c>
       <c r="AX127" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="128" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>410</v>
       </c>
@@ -21411,7 +21406,7 @@
         <v>313</v>
       </c>
       <c r="Z128" s="19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA128" s="19">
         <v>3</v>
@@ -21423,7 +21418,7 @@
         <v>3</v>
       </c>
       <c r="AE128" s="19" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AF128" s="19" t="s">
         <v>445</v>
@@ -21441,7 +21436,7 @@
         <v>157</v>
       </c>
       <c r="AL128" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AM128" s="19" t="s">
         <v>234</v>
@@ -21450,7 +21445,7 @@
         <v>164</v>
       </c>
       <c r="AO128" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AQ128" s="19" t="s">
         <v>166</v>
@@ -21462,7 +21457,7 @@
         <v>190</v>
       </c>
       <c r="AU128" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV128" s="19" t="s">
         <v>201</v>
@@ -21471,10 +21466,10 @@
         <v>210</v>
       </c>
       <c r="AX128" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="129" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
         <v>410</v>
       </c>
@@ -21548,7 +21543,7 @@
         <v>313</v>
       </c>
       <c r="Z129" s="19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA129" s="19">
         <v>3</v>
@@ -21560,7 +21555,7 @@
         <v>3</v>
       </c>
       <c r="AE129" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AF129" s="19" t="s">
         <v>445</v>
@@ -21572,7 +21567,7 @@
         <v>118</v>
       </c>
       <c r="AL129" s="19" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AM129" s="19" t="s">
         <v>234</v>
@@ -21581,7 +21576,7 @@
         <v>164</v>
       </c>
       <c r="AO129" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AQ129" s="19" t="s">
         <v>166</v>
@@ -21593,10 +21588,10 @@
         <v>178</v>
       </c>
       <c r="AT129" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AU129" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV129" s="19" t="s">
         <v>201</v>
@@ -21605,10 +21600,10 @@
         <v>212</v>
       </c>
       <c r="AX129" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="130" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>410</v>
       </c>
@@ -21682,7 +21677,7 @@
         <v>313</v>
       </c>
       <c r="Z130" s="19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA130" s="19">
         <v>3</v>
@@ -21694,7 +21689,7 @@
         <v>3</v>
       </c>
       <c r="AE130" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AF130" s="19" t="s">
         <v>445</v>
@@ -21715,10 +21710,10 @@
         <v>235</v>
       </c>
       <c r="AO130" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AP130" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AQ130" s="19" t="s">
         <v>166</v>
@@ -21730,7 +21725,7 @@
         <v>178</v>
       </c>
       <c r="AU130" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV130" s="19" t="s">
         <v>201</v>
@@ -21739,10 +21734,10 @@
         <v>210</v>
       </c>
       <c r="AX130" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="131" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>410</v>
       </c>
@@ -21816,7 +21811,7 @@
         <v>313</v>
       </c>
       <c r="Z131" s="19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA131" s="19">
         <v>3</v>
@@ -21828,7 +21823,7 @@
         <v>3</v>
       </c>
       <c r="AE131" s="19" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AF131" s="19" t="s">
         <v>445</v>
@@ -21840,7 +21835,7 @@
         <v>118</v>
       </c>
       <c r="AL131" s="19" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AM131" s="19" t="s">
         <v>234</v>
@@ -21849,16 +21844,16 @@
         <v>164</v>
       </c>
       <c r="AO131" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AQ131" s="19" t="s">
         <v>166</v>
       </c>
       <c r="AT131" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AU131" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV131" s="19" t="s">
         <v>201</v>
@@ -21867,10 +21862,10 @@
         <v>212</v>
       </c>
       <c r="AX131" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="132" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>410</v>
       </c>
@@ -21944,7 +21939,7 @@
         <v>313</v>
       </c>
       <c r="Z132" s="19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA132" s="19">
         <v>3</v>
@@ -21956,7 +21951,7 @@
         <v>3</v>
       </c>
       <c r="AE132" s="19" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AF132" s="19" t="s">
         <v>445</v>
@@ -21974,7 +21969,7 @@
         <v>157</v>
       </c>
       <c r="AL132" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AM132" s="19" t="s">
         <v>234</v>
@@ -21983,7 +21978,7 @@
         <v>164</v>
       </c>
       <c r="AO132" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AQ132" s="19" t="s">
         <v>166</v>
@@ -21992,10 +21987,10 @@
         <v>115</v>
       </c>
       <c r="AT132" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AU132" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV132" s="19" t="s">
         <v>201</v>
@@ -22004,10 +21999,10 @@
         <v>210</v>
       </c>
       <c r="AX132" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="133" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>410</v>
       </c>
@@ -22081,7 +22076,7 @@
         <v>313</v>
       </c>
       <c r="Z133" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA133" s="21">
         <v>3</v>
@@ -22093,7 +22088,7 @@
         <v>3</v>
       </c>
       <c r="AE133" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AF133" s="21" t="s">
         <v>445</v>
@@ -22114,19 +22109,19 @@
         <v>235</v>
       </c>
       <c r="AO133" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AP133" s="21" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AQ133" s="21" t="s">
         <v>166</v>
       </c>
       <c r="AT133" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AU133" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV133" s="21" t="s">
         <v>201</v>
@@ -22135,10 +22130,10 @@
         <v>210</v>
       </c>
       <c r="AX133" s="21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="134" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>371</v>
       </c>
@@ -22242,7 +22237,7 @@
         <v>161</v>
       </c>
       <c r="AO134" s="16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AP134" s="14" t="s">
         <v>523</v>
@@ -22255,7 +22250,7 @@
       </c>
       <c r="AT134" s="16"/>
       <c r="AU134" s="16" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AV134" s="16" t="s">
         <v>214</v>
@@ -22264,10 +22259,10 @@
         <v>211</v>
       </c>
       <c r="AX134" s="16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="135" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
         <v>371</v>
       </c>
@@ -22371,7 +22366,7 @@
         <v>161</v>
       </c>
       <c r="AO135" s="27" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AP135" s="21" t="s">
         <v>523</v>
@@ -22384,7 +22379,7 @@
       </c>
       <c r="AT135" s="27"/>
       <c r="AU135" s="27" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AV135" s="27" t="s">
         <v>214</v>
@@ -22393,10 +22388,10 @@
         <v>211</v>
       </c>
       <c r="AX135" s="27" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="136" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>339</v>
       </c>
@@ -22467,7 +22462,7 @@
         <v>218</v>
       </c>
       <c r="Z136" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AB136" s="14">
         <v>3</v>
@@ -22509,10 +22504,10 @@
         <v>170</v>
       </c>
       <c r="AT136" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU136" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AV136" s="14" t="s">
         <v>201</v>
@@ -22521,10 +22516,10 @@
         <v>210</v>
       </c>
       <c r="AX136" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="137" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>339</v>
       </c>
@@ -22595,7 +22590,7 @@
         <v>218</v>
       </c>
       <c r="Z137" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AB137" s="19">
         <v>3</v>
@@ -22619,7 +22614,7 @@
         <v>147</v>
       </c>
       <c r="AL137" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AM137" s="19" t="s">
         <v>234</v>
@@ -22637,10 +22632,10 @@
         <v>170</v>
       </c>
       <c r="AT137" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU137" s="19" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AV137" s="19" t="s">
         <v>201</v>
@@ -22649,10 +22644,10 @@
         <v>210</v>
       </c>
       <c r="AX137" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
         <v>339</v>
       </c>
@@ -22723,7 +22718,7 @@
         <v>218</v>
       </c>
       <c r="Z138" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AB138" s="21">
         <v>3</v>
@@ -22747,7 +22742,7 @@
         <v>146</v>
       </c>
       <c r="AL138" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AM138" s="21" t="s">
         <v>234</v>
@@ -22765,10 +22760,10 @@
         <v>170</v>
       </c>
       <c r="AT138" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU138" s="21" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AV138" s="21" t="s">
         <v>201</v>
@@ -22777,138 +22772,144 @@
         <v>210</v>
       </c>
       <c r="AX138" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="139" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="19" t="s">
+    <row r="139" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E139" s="10">
         <v>2010</v>
       </c>
-      <c r="F139" s="19" t="s">
+      <c r="F139" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="G139" s="19" t="s">
+      <c r="G139" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="H139" s="19" t="s">
+      <c r="H139" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="I139" s="19" t="s">
+      <c r="I139" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="J139" s="19" t="s">
+      <c r="J139" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="K139" s="19" t="s">
+      <c r="K139" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="L139" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="M139" s="19" t="s">
+      <c r="L139" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="M139" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="N139" s="19" t="s">
+      <c r="N139" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="O139" s="19" t="s">
+      <c r="O139" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="P139" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q139" s="19" t="s">
+      <c r="P139" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q139" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S139" s="19" t="s">
+      <c r="S139" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T139" s="19" t="s">
+      <c r="T139" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U139" s="19" t="s">
+      <c r="U139" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V139" s="19" t="s">
+      <c r="V139" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W139" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="X139" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z139" s="19" t="s">
+      <c r="W139" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X139" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z139" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA139" s="10">
+        <v>3</v>
+      </c>
+      <c r="AB139" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC139" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF139" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG139" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH139" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI139" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL139" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="AM139" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN139" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO139" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="AP139" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="AA139" s="19">
-        <v>3</v>
-      </c>
-      <c r="AB139" s="19">
-        <v>3</v>
-      </c>
-      <c r="AC139" s="19">
-        <v>3</v>
-      </c>
-      <c r="AF139" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG139" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH139" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI139" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL139" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="AM139" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN139" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO139" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="AP139" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="AQ139" s="19" t="s">
-        <v>225</v>
+      <c r="AQ139" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR139" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS139" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="AT139" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="AU139" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="AV139" s="19" t="s">
+      <c r="AU139" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AV139" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AW139" s="19" t="s">
+      <c r="AW139" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AX139" s="19" t="s">
-        <v>571</v>
+      <c r="AX139" s="13" t="s">
+        <v>651</v>
       </c>
     </row>
-    <row r="140" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>434</v>
       </c>
@@ -22973,13 +22974,13 @@
         <v>36</v>
       </c>
       <c r="W140" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X140" s="10" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="Z140" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA140" s="10">
         <v>3</v>
@@ -22994,7 +22995,7 @@
         <v>443</v>
       </c>
       <c r="AG140" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH140" s="10" t="s">
         <v>120</v>
@@ -23009,19 +23010,25 @@
         <v>162</v>
       </c>
       <c r="AO140" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AP140" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ140" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT140" s="19" t="s">
-        <v>579</v>
+        <v>166</v>
+      </c>
+      <c r="AR140" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS140" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT140" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="AU140" s="10" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="AV140" s="10" t="s">
         <v>201</v>
@@ -23029,183 +23036,190 @@
       <c r="AW140" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AX140" s="10" t="s">
-        <v>571</v>
+      <c r="AX140" s="13" t="s">
+        <v>651</v>
       </c>
     </row>
-    <row r="141" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
+    <row r="141" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="21">
         <v>2010</v>
       </c>
-      <c r="F141" s="10" t="s">
+      <c r="F141" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G141" s="10" t="s">
+      <c r="G141" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="H141" s="10" t="s">
+      <c r="H141" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="I141" s="10" t="s">
+      <c r="I141" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="J141" s="10" t="s">
+      <c r="J141" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="K141" s="10" t="s">
+      <c r="K141" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="L141" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="M141" s="10" t="s">
+      <c r="L141" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="M141" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="N141" s="10" t="s">
+      <c r="N141" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="O141" s="10" t="s">
+      <c r="O141" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="P141" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q141" s="10" t="s">
+      <c r="P141" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q141" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="S141" s="10" t="s">
+      <c r="R141" s="19"/>
+      <c r="S141" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="T141" s="10" t="s">
+      <c r="T141" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="U141" s="10" t="s">
+      <c r="U141" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="V141" s="10" t="s">
+      <c r="V141" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W141" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X141" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z141" s="10" t="s">
+      <c r="W141" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="X141" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z141" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA141" s="21">
+        <v>3</v>
+      </c>
+      <c r="AB141" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC141" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF141" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG141" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH141" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI141" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ141" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK141" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL141" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="AM141" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN141" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO141" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="AP141" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="AA141" s="10">
-        <v>3</v>
-      </c>
-      <c r="AB141" s="10">
-        <v>3</v>
-      </c>
-      <c r="AC141" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF141" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG141" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH141" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI141" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ141" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK141" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL141" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="AM141" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN141" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO141" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="AP141" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="AQ141" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT141" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="AU141" s="10" t="s">
+      <c r="AQ141" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR141" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS141" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT141" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="AV141" s="10" t="s">
+      <c r="AU141" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="AV141" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="AW141" s="10" t="s">
+      <c r="AW141" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="AX141" s="10" t="s">
-        <v>571</v>
+      <c r="AX141" s="13" t="s">
+        <v>651</v>
       </c>
     </row>
-    <row r="142" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>434</v>
+        <v>323</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>435</v>
+        <v>324</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>436</v>
+        <v>325</v>
       </c>
       <c r="E142" s="10">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>437</v>
+        <v>326</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>438</v>
+        <v>327</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="K142" s="10" t="s">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="L142" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M142" s="10" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="N142" s="10" t="s">
         <v>255</v>
@@ -23214,31 +23228,35 @@
         <v>256</v>
       </c>
       <c r="P142" s="10" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q142" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="R142" s="14"/>
       <c r="S142" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T142" s="10" t="s">
         <v>46</v>
       </c>
       <c r="U142" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V142" s="10" t="s">
         <v>36</v>
       </c>
       <c r="W142" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X142" s="10" t="s">
-        <v>69</v>
+        <v>115</v>
+      </c>
+      <c r="Y142" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="Z142" s="10" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="AA142" s="10">
         <v>3</v>
@@ -23250,96 +23268,84 @@
         <v>3</v>
       </c>
       <c r="AF142" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG142" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AH142" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AI142" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL142" s="10" t="s">
-        <v>453</v>
+        <v>132</v>
+      </c>
+      <c r="AL142" s="14" t="s">
+        <v>643</v>
       </c>
       <c r="AM142" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AN142" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO142" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="AP142" s="13" t="s">
-        <v>539</v>
+      <c r="AO142" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="AP142" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="AQ142" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR142" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS142" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT142" s="19" t="s">
-        <v>537</v>
+        <v>152</v>
       </c>
       <c r="AU142" s="10" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="AV142" s="10" t="s">
         <v>201</v>
       </c>
       <c r="AW142" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX142" s="10" t="s">
-        <v>571</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="143" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>434</v>
+        <v>323</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>435</v>
+        <v>324</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>436</v>
+        <v>325</v>
       </c>
       <c r="E143" s="10">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>437</v>
+        <v>326</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>438</v>
+        <v>327</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="L143" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M143" s="10" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="N143" s="10" t="s">
         <v>255</v>
@@ -23348,31 +23354,35 @@
         <v>256</v>
       </c>
       <c r="P143" s="10" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q143" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="R143" s="19"/>
       <c r="S143" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T143" s="10" t="s">
         <v>46</v>
       </c>
       <c r="U143" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V143" s="10" t="s">
         <v>36</v>
       </c>
       <c r="W143" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X143" s="10" t="s">
-        <v>69</v>
+        <v>115</v>
+      </c>
+      <c r="Y143" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="Z143" s="10" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="AA143" s="10">
         <v>3</v>
@@ -23384,196 +23394,172 @@
         <v>3</v>
       </c>
       <c r="AF143" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG143" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AH143" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL143" s="10" t="s">
-        <v>452</v>
+        <v>119</v>
+      </c>
+      <c r="AI143" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL143" s="19" t="s">
+        <v>641</v>
       </c>
       <c r="AM143" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AN143" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO143" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="AP143" s="13" t="s">
-        <v>539</v>
+      <c r="AO143" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="AP143" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="AQ143" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR143" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS143" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT143" s="10" t="s">
-        <v>537</v>
+        <v>152</v>
       </c>
       <c r="AU143" s="10" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="AV143" s="10" t="s">
         <v>201</v>
       </c>
       <c r="AW143" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX143" s="10" t="s">
-        <v>571</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="144" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="B144" s="21" t="s">
+    <row r="144" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C144" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E144" s="21">
-        <v>2010</v>
-      </c>
-      <c r="F144" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="G144" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="H144" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="I144" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="J144" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="K144" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="L144" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="M144" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="N144" s="21" t="s">
+      <c r="C144" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E144" s="10">
+        <v>2013</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="N144" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="O144" s="21" t="s">
+      <c r="O144" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="P144" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q144" s="21" t="s">
+      <c r="P144" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q144" s="10" t="s">
         <v>21</v>
       </c>
       <c r="R144" s="19"/>
-      <c r="S144" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="T144" s="21" t="s">
+      <c r="S144" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T144" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U144" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V144" s="21" t="s">
+      <c r="U144" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V144" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W144" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="X144" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z144" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="AA144" s="21">
-        <v>3</v>
-      </c>
-      <c r="AB144" s="21">
-        <v>3</v>
-      </c>
-      <c r="AC144" s="21">
-        <v>3</v>
-      </c>
-      <c r="AF144" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG144" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH144" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI144" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ144" s="21" t="s">
+      <c r="W144" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X144" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AK144" s="21" t="s">
+      <c r="Y144" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z144" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA144" s="10">
+        <v>3</v>
+      </c>
+      <c r="AB144" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC144" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF144" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG144" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH144" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI144" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL144" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="AM144" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO144" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="AP144" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="AQ144" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AL144" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="AM144" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN144" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO144" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="AP144" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="AQ144" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR144" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS144" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT144" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="AU144" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="AV144" s="21" t="s">
+      <c r="AU144" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="AV144" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AW144" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX144" s="21" t="s">
-        <v>571</v>
+      <c r="AW144" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX144" s="10" t="s">
+        <v>625</v>
       </c>
     </row>
-    <row r="145" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>323</v>
       </c>
@@ -23625,7 +23611,7 @@
       <c r="Q145" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R145" s="14"/>
+      <c r="R145" s="19"/>
       <c r="S145" s="10" t="s">
         <v>24</v>
       </c>
@@ -23666,28 +23652,28 @@
         <v>114</v>
       </c>
       <c r="AH145" s="10" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI145" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL145" s="14" t="s">
-        <v>646</v>
+        <v>133</v>
+      </c>
+      <c r="AL145" s="19" t="s">
+        <v>642</v>
       </c>
       <c r="AM145" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO145" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AP145" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ145" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU145" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AV145" s="10" t="s">
         <v>201</v>
@@ -23696,10 +23682,10 @@
         <v>209</v>
       </c>
       <c r="AX145" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="146" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>323</v>
       </c>
@@ -23792,28 +23778,28 @@
         <v>114</v>
       </c>
       <c r="AH146" s="10" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI146" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL146" s="19" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AM146" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO146" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AP146" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ146" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU146" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AV146" s="10" t="s">
         <v>201</v>
@@ -23822,10 +23808,10 @@
         <v>209</v>
       </c>
       <c r="AX146" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="147" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>323</v>
       </c>
@@ -23888,16 +23874,13 @@
         <v>59</v>
       </c>
       <c r="V147" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="W147" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X147" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y147" s="10" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="Z147" s="10" t="s">
         <v>529</v>
@@ -23915,31 +23898,31 @@
         <v>445</v>
       </c>
       <c r="AG147" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH147" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AI147" s="10" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="AL147" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM147" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO147" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AP147" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ147" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU147" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AV147" s="10" t="s">
         <v>201</v>
@@ -23948,10 +23931,10 @@
         <v>209</v>
       </c>
       <c r="AX147" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="148" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>323</v>
       </c>
@@ -24014,16 +23997,13 @@
         <v>59</v>
       </c>
       <c r="V148" s="10" t="s">
-        <v>36</v>
+        <v>627</v>
       </c>
       <c r="W148" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X148" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y148" s="10" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="Z148" s="10" t="s">
         <v>529</v>
@@ -24041,31 +24021,31 @@
         <v>445</v>
       </c>
       <c r="AG148" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH148" s="10" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="AI148" s="10" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AL148" s="19" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AM148" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO148" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AP148" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ148" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU148" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AV148" s="10" t="s">
         <v>201</v>
@@ -24074,10 +24054,10 @@
         <v>209</v>
       </c>
       <c r="AX148" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="149" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>323</v>
       </c>
@@ -24140,16 +24120,13 @@
         <v>59</v>
       </c>
       <c r="V149" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="W149" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X149" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y149" s="10" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="Z149" s="10" t="s">
         <v>529</v>
@@ -24167,31 +24144,31 @@
         <v>445</v>
       </c>
       <c r="AG149" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH149" s="10" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="AI149" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AL149" s="19" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AM149" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO149" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AP149" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ149" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU149" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AV149" s="10" t="s">
         <v>201</v>
@@ -24200,10 +24177,10 @@
         <v>209</v>
       </c>
       <c r="AX149" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="150" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>323</v>
       </c>
@@ -24266,7 +24243,7 @@
         <v>59</v>
       </c>
       <c r="V150" s="10" t="s">
-        <v>40</v>
+        <v>627</v>
       </c>
       <c r="W150" s="10" t="s">
         <v>53</v>
@@ -24292,29 +24269,31 @@
       <c r="AG150" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="AH150" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI150" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="AH150" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI150" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ150" s="19"/>
+      <c r="AK150" s="19"/>
       <c r="AL150" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM150" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="AM150" s="19" t="s">
         <v>234</v>
       </c>
       <c r="AO150" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AP150" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ150" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU150" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AV150" s="10" t="s">
         <v>201</v>
@@ -24323,500 +24302,129 @@
         <v>209</v>
       </c>
       <c r="AX150" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="151" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
+    <row r="151" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="21">
         <v>2013</v>
       </c>
-      <c r="F151" s="10" t="s">
+      <c r="F151" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="G151" s="10" t="s">
+      <c r="G151" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="H151" s="10" t="s">
+      <c r="H151" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I151" s="10" t="s">
+      <c r="I151" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="J151" s="10" t="s">
+      <c r="J151" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="K151" s="10" t="s">
+      <c r="K151" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="L151" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="M151" s="10" t="s">
+      <c r="L151" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="M151" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="N151" s="10" t="s">
+      <c r="N151" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="O151" s="10" t="s">
+      <c r="O151" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="P151" s="10" t="s">
+      <c r="P151" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="Q151" s="10" t="s">
+      <c r="Q151" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="R151" s="19"/>
-      <c r="S151" s="10" t="s">
+      <c r="S151" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T151" s="10" t="s">
+      <c r="T151" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="U151" s="10" t="s">
+      <c r="U151" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="V151" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="W151" s="10" t="s">
+      <c r="V151" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="W151" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="X151" s="10" t="s">
+      <c r="X151" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="Z151" s="10" t="s">
+      <c r="Z151" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="AA151" s="10">
-        <v>3</v>
-      </c>
-      <c r="AB151" s="10">
-        <v>3</v>
-      </c>
-      <c r="AC151" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF151" s="10" t="s">
+      <c r="AA151" s="21">
+        <v>3</v>
+      </c>
+      <c r="AB151" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC151" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF151" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="AG151" s="10" t="s">
+      <c r="AG151" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AH151" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI151" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL151" s="19" t="s">
+      <c r="AH151" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI151" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL151" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="AM151" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO151" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="AP151" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="AQ151" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU151" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="AM151" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO151" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="AP151" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="AQ151" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU151" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV151" s="10" t="s">
+      <c r="AV151" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="AW151" s="10" t="s">
+      <c r="AW151" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="AX151" s="10" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="152" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E152" s="10">
-        <v>2013</v>
-      </c>
-      <c r="F152" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="H152" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="J152" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K152" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="L152" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="M152" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="N152" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="O152" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="P152" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q152" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R152" s="19"/>
-      <c r="S152" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T152" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U152" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="V152" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W152" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="X152" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z152" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA152" s="10">
-        <v>3</v>
-      </c>
-      <c r="AB152" s="10">
-        <v>3</v>
-      </c>
-      <c r="AC152" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF152" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="AG152" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH152" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI152" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL152" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="AM152" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO152" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="AP152" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="AQ152" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU152" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV152" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW152" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX152" s="10" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="153" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E153" s="10">
-        <v>2013</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="H153" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="J153" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K153" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="L153" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="M153" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="N153" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="O153" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="P153" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q153" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R153" s="19"/>
-      <c r="S153" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T153" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U153" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="V153" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="W153" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="X153" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z153" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA153" s="10">
-        <v>3</v>
-      </c>
-      <c r="AB153" s="10">
-        <v>3</v>
-      </c>
-      <c r="AC153" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF153" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="AG153" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH153" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI153" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ153" s="19"/>
-      <c r="AK153" s="19"/>
-      <c r="AL153" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="AM153" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO153" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="AP153" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="AQ153" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU153" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV153" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW153" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX153" s="10" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="154" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E154" s="21">
-        <v>2013</v>
-      </c>
-      <c r="F154" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="G154" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="H154" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="I154" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="J154" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="K154" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="L154" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="M154" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="N154" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="O154" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="P154" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q154" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="S154" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T154" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="U154" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="V154" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="W154" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="X154" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z154" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA154" s="21">
-        <v>3</v>
-      </c>
-      <c r="AB154" s="21">
-        <v>3</v>
-      </c>
-      <c r="AC154" s="21">
-        <v>3</v>
-      </c>
-      <c r="AF154" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="AG154" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH154" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI154" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL154" s="21" t="s">
-        <v>643</v>
-      </c>
-      <c r="AM154" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO154" s="21" t="s">
-        <v>641</v>
-      </c>
-      <c r="AP154" s="21" t="s">
-        <v>629</v>
-      </c>
-      <c r="AQ154" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU154" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV154" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW154" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX154" s="21" t="s">
-        <v>628</v>
+      <c r="AX151" s="21" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -24830,318 +24438,339 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="105">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q111:Q118 P3:Q110 P111:P1048576 P123:Q144" xr:uid="{9AD44466-9241-4AA5-BBD5-6DC2CD1CBC94}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN21:AN23 AR27 AR25:AS26 AR24 AR3:AS23 AN3:AO20 AI145:AI154 AJ156 AI157:AJ1048576 AN24:AO1048576 AR28:AS1048576" xr:uid="{57A8EE82-F469-4D27-AD38-835EA1F66AED}">
+  <dataValidations count="112">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q111:Q118 P3:Q110 P123:Q141 P111:P1048576" xr:uid="{067F763E-F721-4644-970C-123CCCB709D1}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN21:AN23 AR27 AR25:AS26 AR24 AR3:AS23 AN3:AO20 AI142:AI151 AJ153 AR28:AS1048576 AN24:AO1048576 AI154:AJ1048576" xr:uid="{32B647B3-AD5A-419A-BC13-814E3BA278E7}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI109:AJ115 AI92:AJ92 AJ153:AJ154 AI58:AJ58 AI84:AJ84 AJ145 AJ148:AJ150 AI3:AJ21 AI123:AJ123 AI24 AI94 AI43:AI46 AI52 AI76:AJ81 AI23:AJ23 AI69 AI98:AJ106 AI49:AJ49 AI60:AJ67 AI128:AK128 AI125:AJ144" xr:uid="{231D2A95-52B4-4506-AF10-B790FC62D092}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI109:AJ115 AI92:AJ92 AJ150:AJ151 AI58:AJ58 AI84:AJ84 AJ142 AJ145:AJ147 AI3:AJ21 AI123:AJ123 AI24 AI94 AI43:AI46 AI52 AI76:AJ81 AI23:AJ23 AI69 AI98:AJ106 AI49:AJ49 AI60:AJ67 AI128:AK128 AI125:AJ141" xr:uid="{94E0278A-75D4-4556-8D7B-73AD9A2498CF}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI81:AJ85 AI87:AJ91 AJ127 AJ131 AI132:AK132 AI75:AJ79 AI93:AJ97 AI3:AJ6 AI8:AJ19 AI28:AJ32 AI25:AJ26 AI70:AJ73 AI34:AJ35 AJ40:AJ41 AI39:AI42 AI37:AJ38 AI47:AJ48 AI50:AJ51 AI68:AJ68 AI53:AJ61 AI63:AJ66 AI123:AJ123 AI99:AJ103 AI105:AJ109 AI111:AJ121 AI134:AJ137 AI139:AJ144 AI43:AJ43 AI21:AJ22 AI126:AJ126" xr:uid="{A9C9B3E5-16EF-42E0-B157-4B47C7FD336D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI81:AJ85 AI87:AJ91 AJ127 AJ131 AI132:AK132 AI75:AJ79 AI93:AJ97 AI3:AJ6 AI8:AJ19 AI28:AJ32 AI25:AJ26 AI70:AJ73 AI34:AJ35 AJ40:AJ41 AI39:AI42 AI37:AJ38 AI47:AJ48 AI50:AJ51 AI68:AJ68 AI53:AJ61 AI63:AJ66 AI123:AJ123 AI99:AJ103 AI105:AJ109 AI111:AJ121 AI134:AJ137 AI43:AJ43 AI21:AJ22 AI126:AJ126 AI139:AJ141" xr:uid="{9F741B9E-A1E6-4CBC-9915-0D378AFACA05}">
       <formula1>INDIRECT(AI4)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI127 AI131" xr:uid="{57175545-6A09-4171-AC2A-DE631AFDA1BF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI127 AI131" xr:uid="{92319AE5-D3E7-41D4-8BAD-A99ADB661B4E}">
       <formula1>INDIRECT(AH128)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI80:AJ80 AJ45:AJ46" xr:uid="{16D92117-ED6F-4EE1-BE06-414FA7EBCB69}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI80:AJ80 AJ45:AJ46" xr:uid="{E95626EB-6183-47F0-AD50-D56D3B3C0249}">
       <formula1>INDIRECT(AI58)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI116:AJ117" xr:uid="{942EE374-C8B7-4031-8468-E3E3345B2647}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI116:AJ117" xr:uid="{411312FF-CFC5-4C15-AE87-93A3D8E15408}">
       <formula1>INDIRECT(AI123)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ53:AJ69" xr:uid="{4BDC80DD-01DA-4968-9790-DE74E9B24F53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ53:AJ69" xr:uid="{1766C287-7744-4DCA-A3FB-D2D7D84055E0}">
       <formula1>INDIRECT(AJ82)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI82:AJ83 AI45:AJ52 AI98:AJ98" xr:uid="{BD764A3F-BFD2-4975-857B-5A98E63400F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI82:AJ83 AI45:AJ52" xr:uid="{7C9CB544-6966-4D33-B90F-2F16E16097E7}">
       <formula1>INDIRECT(AI86)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI20:AJ22 AJ42" xr:uid="{B4E8130C-89A9-413C-B939-E2A22D7E37E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI20:AJ22 AJ42" xr:uid="{E00AEE80-C09F-45F0-94C1-45EE459EAF26}">
       <formula1>INDIRECT(AI34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI138:AJ138" xr:uid="{C2F93789-A2EA-4B2A-B6FC-C346E1AF84B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI138:AJ138" xr:uid="{F15EA574-F41E-4EB7-86F0-6C2270F56CBB}">
       <formula1>INDIRECT(AI21)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI140:AJ141" xr:uid="{A09D7B64-BB2E-465C-A566-AE19985A6858}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI124:AJ124" xr:uid="{C20D5023-700C-49D8-BCC8-E01AABFF8C47}">
+      <formula1>INDIRECT(AI28)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI90:AJ94 AI99:AJ100 AI105:AJ106" xr:uid="{283949E5-56CA-4C9C-BDE5-F7CDBA5FE2B0}">
+      <formula1>INDIRECT(AI70)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI30:AJ33" xr:uid="{497DCBD4-937C-4883-83AE-3563ACD3BA05}">
+      <formula1>INDIRECT(AI21)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI25:AJ27" xr:uid="{325D01EF-D1E1-4C43-8FA7-0B3187F039FA}">
+      <formula1>INDIRECT(AI34)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI136:AJ138" xr:uid="{9FA0F909-3B9C-4134-8F14-D421F08AD19A}">
+      <formula1>INDIRECT(AI53)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI50:AJ52 AI66:AJ66" xr:uid="{34442A8B-8F19-4C66-B2B8-181296EC50FA}">
+      <formula1>INDIRECT(AI126)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI31:AJ37 AI86:AJ87 AI24:AJ25" xr:uid="{E6FA085F-24A6-4DCC-B583-6047B9E47050}">
+      <formula1>INDIRECT(AI61)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI28:AJ37" xr:uid="{900D8D54-8752-4094-89C9-9C4E0C227876}">
+      <formula1>INDIRECT(AI53)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI62:AJ62" xr:uid="{6030D7C5-0089-4FA5-9B9D-3ABEDB9785E1}">
       <formula1>INDIRECT(AI68)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI124:AJ124" xr:uid="{97FFD888-A98E-4A7E-B579-82E11135D0A6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI68:AJ69 AJ44" xr:uid="{666B82B8-E158-4BD4-AFF4-69A5D70FEE45}">
+      <formula1>INDIRECT(AI46)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI123:AJ124" xr:uid="{0FB1B23C-3B35-43F4-A8C5-2F24EDD048B1}">
+      <formula1>INDIRECT(AI8)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI107:AJ109 AI95:AJ97 AI101:AJ103" xr:uid="{F38AEEFE-B913-4750-87F8-F420D1CB8BBE}">
+      <formula1>INDIRECT(AI25)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49:AJ49 AI53:AI72 AJ52 AI103:AJ103" xr:uid="{7238D1F0-4FBA-47AF-8288-898AD8B5EDBA}">
+      <formula1>INDIRECT(AI75)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI67:AJ74" xr:uid="{4B09FB1B-23DB-4052-9A98-CA2805468AB8}">
+      <formula1>INDIRECT(AI78)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI110:AJ110" xr:uid="{291749B3-F64B-470E-A475-7C79CA960A1D}">
+      <formula1>INDIRECT(AI3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI71:AJ82 AI53:AJ58" xr:uid="{F358B164-9750-49F8-8EBD-13F01ACC59AF}">
+      <formula1>INDIRECT(AI93)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI105:AJ108" xr:uid="{61131E73-E053-421C-9B9F-25E868F20EFE}">
+      <formula1>INDIRECT(AI5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135" xr:uid="{9CE32805-FCD1-4551-B939-22E250F857FF}">
+      <formula1>INDIRECT(AI245)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI118:AJ124" xr:uid="{92CC4367-3B47-449C-8E12-C1838317E509}">
       <formula1>INDIRECT(AI28)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI90:AJ94 AI99:AJ100 AI105:AJ106" xr:uid="{EF696EA7-DA43-4A23-A3D0-2FCF1E51CF8B}">
-      <formula1>INDIRECT(AI70)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI20:AJ20" xr:uid="{0FFD29EC-F0BD-40D1-837A-65BEC4D46319}">
+      <formula1>INDIRECT(AI123)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI30:AJ33" xr:uid="{D337E60B-7213-4BD9-B24E-BC22D87964EE}">
-      <formula1>INDIRECT(AI21)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ60 AI64:AI66" xr:uid="{AFB12142-0F6F-43C2-95B4-298992BB43B2}">
+      <formula1>INDIRECT(AI115)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI25:AJ27" xr:uid="{9A3D7BFE-752E-4335-B770-B86A4E01D741}">
-      <formula1>INDIRECT(AI34)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135" xr:uid="{332650F5-0AFD-426A-9CB8-6F3F73A27CCA}">
+      <formula1>INDIRECT(AI57)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI136:AJ138" xr:uid="{1490B285-8D2A-4C3E-A29A-89FA94789C7A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ72:AJ74" xr:uid="{6E69B969-9FF1-4734-8449-D64E472F55B8}">
+      <formula1>INDIRECT(AJ111)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI54:AJ67" xr:uid="{049D73AA-E28B-4B1B-AB24-2CDFE82D7EF7}">
+      <formula1>INDIRECT(AI111)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI61:AJ67 AI45:AJ48" xr:uid="{578A5F8B-F4E5-4012-98EF-1B2111A1C2FF}">
+      <formula1>INDIRECT(AI95)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135" xr:uid="{8F30C907-9474-4D81-AE4D-8984BCC0D7DB}">
+      <formula1>INDIRECT(AI4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ56" xr:uid="{FB88B769-E865-43E3-A81F-F4A90A85E225}">
+      <formula1>INDIRECT(AI119)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135" xr:uid="{694D9A33-96BE-48CD-90BB-6EDECB20C23E}">
+      <formula1>INDIRECT(AI121)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135 AI80:AJ100" xr:uid="{339D419C-5C84-4106-BF48-A3A72FBADF26}">
+      <formula1>INDIRECT(AI24)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49:AJ50 AI57:AJ57" xr:uid="{C6481CCF-F5F6-474A-8F8C-962F0AEBB760}">
+      <formula1>INDIRECT(AI134)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI26:AJ27 AI33:AJ44" xr:uid="{3ADAE40B-CCC5-40BD-B7D2-C6F67B094C09}">
+      <formula1>INDIRECT(AI68)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ10" xr:uid="{67B2DA58-3222-465B-80FA-4379AABB2D1F}">
+      <formula1>INDIRECT(AI115)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI24:AJ44 AI85:AJ85" xr:uid="{C76C2868-0E81-4D4A-9BB3-3C4A9FE7E129}">
+      <formula1>INDIRECT(AI75)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI63:AJ63" xr:uid="{18E39721-5DFD-46AF-88F5-686D6D4F61C2}">
+      <formula1>INDIRECT(AI136)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI59:AJ59 AI48:AJ48" xr:uid="{8DB115E7-A762-41D4-8C73-7CC6EC8928BF}">
+      <formula1>INDIRECT(AI125)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI13:AJ13" xr:uid="{9A1DC653-13BE-4143-88AF-A92C96FE023F}">
+      <formula1>INDIRECT(AI136)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI44" xr:uid="{561EFD99-D61B-4734-9F31-529A8FED163A}">
+      <formula1>INDIRECT(AI136)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI40:AI41 AI61:AJ61" xr:uid="{191F927E-2CC4-4444-A516-EB39896DC1F4}">
+      <formula1>INDIRECT(AI121)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI11:AJ11" xr:uid="{57E83DC0-A508-430B-BD74-88890C0A3DC5}">
+      <formula1>INDIRECT(AI142)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI62" xr:uid="{99697EF2-1332-428D-8374-A7181BFCB4AC}">
+      <formula1>INDIRECT(AI125)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ143:AJ144 AJ148:AJ149" xr:uid="{AA968274-9CB2-4D79-A276-327E8D98EE4C}">
+      <formula1>INDIRECT(AJ147)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AI46" xr:uid="{D1C0EA88-E790-4003-B425-51E997870DD4}">
+      <formula1>INDIRECT(AI55)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI107:AJ110 AI70:AJ77" xr:uid="{BDD9E36B-DC38-43D2-AACE-BE5831848C13}">
+      <formula1>INDIRECT(AI16)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI50:AI52" xr:uid="{0F6C5B72-26AB-4AB2-89E0-637215A40F00}">
+      <formula1>INDIRECT(AI1048492)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI66:AJ69" xr:uid="{2C02B237-E758-4B34-977E-8B426AE8F3F0}">
+      <formula1>INDIRECT(AI3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI51:AJ52 AI75:AJ75" xr:uid="{5BA9D27B-5A83-427B-829B-69486FE37654}">
+      <formula1>INDIRECT(AI111)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ110" xr:uid="{97425972-D30B-4C19-A234-97DB4222884F}">
+      <formula1>INDIRECT(AI187)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI38:AJ39 AI23:AJ23" xr:uid="{96EC2E52-8AB6-490E-A8EC-85927410B18F}">
       <formula1>INDIRECT(AI53)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI50:AJ52" xr:uid="{10C234BF-0F68-41AD-959C-820F96F46A47}">
-      <formula1>INDIRECT(AI126)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI31:AJ37 AI86:AJ87 AI24:AJ25" xr:uid="{9F32C8CE-4615-4816-965E-AD3BBC15ECCD}">
-      <formula1>INDIRECT(AI61)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI28:AJ37" xr:uid="{0FBB8462-1917-4EB1-A5D2-70F2CDD9019D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI36:AJ36 AJ39" xr:uid="{9D08E36D-B5C6-4C66-9B28-A2D18E4AB140}">
       <formula1>INDIRECT(AI53)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI62:AJ62" xr:uid="{CBA84831-456F-4786-B546-C229FDA50C9E}">
-      <formula1>INDIRECT(AI68)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI28:AJ44" xr:uid="{CD6D1100-654D-4F94-AAB0-850BD694D1C0}">
+      <formula1>INDIRECT(AI75)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI68:AJ69 AJ44" xr:uid="{A0BC1596-5155-4C9A-BF79-A48DCA515B31}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AJ52" xr:uid="{B4B910CD-D19C-4D7E-936E-7A61A0F792CD}">
+      <formula1>INDIRECT(AI91)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AJ47" xr:uid="{794DEB01-6DE6-4F33-875D-255E11A4E7C2}">
+      <formula1>INDIRECT(AI139)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI74:AJ93" xr:uid="{3C2CE219-1FCE-46A0-9EBC-1A14C554B5E5}">
+      <formula1>INDIRECT(AI25)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI40:AJ44 AI21:AJ23 AI104:AJ104" xr:uid="{9CE2E3B6-49A3-44C5-A161-30A45483C003}">
+      <formula1>INDIRECT(AI56)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AJ52" xr:uid="{E126D65C-2527-40B3-8458-EF6192CDBD09}">
+      <formula1>INDIRECT(AI79)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AJ52" xr:uid="{1E9262B7-B2C5-4F81-BF1B-3567B8E2E841}">
+      <formula1>INDIRECT(AI173)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ101:AJ110 AI102:AI110" xr:uid="{F14E314D-F791-44A5-8273-6CAB0046F8D2}">
       <formula1>INDIRECT(AI46)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI123:AJ124" xr:uid="{0072EFDD-0C41-41A0-95B2-38F3627CDE11}">
-      <formula1>INDIRECT(AI8)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ94:AJ100 AI95:AI100" xr:uid="{FEFE45DC-108D-4A85-A030-2A8212ACEC60}">
+      <formula1>INDIRECT(AI46)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI107:AJ109 AI95:AJ97 AI101:AJ103" xr:uid="{54D0BF4D-7BE4-4B1B-9192-BFDBEBB6EF20}">
-      <formula1>INDIRECT(AI25)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI25:AI44 AJ24:AJ44" xr:uid="{CDDE5191-D2EA-44AB-A205-BA593CD93D5E}">
+      <formula1>INDIRECT(AI153)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49:AJ49 AI53:AI72 AJ52 AI103:AJ103" xr:uid="{4191E298-1F0C-4D9A-B055-6FAD8B220834}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ152" xr:uid="{C36445D0-DF3D-4616-94BF-03DB501CEBBC}">
+      <formula1>INDIRECT(AI46)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI46" xr:uid="{8FBD360A-D4BA-4207-B928-D2DFB5FBA05A}">
+      <formula1>INDIRECT(AH152)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI28:AJ33 AI139:AJ140" xr:uid="{3FDA1A02-D4EA-44F9-8473-0BA963C3D510}">
+      <formula1>INDIRECT(AI10)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI24:AJ30" xr:uid="{50D7756E-84A8-4826-82B4-226B4CAAF8D3}">
+      <formula1>INDIRECT(AI56)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI22:AJ23" xr:uid="{2A4F5316-1E60-42D7-B045-CEABFD835EBE}">
+      <formula1>INDIRECT(AI149)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI139:AJ141" xr:uid="{D6F482A3-2060-46AC-8AA9-6D179753A9E0}">
       <formula1>INDIRECT(AI75)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI67:AJ74" xr:uid="{035E0A7B-554B-4D12-A317-B5644FA12804}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI27:AJ29" xr:uid="{6A745C01-AF57-4519-96CD-DA7EC013D2D2}">
+      <formula1>INDIRECT(AI136)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ147:AJ149 AJ142:AJ144" xr:uid="{2DFA8F22-5760-415B-B48C-A8393D7EA6AD}">
+      <formula1>INDIRECT(AJ33)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI122:AJ122" xr:uid="{2D50E798-C756-4C3D-BE50-32664832DFA5}">
+      <formula1>INDIRECT(AI142)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI97:AJ97" xr:uid="{643469B7-967E-4F10-B9A3-C91434C64028}">
+      <formula1>INDIRECT(AI125)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ70:AJ71" xr:uid="{F8FE74D7-4D92-4CFB-96CC-2795B7FB3F50}">
+      <formula1>INDIRECT(AJ134)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI125:AJ125" xr:uid="{EA68A5A7-646A-414F-9081-3CF2140E3818}">
       <formula1>INDIRECT(AI78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI110:AJ110" xr:uid="{8CFBB2DE-438C-40A9-BA9D-2BE791B9F457}">
-      <formula1>INDIRECT(AI3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI126:AJ128" xr:uid="{1A6A3850-99C4-4233-9BE9-AF41B142ECBC}">
+      <formula1>INDIRECT(AI80)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI71:AJ82 AI53:AJ58" xr:uid="{C8FD6877-2306-4D5C-8F6D-FBE8C5664E2C}">
-      <formula1>INDIRECT(AI93)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI124:AJ124" xr:uid="{3169FCF1-FE6E-4AC4-BFF7-0CB7E47927D2}">
+      <formula1>INDIRECT(AI136)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI86:AJ86" xr:uid="{E7CAA6E5-4C75-40A2-A3B7-33BB353A1D08}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI59:AJ60" xr:uid="{413590FD-DC1B-401D-A34B-5DB1ADF70923}">
+      <formula1>INDIRECT(AI134)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ150:AJ151 AJ145:AJ146" xr:uid="{6B11FC16-FC11-42A2-8071-F19D01A0A306}">
+      <formula1>INDIRECT(AJ34)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI73:AI74 AI68" xr:uid="{1F5F1BD1-88E8-4BAE-8E2F-965C9A686FC4}">
+      <formula1>INDIRECT(AI129)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI98:AJ98" xr:uid="{6254993B-943B-4912-8DC0-1FF937FB6219}">
+      <formula1>INDIRECT(AI136)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI69:AJ70" xr:uid="{B8A51283-F60A-42DA-8677-1320D11EDA4B}">
+      <formula1>INDIRECT(AI134)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ53 AI59:AI61" xr:uid="{42AD3FB8-DDF6-41E5-B4B0-8ACCD42EFE31}">
+      <formula1>INDIRECT(AI133)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI129:AJ129" xr:uid="{45B9166A-E9EF-4A94-A40E-17CCB3601673}">
+      <formula1>INDIRECT(AI84)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI130:AJ133" xr:uid="{AE9A2D8F-907E-415D-A1BC-2E7586D1A226}">
+      <formula1>INDIRECT(AI86)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI98:AJ98" xr:uid="{CB3E349D-6CA9-439E-860B-DB0120A2D91E}">
+      <formula1>INDIRECT(#REF!)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI86:AJ86" xr:uid="{F1A5F5B7-5362-4E77-BE37-706F7109B37D}">
+      <formula1>INDIRECT(#REF!)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AI55" xr:uid="{368BEA32-E55B-43FD-A891-105DE6B8E7ED}">
+      <formula1>INDIRECT(AI136)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI56:AI58" xr:uid="{6EDFF6BD-5EC3-4379-859C-AF4F47738988}">
+      <formula1>INDIRECT(#REF!)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI42" xr:uid="{065E00FD-CCD6-4D30-AE12-8B4B0269EB33}">
+      <formula1>INDIRECT(AI142)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI136:AJ141" xr:uid="{719BC934-C9FF-4583-8CF6-5734E25F0F44}">
+      <formula1>INDIRECT(AI115)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI83:AJ83" xr:uid="{ED3F1064-F165-46B6-B635-AF3EA5C986AC}">
+      <formula1>INDIRECT(AI142)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI37:AI39" xr:uid="{1272B5B1-1DFA-4465-A916-9736149B7DF6}">
+      <formula1>INDIRECT(AI1048480)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI136:AJ138" xr:uid="{B3E2409E-7812-484B-BCD6-3726A9FC0D2B}">
+      <formula1>INDIRECT(AI112)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ56" xr:uid="{3B689B37-28D0-48CD-8643-5AD91F6A2F53}">
+      <formula1>INDIRECT(AI135)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI60:AJ62" xr:uid="{02BBBC4B-09C4-4099-8A36-F417EFA21FBD}">
       <formula1>INDIRECT(AI139)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI105:AJ108" xr:uid="{0956F864-2A93-4AEC-A397-5C8D012791EF}">
-      <formula1>INDIRECT(AI5)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI57:AJ59" xr:uid="{C351E970-6917-4EFC-8E1B-935207662348}">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135" xr:uid="{A36460B5-51F8-4835-AB9C-65C934B2541C}">
-      <formula1>INDIRECT(AI248)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AI61" xr:uid="{9A3F4A57-5C08-4809-8DBE-D6D33FB8A0E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI38:AJ40" xr:uid="{F0A9FFC4-3FFB-4127-9BB7-4B2ECBDC6A74}">
       <formula1>INDIRECT(AI136)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI118:AJ124" xr:uid="{44C0F9D7-DA4F-44E5-8899-7FA8485FEE2E}">
-      <formula1>INDIRECT(AI28)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI44:AJ44" xr:uid="{B6118ADA-FE78-4EB5-9E39-B737FA3808E9}">
+      <formula1>INDIRECT(AI139)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI20:AJ20 AI42" xr:uid="{FDFEC700-BF0B-4108-B9BB-42E6AC0A43DB}">
-      <formula1>INDIRECT(AI123)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI41:AJ43" xr:uid="{4EA32D60-86AA-466C-9A38-6CD1831F438F}">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI136:AJ143" xr:uid="{660B4E84-AE9D-4E5D-A43E-9CADBBF6E9BB}">
-      <formula1>INDIRECT(AI115)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ60 AI64:AI66 AI83:AJ83" xr:uid="{35FCEA21-BCA7-4D48-9858-BFE8E090E76E}">
-      <formula1>INDIRECT(AI115)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135 AI139:AJ139" xr:uid="{7C473E7F-BCAD-4060-AE25-EAE12FC3A1DF}">
-      <formula1>INDIRECT(AI57)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ72:AJ74" xr:uid="{67ECAE4A-59EF-4884-AEE3-194797978B87}">
-      <formula1>INDIRECT(AJ111)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI54:AJ67" xr:uid="{430E5AB0-583A-4FF0-A2CE-75AFEB9893B6}">
-      <formula1>INDIRECT(AI111)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI61:AJ67 AI45:AJ48" xr:uid="{7B106D35-DB0A-4452-8A6F-8018F5FEEED3}">
-      <formula1>INDIRECT(AI95)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135 AI37:AI39" xr:uid="{5D47FD79-1C3D-417B-A13F-68AAB6D0BFAB}">
-      <formula1>INDIRECT(AI1048483)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ56" xr:uid="{1D13DC63-7271-465B-BF4B-C0950A7C87E0}">
-      <formula1>INDIRECT(AI119)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI136:AJ144" xr:uid="{2DFD0655-EE55-418C-8775-4F9A55A770FB}">
-      <formula1>INDIRECT(AI112)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135" xr:uid="{4FA471F7-73BA-45F2-A978-AE5DC4DF0A26}">
-      <formula1>INDIRECT(AI121)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI134:AJ135 AI80:AJ100" xr:uid="{6ABD2CA6-2D17-4E30-8CEB-B8F1C1CB2883}">
-      <formula1>INDIRECT(AI24)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49:AJ50" xr:uid="{55E96E89-24CA-46DD-94FB-5DC678A7EF9F}">
-      <formula1>INDIRECT(AI134)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI26:AJ27 AI33:AJ44" xr:uid="{A0F2E72A-3F4B-4109-8316-1C45BB617E36}">
-      <formula1>INDIRECT(AI68)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ10" xr:uid="{409F28B2-DADD-4414-9C9D-64ECEF8F7589}">
-      <formula1>INDIRECT(AI115)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI24:AJ44 AI85:AJ85" xr:uid="{FEB9E709-490B-4BDA-9948-AB4AD00EDBDF}">
-      <formula1>INDIRECT(AI75)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI63:AJ63" xr:uid="{A1DAC191-A8ED-4D16-BD66-7A2A985DA4DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI88:AJ90" xr:uid="{3B821F9B-C721-4725-8874-4685620F0AAC}">
       <formula1>INDIRECT(AI136)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI59:AJ59 AI48:AJ48" xr:uid="{EEEB163B-7409-48E7-ADF6-6AE32AB66B73}">
-      <formula1>INDIRECT(AI125)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI94:AJ96" xr:uid="{C565CE02-8308-4C2F-9324-E5B79AFA99D7}">
+      <formula1>INDIRECT(AI139)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI13:AJ13" xr:uid="{02654D60-C7EF-429D-AB7C-4F6E07490896}">
-      <formula1>INDIRECT(AI136)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI91:AJ93" xr:uid="{87F2AAA0-1728-43F8-A74F-57FA6938C967}">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI44" xr:uid="{E5DD5DB0-AF04-418C-B480-0752BF4C8B21}">
-      <formula1>INDIRECT(AI136)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI40:AI41" xr:uid="{D6EF8CA4-CD0D-4973-9A83-2EC5C95489B2}">
-      <formula1>INDIRECT(AI121)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI11:AJ11" xr:uid="{9D8C2A26-6DF8-45DC-A442-95E77CB0729A}">
-      <formula1>INDIRECT(AI145)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI62" xr:uid="{E47EC768-24DB-4C62-B25F-15EA9BBB845C}">
-      <formula1>INDIRECT(AI125)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI57:AJ57" xr:uid="{7CE2A6C2-FB4B-4B5A-B9E1-4BA4F2B3ADC5}">
-      <formula1>INDIRECT(AI145)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI61:AJ61" xr:uid="{2977A27E-9B2A-4FF3-8667-C480A7AD7A97}">
-      <formula1>INDIRECT(AI145)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ146:AJ147 AJ151:AJ152" xr:uid="{BBBCE19C-C8A6-4DA7-B9BF-F21721675EDF}">
-      <formula1>INDIRECT(AJ150)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AI46" xr:uid="{93722691-2B08-4903-811E-179AF1BFE17A}">
-      <formula1>INDIRECT(AI55)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI107:AJ110 AI70:AJ77" xr:uid="{6D2FC8EE-A4B1-4F34-8D95-DEF811B4A1DA}">
-      <formula1>INDIRECT(AI16)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ62" xr:uid="{EDD43D60-3D27-4E7D-8D8F-0F3C4CD05B7B}">
-      <formula1>INDIRECT(AI135)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI50:AI52" xr:uid="{D08C52AD-6A71-4DEF-A956-D65182D1AA25}">
-      <formula1>INDIRECT(AI1048495)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI66:AJ69" xr:uid="{AE29A64D-38ED-4158-A22A-C84B878157C1}">
-      <formula1>INDIRECT(AI3)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI51:AJ52 AI75:AJ75" xr:uid="{BAE61507-0870-4300-9593-5CC55B78F67B}">
-      <formula1>INDIRECT(AI111)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ110" xr:uid="{AF727898-ED45-4645-AB26-8D9D4298AF01}">
-      <formula1>INDIRECT(AI190)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI38:AJ39 AI23:AJ23" xr:uid="{A51D98F7-E30B-4942-8E0A-C086480C8164}">
-      <formula1>INDIRECT(AI53)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI36:AJ36 AJ39" xr:uid="{27DDFE9D-E952-435A-A9D2-1667A9B0C985}">
-      <formula1>INDIRECT(AI53)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI28:AJ44" xr:uid="{BB6544BD-4D0B-498A-89FF-C1E6630A6041}">
-      <formula1>INDIRECT(AI75)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AJ52" xr:uid="{C8BC5BAD-2FF7-4DE4-928D-3F8C1B0FB707}">
-      <formula1>INDIRECT(AI91)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI38:AJ44" xr:uid="{ACC8A2C8-D865-4409-9F17-B23582632A0C}">
-      <formula1>INDIRECT(AI136)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AJ47" xr:uid="{6670D675-58E4-4CD9-ADB4-A70F695159CD}">
-      <formula1>INDIRECT(AI142)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI74:AJ93" xr:uid="{281CBB4D-4296-4DD3-A6BC-939CAA54A311}">
-      <formula1>INDIRECT(AI25)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI40:AJ44 AI21:AJ23" xr:uid="{F4DC1447-D0C1-4DCC-8ABF-732B8E0522EC}">
-      <formula1>INDIRECT(AI56)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AJ52" xr:uid="{CEB893C3-56FF-421B-B03B-9EFA6A1741D7}">
-      <formula1>INDIRECT(AI79)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI45:AJ52" xr:uid="{A216F37D-E2D9-407D-AFAF-91B7C6DDC7CB}">
-      <formula1>INDIRECT(AI176)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ101:AJ110 AI102:AI110" xr:uid="{1B051F13-1670-4DCE-9B61-141B66B36FBA}">
-      <formula1>INDIRECT(AI46)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ94:AJ100 AI95:AI100" xr:uid="{9AB776AE-FD4C-4B5E-A3E6-3FEBA5BDC380}">
-      <formula1>INDIRECT(AI46)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI25:AI44 AJ24:AJ44" xr:uid="{DDC5CCE4-3AF1-4F68-ACF6-FF90AE508D0C}">
-      <formula1>INDIRECT(AI156)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ155" xr:uid="{F8CF1571-31D7-4A77-8B7D-436C8E272BE8}">
-      <formula1>INDIRECT(AI46)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI46" xr:uid="{FE52D1C5-B810-4302-939D-3AD918FB4E3F}">
-      <formula1>INDIRECT(AH155)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI28:AJ33" xr:uid="{C9722D1B-F2C1-47D3-98B2-E17C18143894}">
-      <formula1>INDIRECT(AI10)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI24:AJ30" xr:uid="{E128396E-0448-470D-8380-20434DF51C85}">
-      <formula1>INDIRECT(AI56)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI22:AJ23" xr:uid="{CEAC46C1-2CAB-464C-92E0-828029C3007C}">
-      <formula1>INDIRECT(AI152)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI142:AJ144" xr:uid="{C31E5CDB-5AB6-41A1-85E9-D1747B633E97}">
-      <formula1>INDIRECT(AI75)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI27:AJ29" xr:uid="{1786A332-DEC5-4C22-8C76-78AAF8212531}">
-      <formula1>INDIRECT(AI136)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ150:AJ152 AJ145:AJ147" xr:uid="{1AF76E05-AB52-474C-9BFD-B28B8AB7FCCC}">
-      <formula1>INDIRECT(AJ33)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI122:AJ122" xr:uid="{E5DA6FB6-A731-445E-9AF6-CC8BFD03A25D}">
-      <formula1>INDIRECT(AI145)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI97:AJ97" xr:uid="{807BB43D-4926-41A4-8775-A3BE3115853C}">
-      <formula1>INDIRECT(AI125)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI88:AJ96" xr:uid="{F36347B0-3969-4EC1-AAC7-1843234F46F9}">
-      <formula1>INDIRECT(AI136)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ70:AJ71" xr:uid="{691D20B7-8CB1-4107-848B-CE5CA881FB7D}">
-      <formula1>INDIRECT(AJ134)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI66:AJ66" xr:uid="{8EB8618E-3CE8-4283-90C2-321FDFD661FC}">
-      <formula1>INDIRECT(AI145)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI125:AJ125" xr:uid="{A039BABE-DDCF-4EFB-8E80-E9B9EF09D652}">
-      <formula1>INDIRECT(AI78)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI126:AJ128" xr:uid="{D6081EC6-307F-4170-9420-6B882066575C}">
-      <formula1>INDIRECT(AI80)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI124:AJ124" xr:uid="{BD9131A1-738B-4E60-802B-78397D7318E0}">
-      <formula1>INDIRECT(AI136)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI59:AJ60" xr:uid="{93725859-4CE6-431C-9A32-D5C5F504682B}">
-      <formula1>INDIRECT(AI134)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ153:AJ154 AJ148:AJ149" xr:uid="{1D52DCE7-7DC2-4F6E-BBE6-343F97205400}">
-      <formula1>INDIRECT(AJ34)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI73:AI74 AI68" xr:uid="{D5FF65A1-A4C0-4527-A69E-D7D9400CDFE7}">
-      <formula1>INDIRECT(AI129)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI104:AJ104 AI98:AJ98" xr:uid="{363AF39E-1D05-4BD5-AD8C-DE9B6120A07C}">
-      <formula1>INDIRECT(AI136)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI69:AJ70" xr:uid="{E7261750-6BC5-4140-B037-254AF7CFD9E4}">
-      <formula1>INDIRECT(AI134)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AJ53" xr:uid="{FF8DF9D5-35AA-45A4-B73E-CD1A5A2748B4}">
-      <formula1>INDIRECT(AI133)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI129:AJ129" xr:uid="{BD1EA97B-CB4E-4B9F-A91B-F05EE1B210EB}">
-      <formula1>INDIRECT(AI84)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI130:AJ133" xr:uid="{44D8D023-E6EB-4D5C-9219-C6F424BD4966}">
-      <formula1>INDIRECT(AI86)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{346916C4-B2EE-4FA5-8446-74C84928679D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{CD2D3B94-BB8C-49CF-928A-1C3A232AF32F}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{E1C4B2A0-2497-40C5-8E43-B9BE614B0E1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{A6B0ACDC-4551-4447-91F2-1D3EAC1275A4}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
   </dataValidations>
@@ -25151,91 +24780,91 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4497D9A-015D-40DA-BA2D-74DA36ECD1C7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79EA8C17-7B6B-48FF-A6DB-82563471CC2C}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
-          <xm:sqref>T111:T118 T150:T1048576 T3:U110 T119:U154</xm:sqref>
+          <xm:sqref>T111:T118 T147:T1048576 T3:U110 T119:U151</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4315AE1A-E67C-4C16-AB3F-0A1D62BFF4E9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E51813C7-EA74-461A-8810-CD5AFB581063}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AL70:AL110 AK134:AL135 AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AEA7D15-94C0-447D-8BE8-0D25A2DCB814}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09F721EB-4BBE-476B-AA69-E57438F28D53}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA150:AA1048576 AA3:AC154</xm:sqref>
+          <xm:sqref>AA147:AA1048576 AA3:AC151</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A006F8D1-42D0-47EF-9F6E-593D1E55151F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D53382CA-39DA-4722-9CFE-2591499D9AB1}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q154 R119:R1048576</xm:sqref>
+          <xm:sqref>R119:R1048576 Q3:Q151</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{139FF7D2-788E-4B69-BA8E-0DEAB74E03A6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACC4F940-FC89-4B82-B763-3FA8882ADB23}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28FED486-CB05-4EAA-BFB7-1974BBE847BE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6186692A-0AFD-4350-8A5B-3414EB0D22E8}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8D1C1D3-6B0A-4D5B-8D44-681137CECEDA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71D37BAA-F389-45A6-9AA2-72B20ABC5E83}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8D38934-9310-4450-835D-BB42CD588DB6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E223F03D-EA1F-4B6B-A657-80F06934610D}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{050EDFE2-5F10-4A02-99BA-9870329FFC58}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE920C78-FD87-43AC-AF8F-566A85088991}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36AF18D7-8751-4DA6-8121-61C85ADCF5AD}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98A793A3-76FC-41FA-83EB-289393CFCA8A}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C98E3E46-B0A1-423D-869E-1544CD8AD8A8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCA37027-17D8-441D-911D-0DB681E2E715}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF5F7DA4-A620-4768-8045-CC6EC80BF282}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3B39D5C-90AC-4882-8705-05E954FCF59E}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1562DD24-3EE0-449C-8303-69EB7574843D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28FD28B5-0DAC-4EA1-B66B-3EC06693A472}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7914D6EF-054F-4613-A06F-0671EEBDA389}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9FF278BD-4913-413B-B63A-1FB853BD8FC2}">
           <x14:formula1>
             <xm:f>Validation!$AU$3:$AU$15</xm:f>
           </x14:formula1>
           <xm:sqref>AV3:AV1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A6C9CF9-3264-49BF-9F3B-E99A16FFCA12}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6A20F41-6736-47A9-9B34-BA86770F9F26}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
@@ -25255,19 +24884,19 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="24.44140625" customWidth="1"/>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
     <col min="42" max="42" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
@@ -25332,7 +24961,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -25481,7 +25110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -25538,7 +25167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -25595,7 +25224,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -25651,7 +25280,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -25696,7 +25325,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -25738,7 +25367,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -25776,7 +25405,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -25811,7 +25440,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -25843,7 +25472,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -25878,7 +25507,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -25910,7 +25539,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -25945,7 +25574,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -25974,7 +25603,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -26003,7 +25632,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -26023,7 +25652,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>164</v>
       </c>
@@ -26031,22 +25660,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP19" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>117</v>
       </c>
@@ -26081,7 +25710,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>131</v>
       </c>
@@ -26107,7 +25736,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>139</v>
       </c>
@@ -26130,7 +25759,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>146</v>
       </c>
@@ -26141,7 +25770,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>149</v>
       </c>
@@ -26152,7 +25781,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>151</v>
       </c>
@@ -26160,12 +25789,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP29" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>153</v>
       </c>
@@ -26188,7 +25817,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>131</v>
       </c>
@@ -26214,7 +25843,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>155</v>
       </c>
@@ -26240,7 +25869,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>157</v>
       </c>
@@ -26260,7 +25889,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>159</v>
       </c>
@@ -26275,7 +25904,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>115</v>
       </c>
@@ -26289,7 +25918,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AT36" t="s">
         <v>213</v>
       </c>
@@ -26297,10 +25926,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -26328,37 +25957,37 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
@@ -26405,7 +26034,7 @@
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -26506,7 +26135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -26566,7 +26195,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -26614,7 +26243,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -26665,7 +26294,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -26704,7 +26333,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -26746,7 +26375,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -26781,7 +26410,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -26816,7 +26445,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -26848,7 +26477,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -26877,7 +26506,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -26909,7 +26538,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -26938,7 +26567,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -26961,7 +26590,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -26987,7 +26616,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -27004,7 +26633,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>121</v>
       </c>
@@ -27015,7 +26644,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>122</v>
       </c>
@@ -27029,7 +26658,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>154</v>
       </c>
@@ -27043,7 +26672,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>158</v>
       </c>
@@ -27054,7 +26683,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>230</v>
       </c>
@@ -27068,7 +26697,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>115</v>
       </c>
@@ -27079,7 +26708,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>129</v>
       </c>
@@ -27090,7 +26719,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>143</v>
       </c>
@@ -27098,7 +26727,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>148</v>
       </c>
@@ -27106,7 +26735,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>150</v>
       </c>
@@ -27114,7 +26743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>152</v>
       </c>
@@ -27128,7 +26757,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>124</v>
       </c>
@@ -27139,7 +26768,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>144</v>
       </c>
@@ -27150,7 +26779,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>125</v>
       </c>
@@ -27161,7 +26790,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>145</v>
       </c>
@@ -27169,7 +26798,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>130</v>
       </c>
@@ -27177,12 +26806,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>152</v>
       </c>
@@ -27316,18 +26945,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27347,24 +26976,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F97A1-A7AC-4E33-9CC4-89695A135AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623866E1-E4D6-4478-88D4-9ADB3600891B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -3777,9 +3777,6 @@
     <t>Sepia officinalis _ Loligo vulgaris</t>
   </si>
   <si>
-    <t>Sparus aurata _ Thunnus thynnus _ Scomber scombrus _ Coryphaena hippurus _ Dicentrarchus labrax _ Euthynnus alletteratus _ Trachurus trachurus _ Lichia amia _ Pomatomus saltatrix _ Lithognathus mormyrus _ Anguilla anguilla _ Boops boops _ Diplodus sargus sargus _ Sarda sarda _ Pagellus erythrinus _ Merluccius merluccius _ Scomber colias _ Mugil spp. _ Merlangius merlangus _ Spicara maena _ Chelidonichthys lucerna _ Oblada melanura _ Platichthys flesus _ Ombrina cirrosa _ Scophthalmus rhombus/maximus</t>
-  </si>
-  <si>
     <t>Prionace glauca</t>
   </si>
   <si>
@@ -4283,6 +4280,9 @@
   <si>
     <t>The two techniques provided coherent results, indicating that the two most important trends in the response variables are an increase in terms of both LPUE and survey biomass index, and a fluctuating pattern, even though characterized by a general increasing tendency. What drove these trends is less clear, even
 though the available evidence suggests that the reduction of fishing effort has been more important than environmental factors.</t>
+  </si>
+  <si>
+    <t>Sparus aurata _ Thunnus thynnus _ Scomber scombrus _ Coryphaena hippurus _ Dicentrarchus labrax _ Euthynnus alletteratus _ Trachurus trachurus _ Lichia amia _ Pomatomus saltatrix _ Lithognathus mormyrus _ Anguilla anguilla _ Boops boops _ Diplodus sargus sargus _ Sarda sarda _ Pagellus erythrinus _ Merluccius merluccius _ Scomber colias _ Mugil spp. _ Merlangius merlangus _ Spicara maena _ Chelidonichthys lucerna _ Oblada melanura _ Platichthys flesus _ Ombrina cirrosa _ Scophthalmus rhombus _ Scophthalmus maximus</t>
   </si>
 </sst>
 </file>
@@ -4797,42 +4797,42 @@
   <dimension ref="A1:AX151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX140" sqref="AX140"/>
+      <selection activeCell="AT156" sqref="AT156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" customWidth="1"/>
-    <col min="24" max="24" width="32.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.26953125" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" customWidth="1"/>
+    <col min="24" max="24" width="32.81640625" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" customWidth="1"/>
-    <col min="33" max="33" width="21.140625" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="18.140625" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" customWidth="1"/>
-    <col min="41" max="41" width="21.140625" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" customWidth="1"/>
-    <col min="44" max="44" width="15.85546875" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
-    <col min="48" max="48" width="20.42578125" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" customWidth="1"/>
+    <col min="30" max="30" width="16.7265625" customWidth="1"/>
+    <col min="33" max="33" width="21.1796875" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" customWidth="1"/>
+    <col min="39" max="39" width="18.1796875" customWidth="1"/>
+    <col min="40" max="40" width="15.81640625" customWidth="1"/>
+    <col min="41" max="41" width="21.1796875" customWidth="1"/>
+    <col min="42" max="42" width="17.26953125" customWidth="1"/>
+    <col min="44" max="44" width="15.81640625" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" customWidth="1"/>
+    <col min="48" max="48" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
@@ -4898,7 +4898,7 @@
       <c r="AW1" s="29"/>
       <c r="AX1" s="29"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>277</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>356</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>220</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AA4" s="14">
         <v>3</v>
@@ -5288,10 +5288,10 @@
         <v>162</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AQ4" s="14" t="s">
         <v>166</v>
@@ -5306,7 +5306,7 @@
         <v>462</v>
       </c>
       <c r="AU4" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV4" s="14" t="s">
         <v>214</v>
@@ -5315,10 +5315,10 @@
         <v>210</v>
       </c>
       <c r="AX4" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>356</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>220</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AA5" s="10">
         <v>3</v>
@@ -5423,10 +5423,10 @@
         <v>162</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP5" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AQ5" s="10" t="s">
         <v>166</v>
@@ -5438,7 +5438,7 @@
         <v>462</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV5" s="10" t="s">
         <v>214</v>
@@ -5447,10 +5447,10 @@
         <v>210</v>
       </c>
       <c r="AX5" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>356</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>220</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AA6" s="10">
         <v>3</v>
@@ -5555,10 +5555,10 @@
         <v>162</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AQ6" s="10" t="s">
         <v>167</v>
@@ -5573,7 +5573,7 @@
         <v>462</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV6" s="10" t="s">
         <v>214</v>
@@ -5582,10 +5582,10 @@
         <v>210</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>379</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>463</v>
       </c>
       <c r="AP7" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ7" s="14" t="s">
         <v>166</v>
@@ -5707,7 +5707,7 @@
         <v>459</v>
       </c>
       <c r="AU7" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AV7" s="14" t="s">
         <v>201</v>
@@ -5719,7 +5719,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>379</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>463</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ8" s="10" t="s">
         <v>166</v>
@@ -5841,7 +5841,7 @@
         <v>459</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AV8" s="10" t="s">
         <v>201</v>
@@ -5853,7 +5853,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>379</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>463</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ9" s="10" t="s">
         <v>166</v>
@@ -5972,7 +5972,7 @@
         <v>459</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AV9" s="10" t="s">
         <v>201</v>
@@ -5984,7 +5984,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>379</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>463</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ10" s="10" t="s">
         <v>166</v>
@@ -6106,7 +6106,7 @@
         <v>459</v>
       </c>
       <c r="AU10" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AV10" s="10" t="s">
         <v>201</v>
@@ -6118,7 +6118,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>418</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>464</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AQ11" s="14" t="s">
         <v>166</v>
@@ -6249,10 +6249,10 @@
         <v>209</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>418</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>464</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AQ12" s="10" t="s">
         <v>166</v>
@@ -6383,10 +6383,10 @@
         <v>209</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>418</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>464</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AQ13" s="10" t="s">
         <v>166</v>
@@ -6520,10 +6520,10 @@
         <v>209</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>418</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>464</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AQ14" s="10" t="s">
         <v>166</v>
@@ -6657,10 +6657,10 @@
         <v>209</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>286</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>72</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA15" s="14">
         <v>3</v>
@@ -6755,22 +6755,22 @@
         <v>149</v>
       </c>
       <c r="AL15" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM15" s="14" t="s">
         <v>234</v>
       </c>
       <c r="AO15" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AQ15" s="14" t="s">
         <v>166</v>
       </c>
       <c r="AT15" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU15" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AV15" s="14" t="s">
         <v>201</v>
@@ -6779,10 +6779,10 @@
         <v>209</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>286</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>72</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA16" s="10">
         <v>3</v>
@@ -6877,22 +6877,22 @@
         <v>149</v>
       </c>
       <c r="AL16" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM16" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AQ16" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AT16" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU16" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AV16" s="10" t="s">
         <v>202</v>
@@ -6901,10 +6901,10 @@
         <v>209</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>286</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>72</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA17" s="10">
         <v>3</v>
@@ -6999,22 +6999,22 @@
         <v>149</v>
       </c>
       <c r="AL17" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM17" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AQ17" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT17" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AV17" s="10" t="s">
         <v>201</v>
@@ -7023,10 +7023,10 @@
         <v>209</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>286</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>72</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA18" s="10">
         <v>3</v>
@@ -7121,22 +7121,22 @@
         <v>149</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM18" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AQ18" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AV18" s="10" t="s">
         <v>202</v>
@@ -7145,10 +7145,10 @@
         <v>209</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>286</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>72</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA19" s="10">
         <v>3</v>
@@ -7243,22 +7243,22 @@
         <v>149</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM19" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AQ19" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV19" s="10" t="s">
         <v>201</v>
@@ -7267,10 +7267,10 @@
         <v>209</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>286</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>72</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA20" s="10">
         <v>3</v>
@@ -7365,22 +7365,22 @@
         <v>149</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM20" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AQ20" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV20" s="10" t="s">
         <v>201</v>
@@ -7389,10 +7389,10 @@
         <v>209</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>268</v>
       </c>
@@ -7463,10 +7463,10 @@
         <v>72</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA21" s="14">
         <v>3</v>
@@ -7493,16 +7493,16 @@
         <v>233</v>
       </c>
       <c r="AO21" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AP21" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AQ21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="AU21" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AV21" s="14" t="s">
         <v>201</v>
@@ -7511,10 +7511,10 @@
         <v>211</v>
       </c>
       <c r="AX21" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>268</v>
       </c>
@@ -7585,10 +7585,10 @@
         <v>72</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA22" s="10">
         <v>3</v>
@@ -7615,16 +7615,16 @@
         <v>233</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AP22" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AQ22" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU22" s="19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AV22" s="10" t="s">
         <v>201</v>
@@ -7633,10 +7633,10 @@
         <v>211</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>268</v>
       </c>
@@ -7707,10 +7707,10 @@
         <v>72</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA23" s="10">
         <v>3</v>
@@ -7740,16 +7740,16 @@
         <v>233</v>
       </c>
       <c r="AO23" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AQ23" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AV23" s="10" t="s">
         <v>201</v>
@@ -7758,10 +7758,10 @@
         <v>211</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>347</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>72</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA24" s="12">
         <v>3</v>
@@ -7859,16 +7859,16 @@
         <v>157</v>
       </c>
       <c r="AL24" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM24" s="12" t="s">
         <v>161</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AQ24" s="10" t="s">
         <v>166</v>
@@ -7877,7 +7877,7 @@
         <v>241</v>
       </c>
       <c r="AU24" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AV24" s="12" t="s">
         <v>214</v>
@@ -7886,10 +7886,10 @@
         <v>211</v>
       </c>
       <c r="AX24" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>314</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>72</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA25" s="14">
         <v>3</v>
@@ -7991,16 +7991,16 @@
         <v>150</v>
       </c>
       <c r="AL25" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AM25" s="14" t="s">
         <v>235</v>
       </c>
       <c r="AO25" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AP25" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AQ25" s="14" t="s">
         <v>167</v>
@@ -8015,7 +8015,7 @@
         <v>152</v>
       </c>
       <c r="AU25" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AV25" s="14" t="s">
         <v>201</v>
@@ -8024,10 +8024,10 @@
         <v>210</v>
       </c>
       <c r="AX25" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>314</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>72</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA26" s="10">
         <v>3</v>
@@ -8129,16 +8129,16 @@
         <v>150</v>
       </c>
       <c r="AL26" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AM26" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO26" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AP26" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AQ26" s="10" t="s">
         <v>167</v>
@@ -8153,7 +8153,7 @@
         <v>152</v>
       </c>
       <c r="AU26" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AV26" s="10" t="s">
         <v>201</v>
@@ -8162,10 +8162,10 @@
         <v>210</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>314</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>72</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA27" s="10">
         <v>3</v>
@@ -8267,16 +8267,16 @@
         <v>150</v>
       </c>
       <c r="AL27" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AM27" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO27" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AP27" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AQ27" s="10" t="s">
         <v>166</v>
@@ -8285,10 +8285,10 @@
         <v>241</v>
       </c>
       <c r="AT27" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AU27" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AV27" s="10" t="s">
         <v>201</v>
@@ -8297,10 +8297,10 @@
         <v>210</v>
       </c>
       <c r="AX27" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>364</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>217</v>
       </c>
       <c r="Z28" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA28" s="14">
         <v>3</v>
@@ -8395,7 +8395,7 @@
         <v>146</v>
       </c>
       <c r="AL28" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM28" s="14" t="s">
         <v>234</v>
@@ -8404,7 +8404,7 @@
         <v>163</v>
       </c>
       <c r="AO28" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ28" s="14" t="s">
         <v>166</v>
@@ -8413,10 +8413,10 @@
         <v>241</v>
       </c>
       <c r="AT28" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AU28" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AV28" s="14" t="s">
         <v>201</v>
@@ -8425,10 +8425,10 @@
         <v>210</v>
       </c>
       <c r="AX28" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>364</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>217</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA29" s="10">
         <v>3</v>
@@ -8523,7 +8523,7 @@
         <v>147</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM29" s="10" t="s">
         <v>234</v>
@@ -8532,7 +8532,7 @@
         <v>163</v>
       </c>
       <c r="AO29" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ29" s="10" t="s">
         <v>166</v>
@@ -8541,10 +8541,10 @@
         <v>241</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AV29" s="10" t="s">
         <v>201</v>
@@ -8553,10 +8553,10 @@
         <v>210</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>364</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>217</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA30" s="10">
         <v>3</v>
@@ -8651,7 +8651,7 @@
         <v>152</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM30" s="10" t="s">
         <v>234</v>
@@ -8660,7 +8660,7 @@
         <v>162</v>
       </c>
       <c r="AO30" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ30" s="10" t="s">
         <v>166</v>
@@ -8669,10 +8669,10 @@
         <v>241</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AV30" s="10" t="s">
         <v>201</v>
@@ -8681,10 +8681,10 @@
         <v>210</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>364</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>217</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA31" s="10">
         <v>3</v>
@@ -8779,7 +8779,7 @@
         <v>146</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM31" s="10" t="s">
         <v>234</v>
@@ -8788,7 +8788,7 @@
         <v>163</v>
       </c>
       <c r="AO31" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ31" s="10" t="s">
         <v>166</v>
@@ -8797,22 +8797,22 @@
         <v>241</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AV31" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW31" s="10" t="s">
         <v>210</v>
       </c>
       <c r="AX31" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>364</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>217</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA32" s="10">
         <v>3</v>
@@ -8907,7 +8907,7 @@
         <v>147</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM32" s="10" t="s">
         <v>234</v>
@@ -8916,7 +8916,7 @@
         <v>163</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ32" s="10" t="s">
         <v>166</v>
@@ -8925,22 +8925,22 @@
         <v>241</v>
       </c>
       <c r="AT32" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AV32" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW32" s="10" t="s">
         <v>210</v>
       </c>
       <c r="AX32" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>364</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>217</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA33" s="10">
         <v>3</v>
@@ -9035,7 +9035,7 @@
         <v>152</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM33" s="10" t="s">
         <v>234</v>
@@ -9044,7 +9044,7 @@
         <v>162</v>
       </c>
       <c r="AO33" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ33" s="10" t="s">
         <v>166</v>
@@ -9053,22 +9053,22 @@
         <v>241</v>
       </c>
       <c r="AT33" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AV33" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW33" s="10" t="s">
         <v>210</v>
       </c>
       <c r="AX33" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>304</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>313</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA34" s="14">
         <v>3</v>
@@ -9166,7 +9166,7 @@
         <v>132</v>
       </c>
       <c r="AL34" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM34" s="14" t="s">
         <v>234</v>
@@ -9175,10 +9175,10 @@
         <v>163</v>
       </c>
       <c r="AO34" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP34" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ34" s="14" t="s">
         <v>166</v>
@@ -9190,10 +9190,10 @@
         <v>190</v>
       </c>
       <c r="AT34" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU34" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV34" s="14" t="s">
         <v>201</v>
@@ -9202,10 +9202,10 @@
         <v>210</v>
       </c>
       <c r="AX34" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>304</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>313</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA35" s="19">
         <v>3</v>
@@ -9303,7 +9303,7 @@
         <v>132</v>
       </c>
       <c r="AL35" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM35" s="19" t="s">
         <v>234</v>
@@ -9312,10 +9312,10 @@
         <v>163</v>
       </c>
       <c r="AO35" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP35" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ35" s="19" t="s">
         <v>166</v>
@@ -9324,10 +9324,10 @@
         <v>241</v>
       </c>
       <c r="AT35" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU35" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV35" s="19" t="s">
         <v>201</v>
@@ -9336,10 +9336,10 @@
         <v>210</v>
       </c>
       <c r="AX35" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>304</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>313</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA36" s="19">
         <v>3</v>
@@ -9437,7 +9437,7 @@
         <v>132</v>
       </c>
       <c r="AL36" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM36" s="19" t="s">
         <v>234</v>
@@ -9446,10 +9446,10 @@
         <v>162</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP36" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ36" s="19" t="s">
         <v>166</v>
@@ -9458,10 +9458,10 @@
         <v>241</v>
       </c>
       <c r="AT36" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU36" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV36" s="19" t="s">
         <v>201</v>
@@ -9470,10 +9470,10 @@
         <v>210</v>
       </c>
       <c r="AX36" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>304</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>313</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA37" s="19">
         <v>3</v>
@@ -9577,10 +9577,10 @@
         <v>163</v>
       </c>
       <c r="AO37" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP37" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ37" s="19" t="s">
         <v>166</v>
@@ -9592,10 +9592,10 @@
         <v>190</v>
       </c>
       <c r="AT37" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU37" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV37" s="19" t="s">
         <v>201</v>
@@ -9604,10 +9604,10 @@
         <v>210</v>
       </c>
       <c r="AX37" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>304</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>313</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA38" s="19">
         <v>3</v>
@@ -9711,10 +9711,10 @@
         <v>163</v>
       </c>
       <c r="AO38" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP38" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ38" s="19" t="s">
         <v>166</v>
@@ -9723,10 +9723,10 @@
         <v>241</v>
       </c>
       <c r="AT38" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU38" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV38" s="19" t="s">
         <v>201</v>
@@ -9735,10 +9735,10 @@
         <v>210</v>
       </c>
       <c r="AX38" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>304</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>313</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA39" s="19">
         <v>3</v>
@@ -9842,10 +9842,10 @@
         <v>163</v>
       </c>
       <c r="AO39" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP39" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ39" s="19" t="s">
         <v>166</v>
@@ -9854,10 +9854,10 @@
         <v>241</v>
       </c>
       <c r="AT39" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU39" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV39" s="19" t="s">
         <v>201</v>
@@ -9866,10 +9866,10 @@
         <v>210</v>
       </c>
       <c r="AX39" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>304</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>313</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA40" s="19">
         <v>3</v>
@@ -9970,7 +9970,7 @@
         <v>152</v>
       </c>
       <c r="AL40" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM40" s="19" t="s">
         <v>234</v>
@@ -9979,10 +9979,10 @@
         <v>163</v>
       </c>
       <c r="AO40" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP40" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ40" s="19" t="s">
         <v>166</v>
@@ -9994,10 +9994,10 @@
         <v>190</v>
       </c>
       <c r="AT40" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU40" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV40" s="19" t="s">
         <v>201</v>
@@ -10006,10 +10006,10 @@
         <v>212</v>
       </c>
       <c r="AX40" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>304</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>313</v>
       </c>
       <c r="Z41" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA41" s="19">
         <v>3</v>
@@ -10110,7 +10110,7 @@
         <v>152</v>
       </c>
       <c r="AL41" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM41" s="19" t="s">
         <v>234</v>
@@ -10119,10 +10119,10 @@
         <v>163</v>
       </c>
       <c r="AO41" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP41" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ41" s="19" t="s">
         <v>166</v>
@@ -10131,10 +10131,10 @@
         <v>241</v>
       </c>
       <c r="AT41" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU41" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV41" s="19" t="s">
         <v>201</v>
@@ -10143,10 +10143,10 @@
         <v>212</v>
       </c>
       <c r="AX41" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>304</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>313</v>
       </c>
       <c r="Z42" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA42" s="19">
         <v>3</v>
@@ -10247,7 +10247,7 @@
         <v>152</v>
       </c>
       <c r="AL42" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM42" s="19" t="s">
         <v>234</v>
@@ -10256,10 +10256,10 @@
         <v>163</v>
       </c>
       <c r="AO42" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP42" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ42" s="19" t="s">
         <v>166</v>
@@ -10268,10 +10268,10 @@
         <v>241</v>
       </c>
       <c r="AT42" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU42" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV42" s="19" t="s">
         <v>201</v>
@@ -10280,10 +10280,10 @@
         <v>212</v>
       </c>
       <c r="AX42" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>304</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>313</v>
       </c>
       <c r="Z43" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA43" s="19">
         <v>3</v>
@@ -10384,16 +10384,16 @@
         <v>152</v>
       </c>
       <c r="AL43" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM43" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO43" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP43" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ43" s="19" t="s">
         <v>166</v>
@@ -10405,10 +10405,10 @@
         <v>190</v>
       </c>
       <c r="AT43" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU43" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV43" s="19" t="s">
         <v>201</v>
@@ -10417,10 +10417,10 @@
         <v>209</v>
       </c>
       <c r="AX43" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>304</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>313</v>
       </c>
       <c r="Z44" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA44" s="19">
         <v>3</v>
@@ -10521,16 +10521,16 @@
         <v>152</v>
       </c>
       <c r="AL44" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM44" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO44" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP44" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ44" s="19" t="s">
         <v>166</v>
@@ -10539,10 +10539,10 @@
         <v>241</v>
       </c>
       <c r="AT44" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU44" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV44" s="19" t="s">
         <v>201</v>
@@ -10551,10 +10551,10 @@
         <v>209</v>
       </c>
       <c r="AX44" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>304</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>313</v>
       </c>
       <c r="Z45" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA45" s="19">
         <v>3</v>
@@ -10655,16 +10655,16 @@
         <v>152</v>
       </c>
       <c r="AL45" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM45" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO45" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP45" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ45" s="19" t="s">
         <v>166</v>
@@ -10673,10 +10673,10 @@
         <v>241</v>
       </c>
       <c r="AT45" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU45" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV45" s="19" t="s">
         <v>201</v>
@@ -10685,10 +10685,10 @@
         <v>209</v>
       </c>
       <c r="AX45" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>304</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>313</v>
       </c>
       <c r="Z46" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA46" s="19">
         <v>3</v>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="AK46" s="10"/>
       <c r="AL46" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM46" s="19" t="s">
         <v>234</v>
@@ -10796,10 +10796,10 @@
         <v>162</v>
       </c>
       <c r="AO46" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP46" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ46" s="19" t="s">
         <v>166</v>
@@ -10808,10 +10808,10 @@
         <v>241</v>
       </c>
       <c r="AT46" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU46" s="20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AV46" s="19" t="s">
         <v>204</v>
@@ -10820,10 +10820,10 @@
         <v>212</v>
       </c>
       <c r="AX46" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="47" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>304</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>313</v>
       </c>
       <c r="Z47" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA47" s="19">
         <v>3</v>
@@ -10921,7 +10921,7 @@
         <v>132</v>
       </c>
       <c r="AL47" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM47" s="19" t="s">
         <v>234</v>
@@ -10930,10 +10930,10 @@
         <v>163</v>
       </c>
       <c r="AO47" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP47" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ47" s="19" t="s">
         <v>166</v>
@@ -10945,10 +10945,10 @@
         <v>190</v>
       </c>
       <c r="AT47" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU47" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AV47" s="19" t="s">
         <v>207</v>
@@ -10957,10 +10957,10 @@
         <v>209</v>
       </c>
       <c r="AX47" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
         <v>304</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>313</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA48" s="19">
         <v>3</v>
@@ -11058,7 +11058,7 @@
         <v>132</v>
       </c>
       <c r="AL48" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM48" s="19" t="s">
         <v>234</v>
@@ -11067,10 +11067,10 @@
         <v>163</v>
       </c>
       <c r="AO48" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP48" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ48" s="19" t="s">
         <v>166</v>
@@ -11079,10 +11079,10 @@
         <v>241</v>
       </c>
       <c r="AT48" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU48" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AV48" s="19" t="s">
         <v>207</v>
@@ -11091,10 +11091,10 @@
         <v>209</v>
       </c>
       <c r="AX48" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>304</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>313</v>
       </c>
       <c r="Z49" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA49" s="19">
         <v>3</v>
@@ -11192,7 +11192,7 @@
         <v>132</v>
       </c>
       <c r="AL49" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM49" s="19" t="s">
         <v>234</v>
@@ -11201,10 +11201,10 @@
         <v>162</v>
       </c>
       <c r="AO49" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP49" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ49" s="19" t="s">
         <v>166</v>
@@ -11213,10 +11213,10 @@
         <v>241</v>
       </c>
       <c r="AT49" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU49" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AV49" s="19" t="s">
         <v>207</v>
@@ -11225,10 +11225,10 @@
         <v>209</v>
       </c>
       <c r="AX49" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="50" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
         <v>304</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>313</v>
       </c>
       <c r="Z50" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA50" s="19">
         <v>3</v>
@@ -11332,10 +11332,10 @@
         <v>163</v>
       </c>
       <c r="AO50" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP50" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ50" s="19" t="s">
         <v>166</v>
@@ -11347,10 +11347,10 @@
         <v>190</v>
       </c>
       <c r="AT50" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU50" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AV50" s="19" t="s">
         <v>207</v>
@@ -11359,10 +11359,10 @@
         <v>209</v>
       </c>
       <c r="AX50" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="51" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
         <v>304</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>313</v>
       </c>
       <c r="Z51" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA51" s="19">
         <v>3</v>
@@ -11466,10 +11466,10 @@
         <v>163</v>
       </c>
       <c r="AO51" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP51" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ51" s="19" t="s">
         <v>166</v>
@@ -11478,10 +11478,10 @@
         <v>241</v>
       </c>
       <c r="AT51" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU51" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AV51" s="19" t="s">
         <v>207</v>
@@ -11490,10 +11490,10 @@
         <v>209</v>
       </c>
       <c r="AX51" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="52" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
         <v>304</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>313</v>
       </c>
       <c r="Z52" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA52" s="19">
         <v>3</v>
@@ -11597,10 +11597,10 @@
         <v>163</v>
       </c>
       <c r="AO52" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP52" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ52" s="19" t="s">
         <v>166</v>
@@ -11609,10 +11609,10 @@
         <v>241</v>
       </c>
       <c r="AT52" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU52" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AV52" s="19" t="s">
         <v>207</v>
@@ -11621,10 +11621,10 @@
         <v>209</v>
       </c>
       <c r="AX52" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="53" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>331</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>71</v>
       </c>
       <c r="Z53" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA53" s="14">
         <v>3</v>
@@ -11716,7 +11716,7 @@
         <v>118</v>
       </c>
       <c r="AL53" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM53" s="14" t="s">
         <v>234</v>
@@ -11725,10 +11725,10 @@
         <v>164</v>
       </c>
       <c r="AO53" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP53" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ53" s="14" t="s">
         <v>166</v>
@@ -11740,10 +11740,10 @@
         <v>190</v>
       </c>
       <c r="AT53" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AU53" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV53" s="14" t="s">
         <v>201</v>
@@ -11752,10 +11752,10 @@
         <v>210</v>
       </c>
       <c r="AX53" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>331</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>71</v>
       </c>
       <c r="Z54" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA54" s="10">
         <v>3</v>
@@ -11847,7 +11847,7 @@
         <v>118</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM54" s="10" t="s">
         <v>234</v>
@@ -11856,10 +11856,10 @@
         <v>164</v>
       </c>
       <c r="AO54" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP54" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ54" s="10" t="s">
         <v>166</v>
@@ -11871,10 +11871,10 @@
         <v>190</v>
       </c>
       <c r="AT54" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AU54" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV54" s="10" t="s">
         <v>201</v>
@@ -11883,10 +11883,10 @@
         <v>210</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>331</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>71</v>
       </c>
       <c r="Z55" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA55" s="10">
         <v>3</v>
@@ -11978,7 +11978,7 @@
         <v>118</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM55" s="10" t="s">
         <v>234</v>
@@ -11987,10 +11987,10 @@
         <v>164</v>
       </c>
       <c r="AO55" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ55" s="10" t="s">
         <v>166</v>
@@ -12002,10 +12002,10 @@
         <v>190</v>
       </c>
       <c r="AT55" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AU55" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV55" s="10" t="s">
         <v>201</v>
@@ -12014,10 +12014,10 @@
         <v>210</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="56" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>331</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>71</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA56" s="10">
         <v>3</v>
@@ -12109,7 +12109,7 @@
         <v>118</v>
       </c>
       <c r="AL56" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM56" s="10" t="s">
         <v>234</v>
@@ -12118,10 +12118,10 @@
         <v>164</v>
       </c>
       <c r="AO56" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP56" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ56" s="10" t="s">
         <v>166</v>
@@ -12133,10 +12133,10 @@
         <v>192</v>
       </c>
       <c r="AT56" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AU56" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV56" s="10" t="s">
         <v>201</v>
@@ -12145,10 +12145,10 @@
         <v>210</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>331</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>71</v>
       </c>
       <c r="Z57" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA57" s="10">
         <v>3</v>
@@ -12240,7 +12240,7 @@
         <v>118</v>
       </c>
       <c r="AL57" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM57" s="10" t="s">
         <v>234</v>
@@ -12249,10 +12249,10 @@
         <v>164</v>
       </c>
       <c r="AO57" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP57" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ57" s="10" t="s">
         <v>166</v>
@@ -12264,10 +12264,10 @@
         <v>194</v>
       </c>
       <c r="AT57" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AU57" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV57" s="10" t="s">
         <v>201</v>
@@ -12276,10 +12276,10 @@
         <v>210</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>331</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>69</v>
       </c>
       <c r="Z58" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA58" s="10">
         <v>3</v>
@@ -12371,7 +12371,7 @@
         <v>118</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM58" s="10" t="s">
         <v>234</v>
@@ -12380,10 +12380,10 @@
         <v>164</v>
       </c>
       <c r="AO58" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ58" s="10" t="s">
         <v>166</v>
@@ -12395,10 +12395,10 @@
         <v>190</v>
       </c>
       <c r="AT58" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AU58" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV58" s="10" t="s">
         <v>201</v>
@@ -12407,10 +12407,10 @@
         <v>210</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="59" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>331</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>69</v>
       </c>
       <c r="Z59" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA59" s="10">
         <v>3</v>
@@ -12502,7 +12502,7 @@
         <v>118</v>
       </c>
       <c r="AL59" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM59" s="10" t="s">
         <v>234</v>
@@ -12511,10 +12511,10 @@
         <v>164</v>
       </c>
       <c r="AO59" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP59" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ59" s="10" t="s">
         <v>166</v>
@@ -12526,10 +12526,10 @@
         <v>190</v>
       </c>
       <c r="AT59" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AU59" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV59" s="10" t="s">
         <v>201</v>
@@ -12538,10 +12538,10 @@
         <v>210</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>331</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>69</v>
       </c>
       <c r="Z60" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA60" s="10">
         <v>3</v>
@@ -12633,7 +12633,7 @@
         <v>118</v>
       </c>
       <c r="AL60" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM60" s="10" t="s">
         <v>234</v>
@@ -12642,10 +12642,10 @@
         <v>164</v>
       </c>
       <c r="AO60" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP60" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ60" s="10" t="s">
         <v>166</v>
@@ -12657,10 +12657,10 @@
         <v>190</v>
       </c>
       <c r="AT60" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AU60" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV60" s="10" t="s">
         <v>201</v>
@@ -12669,10 +12669,10 @@
         <v>210</v>
       </c>
       <c r="AX60" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="61" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>331</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>69</v>
       </c>
       <c r="Z61" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA61" s="10">
         <v>3</v>
@@ -12764,7 +12764,7 @@
         <v>118</v>
       </c>
       <c r="AL61" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM61" s="10" t="s">
         <v>234</v>
@@ -12773,10 +12773,10 @@
         <v>164</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP61" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ61" s="10" t="s">
         <v>166</v>
@@ -12788,10 +12788,10 @@
         <v>192</v>
       </c>
       <c r="AT61" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AU61" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV61" s="10" t="s">
         <v>201</v>
@@ -12800,10 +12800,10 @@
         <v>210</v>
       </c>
       <c r="AX61" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="62" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>331</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>69</v>
       </c>
       <c r="Z62" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA62" s="10">
         <v>3</v>
@@ -12895,7 +12895,7 @@
         <v>118</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM62" s="10" t="s">
         <v>234</v>
@@ -12904,10 +12904,10 @@
         <v>164</v>
       </c>
       <c r="AO62" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP62" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ62" s="10" t="s">
         <v>166</v>
@@ -12919,10 +12919,10 @@
         <v>194</v>
       </c>
       <c r="AT62" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AU62" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV62" s="10" t="s">
         <v>201</v>
@@ -12931,10 +12931,10 @@
         <v>210</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="63" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>331</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>475</v>
       </c>
       <c r="Z63" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA63" s="10">
         <v>3</v>
@@ -13029,7 +13029,7 @@
         <v>118</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM63" s="10" t="s">
         <v>234</v>
@@ -13038,10 +13038,10 @@
         <v>164</v>
       </c>
       <c r="AO63" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP63" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ63" s="10" t="s">
         <v>166</v>
@@ -13053,10 +13053,10 @@
         <v>190</v>
       </c>
       <c r="AT63" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AU63" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV63" s="10" t="s">
         <v>201</v>
@@ -13065,10 +13065,10 @@
         <v>210</v>
       </c>
       <c r="AX63" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="64" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>331</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>475</v>
       </c>
       <c r="Z64" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA64" s="10">
         <v>3</v>
@@ -13163,7 +13163,7 @@
         <v>118</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM64" s="10" t="s">
         <v>234</v>
@@ -13172,10 +13172,10 @@
         <v>164</v>
       </c>
       <c r="AO64" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP64" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ64" s="10" t="s">
         <v>166</v>
@@ -13187,10 +13187,10 @@
         <v>190</v>
       </c>
       <c r="AT64" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AU64" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV64" s="10" t="s">
         <v>201</v>
@@ -13199,10 +13199,10 @@
         <v>210</v>
       </c>
       <c r="AX64" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="65" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>331</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>475</v>
       </c>
       <c r="Z65" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA65" s="10">
         <v>3</v>
@@ -13297,7 +13297,7 @@
         <v>118</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM65" s="10" t="s">
         <v>234</v>
@@ -13306,10 +13306,10 @@
         <v>164</v>
       </c>
       <c r="AO65" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ65" s="10" t="s">
         <v>166</v>
@@ -13321,10 +13321,10 @@
         <v>190</v>
       </c>
       <c r="AT65" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AU65" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV65" s="10" t="s">
         <v>201</v>
@@ -13333,10 +13333,10 @@
         <v>210</v>
       </c>
       <c r="AX65" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="66" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>331</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>475</v>
       </c>
       <c r="Z66" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA66" s="10">
         <v>3</v>
@@ -13431,7 +13431,7 @@
         <v>118</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM66" s="10" t="s">
         <v>234</v>
@@ -13440,10 +13440,10 @@
         <v>164</v>
       </c>
       <c r="AO66" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP66" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ66" s="10" t="s">
         <v>166</v>
@@ -13455,10 +13455,10 @@
         <v>192</v>
       </c>
       <c r="AT66" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AU66" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV66" s="10" t="s">
         <v>201</v>
@@ -13467,10 +13467,10 @@
         <v>210</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="67" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>331</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>475</v>
       </c>
       <c r="Z67" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA67" s="10">
         <v>3</v>
@@ -13565,7 +13565,7 @@
         <v>118</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM67" s="10" t="s">
         <v>234</v>
@@ -13574,10 +13574,10 @@
         <v>164</v>
       </c>
       <c r="AO67" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP67" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ67" s="10" t="s">
         <v>166</v>
@@ -13589,10 +13589,10 @@
         <v>194</v>
       </c>
       <c r="AT67" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AU67" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV67" s="10" t="s">
         <v>201</v>
@@ -13601,10 +13601,10 @@
         <v>210</v>
       </c>
       <c r="AX67" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="68" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>387</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>69</v>
       </c>
       <c r="Z68" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AA68" s="14">
         <v>2</v>
@@ -13696,7 +13696,7 @@
         <v>119</v>
       </c>
       <c r="AL68" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AM68" s="14" t="s">
         <v>234</v>
@@ -13705,7 +13705,7 @@
         <v>162</v>
       </c>
       <c r="AO68" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AQ68" s="14" t="s">
         <v>167</v>
@@ -13714,10 +13714,10 @@
         <v>175</v>
       </c>
       <c r="AT68" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AU68" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AV68" s="14" t="s">
         <v>201</v>
@@ -13726,10 +13726,10 @@
         <v>209</v>
       </c>
       <c r="AX68" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>387</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>69</v>
       </c>
       <c r="Z69" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AA69" s="10">
         <v>2</v>
@@ -13821,7 +13821,7 @@
         <v>120</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AM69" s="10" t="s">
         <v>234</v>
@@ -13830,7 +13830,7 @@
         <v>162</v>
       </c>
       <c r="AO69" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AQ69" s="10" t="s">
         <v>167</v>
@@ -13839,10 +13839,10 @@
         <v>175</v>
       </c>
       <c r="AT69" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AU69" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AV69" s="10" t="s">
         <v>201</v>
@@ -13851,10 +13851,10 @@
         <v>209</v>
       </c>
       <c r="AX69" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="70" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="s">
         <v>244</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>217</v>
       </c>
       <c r="Z70" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA70" s="14">
         <v>3</v>
@@ -13949,16 +13949,16 @@
         <v>152</v>
       </c>
       <c r="AL70" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AM70" s="14" t="s">
         <v>235</v>
       </c>
       <c r="AO70" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP70" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AQ70" s="14" t="s">
         <v>166</v>
@@ -13967,7 +13967,7 @@
         <v>241</v>
       </c>
       <c r="AT70" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU70" s="14" t="s">
         <v>458</v>
@@ -13979,10 +13979,10 @@
         <v>210</v>
       </c>
       <c r="AX70" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="71" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>244</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>217</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA71" s="10">
         <v>3</v>
@@ -14074,16 +14074,16 @@
         <v>120</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AM71" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO71" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AQ71" s="10" t="s">
         <v>166</v>
@@ -14092,7 +14092,7 @@
         <v>241</v>
       </c>
       <c r="AT71" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU71" s="10" t="s">
         <v>458</v>
@@ -14104,10 +14104,10 @@
         <v>210</v>
       </c>
       <c r="AX71" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="72" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>244</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>217</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA72" s="10">
         <v>3</v>
@@ -14208,16 +14208,16 @@
         <v>152</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM72" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO72" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AQ72" s="10" t="s">
         <v>166</v>
@@ -14226,7 +14226,7 @@
         <v>241</v>
       </c>
       <c r="AT72" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU72" s="10" t="s">
         <v>458</v>
@@ -14238,10 +14238,10 @@
         <v>210</v>
       </c>
       <c r="AX72" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="73" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>244</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>217</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA73" s="10">
         <v>3</v>
@@ -14342,16 +14342,16 @@
         <v>152</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM73" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO73" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP73" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AQ73" s="10" t="s">
         <v>166</v>
@@ -14360,7 +14360,7 @@
         <v>241</v>
       </c>
       <c r="AT73" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU73" s="10" t="s">
         <v>458</v>
@@ -14372,10 +14372,10 @@
         <v>210</v>
       </c>
       <c r="AX73" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>244</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>217</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA74" s="10">
         <v>3</v>
@@ -14476,16 +14476,16 @@
         <v>152</v>
       </c>
       <c r="AL74" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AM74" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO74" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP74" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AQ74" s="10" t="s">
         <v>166</v>
@@ -14494,7 +14494,7 @@
         <v>241</v>
       </c>
       <c r="AT74" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU74" s="10" t="s">
         <v>458</v>
@@ -14506,10 +14506,10 @@
         <v>210</v>
       </c>
       <c r="AX74" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="75" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>403</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>69</v>
       </c>
       <c r="Z75" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA75" s="14">
         <v>3</v>
@@ -14601,7 +14601,7 @@
         <v>222</v>
       </c>
       <c r="AL75" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM75" s="14" t="s">
         <v>234</v>
@@ -14610,7 +14610,7 @@
         <v>164</v>
       </c>
       <c r="AO75" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ75" s="14" t="s">
         <v>166</v>
@@ -14625,7 +14625,7 @@
         <v>152</v>
       </c>
       <c r="AU75" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV75" s="14" t="s">
         <v>201</v>
@@ -14634,10 +14634,10 @@
         <v>211</v>
       </c>
       <c r="AX75" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="76" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>403</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>69</v>
       </c>
       <c r="Z76" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA76" s="10">
         <v>3</v>
@@ -14732,7 +14732,7 @@
         <v>132</v>
       </c>
       <c r="AL76" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM76" s="10" t="s">
         <v>234</v>
@@ -14741,7 +14741,7 @@
         <v>162</v>
       </c>
       <c r="AO76" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ76" s="10" t="s">
         <v>166</v>
@@ -14756,7 +14756,7 @@
         <v>152</v>
       </c>
       <c r="AU76" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV76" s="10" t="s">
         <v>201</v>
@@ -14765,10 +14765,10 @@
         <v>211</v>
       </c>
       <c r="AX76" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>403</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>69</v>
       </c>
       <c r="Z77" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA77" s="10">
         <v>3</v>
@@ -14863,7 +14863,7 @@
         <v>140</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM77" s="10" t="s">
         <v>234</v>
@@ -14872,7 +14872,7 @@
         <v>162</v>
       </c>
       <c r="AO77" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ77" s="10" t="s">
         <v>166</v>
@@ -14887,7 +14887,7 @@
         <v>152</v>
       </c>
       <c r="AU77" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV77" s="10" t="s">
         <v>201</v>
@@ -14896,10 +14896,10 @@
         <v>211</v>
       </c>
       <c r="AX77" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>403</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>69</v>
       </c>
       <c r="Z78" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA78" s="10">
         <v>3</v>
@@ -14991,7 +14991,7 @@
         <v>222</v>
       </c>
       <c r="AL78" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM78" s="10" t="s">
         <v>234</v>
@@ -15000,7 +15000,7 @@
         <v>164</v>
       </c>
       <c r="AO78" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ78" s="10" t="s">
         <v>166</v>
@@ -15012,7 +15012,7 @@
         <v>152</v>
       </c>
       <c r="AU78" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV78" s="10" t="s">
         <v>201</v>
@@ -15021,10 +15021,10 @@
         <v>211</v>
       </c>
       <c r="AX78" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="79" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>403</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>69</v>
       </c>
       <c r="Z79" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA79" s="10">
         <v>3</v>
@@ -15119,7 +15119,7 @@
         <v>132</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM79" s="10" t="s">
         <v>234</v>
@@ -15128,7 +15128,7 @@
         <v>162</v>
       </c>
       <c r="AO79" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ79" s="10" t="s">
         <v>166</v>
@@ -15140,7 +15140,7 @@
         <v>152</v>
       </c>
       <c r="AU79" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV79" s="10" t="s">
         <v>201</v>
@@ -15149,10 +15149,10 @@
         <v>211</v>
       </c>
       <c r="AX79" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>403</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>69</v>
       </c>
       <c r="Z80" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA80" s="10">
         <v>3</v>
@@ -15247,7 +15247,7 @@
         <v>140</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM80" s="10" t="s">
         <v>234</v>
@@ -15256,7 +15256,7 @@
         <v>162</v>
       </c>
       <c r="AO80" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ80" s="10" t="s">
         <v>166</v>
@@ -15268,7 +15268,7 @@
         <v>152</v>
       </c>
       <c r="AU80" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV80" s="10" t="s">
         <v>201</v>
@@ -15277,10 +15277,10 @@
         <v>211</v>
       </c>
       <c r="AX80" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="81" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>403</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>69</v>
       </c>
       <c r="Z81" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA81" s="10">
         <v>3</v>
@@ -15372,7 +15372,7 @@
         <v>222</v>
       </c>
       <c r="AL81" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM81" s="10" t="s">
         <v>234</v>
@@ -15381,7 +15381,7 @@
         <v>164</v>
       </c>
       <c r="AO81" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ81" s="10" t="s">
         <v>166</v>
@@ -15393,7 +15393,7 @@
         <v>152</v>
       </c>
       <c r="AU81" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV81" s="10" t="s">
         <v>201</v>
@@ -15402,10 +15402,10 @@
         <v>211</v>
       </c>
       <c r="AX81" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>403</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>69</v>
       </c>
       <c r="Z82" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA82" s="10">
         <v>3</v>
@@ -15500,7 +15500,7 @@
         <v>132</v>
       </c>
       <c r="AL82" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM82" s="10" t="s">
         <v>234</v>
@@ -15509,7 +15509,7 @@
         <v>162</v>
       </c>
       <c r="AO82" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ82" s="10" t="s">
         <v>166</v>
@@ -15521,7 +15521,7 @@
         <v>152</v>
       </c>
       <c r="AU82" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV82" s="10" t="s">
         <v>201</v>
@@ -15530,10 +15530,10 @@
         <v>211</v>
       </c>
       <c r="AX82" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="83" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>403</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>69</v>
       </c>
       <c r="Z83" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA83" s="10">
         <v>3</v>
@@ -15628,7 +15628,7 @@
         <v>140</v>
       </c>
       <c r="AL83" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM83" s="10" t="s">
         <v>234</v>
@@ -15637,7 +15637,7 @@
         <v>162</v>
       </c>
       <c r="AO83" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ83" s="10" t="s">
         <v>166</v>
@@ -15649,7 +15649,7 @@
         <v>152</v>
       </c>
       <c r="AU83" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV83" s="10" t="s">
         <v>201</v>
@@ -15658,10 +15658,10 @@
         <v>211</v>
       </c>
       <c r="AX83" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="84" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>403</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>69</v>
       </c>
       <c r="Z84" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA84" s="10">
         <v>3</v>
@@ -15753,7 +15753,7 @@
         <v>222</v>
       </c>
       <c r="AL84" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM84" s="10" t="s">
         <v>234</v>
@@ -15762,7 +15762,7 @@
         <v>164</v>
       </c>
       <c r="AO84" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ84" s="10" t="s">
         <v>166</v>
@@ -15777,7 +15777,7 @@
         <v>152</v>
       </c>
       <c r="AU84" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV84" s="10" t="s">
         <v>202</v>
@@ -15786,10 +15786,10 @@
         <v>211</v>
       </c>
       <c r="AX84" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="85" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>403</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>69</v>
       </c>
       <c r="Z85" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA85" s="10">
         <v>3</v>
@@ -15884,7 +15884,7 @@
         <v>132</v>
       </c>
       <c r="AL85" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM85" s="10" t="s">
         <v>234</v>
@@ -15893,7 +15893,7 @@
         <v>162</v>
       </c>
       <c r="AO85" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ85" s="10" t="s">
         <v>166</v>
@@ -15908,7 +15908,7 @@
         <v>152</v>
       </c>
       <c r="AU85" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV85" s="10" t="s">
         <v>202</v>
@@ -15917,10 +15917,10 @@
         <v>211</v>
       </c>
       <c r="AX85" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="86" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>403</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>69</v>
       </c>
       <c r="Z86" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA86" s="10">
         <v>3</v>
@@ -16015,7 +16015,7 @@
         <v>140</v>
       </c>
       <c r="AL86" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM86" s="10" t="s">
         <v>234</v>
@@ -16024,7 +16024,7 @@
         <v>162</v>
       </c>
       <c r="AO86" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ86" s="10" t="s">
         <v>166</v>
@@ -16039,7 +16039,7 @@
         <v>152</v>
       </c>
       <c r="AU86" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV86" s="10" t="s">
         <v>202</v>
@@ -16048,10 +16048,10 @@
         <v>211</v>
       </c>
       <c r="AX86" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="87" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>403</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>69</v>
       </c>
       <c r="Z87" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA87" s="10">
         <v>3</v>
@@ -16143,7 +16143,7 @@
         <v>222</v>
       </c>
       <c r="AL87" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM87" s="10" t="s">
         <v>234</v>
@@ -16152,7 +16152,7 @@
         <v>164</v>
       </c>
       <c r="AO87" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ87" s="10" t="s">
         <v>166</v>
@@ -16164,7 +16164,7 @@
         <v>152</v>
       </c>
       <c r="AU87" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV87" s="10" t="s">
         <v>202</v>
@@ -16173,10 +16173,10 @@
         <v>211</v>
       </c>
       <c r="AX87" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="88" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>403</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>69</v>
       </c>
       <c r="Z88" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA88" s="10">
         <v>3</v>
@@ -16271,7 +16271,7 @@
         <v>132</v>
       </c>
       <c r="AL88" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM88" s="10" t="s">
         <v>234</v>
@@ -16280,7 +16280,7 @@
         <v>162</v>
       </c>
       <c r="AO88" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ88" s="10" t="s">
         <v>166</v>
@@ -16292,7 +16292,7 @@
         <v>152</v>
       </c>
       <c r="AU88" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV88" s="10" t="s">
         <v>202</v>
@@ -16301,10 +16301,10 @@
         <v>211</v>
       </c>
       <c r="AX88" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="89" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>403</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>69</v>
       </c>
       <c r="Z89" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA89" s="10">
         <v>3</v>
@@ -16399,7 +16399,7 @@
         <v>140</v>
       </c>
       <c r="AL89" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM89" s="10" t="s">
         <v>234</v>
@@ -16408,7 +16408,7 @@
         <v>162</v>
       </c>
       <c r="AO89" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ89" s="10" t="s">
         <v>166</v>
@@ -16420,7 +16420,7 @@
         <v>152</v>
       </c>
       <c r="AU89" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV89" s="10" t="s">
         <v>202</v>
@@ -16429,10 +16429,10 @@
         <v>211</v>
       </c>
       <c r="AX89" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="90" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>403</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>69</v>
       </c>
       <c r="Z90" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA90" s="10">
         <v>3</v>
@@ -16524,7 +16524,7 @@
         <v>222</v>
       </c>
       <c r="AL90" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM90" s="10" t="s">
         <v>234</v>
@@ -16533,7 +16533,7 @@
         <v>164</v>
       </c>
       <c r="AO90" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ90" s="10" t="s">
         <v>166</v>
@@ -16545,7 +16545,7 @@
         <v>152</v>
       </c>
       <c r="AU90" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV90" s="10" t="s">
         <v>202</v>
@@ -16554,10 +16554,10 @@
         <v>211</v>
       </c>
       <c r="AX90" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="91" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>403</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>69</v>
       </c>
       <c r="Z91" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA91" s="10">
         <v>3</v>
@@ -16652,7 +16652,7 @@
         <v>132</v>
       </c>
       <c r="AL91" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM91" s="10" t="s">
         <v>234</v>
@@ -16661,7 +16661,7 @@
         <v>162</v>
       </c>
       <c r="AO91" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ91" s="10" t="s">
         <v>166</v>
@@ -16673,7 +16673,7 @@
         <v>152</v>
       </c>
       <c r="AU91" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV91" s="10" t="s">
         <v>202</v>
@@ -16682,10 +16682,10 @@
         <v>211</v>
       </c>
       <c r="AX91" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="92" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>403</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>69</v>
       </c>
       <c r="Z92" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA92" s="10">
         <v>3</v>
@@ -16780,7 +16780,7 @@
         <v>140</v>
       </c>
       <c r="AL92" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM92" s="10" t="s">
         <v>234</v>
@@ -16789,7 +16789,7 @@
         <v>162</v>
       </c>
       <c r="AO92" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ92" s="10" t="s">
         <v>166</v>
@@ -16801,7 +16801,7 @@
         <v>152</v>
       </c>
       <c r="AU92" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV92" s="10" t="s">
         <v>202</v>
@@ -16810,10 +16810,10 @@
         <v>211</v>
       </c>
       <c r="AX92" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="93" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>403</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>218</v>
       </c>
       <c r="Z93" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA93" s="10">
         <v>3</v>
@@ -16905,7 +16905,7 @@
         <v>222</v>
       </c>
       <c r="AL93" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM93" s="10" t="s">
         <v>234</v>
@@ -16914,7 +16914,7 @@
         <v>162</v>
       </c>
       <c r="AO93" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ93" s="10" t="s">
         <v>166</v>
@@ -16929,7 +16929,7 @@
         <v>152</v>
       </c>
       <c r="AU93" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV93" s="10" t="s">
         <v>201</v>
@@ -16938,10 +16938,10 @@
         <v>211</v>
       </c>
       <c r="AX93" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="94" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>403</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>218</v>
       </c>
       <c r="Z94" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA94" s="10">
         <v>3</v>
@@ -17036,7 +17036,7 @@
         <v>132</v>
       </c>
       <c r="AL94" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM94" s="10" t="s">
         <v>234</v>
@@ -17045,7 +17045,7 @@
         <v>162</v>
       </c>
       <c r="AO94" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ94" s="10" t="s">
         <v>166</v>
@@ -17060,7 +17060,7 @@
         <v>152</v>
       </c>
       <c r="AU94" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV94" s="10" t="s">
         <v>201</v>
@@ -17069,10 +17069,10 @@
         <v>211</v>
       </c>
       <c r="AX94" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="95" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>403</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>218</v>
       </c>
       <c r="Z95" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA95" s="10">
         <v>3</v>
@@ -17167,7 +17167,7 @@
         <v>140</v>
       </c>
       <c r="AL95" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM95" s="10" t="s">
         <v>234</v>
@@ -17176,7 +17176,7 @@
         <v>162</v>
       </c>
       <c r="AO95" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ95" s="10" t="s">
         <v>166</v>
@@ -17191,7 +17191,7 @@
         <v>152</v>
       </c>
       <c r="AU95" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV95" s="10" t="s">
         <v>201</v>
@@ -17200,10 +17200,10 @@
         <v>211</v>
       </c>
       <c r="AX95" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="96" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>403</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>218</v>
       </c>
       <c r="Z96" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA96" s="10">
         <v>3</v>
@@ -17295,7 +17295,7 @@
         <v>222</v>
       </c>
       <c r="AL96" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM96" s="10" t="s">
         <v>234</v>
@@ -17304,7 +17304,7 @@
         <v>162</v>
       </c>
       <c r="AO96" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ96" s="10" t="s">
         <v>166</v>
@@ -17316,7 +17316,7 @@
         <v>152</v>
       </c>
       <c r="AU96" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV96" s="10" t="s">
         <v>201</v>
@@ -17325,10 +17325,10 @@
         <v>211</v>
       </c>
       <c r="AX96" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="97" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>403</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>218</v>
       </c>
       <c r="Z97" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA97" s="10">
         <v>3</v>
@@ -17423,7 +17423,7 @@
         <v>132</v>
       </c>
       <c r="AL97" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM97" s="10" t="s">
         <v>234</v>
@@ -17432,7 +17432,7 @@
         <v>162</v>
       </c>
       <c r="AO97" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ97" s="10" t="s">
         <v>166</v>
@@ -17444,7 +17444,7 @@
         <v>152</v>
       </c>
       <c r="AU97" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV97" s="10" t="s">
         <v>201</v>
@@ -17453,10 +17453,10 @@
         <v>211</v>
       </c>
       <c r="AX97" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="98" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>403</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>218</v>
       </c>
       <c r="Z98" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA98" s="10">
         <v>3</v>
@@ -17551,7 +17551,7 @@
         <v>140</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM98" s="10" t="s">
         <v>234</v>
@@ -17560,7 +17560,7 @@
         <v>162</v>
       </c>
       <c r="AO98" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ98" s="10" t="s">
         <v>166</v>
@@ -17572,7 +17572,7 @@
         <v>152</v>
       </c>
       <c r="AU98" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV98" s="10" t="s">
         <v>201</v>
@@ -17581,10 +17581,10 @@
         <v>211</v>
       </c>
       <c r="AX98" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="99" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>403</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>218</v>
       </c>
       <c r="Z99" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA99" s="10">
         <v>3</v>
@@ -17676,7 +17676,7 @@
         <v>222</v>
       </c>
       <c r="AL99" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM99" s="10" t="s">
         <v>234</v>
@@ -17685,7 +17685,7 @@
         <v>162</v>
       </c>
       <c r="AO99" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ99" s="10" t="s">
         <v>166</v>
@@ -17700,7 +17700,7 @@
         <v>152</v>
       </c>
       <c r="AU99" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV99" s="10" t="s">
         <v>201</v>
@@ -17709,10 +17709,10 @@
         <v>211</v>
       </c>
       <c r="AX99" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="100" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>403</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>218</v>
       </c>
       <c r="Z100" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA100" s="10">
         <v>3</v>
@@ -17807,7 +17807,7 @@
         <v>132</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM100" s="10" t="s">
         <v>234</v>
@@ -17816,7 +17816,7 @@
         <v>162</v>
       </c>
       <c r="AO100" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ100" s="10" t="s">
         <v>166</v>
@@ -17831,7 +17831,7 @@
         <v>152</v>
       </c>
       <c r="AU100" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV100" s="10" t="s">
         <v>201</v>
@@ -17840,10 +17840,10 @@
         <v>211</v>
       </c>
       <c r="AX100" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="101" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>403</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>218</v>
       </c>
       <c r="Z101" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA101" s="10">
         <v>3</v>
@@ -17938,7 +17938,7 @@
         <v>140</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM101" s="10" t="s">
         <v>234</v>
@@ -17947,7 +17947,7 @@
         <v>162</v>
       </c>
       <c r="AO101" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ101" s="10" t="s">
         <v>166</v>
@@ -17962,7 +17962,7 @@
         <v>152</v>
       </c>
       <c r="AU101" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV101" s="10" t="s">
         <v>201</v>
@@ -17971,10 +17971,10 @@
         <v>211</v>
       </c>
       <c r="AX101" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="102" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>403</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>218</v>
       </c>
       <c r="Z102" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA102" s="10">
         <v>3</v>
@@ -18066,7 +18066,7 @@
         <v>222</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM102" s="10" t="s">
         <v>234</v>
@@ -18075,7 +18075,7 @@
         <v>162</v>
       </c>
       <c r="AO102" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ102" s="10" t="s">
         <v>166</v>
@@ -18087,7 +18087,7 @@
         <v>152</v>
       </c>
       <c r="AU102" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV102" s="10" t="s">
         <v>201</v>
@@ -18096,10 +18096,10 @@
         <v>211</v>
       </c>
       <c r="AX102" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="103" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>403</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>218</v>
       </c>
       <c r="Z103" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA103" s="10">
         <v>3</v>
@@ -18194,7 +18194,7 @@
         <v>132</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM103" s="10" t="s">
         <v>234</v>
@@ -18203,7 +18203,7 @@
         <v>162</v>
       </c>
       <c r="AO103" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ103" s="10" t="s">
         <v>166</v>
@@ -18215,7 +18215,7 @@
         <v>152</v>
       </c>
       <c r="AU103" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV103" s="10" t="s">
         <v>201</v>
@@ -18224,10 +18224,10 @@
         <v>211</v>
       </c>
       <c r="AX103" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="104" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>403</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>218</v>
       </c>
       <c r="Z104" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA104" s="10">
         <v>3</v>
@@ -18322,7 +18322,7 @@
         <v>140</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM104" s="10" t="s">
         <v>234</v>
@@ -18331,7 +18331,7 @@
         <v>162</v>
       </c>
       <c r="AO104" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ104" s="10" t="s">
         <v>166</v>
@@ -18343,7 +18343,7 @@
         <v>152</v>
       </c>
       <c r="AU104" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV104" s="10" t="s">
         <v>201</v>
@@ -18352,10 +18352,10 @@
         <v>211</v>
       </c>
       <c r="AX104" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="105" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>403</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>218</v>
       </c>
       <c r="Z105" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA105" s="10">
         <v>3</v>
@@ -18447,7 +18447,7 @@
         <v>222</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM105" s="10" t="s">
         <v>234</v>
@@ -18456,7 +18456,7 @@
         <v>162</v>
       </c>
       <c r="AO105" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ105" s="10" t="s">
         <v>166</v>
@@ -18471,7 +18471,7 @@
         <v>152</v>
       </c>
       <c r="AU105" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV105" s="10" t="s">
         <v>201</v>
@@ -18480,10 +18480,10 @@
         <v>211</v>
       </c>
       <c r="AX105" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="106" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>403</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>218</v>
       </c>
       <c r="Z106" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA106" s="10">
         <v>3</v>
@@ -18578,7 +18578,7 @@
         <v>132</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM106" s="10" t="s">
         <v>234</v>
@@ -18587,7 +18587,7 @@
         <v>162</v>
       </c>
       <c r="AO106" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ106" s="10" t="s">
         <v>166</v>
@@ -18602,7 +18602,7 @@
         <v>152</v>
       </c>
       <c r="AU106" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV106" s="10" t="s">
         <v>201</v>
@@ -18611,10 +18611,10 @@
         <v>211</v>
       </c>
       <c r="AX106" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="107" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>403</v>
       </c>
@@ -18685,7 +18685,7 @@
         <v>218</v>
       </c>
       <c r="Z107" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA107" s="10">
         <v>3</v>
@@ -18709,7 +18709,7 @@
         <v>140</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM107" s="10" t="s">
         <v>234</v>
@@ -18718,7 +18718,7 @@
         <v>162</v>
       </c>
       <c r="AO107" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ107" s="10" t="s">
         <v>166</v>
@@ -18733,7 +18733,7 @@
         <v>152</v>
       </c>
       <c r="AU107" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV107" s="10" t="s">
         <v>201</v>
@@ -18742,10 +18742,10 @@
         <v>211</v>
       </c>
       <c r="AX107" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="108" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>403</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>218</v>
       </c>
       <c r="Z108" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA108" s="10">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         <v>222</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM108" s="10" t="s">
         <v>234</v>
@@ -18846,7 +18846,7 @@
         <v>162</v>
       </c>
       <c r="AO108" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ108" s="10" t="s">
         <v>166</v>
@@ -18858,7 +18858,7 @@
         <v>152</v>
       </c>
       <c r="AU108" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV108" s="10" t="s">
         <v>201</v>
@@ -18867,10 +18867,10 @@
         <v>211</v>
       </c>
       <c r="AX108" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="109" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>403</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>218</v>
       </c>
       <c r="Z109" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA109" s="10">
         <v>3</v>
@@ -18965,7 +18965,7 @@
         <v>132</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM109" s="10" t="s">
         <v>234</v>
@@ -18974,7 +18974,7 @@
         <v>162</v>
       </c>
       <c r="AO109" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ109" s="10" t="s">
         <v>166</v>
@@ -18986,7 +18986,7 @@
         <v>152</v>
       </c>
       <c r="AU109" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV109" s="10" t="s">
         <v>201</v>
@@ -18995,10 +18995,10 @@
         <v>211</v>
       </c>
       <c r="AX109" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="110" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>403</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>218</v>
       </c>
       <c r="Z110" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA110" s="10">
         <v>3</v>
@@ -19093,7 +19093,7 @@
         <v>140</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM110" s="10" t="s">
         <v>234</v>
@@ -19102,7 +19102,7 @@
         <v>162</v>
       </c>
       <c r="AO110" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ110" s="10" t="s">
         <v>166</v>
@@ -19114,7 +19114,7 @@
         <v>152</v>
       </c>
       <c r="AU110" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AV110" s="10" t="s">
         <v>201</v>
@@ -19123,10 +19123,10 @@
         <v>211</v>
       </c>
       <c r="AX110" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="111" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
         <v>258</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>2</v>
       </c>
       <c r="AD111" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF111" s="14" t="s">
         <v>443</v>
@@ -19230,7 +19230,7 @@
         <v>162</v>
       </c>
       <c r="AO111" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ111" s="14" t="s">
         <v>167</v>
@@ -19245,7 +19245,7 @@
         <v>480</v>
       </c>
       <c r="AU111" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AV111" s="14" t="s">
         <v>206</v>
@@ -19257,7 +19257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="112" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>258</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>119</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>483</v>
+        <v>651</v>
       </c>
       <c r="AM112" s="10" t="s">
         <v>234</v>
@@ -19361,7 +19361,7 @@
         <v>162</v>
       </c>
       <c r="AO112" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ112" s="10" t="s">
         <v>167</v>
@@ -19376,7 +19376,7 @@
         <v>480</v>
       </c>
       <c r="AU112" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AV112" s="10" t="s">
         <v>206</v>
@@ -19388,7 +19388,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="113" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>258</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>162</v>
       </c>
       <c r="AO113" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ113" s="10" t="s">
         <v>167</v>
@@ -19510,7 +19510,7 @@
         <v>480</v>
       </c>
       <c r="AU113" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AV113" s="10" t="s">
         <v>206</v>
@@ -19522,7 +19522,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="114" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>258</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>147</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AM114" s="10" t="s">
         <v>234</v>
@@ -19629,7 +19629,7 @@
         <v>162</v>
       </c>
       <c r="AO114" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ114" s="10" t="s">
         <v>167</v>
@@ -19644,7 +19644,7 @@
         <v>480</v>
       </c>
       <c r="AU114" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AV114" s="10" t="s">
         <v>206</v>
@@ -19656,7 +19656,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>258</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>162</v>
       </c>
       <c r="AO115" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ115" s="10" t="s">
         <v>167</v>
@@ -19772,7 +19772,7 @@
         <v>480</v>
       </c>
       <c r="AU115" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AV115" s="10" t="s">
         <v>206</v>
@@ -19784,7 +19784,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="116" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>258</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>119</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>483</v>
+        <v>651</v>
       </c>
       <c r="AM116" s="10" t="s">
         <v>234</v>
@@ -19885,7 +19885,7 @@
         <v>162</v>
       </c>
       <c r="AO116" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ116" s="10" t="s">
         <v>167</v>
@@ -19900,7 +19900,7 @@
         <v>480</v>
       </c>
       <c r="AU116" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AV116" s="10" t="s">
         <v>206</v>
@@ -19912,7 +19912,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="117" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>258</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>162</v>
       </c>
       <c r="AO117" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ117" s="10" t="s">
         <v>167</v>
@@ -20031,7 +20031,7 @@
         <v>480</v>
       </c>
       <c r="AU117" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AV117" s="10" t="s">
         <v>206</v>
@@ -20043,7 +20043,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="118" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>258</v>
       </c>
@@ -20138,7 +20138,7 @@
         <v>147</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AM118" s="10" t="s">
         <v>234</v>
@@ -20147,7 +20147,7 @@
         <v>162</v>
       </c>
       <c r="AO118" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ118" s="10" t="s">
         <v>167</v>
@@ -20162,7 +20162,7 @@
         <v>480</v>
       </c>
       <c r="AU118" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AV118" s="10" t="s">
         <v>206</v>
@@ -20174,7 +20174,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="14" t="s">
         <v>393</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>71</v>
       </c>
       <c r="Z119" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AA119" s="14">
         <v>3</v>
@@ -20272,10 +20272,10 @@
         <v>161</v>
       </c>
       <c r="AO119" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP119" s="14" t="s">
         <v>618</v>
-      </c>
-      <c r="AP119" s="14" t="s">
-        <v>619</v>
       </c>
       <c r="AQ119" s="14" t="s">
         <v>166</v>
@@ -20296,10 +20296,10 @@
         <v>209</v>
       </c>
       <c r="AX119" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="120" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>393</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>71</v>
       </c>
       <c r="Z120" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA120" s="10">
         <v>3</v>
@@ -20397,10 +20397,10 @@
         <v>161</v>
       </c>
       <c r="AO120" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP120" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="AP120" s="10" t="s">
-        <v>619</v>
       </c>
       <c r="AQ120" s="10" t="s">
         <v>166</v>
@@ -20421,10 +20421,10 @@
         <v>209</v>
       </c>
       <c r="AX120" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="121" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>393</v>
       </c>
@@ -20495,7 +20495,7 @@
         <v>71</v>
       </c>
       <c r="Z121" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA121" s="10">
         <v>3</v>
@@ -20522,10 +20522,10 @@
         <v>161</v>
       </c>
       <c r="AO121" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP121" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="AP121" s="10" t="s">
-        <v>619</v>
       </c>
       <c r="AQ121" s="10" t="s">
         <v>166</v>
@@ -20546,10 +20546,10 @@
         <v>209</v>
       </c>
       <c r="AX121" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="122" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>393</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>71</v>
       </c>
       <c r="Z122" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA122" s="10">
         <v>3</v>
@@ -20647,10 +20647,10 @@
         <v>161</v>
       </c>
       <c r="AO122" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP122" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="AP122" s="10" t="s">
-        <v>619</v>
       </c>
       <c r="AQ122" s="10" t="s">
         <v>166</v>
@@ -20671,10 +20671,10 @@
         <v>209</v>
       </c>
       <c r="AX122" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="123" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
         <v>427</v>
       </c>
@@ -20745,10 +20745,10 @@
         <v>115</v>
       </c>
       <c r="Y123" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z123" s="14" t="s">
         <v>567</v>
-      </c>
-      <c r="Z123" s="14" t="s">
-        <v>568</v>
       </c>
       <c r="AA123" s="14">
         <v>3</v>
@@ -20772,7 +20772,7 @@
         <v>134</v>
       </c>
       <c r="AL123" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM123" s="14" t="s">
         <v>234</v>
@@ -20781,10 +20781,10 @@
         <v>164</v>
       </c>
       <c r="AO123" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="AP123" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="AP123" s="14" t="s">
-        <v>534</v>
       </c>
       <c r="AQ123" s="14" t="s">
         <v>166</v>
@@ -20796,7 +20796,7 @@
         <v>194</v>
       </c>
       <c r="AU123" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AV123" s="14" t="s">
         <v>201</v>
@@ -20805,10 +20805,10 @@
         <v>210</v>
       </c>
       <c r="AX123" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="124" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>427</v>
       </c>
@@ -20879,10 +20879,10 @@
         <v>115</v>
       </c>
       <c r="Y124" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z124" s="10" t="s">
         <v>567</v>
-      </c>
-      <c r="Z124" s="10" t="s">
-        <v>568</v>
       </c>
       <c r="AA124" s="10">
         <v>3</v>
@@ -20906,13 +20906,13 @@
         <v>134</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM124" s="10" t="s">
         <v>233</v>
       </c>
       <c r="AO124" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AQ124" s="10" t="s">
         <v>166</v>
@@ -20924,7 +20924,7 @@
         <v>190</v>
       </c>
       <c r="AU124" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AV124" s="10" t="s">
         <v>201</v>
@@ -20933,10 +20933,10 @@
         <v>210</v>
       </c>
       <c r="AX124" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="125" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
         <v>410</v>
       </c>
@@ -21010,7 +21010,7 @@
         <v>313</v>
       </c>
       <c r="Z125" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA125" s="14">
         <v>3</v>
@@ -21022,7 +21022,7 @@
         <v>3</v>
       </c>
       <c r="AE125" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF125" s="14" t="s">
         <v>445</v>
@@ -21034,7 +21034,7 @@
         <v>118</v>
       </c>
       <c r="AL125" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AM125" s="14" t="s">
         <v>234</v>
@@ -21043,7 +21043,7 @@
         <v>164</v>
       </c>
       <c r="AO125" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AQ125" s="14" t="s">
         <v>166</v>
@@ -21055,7 +21055,7 @@
         <v>177</v>
       </c>
       <c r="AU125" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV125" s="14" t="s">
         <v>201</v>
@@ -21064,10 +21064,10 @@
         <v>212</v>
       </c>
       <c r="AX125" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="126" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="19" t="s">
         <v>410</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>313</v>
       </c>
       <c r="Z126" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA126" s="19">
         <v>3</v>
@@ -21153,7 +21153,7 @@
         <v>3</v>
       </c>
       <c r="AE126" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF126" s="19" t="s">
         <v>445</v>
@@ -21174,10 +21174,10 @@
         <v>235</v>
       </c>
       <c r="AO126" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AP126" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AQ126" s="19" t="s">
         <v>166</v>
@@ -21189,7 +21189,7 @@
         <v>177</v>
       </c>
       <c r="AU126" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV126" s="19" t="s">
         <v>201</v>
@@ -21198,10 +21198,10 @@
         <v>210</v>
       </c>
       <c r="AX126" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="127" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="19" t="s">
         <v>410</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>313</v>
       </c>
       <c r="Z127" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA127" s="19">
         <v>3</v>
@@ -21287,7 +21287,7 @@
         <v>3</v>
       </c>
       <c r="AE127" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF127" s="19" t="s">
         <v>445</v>
@@ -21299,7 +21299,7 @@
         <v>118</v>
       </c>
       <c r="AL127" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AM127" s="19" t="s">
         <v>234</v>
@@ -21308,7 +21308,7 @@
         <v>164</v>
       </c>
       <c r="AO127" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AQ127" s="19" t="s">
         <v>166</v>
@@ -21320,7 +21320,7 @@
         <v>190</v>
       </c>
       <c r="AU127" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV127" s="19" t="s">
         <v>201</v>
@@ -21329,10 +21329,10 @@
         <v>212</v>
       </c>
       <c r="AX127" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="128" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="19" t="s">
         <v>410</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>313</v>
       </c>
       <c r="Z128" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA128" s="19">
         <v>3</v>
@@ -21418,7 +21418,7 @@
         <v>3</v>
       </c>
       <c r="AE128" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF128" s="19" t="s">
         <v>445</v>
@@ -21436,7 +21436,7 @@
         <v>157</v>
       </c>
       <c r="AL128" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AM128" s="19" t="s">
         <v>234</v>
@@ -21445,7 +21445,7 @@
         <v>164</v>
       </c>
       <c r="AO128" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AQ128" s="19" t="s">
         <v>166</v>
@@ -21457,7 +21457,7 @@
         <v>190</v>
       </c>
       <c r="AU128" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV128" s="19" t="s">
         <v>201</v>
@@ -21466,10 +21466,10 @@
         <v>210</v>
       </c>
       <c r="AX128" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="129" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="19" t="s">
         <v>410</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>313</v>
       </c>
       <c r="Z129" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA129" s="19">
         <v>3</v>
@@ -21555,7 +21555,7 @@
         <v>3</v>
       </c>
       <c r="AE129" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF129" s="19" t="s">
         <v>445</v>
@@ -21567,7 +21567,7 @@
         <v>118</v>
       </c>
       <c r="AL129" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AM129" s="19" t="s">
         <v>234</v>
@@ -21576,7 +21576,7 @@
         <v>164</v>
       </c>
       <c r="AO129" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AQ129" s="19" t="s">
         <v>166</v>
@@ -21588,10 +21588,10 @@
         <v>178</v>
       </c>
       <c r="AT129" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AU129" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV129" s="19" t="s">
         <v>201</v>
@@ -21600,10 +21600,10 @@
         <v>212</v>
       </c>
       <c r="AX129" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="130" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="19" t="s">
         <v>410</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>313</v>
       </c>
       <c r="Z130" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA130" s="19">
         <v>3</v>
@@ -21689,7 +21689,7 @@
         <v>3</v>
       </c>
       <c r="AE130" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF130" s="19" t="s">
         <v>445</v>
@@ -21710,10 +21710,10 @@
         <v>235</v>
       </c>
       <c r="AO130" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AP130" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AQ130" s="19" t="s">
         <v>166</v>
@@ -21725,7 +21725,7 @@
         <v>178</v>
       </c>
       <c r="AU130" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV130" s="19" t="s">
         <v>201</v>
@@ -21734,10 +21734,10 @@
         <v>210</v>
       </c>
       <c r="AX130" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="131" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="19" t="s">
         <v>410</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>313</v>
       </c>
       <c r="Z131" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA131" s="19">
         <v>3</v>
@@ -21823,7 +21823,7 @@
         <v>3</v>
       </c>
       <c r="AE131" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF131" s="19" t="s">
         <v>445</v>
@@ -21835,7 +21835,7 @@
         <v>118</v>
       </c>
       <c r="AL131" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AM131" s="19" t="s">
         <v>234</v>
@@ -21844,16 +21844,16 @@
         <v>164</v>
       </c>
       <c r="AO131" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AQ131" s="19" t="s">
         <v>166</v>
       </c>
       <c r="AT131" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AU131" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV131" s="19" t="s">
         <v>201</v>
@@ -21862,10 +21862,10 @@
         <v>212</v>
       </c>
       <c r="AX131" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="132" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="19" t="s">
         <v>410</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>313</v>
       </c>
       <c r="Z132" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA132" s="19">
         <v>3</v>
@@ -21951,7 +21951,7 @@
         <v>3</v>
       </c>
       <c r="AE132" s="19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF132" s="19" t="s">
         <v>445</v>
@@ -21969,7 +21969,7 @@
         <v>157</v>
       </c>
       <c r="AL132" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AM132" s="19" t="s">
         <v>234</v>
@@ -21978,7 +21978,7 @@
         <v>164</v>
       </c>
       <c r="AO132" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AQ132" s="19" t="s">
         <v>166</v>
@@ -21987,10 +21987,10 @@
         <v>115</v>
       </c>
       <c r="AT132" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AU132" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV132" s="19" t="s">
         <v>201</v>
@@ -21999,10 +21999,10 @@
         <v>210</v>
       </c>
       <c r="AX132" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="133" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="21" t="s">
         <v>410</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>313</v>
       </c>
       <c r="Z133" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA133" s="21">
         <v>3</v>
@@ -22088,7 +22088,7 @@
         <v>3</v>
       </c>
       <c r="AE133" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF133" s="21" t="s">
         <v>445</v>
@@ -22109,19 +22109,19 @@
         <v>235</v>
       </c>
       <c r="AO133" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AP133" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AQ133" s="21" t="s">
         <v>166</v>
       </c>
       <c r="AT133" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AU133" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV133" s="21" t="s">
         <v>201</v>
@@ -22130,10 +22130,10 @@
         <v>210</v>
       </c>
       <c r="AX133" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="134" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="14" t="s">
         <v>371</v>
       </c>
@@ -22204,7 +22204,7 @@
         <v>72</v>
       </c>
       <c r="Z134" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AA134" s="14">
         <v>3</v>
@@ -22231,16 +22231,16 @@
         <v>157</v>
       </c>
       <c r="AL134" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM134" s="14" t="s">
         <v>161</v>
       </c>
       <c r="AO134" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AP134" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AQ134" s="14" t="s">
         <v>166</v>
@@ -22250,7 +22250,7 @@
       </c>
       <c r="AT134" s="16"/>
       <c r="AU134" s="16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AV134" s="16" t="s">
         <v>214</v>
@@ -22259,10 +22259,10 @@
         <v>211</v>
       </c>
       <c r="AX134" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="135" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="21" t="s">
         <v>371</v>
       </c>
@@ -22333,7 +22333,7 @@
         <v>72</v>
       </c>
       <c r="Z135" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AA135" s="21">
         <v>3</v>
@@ -22360,16 +22360,16 @@
         <v>157</v>
       </c>
       <c r="AL135" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM135" s="21" t="s">
         <v>161</v>
       </c>
       <c r="AO135" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AP135" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AQ135" s="21" t="s">
         <v>166</v>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="AT135" s="27"/>
       <c r="AU135" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AV135" s="27" t="s">
         <v>214</v>
@@ -22388,10 +22388,10 @@
         <v>211</v>
       </c>
       <c r="AX135" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="136" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="14" t="s">
         <v>339</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>218</v>
       </c>
       <c r="Z136" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AB136" s="14">
         <v>3</v>
@@ -22495,7 +22495,7 @@
         <v>164</v>
       </c>
       <c r="AO136" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ136" s="14" t="s">
         <v>166</v>
@@ -22504,10 +22504,10 @@
         <v>170</v>
       </c>
       <c r="AT136" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AU136" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AV136" s="14" t="s">
         <v>201</v>
@@ -22516,10 +22516,10 @@
         <v>210</v>
       </c>
       <c r="AX136" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="19" t="s">
         <v>339</v>
       </c>
@@ -22590,7 +22590,7 @@
         <v>218</v>
       </c>
       <c r="Z137" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AB137" s="19">
         <v>3</v>
@@ -22614,7 +22614,7 @@
         <v>147</v>
       </c>
       <c r="AL137" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM137" s="19" t="s">
         <v>234</v>
@@ -22623,7 +22623,7 @@
         <v>164</v>
       </c>
       <c r="AO137" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ137" s="19" t="s">
         <v>166</v>
@@ -22632,10 +22632,10 @@
         <v>170</v>
       </c>
       <c r="AT137" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AU137" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AV137" s="19" t="s">
         <v>201</v>
@@ -22644,10 +22644,10 @@
         <v>210</v>
       </c>
       <c r="AX137" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="138" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="21" t="s">
         <v>339</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>218</v>
       </c>
       <c r="Z138" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AB138" s="21">
         <v>3</v>
@@ -22742,7 +22742,7 @@
         <v>146</v>
       </c>
       <c r="AL138" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AM138" s="21" t="s">
         <v>234</v>
@@ -22751,7 +22751,7 @@
         <v>164</v>
       </c>
       <c r="AO138" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ138" s="21" t="s">
         <v>166</v>
@@ -22760,10 +22760,10 @@
         <v>170</v>
       </c>
       <c r="AT138" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AU138" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AV138" s="21" t="s">
         <v>201</v>
@@ -22772,10 +22772,10 @@
         <v>210</v>
       </c>
       <c r="AX138" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="139" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>434</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>69</v>
       </c>
       <c r="Z139" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA139" s="10">
         <v>3</v>
@@ -22879,10 +22879,10 @@
         <v>162</v>
       </c>
       <c r="AO139" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AP139" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AQ139" s="10" t="s">
         <v>166</v>
@@ -22894,10 +22894,10 @@
         <v>177</v>
       </c>
       <c r="AT139" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AU139" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AV139" s="10" t="s">
         <v>201</v>
@@ -22906,10 +22906,10 @@
         <v>210</v>
       </c>
       <c r="AX139" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
-    <row r="140" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
         <v>434</v>
       </c>
@@ -22980,7 +22980,7 @@
         <v>69</v>
       </c>
       <c r="Z140" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA140" s="10">
         <v>3</v>
@@ -23010,10 +23010,10 @@
         <v>162</v>
       </c>
       <c r="AO140" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AP140" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AQ140" s="10" t="s">
         <v>166</v>
@@ -23025,10 +23025,10 @@
         <v>177</v>
       </c>
       <c r="AT140" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AU140" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AV140" s="10" t="s">
         <v>201</v>
@@ -23037,10 +23037,10 @@
         <v>210</v>
       </c>
       <c r="AX140" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
-    <row r="141" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="21" t="s">
         <v>434</v>
       </c>
@@ -23112,7 +23112,7 @@
         <v>69</v>
       </c>
       <c r="Z141" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA141" s="21">
         <v>3</v>
@@ -23151,10 +23151,10 @@
         <v>162</v>
       </c>
       <c r="AO141" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AP141" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AQ141" s="21" t="s">
         <v>166</v>
@@ -23166,10 +23166,10 @@
         <v>177</v>
       </c>
       <c r="AT141" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AU141" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AV141" s="21" t="s">
         <v>201</v>
@@ -23178,10 +23178,10 @@
         <v>210</v>
       </c>
       <c r="AX141" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
-    <row r="142" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
         <v>323</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>313</v>
       </c>
       <c r="Z142" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA142" s="10">
         <v>3</v>
@@ -23280,22 +23280,22 @@
         <v>132</v>
       </c>
       <c r="AL142" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AM142" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO142" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP142" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ142" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU142" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV142" s="10" t="s">
         <v>201</v>
@@ -23304,10 +23304,10 @@
         <v>209</v>
       </c>
       <c r="AX142" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="143" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
         <v>323</v>
       </c>
@@ -23382,7 +23382,7 @@
         <v>313</v>
       </c>
       <c r="Z143" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA143" s="10">
         <v>3</v>
@@ -23406,22 +23406,22 @@
         <v>146</v>
       </c>
       <c r="AL143" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AM143" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO143" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP143" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ143" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU143" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV143" s="10" t="s">
         <v>201</v>
@@ -23430,10 +23430,10 @@
         <v>209</v>
       </c>
       <c r="AX143" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="144" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
         <v>323</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>313</v>
       </c>
       <c r="Z144" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA144" s="10">
         <v>3</v>
@@ -23532,22 +23532,22 @@
         <v>149</v>
       </c>
       <c r="AL144" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AM144" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO144" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP144" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ144" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU144" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV144" s="10" t="s">
         <v>201</v>
@@ -23556,10 +23556,10 @@
         <v>209</v>
       </c>
       <c r="AX144" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="145" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>323</v>
       </c>
@@ -23634,7 +23634,7 @@
         <v>313</v>
       </c>
       <c r="Z145" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA145" s="10">
         <v>3</v>
@@ -23658,22 +23658,22 @@
         <v>133</v>
       </c>
       <c r="AL145" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AM145" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO145" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP145" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ145" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU145" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV145" s="10" t="s">
         <v>201</v>
@@ -23682,10 +23682,10 @@
         <v>209</v>
       </c>
       <c r="AX145" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="146" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>323</v>
       </c>
@@ -23760,7 +23760,7 @@
         <v>313</v>
       </c>
       <c r="Z146" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA146" s="10">
         <v>3</v>
@@ -23784,22 +23784,22 @@
         <v>147</v>
       </c>
       <c r="AL146" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AM146" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO146" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP146" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ146" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU146" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV146" s="10" t="s">
         <v>201</v>
@@ -23808,10 +23808,10 @@
         <v>209</v>
       </c>
       <c r="AX146" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="147" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
         <v>323</v>
       </c>
@@ -23883,7 +23883,7 @@
         <v>217</v>
       </c>
       <c r="Z147" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA147" s="10">
         <v>3</v>
@@ -23907,22 +23907,22 @@
         <v>132</v>
       </c>
       <c r="AL147" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AM147" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO147" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP147" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ147" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU147" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV147" s="10" t="s">
         <v>201</v>
@@ -23931,10 +23931,10 @@
         <v>209</v>
       </c>
       <c r="AX147" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="148" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
         <v>323</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>59</v>
       </c>
       <c r="V148" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="W148" s="10" t="s">
         <v>53</v>
@@ -24006,7 +24006,7 @@
         <v>217</v>
       </c>
       <c r="Z148" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA148" s="10">
         <v>3</v>
@@ -24030,22 +24030,22 @@
         <v>146</v>
       </c>
       <c r="AL148" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AM148" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO148" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP148" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ148" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU148" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV148" s="10" t="s">
         <v>201</v>
@@ -24054,10 +24054,10 @@
         <v>209</v>
       </c>
       <c r="AX148" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="149" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>323</v>
       </c>
@@ -24129,7 +24129,7 @@
         <v>217</v>
       </c>
       <c r="Z149" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA149" s="10">
         <v>3</v>
@@ -24153,22 +24153,22 @@
         <v>149</v>
       </c>
       <c r="AL149" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AM149" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO149" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP149" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ149" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU149" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV149" s="10" t="s">
         <v>201</v>
@@ -24177,10 +24177,10 @@
         <v>209</v>
       </c>
       <c r="AX149" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="150" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
         <v>323</v>
       </c>
@@ -24243,7 +24243,7 @@
         <v>59</v>
       </c>
       <c r="V150" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="W150" s="10" t="s">
         <v>53</v>
@@ -24252,7 +24252,7 @@
         <v>217</v>
       </c>
       <c r="Z150" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA150" s="10">
         <v>3</v>
@@ -24278,22 +24278,22 @@
       <c r="AJ150" s="19"/>
       <c r="AK150" s="19"/>
       <c r="AL150" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AM150" s="19" t="s">
         <v>234</v>
       </c>
       <c r="AO150" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP150" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ150" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU150" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV150" s="10" t="s">
         <v>201</v>
@@ -24302,10 +24302,10 @@
         <v>209</v>
       </c>
       <c r="AX150" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="151" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="21" t="s">
         <v>323</v>
       </c>
@@ -24367,7 +24367,7 @@
         <v>59</v>
       </c>
       <c r="V151" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="W151" s="21" t="s">
         <v>53</v>
@@ -24376,7 +24376,7 @@
         <v>217</v>
       </c>
       <c r="Z151" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA151" s="21">
         <v>3</v>
@@ -24400,22 +24400,22 @@
         <v>147</v>
       </c>
       <c r="AL151" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AM151" s="21" t="s">
         <v>234</v>
       </c>
       <c r="AO151" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP151" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ151" s="21" t="s">
         <v>152</v>
       </c>
       <c r="AU151" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV151" s="21" t="s">
         <v>201</v>
@@ -24424,7 +24424,7 @@
         <v>209</v>
       </c>
       <c r="AX151" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -24438,12 +24438,12 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="112">
+  <dataValidations count="106">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q111:Q118 P3:Q110 P123:Q141 P111:P1048576" xr:uid="{067F763E-F721-4644-970C-123CCCB709D1}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN21:AN23 AR27 AR25:AS26 AR24 AR3:AS23 AN3:AO20 AI142:AI151 AJ153 AR28:AS1048576 AN24:AO1048576 AI154:AJ1048576" xr:uid="{32B647B3-AD5A-419A-BC13-814E3BA278E7}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI109:AJ115 AI92:AJ92 AJ150:AJ151 AI58:AJ58 AI84:AJ84 AJ142 AJ145:AJ147 AI3:AJ21 AI123:AJ123 AI24 AI94 AI43:AI46 AI52 AI76:AJ81 AI23:AJ23 AI69 AI98:AJ106 AI49:AJ49 AI60:AJ67 AI128:AK128 AI125:AJ141" xr:uid="{94E0278A-75D4-4556-8D7B-73AD9A2498CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI109:AJ115 AJ150:AJ151 AI84:AJ84 AJ142 AJ145:AJ147 AI3:AJ21 AI123:AJ123 AI24 AI94 AI43:AI46 AI52 AI76:AJ81 AI23:AJ23 AI69 AI49:AJ49 AI128:AK128 AI125:AJ141 AI91:AJ93 AI41:AJ43 AI57:AJ67 AI56:AI58 AI86:AJ86 AI98:AJ106" xr:uid="{94E0278A-75D4-4556-8D7B-73AD9A2498CF}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI81:AJ85 AI87:AJ91 AJ127 AJ131 AI132:AK132 AI75:AJ79 AI93:AJ97 AI3:AJ6 AI8:AJ19 AI28:AJ32 AI25:AJ26 AI70:AJ73 AI34:AJ35 AJ40:AJ41 AI39:AI42 AI37:AJ38 AI47:AJ48 AI50:AJ51 AI68:AJ68 AI53:AJ61 AI63:AJ66 AI123:AJ123 AI99:AJ103 AI105:AJ109 AI111:AJ121 AI134:AJ137 AI43:AJ43 AI21:AJ22 AI126:AJ126 AI139:AJ141" xr:uid="{9F741B9E-A1E6-4CBC-9915-0D378AFACA05}">
@@ -24713,17 +24713,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI130:AJ133" xr:uid="{AE9A2D8F-907E-415D-A1BC-2E7586D1A226}">
       <formula1>INDIRECT(AI86)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI98:AJ98" xr:uid="{CB3E349D-6CA9-439E-860B-DB0120A2D91E}">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI86:AJ86" xr:uid="{F1A5F5B7-5362-4E77-BE37-706F7109B37D}">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53:AI55" xr:uid="{368BEA32-E55B-43FD-A891-105DE6B8E7ED}">
       <formula1>INDIRECT(AI136)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI56:AI58" xr:uid="{6EDFF6BD-5EC3-4379-859C-AF4F47738988}">
-      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI42" xr:uid="{065E00FD-CCD6-4D30-AE12-8B4B0269EB33}">
       <formula1>INDIRECT(AI142)</formula1>
@@ -24746,26 +24737,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI60:AJ62" xr:uid="{02BBBC4B-09C4-4099-8A36-F417EFA21FBD}">
       <formula1>INDIRECT(AI139)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI57:AJ59" xr:uid="{C351E970-6917-4EFC-8E1B-935207662348}">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI38:AJ40" xr:uid="{F0A9FFC4-3FFB-4127-9BB7-4B2ECBDC6A74}">
       <formula1>INDIRECT(AI136)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI44:AJ44" xr:uid="{B6118ADA-FE78-4EB5-9E39-B737FA3808E9}">
       <formula1>INDIRECT(AI139)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI41:AJ43" xr:uid="{4EA32D60-86AA-466C-9A38-6CD1831F438F}">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI88:AJ90" xr:uid="{3B821F9B-C721-4725-8874-4685620F0AAC}">
       <formula1>INDIRECT(AI136)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI94:AJ96" xr:uid="{C565CE02-8308-4C2F-9324-E5B79AFA99D7}">
       <formula1>INDIRECT(AI139)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI91:AJ93" xr:uid="{87F2AAA0-1728-43F8-A74F-57FA6938C967}">
-      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{CD2D3B94-BB8C-49CF-928A-1C3A232AF32F}">
       <formula1>Ecosystem_component</formula1>
@@ -24884,19 +24866,19 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="24.42578125" customWidth="1"/>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.453125" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="26.26953125" customWidth="1"/>
     <col min="42" max="42" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
@@ -24961,7 +24943,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -25110,7 +25092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -25167,7 +25149,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -25224,7 +25206,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -25280,7 +25262,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -25325,7 +25307,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -25367,7 +25349,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -25405,7 +25387,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -25440,7 +25422,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -25472,7 +25454,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -25507,7 +25489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -25539,7 +25521,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -25574,7 +25556,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -25603,7 +25585,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -25632,7 +25614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -25652,7 +25634,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>164</v>
       </c>
@@ -25660,22 +25642,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP19" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>117</v>
       </c>
@@ -25710,7 +25692,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>131</v>
       </c>
@@ -25736,7 +25718,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>139</v>
       </c>
@@ -25759,7 +25741,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>146</v>
       </c>
@@ -25770,7 +25752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>149</v>
       </c>
@@ -25781,7 +25763,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>151</v>
       </c>
@@ -25789,12 +25771,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP29" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>153</v>
       </c>
@@ -25817,7 +25799,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>131</v>
       </c>
@@ -25843,7 +25825,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>155</v>
       </c>
@@ -25869,7 +25851,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>157</v>
       </c>
@@ -25889,7 +25871,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>159</v>
       </c>
@@ -25904,7 +25886,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>115</v>
       </c>
@@ -25918,7 +25900,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>213</v>
       </c>
@@ -25926,10 +25908,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -25957,37 +25939,37 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.26953125" customWidth="1"/>
+    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
@@ -26034,7 +26016,7 @@
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -26135,7 +26117,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -26195,7 +26177,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -26243,7 +26225,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -26294,7 +26276,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -26333,7 +26315,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -26375,7 +26357,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -26410,7 +26392,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -26445,7 +26427,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -26477,7 +26459,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -26506,7 +26488,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -26538,7 +26520,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -26567,7 +26549,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -26590,7 +26572,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -26616,7 +26598,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -26633,7 +26615,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>121</v>
       </c>
@@ -26644,7 +26626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>122</v>
       </c>
@@ -26658,7 +26640,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>154</v>
       </c>
@@ -26672,7 +26654,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>158</v>
       </c>
@@ -26683,7 +26665,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>230</v>
       </c>
@@ -26697,7 +26679,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>115</v>
       </c>
@@ -26708,7 +26690,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>129</v>
       </c>
@@ -26719,7 +26701,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>143</v>
       </c>
@@ -26727,7 +26709,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>148</v>
       </c>
@@ -26735,7 +26717,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>150</v>
       </c>
@@ -26743,7 +26725,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>152</v>
       </c>
@@ -26757,7 +26739,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>124</v>
       </c>
@@ -26768,7 +26750,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>144</v>
       </c>
@@ -26779,7 +26761,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>125</v>
       </c>
@@ -26790,7 +26772,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>145</v>
       </c>
@@ -26798,7 +26780,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>130</v>
       </c>
@@ -26806,12 +26788,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>152</v>
       </c>
@@ -26988,12 +26970,12 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623866E1-E4D6-4478-88D4-9ADB3600891B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDC67EF-9744-45C0-A1EE-683EF742FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="654">
   <si>
     <t>SearchID</t>
   </si>
@@ -4111,9 +4111,6 @@
   </si>
   <si>
     <t>Revenue</t>
-  </si>
-  <si>
-    <t>Biolobical parameters (e.g. growth parameters, recruitment)</t>
   </si>
   <si>
     <t>The positive effects expected from protecting hake nursery grounds are only marginally related to a reduction in hake recruits fishing mortality</t>
@@ -4283,6 +4280,15 @@
   </si>
   <si>
     <t>Sparus aurata _ Thunnus thynnus _ Scomber scombrus _ Coryphaena hippurus _ Dicentrarchus labrax _ Euthynnus alletteratus _ Trachurus trachurus _ Lichia amia _ Pomatomus saltatrix _ Lithognathus mormyrus _ Anguilla anguilla _ Boops boops _ Diplodus sargus sargus _ Sarda sarda _ Pagellus erythrinus _ Merluccius merluccius _ Scomber colias _ Mugil spp. _ Merlangius merlangus _ Spicara maena _ Chelidonichthys lucerna _ Oblada melanura _ Platichthys flesus _ Ombrina cirrosa _ Scophthalmus rhombus _ Scophthalmus maximus</t>
+  </si>
+  <si>
+    <t>Bycatch mortality</t>
+  </si>
+  <si>
+    <t>Trawling impact (change in mean annual trawling frequency as compared to the baseline scenario)</t>
+  </si>
+  <si>
+    <t>Biological parameters (e.g. growth parameters, recruitment)</t>
   </si>
 </sst>
 </file>
@@ -4797,7 +4803,7 @@
   <dimension ref="A1:AX151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT156" sqref="AT156"/>
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5707,7 +5713,7 @@
         <v>459</v>
       </c>
       <c r="AU7" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AV7" s="14" t="s">
         <v>201</v>
@@ -5841,10 +5847,10 @@
         <v>459</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="AV8" s="10" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="AW8" s="10" t="s">
         <v>211</v>
@@ -5972,10 +5978,10 @@
         <v>459</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="AV9" s="10" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="AW9" s="10" t="s">
         <v>211</v>
@@ -6106,10 +6112,10 @@
         <v>459</v>
       </c>
       <c r="AU10" s="21" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="AV10" s="10" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="AW10" s="10" t="s">
         <v>211</v>
@@ -6228,7 +6234,7 @@
         <v>464</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="AQ11" s="14" t="s">
         <v>166</v>
@@ -6249,7 +6255,7 @@
         <v>209</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6362,7 +6368,7 @@
         <v>464</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="AQ12" s="10" t="s">
         <v>166</v>
@@ -6383,7 +6389,7 @@
         <v>209</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6496,7 +6502,7 @@
         <v>464</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="AQ13" s="10" t="s">
         <v>166</v>
@@ -6520,7 +6526,7 @@
         <v>209</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6633,7 +6639,7 @@
         <v>464</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="AQ14" s="10" t="s">
         <v>166</v>
@@ -6657,7 +6663,7 @@
         <v>209</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7267,7 +7273,7 @@
         <v>209</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7389,7 +7395,7 @@
         <v>209</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7496,13 +7502,13 @@
         <v>526</v>
       </c>
       <c r="AP21" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="AU21" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AV21" s="14" t="s">
         <v>201</v>
@@ -7618,13 +7624,13 @@
         <v>526</v>
       </c>
       <c r="AP22" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ22" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU22" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AV22" s="10" t="s">
         <v>201</v>
@@ -7743,13 +7749,13 @@
         <v>526</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ23" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AV23" s="10" t="s">
         <v>201</v>
@@ -7868,7 +7874,7 @@
         <v>521</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AQ24" s="10" t="s">
         <v>166</v>
@@ -7877,7 +7883,7 @@
         <v>241</v>
       </c>
       <c r="AU24" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AV24" s="12" t="s">
         <v>214</v>
@@ -7886,7 +7892,7 @@
         <v>211</v>
       </c>
       <c r="AX24" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -9142,7 +9148,7 @@
         <v>313</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA34" s="14">
         <v>3</v>
@@ -9193,7 +9199,7 @@
         <v>495</v>
       </c>
       <c r="AU34" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV34" s="14" t="s">
         <v>201</v>
@@ -9202,7 +9208,7 @@
         <v>210</v>
       </c>
       <c r="AX34" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9279,7 +9285,7 @@
         <v>313</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA35" s="19">
         <v>3</v>
@@ -9327,7 +9333,7 @@
         <v>496</v>
       </c>
       <c r="AU35" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV35" s="19" t="s">
         <v>201</v>
@@ -9336,7 +9342,7 @@
         <v>210</v>
       </c>
       <c r="AX35" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9413,7 +9419,7 @@
         <v>313</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA36" s="19">
         <v>3</v>
@@ -9461,7 +9467,7 @@
         <v>497</v>
       </c>
       <c r="AU36" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV36" s="19" t="s">
         <v>201</v>
@@ -9470,7 +9476,7 @@
         <v>210</v>
       </c>
       <c r="AX36" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9547,7 +9553,7 @@
         <v>313</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA37" s="19">
         <v>3</v>
@@ -9595,7 +9601,7 @@
         <v>495</v>
       </c>
       <c r="AU37" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV37" s="19" t="s">
         <v>201</v>
@@ -9604,7 +9610,7 @@
         <v>210</v>
       </c>
       <c r="AX37" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9681,7 +9687,7 @@
         <v>313</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA38" s="19">
         <v>3</v>
@@ -9726,7 +9732,7 @@
         <v>496</v>
       </c>
       <c r="AU38" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV38" s="19" t="s">
         <v>201</v>
@@ -9735,7 +9741,7 @@
         <v>210</v>
       </c>
       <c r="AX38" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9812,7 +9818,7 @@
         <v>313</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA39" s="19">
         <v>3</v>
@@ -9857,7 +9863,7 @@
         <v>497</v>
       </c>
       <c r="AU39" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV39" s="19" t="s">
         <v>201</v>
@@ -9866,7 +9872,7 @@
         <v>210</v>
       </c>
       <c r="AX39" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9943,7 +9949,7 @@
         <v>313</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA40" s="19">
         <v>3</v>
@@ -9970,7 +9976,7 @@
         <v>152</v>
       </c>
       <c r="AL40" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM40" s="19" t="s">
         <v>234</v>
@@ -9997,7 +10003,7 @@
         <v>495</v>
       </c>
       <c r="AU40" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV40" s="19" t="s">
         <v>201</v>
@@ -10006,7 +10012,7 @@
         <v>212</v>
       </c>
       <c r="AX40" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10083,7 +10089,7 @@
         <v>313</v>
       </c>
       <c r="Z41" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA41" s="19">
         <v>3</v>
@@ -10110,7 +10116,7 @@
         <v>152</v>
       </c>
       <c r="AL41" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM41" s="19" t="s">
         <v>234</v>
@@ -10134,7 +10140,7 @@
         <v>496</v>
       </c>
       <c r="AU41" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV41" s="19" t="s">
         <v>201</v>
@@ -10143,7 +10149,7 @@
         <v>212</v>
       </c>
       <c r="AX41" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10220,7 +10226,7 @@
         <v>313</v>
       </c>
       <c r="Z42" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA42" s="19">
         <v>3</v>
@@ -10247,7 +10253,7 @@
         <v>152</v>
       </c>
       <c r="AL42" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM42" s="19" t="s">
         <v>234</v>
@@ -10271,7 +10277,7 @@
         <v>497</v>
       </c>
       <c r="AU42" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV42" s="19" t="s">
         <v>201</v>
@@ -10280,7 +10286,7 @@
         <v>212</v>
       </c>
       <c r="AX42" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10357,7 +10363,7 @@
         <v>313</v>
       </c>
       <c r="Z43" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA43" s="19">
         <v>3</v>
@@ -10384,7 +10390,7 @@
         <v>152</v>
       </c>
       <c r="AL43" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM43" s="19" t="s">
         <v>235</v>
@@ -10408,7 +10414,7 @@
         <v>495</v>
       </c>
       <c r="AU43" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV43" s="19" t="s">
         <v>201</v>
@@ -10417,7 +10423,7 @@
         <v>209</v>
       </c>
       <c r="AX43" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10494,7 +10500,7 @@
         <v>313</v>
       </c>
       <c r="Z44" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA44" s="19">
         <v>3</v>
@@ -10521,7 +10527,7 @@
         <v>152</v>
       </c>
       <c r="AL44" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM44" s="19" t="s">
         <v>235</v>
@@ -10542,7 +10548,7 @@
         <v>496</v>
       </c>
       <c r="AU44" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV44" s="19" t="s">
         <v>201</v>
@@ -10551,7 +10557,7 @@
         <v>209</v>
       </c>
       <c r="AX44" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10628,7 +10634,7 @@
         <v>313</v>
       </c>
       <c r="Z45" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA45" s="19">
         <v>3</v>
@@ -10655,7 +10661,7 @@
         <v>152</v>
       </c>
       <c r="AL45" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM45" s="19" t="s">
         <v>235</v>
@@ -10676,7 +10682,7 @@
         <v>497</v>
       </c>
       <c r="AU45" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV45" s="19" t="s">
         <v>201</v>
@@ -10685,7 +10691,7 @@
         <v>209</v>
       </c>
       <c r="AX45" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10762,7 +10768,7 @@
         <v>313</v>
       </c>
       <c r="Z46" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA46" s="19">
         <v>3</v>
@@ -10811,7 +10817,7 @@
         <v>497</v>
       </c>
       <c r="AU46" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV46" s="19" t="s">
         <v>204</v>
@@ -10820,7 +10826,7 @@
         <v>212</v>
       </c>
       <c r="AX46" s="24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10897,7 +10903,7 @@
         <v>313</v>
       </c>
       <c r="Z47" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA47" s="19">
         <v>3</v>
@@ -10948,7 +10954,7 @@
         <v>495</v>
       </c>
       <c r="AU47" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV47" s="19" t="s">
         <v>207</v>
@@ -10957,7 +10963,7 @@
         <v>209</v>
       </c>
       <c r="AX47" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11034,7 +11040,7 @@
         <v>313</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA48" s="19">
         <v>3</v>
@@ -11082,7 +11088,7 @@
         <v>496</v>
       </c>
       <c r="AU48" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV48" s="19" t="s">
         <v>207</v>
@@ -11091,7 +11097,7 @@
         <v>209</v>
       </c>
       <c r="AX48" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11168,7 +11174,7 @@
         <v>313</v>
       </c>
       <c r="Z49" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA49" s="19">
         <v>3</v>
@@ -11216,7 +11222,7 @@
         <v>497</v>
       </c>
       <c r="AU49" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV49" s="19" t="s">
         <v>207</v>
@@ -11225,7 +11231,7 @@
         <v>209</v>
       </c>
       <c r="AX49" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11302,7 +11308,7 @@
         <v>313</v>
       </c>
       <c r="Z50" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA50" s="19">
         <v>3</v>
@@ -11350,7 +11356,7 @@
         <v>495</v>
       </c>
       <c r="AU50" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV50" s="19" t="s">
         <v>207</v>
@@ -11359,7 +11365,7 @@
         <v>209</v>
       </c>
       <c r="AX50" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11436,7 +11442,7 @@
         <v>313</v>
       </c>
       <c r="Z51" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA51" s="19">
         <v>3</v>
@@ -11481,7 +11487,7 @@
         <v>496</v>
       </c>
       <c r="AU51" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV51" s="19" t="s">
         <v>207</v>
@@ -11490,7 +11496,7 @@
         <v>209</v>
       </c>
       <c r="AX51" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11567,7 +11573,7 @@
         <v>313</v>
       </c>
       <c r="Z52" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA52" s="19">
         <v>3</v>
@@ -11612,7 +11618,7 @@
         <v>497</v>
       </c>
       <c r="AU52" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV52" s="19" t="s">
         <v>207</v>
@@ -11621,7 +11627,7 @@
         <v>209</v>
       </c>
       <c r="AX52" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -11725,10 +11731,10 @@
         <v>164</v>
       </c>
       <c r="AO53" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP53" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ53" s="14" t="s">
         <v>166</v>
@@ -11743,7 +11749,7 @@
         <v>502</v>
       </c>
       <c r="AU53" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV53" s="14" t="s">
         <v>201</v>
@@ -11752,7 +11758,7 @@
         <v>210</v>
       </c>
       <c r="AX53" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -11856,10 +11862,10 @@
         <v>164</v>
       </c>
       <c r="AO54" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP54" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ54" s="10" t="s">
         <v>166</v>
@@ -11874,7 +11880,7 @@
         <v>503</v>
       </c>
       <c r="AU54" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV54" s="10" t="s">
         <v>201</v>
@@ -11883,7 +11889,7 @@
         <v>210</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -11987,10 +11993,10 @@
         <v>164</v>
       </c>
       <c r="AO55" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ55" s="10" t="s">
         <v>166</v>
@@ -12005,7 +12011,7 @@
         <v>504</v>
       </c>
       <c r="AU55" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV55" s="10" t="s">
         <v>201</v>
@@ -12014,7 +12020,7 @@
         <v>210</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12118,10 +12124,10 @@
         <v>164</v>
       </c>
       <c r="AO56" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP56" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ56" s="10" t="s">
         <v>166</v>
@@ -12136,7 +12142,7 @@
         <v>505</v>
       </c>
       <c r="AU56" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV56" s="10" t="s">
         <v>201</v>
@@ -12145,7 +12151,7 @@
         <v>210</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12249,10 +12255,10 @@
         <v>164</v>
       </c>
       <c r="AO57" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP57" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ57" s="10" t="s">
         <v>166</v>
@@ -12267,7 +12273,7 @@
         <v>501</v>
       </c>
       <c r="AU57" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV57" s="10" t="s">
         <v>201</v>
@@ -12276,7 +12282,7 @@
         <v>210</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12380,10 +12386,10 @@
         <v>164</v>
       </c>
       <c r="AO58" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ58" s="10" t="s">
         <v>166</v>
@@ -12398,7 +12404,7 @@
         <v>502</v>
       </c>
       <c r="AU58" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV58" s="10" t="s">
         <v>201</v>
@@ -12407,7 +12413,7 @@
         <v>210</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12511,10 +12517,10 @@
         <v>164</v>
       </c>
       <c r="AO59" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP59" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ59" s="10" t="s">
         <v>166</v>
@@ -12529,7 +12535,7 @@
         <v>503</v>
       </c>
       <c r="AU59" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV59" s="10" t="s">
         <v>201</v>
@@ -12538,7 +12544,7 @@
         <v>210</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12642,10 +12648,10 @@
         <v>164</v>
       </c>
       <c r="AO60" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP60" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ60" s="10" t="s">
         <v>166</v>
@@ -12660,7 +12666,7 @@
         <v>504</v>
       </c>
       <c r="AU60" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV60" s="10" t="s">
         <v>201</v>
@@ -12669,7 +12675,7 @@
         <v>210</v>
       </c>
       <c r="AX60" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="61" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12773,10 +12779,10 @@
         <v>164</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP61" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ61" s="10" t="s">
         <v>166</v>
@@ -12791,7 +12797,7 @@
         <v>505</v>
       </c>
       <c r="AU61" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV61" s="10" t="s">
         <v>201</v>
@@ -12800,7 +12806,7 @@
         <v>210</v>
       </c>
       <c r="AX61" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="62" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12904,10 +12910,10 @@
         <v>164</v>
       </c>
       <c r="AO62" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP62" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ62" s="10" t="s">
         <v>166</v>
@@ -12922,7 +12928,7 @@
         <v>501</v>
       </c>
       <c r="AU62" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV62" s="10" t="s">
         <v>201</v>
@@ -12931,7 +12937,7 @@
         <v>210</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13038,10 +13044,10 @@
         <v>164</v>
       </c>
       <c r="AO63" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP63" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ63" s="10" t="s">
         <v>166</v>
@@ -13056,7 +13062,7 @@
         <v>502</v>
       </c>
       <c r="AU63" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV63" s="10" t="s">
         <v>201</v>
@@ -13065,7 +13071,7 @@
         <v>210</v>
       </c>
       <c r="AX63" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13172,10 +13178,10 @@
         <v>164</v>
       </c>
       <c r="AO64" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP64" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ64" s="10" t="s">
         <v>166</v>
@@ -13190,7 +13196,7 @@
         <v>503</v>
       </c>
       <c r="AU64" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV64" s="10" t="s">
         <v>201</v>
@@ -13199,7 +13205,7 @@
         <v>210</v>
       </c>
       <c r="AX64" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13306,10 +13312,10 @@
         <v>164</v>
       </c>
       <c r="AO65" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ65" s="10" t="s">
         <v>166</v>
@@ -13324,7 +13330,7 @@
         <v>504</v>
       </c>
       <c r="AU65" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV65" s="10" t="s">
         <v>201</v>
@@ -13333,7 +13339,7 @@
         <v>210</v>
       </c>
       <c r="AX65" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13440,10 +13446,10 @@
         <v>164</v>
       </c>
       <c r="AO66" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP66" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ66" s="10" t="s">
         <v>166</v>
@@ -13458,7 +13464,7 @@
         <v>505</v>
       </c>
       <c r="AU66" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV66" s="10" t="s">
         <v>201</v>
@@ -13467,7 +13473,7 @@
         <v>210</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13574,10 +13580,10 @@
         <v>164</v>
       </c>
       <c r="AO67" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP67" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ67" s="10" t="s">
         <v>166</v>
@@ -13592,7 +13598,7 @@
         <v>501</v>
       </c>
       <c r="AU67" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV67" s="10" t="s">
         <v>201</v>
@@ -13601,7 +13607,7 @@
         <v>210</v>
       </c>
       <c r="AX67" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -13675,7 +13681,7 @@
         <v>69</v>
       </c>
       <c r="Z68" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AA68" s="14">
         <v>2</v>
@@ -13717,7 +13723,7 @@
         <v>509</v>
       </c>
       <c r="AU68" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AV68" s="14" t="s">
         <v>201</v>
@@ -13726,7 +13732,7 @@
         <v>209</v>
       </c>
       <c r="AX68" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13800,7 +13806,7 @@
         <v>69</v>
       </c>
       <c r="Z69" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AA69" s="10">
         <v>2</v>
@@ -13842,7 +13848,7 @@
         <v>509</v>
       </c>
       <c r="AU69" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AV69" s="10" t="s">
         <v>201</v>
@@ -13851,7 +13857,7 @@
         <v>209</v>
       </c>
       <c r="AX69" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -13925,7 +13931,7 @@
         <v>217</v>
       </c>
       <c r="Z70" s="16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AA70" s="14">
         <v>3</v>
@@ -14053,7 +14059,7 @@
         <v>217</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AA71" s="10">
         <v>3</v>
@@ -14178,7 +14184,7 @@
         <v>217</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AA72" s="10">
         <v>3</v>
@@ -14312,7 +14318,7 @@
         <v>217</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AA73" s="10">
         <v>3</v>
@@ -14446,7 +14452,7 @@
         <v>217</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AA74" s="10">
         <v>3</v>
@@ -14610,7 +14616,7 @@
         <v>164</v>
       </c>
       <c r="AO75" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ75" s="14" t="s">
         <v>166</v>
@@ -14741,7 +14747,7 @@
         <v>162</v>
       </c>
       <c r="AO76" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ76" s="10" t="s">
         <v>166</v>
@@ -14872,7 +14878,7 @@
         <v>162</v>
       </c>
       <c r="AO77" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ77" s="10" t="s">
         <v>166</v>
@@ -15000,7 +15006,7 @@
         <v>164</v>
       </c>
       <c r="AO78" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ78" s="10" t="s">
         <v>166</v>
@@ -15128,7 +15134,7 @@
         <v>162</v>
       </c>
       <c r="AO79" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ79" s="10" t="s">
         <v>166</v>
@@ -15256,7 +15262,7 @@
         <v>162</v>
       </c>
       <c r="AO80" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ80" s="10" t="s">
         <v>166</v>
@@ -15381,7 +15387,7 @@
         <v>164</v>
       </c>
       <c r="AO81" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ81" s="10" t="s">
         <v>166</v>
@@ -15509,7 +15515,7 @@
         <v>162</v>
       </c>
       <c r="AO82" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ82" s="10" t="s">
         <v>166</v>
@@ -15637,7 +15643,7 @@
         <v>162</v>
       </c>
       <c r="AO83" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ83" s="10" t="s">
         <v>166</v>
@@ -15762,7 +15768,7 @@
         <v>164</v>
       </c>
       <c r="AO84" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ84" s="10" t="s">
         <v>166</v>
@@ -15893,7 +15899,7 @@
         <v>162</v>
       </c>
       <c r="AO85" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ85" s="10" t="s">
         <v>166</v>
@@ -16024,7 +16030,7 @@
         <v>162</v>
       </c>
       <c r="AO86" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ86" s="10" t="s">
         <v>166</v>
@@ -16152,7 +16158,7 @@
         <v>164</v>
       </c>
       <c r="AO87" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ87" s="10" t="s">
         <v>166</v>
@@ -16280,7 +16286,7 @@
         <v>162</v>
       </c>
       <c r="AO88" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ88" s="10" t="s">
         <v>166</v>
@@ -16408,7 +16414,7 @@
         <v>162</v>
       </c>
       <c r="AO89" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ89" s="10" t="s">
         <v>166</v>
@@ -16533,7 +16539,7 @@
         <v>164</v>
       </c>
       <c r="AO90" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ90" s="10" t="s">
         <v>166</v>
@@ -16661,7 +16667,7 @@
         <v>162</v>
       </c>
       <c r="AO91" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ91" s="10" t="s">
         <v>166</v>
@@ -16789,7 +16795,7 @@
         <v>162</v>
       </c>
       <c r="AO92" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ92" s="10" t="s">
         <v>166</v>
@@ -16914,7 +16920,7 @@
         <v>162</v>
       </c>
       <c r="AO93" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ93" s="10" t="s">
         <v>166</v>
@@ -17045,7 +17051,7 @@
         <v>162</v>
       </c>
       <c r="AO94" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ94" s="10" t="s">
         <v>166</v>
@@ -17176,7 +17182,7 @@
         <v>162</v>
       </c>
       <c r="AO95" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ95" s="10" t="s">
         <v>166</v>
@@ -17304,7 +17310,7 @@
         <v>162</v>
       </c>
       <c r="AO96" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ96" s="10" t="s">
         <v>166</v>
@@ -17432,7 +17438,7 @@
         <v>162</v>
       </c>
       <c r="AO97" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ97" s="10" t="s">
         <v>166</v>
@@ -17560,7 +17566,7 @@
         <v>162</v>
       </c>
       <c r="AO98" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ98" s="10" t="s">
         <v>166</v>
@@ -17685,7 +17691,7 @@
         <v>162</v>
       </c>
       <c r="AO99" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ99" s="10" t="s">
         <v>166</v>
@@ -17816,7 +17822,7 @@
         <v>162</v>
       </c>
       <c r="AO100" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ100" s="10" t="s">
         <v>166</v>
@@ -17947,7 +17953,7 @@
         <v>162</v>
       </c>
       <c r="AO101" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ101" s="10" t="s">
         <v>166</v>
@@ -18075,7 +18081,7 @@
         <v>162</v>
       </c>
       <c r="AO102" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ102" s="10" t="s">
         <v>166</v>
@@ -18203,7 +18209,7 @@
         <v>162</v>
       </c>
       <c r="AO103" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ103" s="10" t="s">
         <v>166</v>
@@ -18331,7 +18337,7 @@
         <v>162</v>
       </c>
       <c r="AO104" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ104" s="10" t="s">
         <v>166</v>
@@ -18456,7 +18462,7 @@
         <v>162</v>
       </c>
       <c r="AO105" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ105" s="10" t="s">
         <v>166</v>
@@ -18587,7 +18593,7 @@
         <v>162</v>
       </c>
       <c r="AO106" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ106" s="10" t="s">
         <v>166</v>
@@ -18718,7 +18724,7 @@
         <v>162</v>
       </c>
       <c r="AO107" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ107" s="10" t="s">
         <v>166</v>
@@ -18846,7 +18852,7 @@
         <v>162</v>
       </c>
       <c r="AO108" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ108" s="10" t="s">
         <v>166</v>
@@ -18974,7 +18980,7 @@
         <v>162</v>
       </c>
       <c r="AO109" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ109" s="10" t="s">
         <v>166</v>
@@ -19102,7 +19108,7 @@
         <v>162</v>
       </c>
       <c r="AO110" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ110" s="10" t="s">
         <v>166</v>
@@ -19230,7 +19236,7 @@
         <v>162</v>
       </c>
       <c r="AO111" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ111" s="14" t="s">
         <v>167</v>
@@ -19245,7 +19251,7 @@
         <v>480</v>
       </c>
       <c r="AU111" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AV111" s="14" t="s">
         <v>206</v>
@@ -19352,7 +19358,7 @@
         <v>119</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AM112" s="10" t="s">
         <v>234</v>
@@ -19361,7 +19367,7 @@
         <v>162</v>
       </c>
       <c r="AO112" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ112" s="10" t="s">
         <v>167</v>
@@ -19376,7 +19382,7 @@
         <v>480</v>
       </c>
       <c r="AU112" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AV112" s="10" t="s">
         <v>206</v>
@@ -19495,7 +19501,7 @@
         <v>162</v>
       </c>
       <c r="AO113" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ113" s="10" t="s">
         <v>167</v>
@@ -19510,7 +19516,7 @@
         <v>480</v>
       </c>
       <c r="AU113" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AV113" s="10" t="s">
         <v>206</v>
@@ -19629,7 +19635,7 @@
         <v>162</v>
       </c>
       <c r="AO114" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ114" s="10" t="s">
         <v>167</v>
@@ -19644,7 +19650,7 @@
         <v>480</v>
       </c>
       <c r="AU114" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AV114" s="10" t="s">
         <v>206</v>
@@ -19757,7 +19763,7 @@
         <v>162</v>
       </c>
       <c r="AO115" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ115" s="10" t="s">
         <v>167</v>
@@ -19772,7 +19778,7 @@
         <v>480</v>
       </c>
       <c r="AU115" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AV115" s="10" t="s">
         <v>206</v>
@@ -19876,7 +19882,7 @@
         <v>119</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AM116" s="10" t="s">
         <v>234</v>
@@ -19885,7 +19891,7 @@
         <v>162</v>
       </c>
       <c r="AO116" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ116" s="10" t="s">
         <v>167</v>
@@ -19900,7 +19906,7 @@
         <v>480</v>
       </c>
       <c r="AU116" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AV116" s="10" t="s">
         <v>206</v>
@@ -20016,7 +20022,7 @@
         <v>162</v>
       </c>
       <c r="AO117" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ117" s="10" t="s">
         <v>167</v>
@@ -20031,7 +20037,7 @@
         <v>480</v>
       </c>
       <c r="AU117" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AV117" s="10" t="s">
         <v>206</v>
@@ -20147,7 +20153,7 @@
         <v>162</v>
       </c>
       <c r="AO118" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ118" s="10" t="s">
         <v>167</v>
@@ -20162,7 +20168,7 @@
         <v>480</v>
       </c>
       <c r="AU118" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AV118" s="10" t="s">
         <v>206</v>
@@ -20245,7 +20251,7 @@
         <v>71</v>
       </c>
       <c r="Z119" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA119" s="14">
         <v>3</v>
@@ -20272,10 +20278,10 @@
         <v>161</v>
       </c>
       <c r="AO119" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="AP119" s="14" t="s">
         <v>617</v>
-      </c>
-      <c r="AP119" s="14" t="s">
-        <v>618</v>
       </c>
       <c r="AQ119" s="14" t="s">
         <v>166</v>
@@ -20296,7 +20302,7 @@
         <v>209</v>
       </c>
       <c r="AX119" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20397,10 +20403,10 @@
         <v>161</v>
       </c>
       <c r="AO120" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="AP120" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="AP120" s="10" t="s">
-        <v>618</v>
       </c>
       <c r="AQ120" s="10" t="s">
         <v>166</v>
@@ -20421,7 +20427,7 @@
         <v>209</v>
       </c>
       <c r="AX120" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="121" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20522,10 +20528,10 @@
         <v>161</v>
       </c>
       <c r="AO121" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="AP121" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="AP121" s="10" t="s">
-        <v>618</v>
       </c>
       <c r="AQ121" s="10" t="s">
         <v>166</v>
@@ -20546,7 +20552,7 @@
         <v>209</v>
       </c>
       <c r="AX121" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="122" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20647,10 +20653,10 @@
         <v>161</v>
       </c>
       <c r="AO122" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="AP122" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="AP122" s="10" t="s">
-        <v>618</v>
       </c>
       <c r="AQ122" s="10" t="s">
         <v>166</v>
@@ -20671,7 +20677,7 @@
         <v>209</v>
       </c>
       <c r="AX122" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="123" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -21010,7 +21016,7 @@
         <v>313</v>
       </c>
       <c r="Z125" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA125" s="14">
         <v>3</v>
@@ -21064,7 +21070,7 @@
         <v>212</v>
       </c>
       <c r="AX125" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21141,7 +21147,7 @@
         <v>313</v>
       </c>
       <c r="Z126" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA126" s="19">
         <v>3</v>
@@ -21198,7 +21204,7 @@
         <v>210</v>
       </c>
       <c r="AX126" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="127" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21275,7 +21281,7 @@
         <v>313</v>
       </c>
       <c r="Z127" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA127" s="19">
         <v>3</v>
@@ -21329,7 +21335,7 @@
         <v>212</v>
       </c>
       <c r="AX127" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="128" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21406,7 +21412,7 @@
         <v>313</v>
       </c>
       <c r="Z128" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA128" s="19">
         <v>3</v>
@@ -21543,7 +21549,7 @@
         <v>313</v>
       </c>
       <c r="Z129" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA129" s="19">
         <v>3</v>
@@ -21600,7 +21606,7 @@
         <v>212</v>
       </c>
       <c r="AX129" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="130" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21677,7 +21683,7 @@
         <v>313</v>
       </c>
       <c r="Z130" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA130" s="19">
         <v>3</v>
@@ -21811,7 +21817,7 @@
         <v>313</v>
       </c>
       <c r="Z131" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA131" s="19">
         <v>3</v>
@@ -21862,7 +21868,7 @@
         <v>212</v>
       </c>
       <c r="AX131" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="132" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21939,7 +21945,7 @@
         <v>313</v>
       </c>
       <c r="Z132" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA132" s="19">
         <v>3</v>
@@ -22076,7 +22082,7 @@
         <v>313</v>
       </c>
       <c r="Z133" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA133" s="21">
         <v>3</v>
@@ -22237,7 +22243,7 @@
         <v>161</v>
       </c>
       <c r="AO134" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AP134" s="14" t="s">
         <v>522</v>
@@ -22250,7 +22256,7 @@
       </c>
       <c r="AT134" s="16"/>
       <c r="AU134" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AV134" s="16" t="s">
         <v>214</v>
@@ -22259,7 +22265,7 @@
         <v>211</v>
       </c>
       <c r="AX134" s="16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -22366,7 +22372,7 @@
         <v>161</v>
       </c>
       <c r="AO135" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AP135" s="21" t="s">
         <v>522</v>
@@ -22379,7 +22385,7 @@
       </c>
       <c r="AT135" s="27"/>
       <c r="AU135" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AV135" s="27" t="s">
         <v>214</v>
@@ -22388,7 +22394,7 @@
         <v>211</v>
       </c>
       <c r="AX135" s="27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="136" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -22507,7 +22513,7 @@
         <v>538</v>
       </c>
       <c r="AU136" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AV136" s="14" t="s">
         <v>201</v>
@@ -22635,7 +22641,7 @@
         <v>538</v>
       </c>
       <c r="AU137" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AV137" s="19" t="s">
         <v>201</v>
@@ -22763,7 +22769,7 @@
         <v>538</v>
       </c>
       <c r="AU138" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AV138" s="21" t="s">
         <v>201</v>
@@ -22879,7 +22885,7 @@
         <v>162</v>
       </c>
       <c r="AO139" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AP139" s="13" t="s">
         <v>537</v>
@@ -22906,7 +22912,7 @@
         <v>210</v>
       </c>
       <c r="AX139" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23010,7 +23016,7 @@
         <v>162</v>
       </c>
       <c r="AO140" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AP140" s="13" t="s">
         <v>537</v>
@@ -23037,7 +23043,7 @@
         <v>210</v>
       </c>
       <c r="AX140" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -23151,7 +23157,7 @@
         <v>162</v>
       </c>
       <c r="AO141" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AP141" s="22" t="s">
         <v>537</v>
@@ -23178,7 +23184,7 @@
         <v>210</v>
       </c>
       <c r="AX141" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="142" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23280,22 +23286,22 @@
         <v>132</v>
       </c>
       <c r="AL142" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AM142" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO142" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP142" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ142" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU142" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV142" s="10" t="s">
         <v>201</v>
@@ -23304,7 +23310,7 @@
         <v>209</v>
       </c>
       <c r="AX142" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="143" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23406,22 +23412,22 @@
         <v>146</v>
       </c>
       <c r="AL143" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AM143" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO143" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP143" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ143" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU143" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV143" s="10" t="s">
         <v>201</v>
@@ -23430,7 +23436,7 @@
         <v>209</v>
       </c>
       <c r="AX143" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23532,22 +23538,22 @@
         <v>149</v>
       </c>
       <c r="AL144" s="19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM144" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO144" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP144" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ144" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU144" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV144" s="10" t="s">
         <v>201</v>
@@ -23556,7 +23562,7 @@
         <v>209</v>
       </c>
       <c r="AX144" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23658,22 +23664,22 @@
         <v>133</v>
       </c>
       <c r="AL145" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AM145" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO145" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP145" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ145" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU145" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV145" s="10" t="s">
         <v>201</v>
@@ -23682,7 +23688,7 @@
         <v>209</v>
       </c>
       <c r="AX145" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="146" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23784,22 +23790,22 @@
         <v>147</v>
       </c>
       <c r="AL146" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AM146" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO146" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP146" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ146" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU146" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV146" s="10" t="s">
         <v>201</v>
@@ -23808,7 +23814,7 @@
         <v>209</v>
       </c>
       <c r="AX146" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23907,22 +23913,22 @@
         <v>132</v>
       </c>
       <c r="AL147" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AM147" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO147" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP147" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ147" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU147" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV147" s="10" t="s">
         <v>201</v>
@@ -23931,7 +23937,7 @@
         <v>209</v>
       </c>
       <c r="AX147" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23997,7 +24003,7 @@
         <v>59</v>
       </c>
       <c r="V148" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W148" s="10" t="s">
         <v>53</v>
@@ -24030,22 +24036,22 @@
         <v>146</v>
       </c>
       <c r="AL148" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AM148" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO148" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP148" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ148" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU148" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV148" s="10" t="s">
         <v>201</v>
@@ -24054,7 +24060,7 @@
         <v>209</v>
       </c>
       <c r="AX148" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="149" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -24153,22 +24159,22 @@
         <v>149</v>
       </c>
       <c r="AL149" s="19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM149" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO149" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP149" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ149" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU149" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV149" s="10" t="s">
         <v>201</v>
@@ -24177,7 +24183,7 @@
         <v>209</v>
       </c>
       <c r="AX149" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="150" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -24243,7 +24249,7 @@
         <v>59</v>
       </c>
       <c r="V150" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W150" s="10" t="s">
         <v>53</v>
@@ -24278,22 +24284,22 @@
       <c r="AJ150" s="19"/>
       <c r="AK150" s="19"/>
       <c r="AL150" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AM150" s="19" t="s">
         <v>234</v>
       </c>
       <c r="AO150" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP150" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ150" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU150" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV150" s="10" t="s">
         <v>201</v>
@@ -24302,7 +24308,7 @@
         <v>209</v>
       </c>
       <c r="AX150" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -24367,7 +24373,7 @@
         <v>59</v>
       </c>
       <c r="V151" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W151" s="21" t="s">
         <v>53</v>
@@ -24400,22 +24406,22 @@
         <v>147</v>
       </c>
       <c r="AL151" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AM151" s="21" t="s">
         <v>234</v>
       </c>
       <c r="AO151" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP151" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ151" s="21" t="s">
         <v>152</v>
       </c>
       <c r="AU151" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV151" s="21" t="s">
         <v>201</v>
@@ -24424,7 +24430,7 @@
         <v>209</v>
       </c>
       <c r="AX151" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -26968,12 +26974,12 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDC67EF-9744-45C0-A1EE-683EF742FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95500D9B-4EFC-490F-8988-4246F7D8369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6344" uniqueCount="655">
   <si>
     <t>SearchID</t>
   </si>
@@ -4289,6 +4289,9 @@
   </si>
   <si>
     <t>Biological parameters (e.g. growth parameters, recruitment)</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
   </si>
 </sst>
 </file>
@@ -4802,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE154" sqref="AE154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13029,7 +13032,7 @@
         <v>446</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH63" s="10" t="s">
         <v>118</v>
@@ -13163,7 +13166,7 @@
         <v>446</v>
       </c>
       <c r="AG64" s="10" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH64" s="10" t="s">
         <v>118</v>
@@ -13297,7 +13300,7 @@
         <v>446</v>
       </c>
       <c r="AG65" s="10" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH65" s="10" t="s">
         <v>118</v>
@@ -13431,7 +13434,7 @@
         <v>446</v>
       </c>
       <c r="AG66" s="10" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH66" s="10" t="s">
         <v>118</v>
@@ -13565,7 +13568,7 @@
         <v>446</v>
       </c>
       <c r="AG67" s="10" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH67" s="10" t="s">
         <v>118</v>
@@ -19221,7 +19224,7 @@
         <v>443</v>
       </c>
       <c r="AG111" s="14" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH111" s="14" t="s">
         <v>120</v>
@@ -19352,7 +19355,7 @@
         <v>443</v>
       </c>
       <c r="AG112" s="10" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH112" s="10" t="s">
         <v>119</v>
@@ -19483,7 +19486,7 @@
         <v>443</v>
       </c>
       <c r="AG113" s="10" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH113" s="10" t="s">
         <v>222</v>
@@ -19617,7 +19620,7 @@
         <v>443</v>
       </c>
       <c r="AG114" s="10" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="AH114" s="10" t="s">
         <v>222</v>
@@ -19748,7 +19751,7 @@
         <v>443</v>
       </c>
       <c r="AG115" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH115" s="10" t="s">
         <v>120</v>
@@ -19876,7 +19879,7 @@
         <v>443</v>
       </c>
       <c r="AG116" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH116" s="10" t="s">
         <v>119</v>
@@ -20004,7 +20007,7 @@
         <v>443</v>
       </c>
       <c r="AG117" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH117" s="10" t="s">
         <v>222</v>
@@ -20135,7 +20138,7 @@
         <v>443</v>
       </c>
       <c r="AG118" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH118" s="10" t="s">
         <v>222</v>
@@ -24767,7 +24770,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79EA8C17-7B6B-48FF-A6DB-82563471CC2C}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
@@ -24820,7 +24823,7 @@
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG3:AG1048576</xm:sqref>
+          <xm:sqref>AG115:AG1048576 AG3:AG62 AG68:AG110</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98A793A3-76FC-41FA-83EB-289393CFCA8A}">
           <x14:formula1>
@@ -24858,6 +24861,12 @@
           </x14:formula1>
           <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F99F9940-DBEE-4F98-961B-2326A2975422}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG111:AG114 AG63:AG67</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -24868,8 +24877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX38"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25446,6 +25455,9 @@
       </c>
       <c r="X10" t="s">
         <v>74</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>654</v>
       </c>
       <c r="AH10" t="s">
         <v>121</v>
@@ -26933,18 +26945,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26964,24 +26976,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95500D9B-4EFC-490F-8988-4246F7D8369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C68834-7ABD-458C-BE14-60537FB2850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3675,9 +3675,6 @@
     <t>Gadus morhua _ Pollachius virens</t>
   </si>
   <si>
-    <t>Spawning stock biomass _ Fleet effort _ Economic profit</t>
-  </si>
-  <si>
     <t>Stock overlap</t>
   </si>
   <si>
@@ -3732,9 +3729,6 @@
     <t>Profit is the main driver of fishers’ behaviour and the aim of the fishery dynamic is to maximize the annual profit for the entire fleet.</t>
   </si>
   <si>
-    <t>Fishing days _ fishery's behaviour</t>
-  </si>
-  <si>
     <t>Puffinus mauretanicus _ Calonectris diomedea diomedea _ Hydrobates pelagicus melitensis _ Phalacrocorax aristotelis desmarestii _ Larus audouinii _ Larus michahellis</t>
   </si>
   <si>
@@ -3889,9 +3883,6 @@
   </si>
   <si>
     <t>Markovian chain models</t>
-  </si>
-  <si>
-    <t>vessel distance and boat type</t>
   </si>
   <si>
     <t>aquaculture farms</t>
@@ -4292,6 +4283,15 @@
   </si>
   <si>
     <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>Spawning stock biomass</t>
+  </si>
+  <si>
+    <t>Fishing days</t>
+  </si>
+  <si>
+    <t>presence of fishing vessel</t>
   </si>
 </sst>
 </file>
@@ -4805,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE154" sqref="AE154"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO152" sqref="AO152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5142,7 +5142,7 @@
         <v>3</v>
       </c>
       <c r="AE3" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF3" s="26" t="s">
         <v>443</v>
@@ -5166,10 +5166,10 @@
         <v>162</v>
       </c>
       <c r="AO3" s="26" t="s">
-        <v>468</v>
+        <v>653</v>
       </c>
       <c r="AP3" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AQ3" s="26" t="s">
         <v>166</v>
@@ -5178,10 +5178,10 @@
         <v>241</v>
       </c>
       <c r="AT3" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU3" s="26" t="s">
-        <v>449</v>
+        <v>652</v>
       </c>
       <c r="AV3" s="26" t="s">
         <v>201</v>
@@ -5190,7 +5190,7 @@
         <v>210</v>
       </c>
       <c r="AX3" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -5264,7 +5264,7 @@
         <v>220</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AA4" s="14">
         <v>3</v>
@@ -5288,7 +5288,7 @@
         <v>146</v>
       </c>
       <c r="AL4" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM4" s="14" t="s">
         <v>234</v>
@@ -5297,10 +5297,10 @@
         <v>162</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AQ4" s="14" t="s">
         <v>166</v>
@@ -5312,10 +5312,10 @@
         <v>190</v>
       </c>
       <c r="AT4" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AU4" s="14" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AV4" s="14" t="s">
         <v>214</v>
@@ -5324,7 +5324,7 @@
         <v>210</v>
       </c>
       <c r="AX4" s="14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5399,7 +5399,7 @@
         <v>220</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AA5" s="10">
         <v>3</v>
@@ -5423,7 +5423,7 @@
         <v>146</v>
       </c>
       <c r="AL5" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM5" s="10" t="s">
         <v>234</v>
@@ -5432,10 +5432,10 @@
         <v>162</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP5" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AQ5" s="10" t="s">
         <v>166</v>
@@ -5444,10 +5444,10 @@
         <v>173</v>
       </c>
       <c r="AT5" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AV5" s="10" t="s">
         <v>214</v>
@@ -5456,7 +5456,7 @@
         <v>210</v>
       </c>
       <c r="AX5" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5531,7 +5531,7 @@
         <v>220</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AA6" s="10">
         <v>3</v>
@@ -5555,7 +5555,7 @@
         <v>146</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM6" s="10" t="s">
         <v>234</v>
@@ -5564,10 +5564,10 @@
         <v>162</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AQ6" s="10" t="s">
         <v>167</v>
@@ -5579,10 +5579,10 @@
         <v>193</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AV6" s="10" t="s">
         <v>214</v>
@@ -5591,7 +5591,7 @@
         <v>210</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -5665,7 +5665,7 @@
         <v>69</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA7" s="14">
         <v>3</v>
@@ -5689,7 +5689,7 @@
         <v>132</v>
       </c>
       <c r="AL7" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM7" s="14" t="s">
         <v>234</v>
@@ -5698,10 +5698,10 @@
         <v>162</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AP7" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AQ7" s="14" t="s">
         <v>166</v>
@@ -5713,10 +5713,10 @@
         <v>178</v>
       </c>
       <c r="AT7" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU7" s="14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AV7" s="14" t="s">
         <v>201</v>
@@ -5725,7 +5725,7 @@
         <v>211</v>
       </c>
       <c r="AX7" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5799,7 +5799,7 @@
         <v>69</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA8" s="10">
         <v>3</v>
@@ -5823,7 +5823,7 @@
         <v>146</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM8" s="10" t="s">
         <v>234</v>
@@ -5832,10 +5832,10 @@
         <v>164</v>
       </c>
       <c r="AO8" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AQ8" s="10" t="s">
         <v>166</v>
@@ -5847,10 +5847,10 @@
         <v>178</v>
       </c>
       <c r="AT8" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AV8" s="10" t="s">
         <v>240</v>
@@ -5859,7 +5859,7 @@
         <v>211</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5933,7 +5933,7 @@
         <v>69</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA9" s="10">
         <v>3</v>
@@ -5963,10 +5963,10 @@
         <v>164</v>
       </c>
       <c r="AO9" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AQ9" s="10" t="s">
         <v>166</v>
@@ -5978,10 +5978,10 @@
         <v>178</v>
       </c>
       <c r="AT9" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AV9" s="10" t="s">
         <v>240</v>
@@ -5990,7 +5990,7 @@
         <v>211</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6064,7 +6064,7 @@
         <v>69</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA10" s="10">
         <v>3</v>
@@ -6097,10 +6097,10 @@
         <v>164</v>
       </c>
       <c r="AO10" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AQ10" s="10" t="s">
         <v>166</v>
@@ -6112,10 +6112,10 @@
         <v>178</v>
       </c>
       <c r="AT10" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU10" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AV10" s="10" t="s">
         <v>115</v>
@@ -6124,7 +6124,7 @@
         <v>211</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -6198,7 +6198,7 @@
         <v>217</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA11" s="14">
         <v>2</v>
@@ -6210,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="AD11" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF11" s="14" t="s">
         <v>443</v>
@@ -6225,7 +6225,7 @@
         <v>146</v>
       </c>
       <c r="AL11" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM11" s="14" t="s">
         <v>234</v>
@@ -6234,10 +6234,10 @@
         <v>162</v>
       </c>
       <c r="AO11" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AQ11" s="14" t="s">
         <v>166</v>
@@ -6246,10 +6246,10 @@
         <v>241</v>
       </c>
       <c r="AT11" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AU11" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV11" s="14" t="s">
         <v>201</v>
@@ -6258,7 +6258,7 @@
         <v>209</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6332,7 +6332,7 @@
         <v>69</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA12" s="10">
         <v>2</v>
@@ -6344,7 +6344,7 @@
         <v>3</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF12" s="10" t="s">
         <v>443</v>
@@ -6359,7 +6359,7 @@
         <v>146</v>
       </c>
       <c r="AL12" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM12" s="10" t="s">
         <v>234</v>
@@ -6368,10 +6368,10 @@
         <v>162</v>
       </c>
       <c r="AO12" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AQ12" s="10" t="s">
         <v>166</v>
@@ -6380,10 +6380,10 @@
         <v>241</v>
       </c>
       <c r="AT12" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV12" s="10" t="s">
         <v>201</v>
@@ -6392,7 +6392,7 @@
         <v>209</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6466,7 +6466,7 @@
         <v>217</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA13" s="10">
         <v>2</v>
@@ -6478,7 +6478,7 @@
         <v>3</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF13" s="10" t="s">
         <v>443</v>
@@ -6493,7 +6493,7 @@
         <v>146</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM13" s="10" t="s">
         <v>234</v>
@@ -6502,10 +6502,10 @@
         <v>162</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AQ13" s="10" t="s">
         <v>166</v>
@@ -6517,10 +6517,10 @@
         <v>190</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV13" s="10" t="s">
         <v>201</v>
@@ -6529,7 +6529,7 @@
         <v>209</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6603,7 +6603,7 @@
         <v>69</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA14" s="10">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF14" s="10" t="s">
         <v>443</v>
@@ -6630,7 +6630,7 @@
         <v>146</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM14" s="10" t="s">
         <v>234</v>
@@ -6639,10 +6639,10 @@
         <v>162</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AQ14" s="10" t="s">
         <v>166</v>
@@ -6654,10 +6654,10 @@
         <v>190</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV14" s="10" t="s">
         <v>201</v>
@@ -6666,7 +6666,7 @@
         <v>209</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -6740,7 +6740,7 @@
         <v>72</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AA15" s="14">
         <v>3</v>
@@ -6764,22 +6764,22 @@
         <v>149</v>
       </c>
       <c r="AL15" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM15" s="14" t="s">
         <v>234</v>
       </c>
       <c r="AO15" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AQ15" s="14" t="s">
         <v>166</v>
       </c>
       <c r="AT15" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU15" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AV15" s="14" t="s">
         <v>201</v>
@@ -6788,7 +6788,7 @@
         <v>209</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6862,7 +6862,7 @@
         <v>72</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AA16" s="10">
         <v>3</v>
@@ -6886,22 +6886,22 @@
         <v>149</v>
       </c>
       <c r="AL16" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM16" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AQ16" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AT16" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU16" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AV16" s="10" t="s">
         <v>202</v>
@@ -6910,7 +6910,7 @@
         <v>209</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6984,7 +6984,7 @@
         <v>72</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AA17" s="10">
         <v>3</v>
@@ -7008,22 +7008,22 @@
         <v>149</v>
       </c>
       <c r="AL17" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM17" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AQ17" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT17" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AV17" s="10" t="s">
         <v>201</v>
@@ -7032,7 +7032,7 @@
         <v>209</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7106,7 +7106,7 @@
         <v>72</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AA18" s="10">
         <v>3</v>
@@ -7130,22 +7130,22 @@
         <v>149</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM18" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AQ18" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AV18" s="10" t="s">
         <v>202</v>
@@ -7154,7 +7154,7 @@
         <v>209</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7228,7 +7228,7 @@
         <v>72</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AA19" s="10">
         <v>3</v>
@@ -7252,22 +7252,22 @@
         <v>149</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM19" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AQ19" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AV19" s="10" t="s">
         <v>201</v>
@@ -7276,7 +7276,7 @@
         <v>209</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7350,7 +7350,7 @@
         <v>72</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AA20" s="10">
         <v>3</v>
@@ -7374,22 +7374,22 @@
         <v>149</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM20" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AQ20" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AV20" s="10" t="s">
         <v>201</v>
@@ -7398,7 +7398,7 @@
         <v>209</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7472,10 +7472,10 @@
         <v>72</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AA21" s="14">
         <v>3</v>
@@ -7502,16 +7502,16 @@
         <v>233</v>
       </c>
       <c r="AO21" s="14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AP21" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="AU21" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AV21" s="14" t="s">
         <v>201</v>
@@ -7520,7 +7520,7 @@
         <v>211</v>
       </c>
       <c r="AX21" s="14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7594,10 +7594,10 @@
         <v>72</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AA22" s="10">
         <v>3</v>
@@ -7624,16 +7624,16 @@
         <v>233</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AP22" s="19" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ22" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU22" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AV22" s="10" t="s">
         <v>201</v>
@@ -7642,7 +7642,7 @@
         <v>211</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7716,10 +7716,10 @@
         <v>72</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AA23" s="10">
         <v>3</v>
@@ -7749,16 +7749,16 @@
         <v>233</v>
       </c>
       <c r="AO23" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AQ23" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AV23" s="10" t="s">
         <v>201</v>
@@ -7767,7 +7767,7 @@
         <v>211</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7841,7 +7841,7 @@
         <v>72</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AA24" s="12">
         <v>3</v>
@@ -7868,16 +7868,16 @@
         <v>157</v>
       </c>
       <c r="AL24" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AM24" s="12" t="s">
         <v>161</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>521</v>
+        <v>654</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AQ24" s="10" t="s">
         <v>166</v>
@@ -7886,7 +7886,7 @@
         <v>241</v>
       </c>
       <c r="AU24" s="18" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AV24" s="12" t="s">
         <v>214</v>
@@ -7895,7 +7895,7 @@
         <v>211</v>
       </c>
       <c r="AX24" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7970,7 +7970,7 @@
         <v>72</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AA25" s="14">
         <v>3</v>
@@ -8000,16 +8000,16 @@
         <v>150</v>
       </c>
       <c r="AL25" s="14" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AM25" s="14" t="s">
         <v>235</v>
       </c>
       <c r="AO25" s="14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AP25" s="14" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AQ25" s="14" t="s">
         <v>167</v>
@@ -8024,7 +8024,7 @@
         <v>152</v>
       </c>
       <c r="AU25" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV25" s="14" t="s">
         <v>201</v>
@@ -8033,7 +8033,7 @@
         <v>210</v>
       </c>
       <c r="AX25" s="14" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8108,7 +8108,7 @@
         <v>72</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AA26" s="10">
         <v>3</v>
@@ -8138,16 +8138,16 @@
         <v>150</v>
       </c>
       <c r="AL26" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AM26" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO26" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AP26" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AQ26" s="10" t="s">
         <v>167</v>
@@ -8162,7 +8162,7 @@
         <v>152</v>
       </c>
       <c r="AU26" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV26" s="10" t="s">
         <v>201</v>
@@ -8171,7 +8171,7 @@
         <v>210</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8246,7 +8246,7 @@
         <v>72</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AA27" s="10">
         <v>3</v>
@@ -8276,16 +8276,16 @@
         <v>150</v>
       </c>
       <c r="AL27" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AM27" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO27" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AP27" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AQ27" s="10" t="s">
         <v>166</v>
@@ -8294,10 +8294,10 @@
         <v>241</v>
       </c>
       <c r="AT27" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AU27" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV27" s="10" t="s">
         <v>201</v>
@@ -8306,7 +8306,7 @@
         <v>210</v>
       </c>
       <c r="AX27" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -8380,7 +8380,7 @@
         <v>217</v>
       </c>
       <c r="Z28" s="14" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AA28" s="14">
         <v>3</v>
@@ -8404,7 +8404,7 @@
         <v>146</v>
       </c>
       <c r="AL28" s="14" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AM28" s="14" t="s">
         <v>234</v>
@@ -8413,7 +8413,7 @@
         <v>163</v>
       </c>
       <c r="AO28" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ28" s="14" t="s">
         <v>166</v>
@@ -8422,10 +8422,10 @@
         <v>241</v>
       </c>
       <c r="AT28" s="14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AU28" s="14" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AV28" s="14" t="s">
         <v>201</v>
@@ -8434,7 +8434,7 @@
         <v>210</v>
       </c>
       <c r="AX28" s="14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8508,7 +8508,7 @@
         <v>217</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AA29" s="10">
         <v>3</v>
@@ -8532,7 +8532,7 @@
         <v>147</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AM29" s="10" t="s">
         <v>234</v>
@@ -8541,7 +8541,7 @@
         <v>163</v>
       </c>
       <c r="AO29" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ29" s="10" t="s">
         <v>166</v>
@@ -8550,10 +8550,10 @@
         <v>241</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AV29" s="10" t="s">
         <v>201</v>
@@ -8562,7 +8562,7 @@
         <v>210</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8636,7 +8636,7 @@
         <v>217</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AA30" s="10">
         <v>3</v>
@@ -8660,7 +8660,7 @@
         <v>152</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AM30" s="10" t="s">
         <v>234</v>
@@ -8669,7 +8669,7 @@
         <v>162</v>
       </c>
       <c r="AO30" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ30" s="10" t="s">
         <v>166</v>
@@ -8678,10 +8678,10 @@
         <v>241</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AV30" s="10" t="s">
         <v>201</v>
@@ -8690,7 +8690,7 @@
         <v>210</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8764,7 +8764,7 @@
         <v>217</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AA31" s="10">
         <v>3</v>
@@ -8788,7 +8788,7 @@
         <v>146</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AM31" s="10" t="s">
         <v>234</v>
@@ -8797,7 +8797,7 @@
         <v>163</v>
       </c>
       <c r="AO31" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ31" s="10" t="s">
         <v>166</v>
@@ -8806,10 +8806,10 @@
         <v>241</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV31" s="10" t="s">
         <v>207</v>
@@ -8818,7 +8818,7 @@
         <v>210</v>
       </c>
       <c r="AX31" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8892,7 +8892,7 @@
         <v>217</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AA32" s="10">
         <v>3</v>
@@ -8916,7 +8916,7 @@
         <v>147</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AM32" s="10" t="s">
         <v>234</v>
@@ -8925,7 +8925,7 @@
         <v>163</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ32" s="10" t="s">
         <v>166</v>
@@ -8934,10 +8934,10 @@
         <v>241</v>
       </c>
       <c r="AT32" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV32" s="10" t="s">
         <v>207</v>
@@ -8946,7 +8946,7 @@
         <v>210</v>
       </c>
       <c r="AX32" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -9020,7 +9020,7 @@
         <v>217</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AA33" s="10">
         <v>3</v>
@@ -9044,7 +9044,7 @@
         <v>152</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AM33" s="10" t="s">
         <v>234</v>
@@ -9053,7 +9053,7 @@
         <v>162</v>
       </c>
       <c r="AO33" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ33" s="10" t="s">
         <v>166</v>
@@ -9062,10 +9062,10 @@
         <v>241</v>
       </c>
       <c r="AT33" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV33" s="10" t="s">
         <v>207</v>
@@ -9074,7 +9074,7 @@
         <v>210</v>
       </c>
       <c r="AX33" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -9151,7 +9151,7 @@
         <v>313</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA34" s="14">
         <v>3</v>
@@ -9175,7 +9175,7 @@
         <v>132</v>
       </c>
       <c r="AL34" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AM34" s="14" t="s">
         <v>234</v>
@@ -9184,10 +9184,10 @@
         <v>163</v>
       </c>
       <c r="AO34" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP34" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ34" s="14" t="s">
         <v>166</v>
@@ -9199,10 +9199,10 @@
         <v>190</v>
       </c>
       <c r="AT34" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU34" s="15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV34" s="14" t="s">
         <v>201</v>
@@ -9211,7 +9211,7 @@
         <v>210</v>
       </c>
       <c r="AX34" s="23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9288,7 +9288,7 @@
         <v>313</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA35" s="19">
         <v>3</v>
@@ -9312,7 +9312,7 @@
         <v>132</v>
       </c>
       <c r="AL35" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AM35" s="19" t="s">
         <v>234</v>
@@ -9321,10 +9321,10 @@
         <v>163</v>
       </c>
       <c r="AO35" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP35" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ35" s="19" t="s">
         <v>166</v>
@@ -9333,10 +9333,10 @@
         <v>241</v>
       </c>
       <c r="AT35" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AU35" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV35" s="19" t="s">
         <v>201</v>
@@ -9345,7 +9345,7 @@
         <v>210</v>
       </c>
       <c r="AX35" s="24" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9422,7 +9422,7 @@
         <v>313</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA36" s="19">
         <v>3</v>
@@ -9446,7 +9446,7 @@
         <v>132</v>
       </c>
       <c r="AL36" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AM36" s="19" t="s">
         <v>234</v>
@@ -9455,10 +9455,10 @@
         <v>162</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP36" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ36" s="19" t="s">
         <v>166</v>
@@ -9467,10 +9467,10 @@
         <v>241</v>
       </c>
       <c r="AT36" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU36" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV36" s="19" t="s">
         <v>201</v>
@@ -9479,7 +9479,7 @@
         <v>210</v>
       </c>
       <c r="AX36" s="24" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9556,7 +9556,7 @@
         <v>313</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA37" s="19">
         <v>3</v>
@@ -9586,10 +9586,10 @@
         <v>163</v>
       </c>
       <c r="AO37" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP37" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ37" s="19" t="s">
         <v>166</v>
@@ -9601,10 +9601,10 @@
         <v>190</v>
       </c>
       <c r="AT37" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU37" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV37" s="19" t="s">
         <v>201</v>
@@ -9613,7 +9613,7 @@
         <v>210</v>
       </c>
       <c r="AX37" s="24" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9690,7 +9690,7 @@
         <v>313</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA38" s="19">
         <v>3</v>
@@ -9720,10 +9720,10 @@
         <v>163</v>
       </c>
       <c r="AO38" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP38" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ38" s="19" t="s">
         <v>166</v>
@@ -9732,10 +9732,10 @@
         <v>241</v>
       </c>
       <c r="AT38" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AU38" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV38" s="19" t="s">
         <v>201</v>
@@ -9744,7 +9744,7 @@
         <v>210</v>
       </c>
       <c r="AX38" s="24" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9821,7 +9821,7 @@
         <v>313</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA39" s="19">
         <v>3</v>
@@ -9851,10 +9851,10 @@
         <v>163</v>
       </c>
       <c r="AO39" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP39" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ39" s="19" t="s">
         <v>166</v>
@@ -9863,10 +9863,10 @@
         <v>241</v>
       </c>
       <c r="AT39" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU39" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV39" s="19" t="s">
         <v>201</v>
@@ -9875,7 +9875,7 @@
         <v>210</v>
       </c>
       <c r="AX39" s="24" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9952,7 +9952,7 @@
         <v>313</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA40" s="19">
         <v>3</v>
@@ -9979,7 +9979,7 @@
         <v>152</v>
       </c>
       <c r="AL40" s="19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AM40" s="19" t="s">
         <v>234</v>
@@ -9988,10 +9988,10 @@
         <v>163</v>
       </c>
       <c r="AO40" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP40" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ40" s="19" t="s">
         <v>166</v>
@@ -10003,10 +10003,10 @@
         <v>190</v>
       </c>
       <c r="AT40" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU40" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV40" s="19" t="s">
         <v>201</v>
@@ -10015,7 +10015,7 @@
         <v>212</v>
       </c>
       <c r="AX40" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10092,7 +10092,7 @@
         <v>313</v>
       </c>
       <c r="Z41" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA41" s="19">
         <v>3</v>
@@ -10119,7 +10119,7 @@
         <v>152</v>
       </c>
       <c r="AL41" s="19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AM41" s="19" t="s">
         <v>234</v>
@@ -10128,10 +10128,10 @@
         <v>163</v>
       </c>
       <c r="AO41" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP41" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ41" s="19" t="s">
         <v>166</v>
@@ -10140,10 +10140,10 @@
         <v>241</v>
       </c>
       <c r="AT41" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AU41" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV41" s="19" t="s">
         <v>201</v>
@@ -10152,7 +10152,7 @@
         <v>212</v>
       </c>
       <c r="AX41" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10229,7 +10229,7 @@
         <v>313</v>
       </c>
       <c r="Z42" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA42" s="19">
         <v>3</v>
@@ -10256,7 +10256,7 @@
         <v>152</v>
       </c>
       <c r="AL42" s="19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AM42" s="19" t="s">
         <v>234</v>
@@ -10265,10 +10265,10 @@
         <v>163</v>
       </c>
       <c r="AO42" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP42" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ42" s="19" t="s">
         <v>166</v>
@@ -10277,10 +10277,10 @@
         <v>241</v>
       </c>
       <c r="AT42" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU42" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV42" s="19" t="s">
         <v>201</v>
@@ -10289,7 +10289,7 @@
         <v>212</v>
       </c>
       <c r="AX42" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10366,7 +10366,7 @@
         <v>313</v>
       </c>
       <c r="Z43" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA43" s="19">
         <v>3</v>
@@ -10393,16 +10393,16 @@
         <v>152</v>
       </c>
       <c r="AL43" s="19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AM43" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO43" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP43" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ43" s="19" t="s">
         <v>166</v>
@@ -10414,10 +10414,10 @@
         <v>190</v>
       </c>
       <c r="AT43" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU43" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV43" s="19" t="s">
         <v>201</v>
@@ -10426,7 +10426,7 @@
         <v>209</v>
       </c>
       <c r="AX43" s="24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10503,7 +10503,7 @@
         <v>313</v>
       </c>
       <c r="Z44" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA44" s="19">
         <v>3</v>
@@ -10530,16 +10530,16 @@
         <v>152</v>
       </c>
       <c r="AL44" s="19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AM44" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO44" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP44" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ44" s="19" t="s">
         <v>166</v>
@@ -10548,10 +10548,10 @@
         <v>241</v>
       </c>
       <c r="AT44" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AU44" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV44" s="19" t="s">
         <v>201</v>
@@ -10560,7 +10560,7 @@
         <v>209</v>
       </c>
       <c r="AX44" s="24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10637,7 +10637,7 @@
         <v>313</v>
       </c>
       <c r="Z45" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA45" s="19">
         <v>3</v>
@@ -10664,16 +10664,16 @@
         <v>152</v>
       </c>
       <c r="AL45" s="19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AM45" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO45" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP45" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ45" s="19" t="s">
         <v>166</v>
@@ -10682,10 +10682,10 @@
         <v>241</v>
       </c>
       <c r="AT45" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU45" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV45" s="19" t="s">
         <v>201</v>
@@ -10694,7 +10694,7 @@
         <v>209</v>
       </c>
       <c r="AX45" s="24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10771,7 +10771,7 @@
         <v>313</v>
       </c>
       <c r="Z46" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA46" s="19">
         <v>3</v>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="AK46" s="10"/>
       <c r="AL46" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AM46" s="19" t="s">
         <v>234</v>
@@ -10805,10 +10805,10 @@
         <v>162</v>
       </c>
       <c r="AO46" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP46" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ46" s="19" t="s">
         <v>166</v>
@@ -10817,10 +10817,10 @@
         <v>241</v>
       </c>
       <c r="AT46" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU46" s="20" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AV46" s="19" t="s">
         <v>204</v>
@@ -10829,7 +10829,7 @@
         <v>212</v>
       </c>
       <c r="AX46" s="24" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="47" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10906,7 +10906,7 @@
         <v>313</v>
       </c>
       <c r="Z47" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA47" s="19">
         <v>3</v>
@@ -10930,7 +10930,7 @@
         <v>132</v>
       </c>
       <c r="AL47" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AM47" s="19" t="s">
         <v>234</v>
@@ -10939,10 +10939,10 @@
         <v>163</v>
       </c>
       <c r="AO47" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP47" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ47" s="19" t="s">
         <v>166</v>
@@ -10954,10 +10954,10 @@
         <v>190</v>
       </c>
       <c r="AT47" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU47" s="20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AV47" s="19" t="s">
         <v>207</v>
@@ -10966,7 +10966,7 @@
         <v>209</v>
       </c>
       <c r="AX47" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11043,7 +11043,7 @@
         <v>313</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA48" s="19">
         <v>3</v>
@@ -11067,7 +11067,7 @@
         <v>132</v>
       </c>
       <c r="AL48" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AM48" s="19" t="s">
         <v>234</v>
@@ -11076,10 +11076,10 @@
         <v>163</v>
       </c>
       <c r="AO48" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP48" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ48" s="19" t="s">
         <v>166</v>
@@ -11088,10 +11088,10 @@
         <v>241</v>
       </c>
       <c r="AT48" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AU48" s="20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AV48" s="19" t="s">
         <v>207</v>
@@ -11100,7 +11100,7 @@
         <v>209</v>
       </c>
       <c r="AX48" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11177,7 +11177,7 @@
         <v>313</v>
       </c>
       <c r="Z49" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA49" s="19">
         <v>3</v>
@@ -11201,7 +11201,7 @@
         <v>132</v>
       </c>
       <c r="AL49" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AM49" s="19" t="s">
         <v>234</v>
@@ -11210,10 +11210,10 @@
         <v>162</v>
       </c>
       <c r="AO49" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP49" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ49" s="19" t="s">
         <v>166</v>
@@ -11222,10 +11222,10 @@
         <v>241</v>
       </c>
       <c r="AT49" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU49" s="20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AV49" s="19" t="s">
         <v>207</v>
@@ -11234,7 +11234,7 @@
         <v>209</v>
       </c>
       <c r="AX49" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11311,7 +11311,7 @@
         <v>313</v>
       </c>
       <c r="Z50" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA50" s="19">
         <v>3</v>
@@ -11341,10 +11341,10 @@
         <v>163</v>
       </c>
       <c r="AO50" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP50" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ50" s="19" t="s">
         <v>166</v>
@@ -11356,10 +11356,10 @@
         <v>190</v>
       </c>
       <c r="AT50" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU50" s="20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AV50" s="19" t="s">
         <v>207</v>
@@ -11368,7 +11368,7 @@
         <v>209</v>
       </c>
       <c r="AX50" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11445,7 +11445,7 @@
         <v>313</v>
       </c>
       <c r="Z51" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA51" s="19">
         <v>3</v>
@@ -11475,10 +11475,10 @@
         <v>163</v>
       </c>
       <c r="AO51" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP51" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ51" s="19" t="s">
         <v>166</v>
@@ -11487,10 +11487,10 @@
         <v>241</v>
       </c>
       <c r="AT51" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AU51" s="20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AV51" s="19" t="s">
         <v>207</v>
@@ -11499,7 +11499,7 @@
         <v>209</v>
       </c>
       <c r="AX51" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="52" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11576,7 +11576,7 @@
         <v>313</v>
       </c>
       <c r="Z52" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA52" s="19">
         <v>3</v>
@@ -11606,10 +11606,10 @@
         <v>163</v>
       </c>
       <c r="AO52" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AP52" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AQ52" s="19" t="s">
         <v>166</v>
@@ -11618,10 +11618,10 @@
         <v>241</v>
       </c>
       <c r="AT52" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU52" s="20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AV52" s="19" t="s">
         <v>207</v>
@@ -11630,7 +11630,7 @@
         <v>209</v>
       </c>
       <c r="AX52" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="53" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -11704,7 +11704,7 @@
         <v>71</v>
       </c>
       <c r="Z53" s="14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA53" s="14">
         <v>3</v>
@@ -11725,7 +11725,7 @@
         <v>118</v>
       </c>
       <c r="AL53" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM53" s="14" t="s">
         <v>234</v>
@@ -11734,10 +11734,10 @@
         <v>164</v>
       </c>
       <c r="AO53" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP53" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ53" s="14" t="s">
         <v>166</v>
@@ -11749,10 +11749,10 @@
         <v>190</v>
       </c>
       <c r="AT53" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AU53" s="14" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV53" s="14" t="s">
         <v>201</v>
@@ -11761,7 +11761,7 @@
         <v>210</v>
       </c>
       <c r="AX53" s="14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -11835,7 +11835,7 @@
         <v>71</v>
       </c>
       <c r="Z54" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA54" s="10">
         <v>3</v>
@@ -11856,7 +11856,7 @@
         <v>118</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM54" s="10" t="s">
         <v>234</v>
@@ -11865,10 +11865,10 @@
         <v>164</v>
       </c>
       <c r="AO54" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP54" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ54" s="10" t="s">
         <v>166</v>
@@ -11880,10 +11880,10 @@
         <v>190</v>
       </c>
       <c r="AT54" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU54" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV54" s="10" t="s">
         <v>201</v>
@@ -11892,7 +11892,7 @@
         <v>210</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -11966,7 +11966,7 @@
         <v>71</v>
       </c>
       <c r="Z55" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA55" s="10">
         <v>3</v>
@@ -11987,7 +11987,7 @@
         <v>118</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM55" s="10" t="s">
         <v>234</v>
@@ -11996,10 +11996,10 @@
         <v>164</v>
       </c>
       <c r="AO55" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ55" s="10" t="s">
         <v>166</v>
@@ -12011,10 +12011,10 @@
         <v>190</v>
       </c>
       <c r="AT55" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AU55" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV55" s="10" t="s">
         <v>201</v>
@@ -12023,7 +12023,7 @@
         <v>210</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12097,7 +12097,7 @@
         <v>71</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA56" s="10">
         <v>3</v>
@@ -12118,7 +12118,7 @@
         <v>118</v>
       </c>
       <c r="AL56" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM56" s="10" t="s">
         <v>234</v>
@@ -12127,10 +12127,10 @@
         <v>164</v>
       </c>
       <c r="AO56" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP56" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ56" s="10" t="s">
         <v>166</v>
@@ -12142,10 +12142,10 @@
         <v>192</v>
       </c>
       <c r="AT56" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AU56" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV56" s="10" t="s">
         <v>201</v>
@@ -12154,7 +12154,7 @@
         <v>210</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12228,7 +12228,7 @@
         <v>71</v>
       </c>
       <c r="Z57" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA57" s="10">
         <v>3</v>
@@ -12249,7 +12249,7 @@
         <v>118</v>
       </c>
       <c r="AL57" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM57" s="10" t="s">
         <v>234</v>
@@ -12258,10 +12258,10 @@
         <v>164</v>
       </c>
       <c r="AO57" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP57" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ57" s="10" t="s">
         <v>166</v>
@@ -12273,10 +12273,10 @@
         <v>194</v>
       </c>
       <c r="AT57" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU57" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV57" s="10" t="s">
         <v>201</v>
@@ -12285,7 +12285,7 @@
         <v>210</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12359,7 +12359,7 @@
         <v>69</v>
       </c>
       <c r="Z58" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA58" s="10">
         <v>3</v>
@@ -12380,7 +12380,7 @@
         <v>118</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM58" s="10" t="s">
         <v>234</v>
@@ -12389,10 +12389,10 @@
         <v>164</v>
       </c>
       <c r="AO58" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ58" s="10" t="s">
         <v>166</v>
@@ -12404,10 +12404,10 @@
         <v>190</v>
       </c>
       <c r="AT58" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AU58" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV58" s="10" t="s">
         <v>201</v>
@@ -12416,7 +12416,7 @@
         <v>210</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12490,7 +12490,7 @@
         <v>69</v>
       </c>
       <c r="Z59" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA59" s="10">
         <v>3</v>
@@ -12511,7 +12511,7 @@
         <v>118</v>
       </c>
       <c r="AL59" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM59" s="10" t="s">
         <v>234</v>
@@ -12520,10 +12520,10 @@
         <v>164</v>
       </c>
       <c r="AO59" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP59" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ59" s="10" t="s">
         <v>166</v>
@@ -12535,10 +12535,10 @@
         <v>190</v>
       </c>
       <c r="AT59" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU59" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV59" s="10" t="s">
         <v>201</v>
@@ -12547,7 +12547,7 @@
         <v>210</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12621,7 +12621,7 @@
         <v>69</v>
       </c>
       <c r="Z60" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA60" s="10">
         <v>3</v>
@@ -12642,7 +12642,7 @@
         <v>118</v>
       </c>
       <c r="AL60" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM60" s="10" t="s">
         <v>234</v>
@@ -12651,10 +12651,10 @@
         <v>164</v>
       </c>
       <c r="AO60" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP60" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ60" s="10" t="s">
         <v>166</v>
@@ -12666,10 +12666,10 @@
         <v>190</v>
       </c>
       <c r="AT60" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AU60" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV60" s="10" t="s">
         <v>201</v>
@@ -12678,7 +12678,7 @@
         <v>210</v>
       </c>
       <c r="AX60" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12752,7 +12752,7 @@
         <v>69</v>
       </c>
       <c r="Z61" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA61" s="10">
         <v>3</v>
@@ -12773,7 +12773,7 @@
         <v>118</v>
       </c>
       <c r="AL61" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM61" s="10" t="s">
         <v>234</v>
@@ -12782,10 +12782,10 @@
         <v>164</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP61" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ61" s="10" t="s">
         <v>166</v>
@@ -12797,10 +12797,10 @@
         <v>192</v>
       </c>
       <c r="AT61" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AU61" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV61" s="10" t="s">
         <v>201</v>
@@ -12809,7 +12809,7 @@
         <v>210</v>
       </c>
       <c r="AX61" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12883,7 +12883,7 @@
         <v>69</v>
       </c>
       <c r="Z62" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA62" s="10">
         <v>3</v>
@@ -12904,7 +12904,7 @@
         <v>118</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM62" s="10" t="s">
         <v>234</v>
@@ -12913,10 +12913,10 @@
         <v>164</v>
       </c>
       <c r="AO62" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP62" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ62" s="10" t="s">
         <v>166</v>
@@ -12928,10 +12928,10 @@
         <v>194</v>
       </c>
       <c r="AT62" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU62" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV62" s="10" t="s">
         <v>201</v>
@@ -12940,7 +12940,7 @@
         <v>210</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13014,10 +13014,10 @@
         <v>115</v>
       </c>
       <c r="Y63" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z63" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA63" s="10">
         <v>3</v>
@@ -13032,13 +13032,13 @@
         <v>446</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH63" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM63" s="10" t="s">
         <v>234</v>
@@ -13047,10 +13047,10 @@
         <v>164</v>
       </c>
       <c r="AO63" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP63" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ63" s="10" t="s">
         <v>166</v>
@@ -13062,10 +13062,10 @@
         <v>190</v>
       </c>
       <c r="AT63" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AU63" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV63" s="10" t="s">
         <v>201</v>
@@ -13074,7 +13074,7 @@
         <v>210</v>
       </c>
       <c r="AX63" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13148,10 +13148,10 @@
         <v>115</v>
       </c>
       <c r="Y64" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z64" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA64" s="10">
         <v>3</v>
@@ -13166,13 +13166,13 @@
         <v>446</v>
       </c>
       <c r="AG64" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH64" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM64" s="10" t="s">
         <v>234</v>
@@ -13181,10 +13181,10 @@
         <v>164</v>
       </c>
       <c r="AO64" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP64" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ64" s="10" t="s">
         <v>166</v>
@@ -13196,10 +13196,10 @@
         <v>190</v>
       </c>
       <c r="AT64" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU64" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV64" s="10" t="s">
         <v>201</v>
@@ -13208,7 +13208,7 @@
         <v>210</v>
       </c>
       <c r="AX64" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13282,10 +13282,10 @@
         <v>115</v>
       </c>
       <c r="Y65" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z65" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA65" s="10">
         <v>3</v>
@@ -13300,13 +13300,13 @@
         <v>446</v>
       </c>
       <c r="AG65" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH65" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM65" s="10" t="s">
         <v>234</v>
@@ -13315,10 +13315,10 @@
         <v>164</v>
       </c>
       <c r="AO65" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ65" s="10" t="s">
         <v>166</v>
@@ -13330,10 +13330,10 @@
         <v>190</v>
       </c>
       <c r="AT65" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AU65" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV65" s="10" t="s">
         <v>201</v>
@@ -13342,7 +13342,7 @@
         <v>210</v>
       </c>
       <c r="AX65" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13416,10 +13416,10 @@
         <v>115</v>
       </c>
       <c r="Y66" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z66" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA66" s="10">
         <v>3</v>
@@ -13434,13 +13434,13 @@
         <v>446</v>
       </c>
       <c r="AG66" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH66" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM66" s="10" t="s">
         <v>234</v>
@@ -13449,10 +13449,10 @@
         <v>164</v>
       </c>
       <c r="AO66" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP66" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ66" s="10" t="s">
         <v>166</v>
@@ -13464,10 +13464,10 @@
         <v>192</v>
       </c>
       <c r="AT66" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AU66" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV66" s="10" t="s">
         <v>201</v>
@@ -13476,7 +13476,7 @@
         <v>210</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13550,10 +13550,10 @@
         <v>115</v>
       </c>
       <c r="Y67" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z67" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA67" s="10">
         <v>3</v>
@@ -13568,13 +13568,13 @@
         <v>446</v>
       </c>
       <c r="AG67" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH67" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM67" s="10" t="s">
         <v>234</v>
@@ -13583,10 +13583,10 @@
         <v>164</v>
       </c>
       <c r="AO67" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AP67" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AQ67" s="10" t="s">
         <v>166</v>
@@ -13598,10 +13598,10 @@
         <v>194</v>
       </c>
       <c r="AT67" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU67" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AV67" s="10" t="s">
         <v>201</v>
@@ -13610,7 +13610,7 @@
         <v>210</v>
       </c>
       <c r="AX67" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -13684,7 +13684,7 @@
         <v>69</v>
       </c>
       <c r="Z68" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AA68" s="14">
         <v>2</v>
@@ -13705,7 +13705,7 @@
         <v>119</v>
       </c>
       <c r="AL68" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM68" s="14" t="s">
         <v>234</v>
@@ -13714,7 +13714,7 @@
         <v>162</v>
       </c>
       <c r="AO68" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AQ68" s="14" t="s">
         <v>167</v>
@@ -13723,10 +13723,10 @@
         <v>175</v>
       </c>
       <c r="AT68" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AU68" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AV68" s="14" t="s">
         <v>201</v>
@@ -13735,7 +13735,7 @@
         <v>209</v>
       </c>
       <c r="AX68" s="15" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13809,7 +13809,7 @@
         <v>69</v>
       </c>
       <c r="Z69" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AA69" s="10">
         <v>2</v>
@@ -13830,7 +13830,7 @@
         <v>120</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM69" s="10" t="s">
         <v>234</v>
@@ -13839,7 +13839,7 @@
         <v>162</v>
       </c>
       <c r="AO69" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AQ69" s="10" t="s">
         <v>167</v>
@@ -13848,10 +13848,10 @@
         <v>175</v>
       </c>
       <c r="AT69" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AU69" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AV69" s="10" t="s">
         <v>201</v>
@@ -13860,7 +13860,7 @@
         <v>209</v>
       </c>
       <c r="AX69" s="13" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -13934,7 +13934,7 @@
         <v>217</v>
       </c>
       <c r="Z70" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AA70" s="14">
         <v>3</v>
@@ -13958,16 +13958,16 @@
         <v>152</v>
       </c>
       <c r="AL70" s="14" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AM70" s="14" t="s">
         <v>235</v>
       </c>
       <c r="AO70" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP70" s="14" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AQ70" s="14" t="s">
         <v>166</v>
@@ -13976,10 +13976,10 @@
         <v>241</v>
       </c>
       <c r="AT70" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AU70" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV70" s="14" t="s">
         <v>201</v>
@@ -13988,7 +13988,7 @@
         <v>210</v>
       </c>
       <c r="AX70" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14062,7 +14062,7 @@
         <v>217</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AA71" s="10">
         <v>3</v>
@@ -14083,16 +14083,16 @@
         <v>120</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AM71" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO71" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AQ71" s="10" t="s">
         <v>166</v>
@@ -14101,10 +14101,10 @@
         <v>241</v>
       </c>
       <c r="AT71" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AU71" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV71" s="10" t="s">
         <v>201</v>
@@ -14113,7 +14113,7 @@
         <v>210</v>
       </c>
       <c r="AX71" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14187,7 +14187,7 @@
         <v>217</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AA72" s="10">
         <v>3</v>
@@ -14217,16 +14217,16 @@
         <v>152</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AM72" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO72" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AQ72" s="10" t="s">
         <v>166</v>
@@ -14235,10 +14235,10 @@
         <v>241</v>
       </c>
       <c r="AT72" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AU72" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV72" s="10" t="s">
         <v>201</v>
@@ -14247,7 +14247,7 @@
         <v>210</v>
       </c>
       <c r="AX72" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="73" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14321,7 +14321,7 @@
         <v>217</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AA73" s="10">
         <v>3</v>
@@ -14351,16 +14351,16 @@
         <v>152</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AM73" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO73" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP73" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AQ73" s="10" t="s">
         <v>166</v>
@@ -14369,10 +14369,10 @@
         <v>241</v>
       </c>
       <c r="AT73" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AU73" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV73" s="10" t="s">
         <v>201</v>
@@ -14381,7 +14381,7 @@
         <v>210</v>
       </c>
       <c r="AX73" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14455,7 +14455,7 @@
         <v>217</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AA74" s="10">
         <v>3</v>
@@ -14485,16 +14485,16 @@
         <v>152</v>
       </c>
       <c r="AL74" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AM74" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO74" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP74" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AQ74" s="10" t="s">
         <v>166</v>
@@ -14503,10 +14503,10 @@
         <v>241</v>
       </c>
       <c r="AT74" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AU74" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AV74" s="10" t="s">
         <v>201</v>
@@ -14515,7 +14515,7 @@
         <v>210</v>
       </c>
       <c r="AX74" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -14589,7 +14589,7 @@
         <v>69</v>
       </c>
       <c r="Z75" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA75" s="14">
         <v>3</v>
@@ -14610,7 +14610,7 @@
         <v>222</v>
       </c>
       <c r="AL75" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM75" s="14" t="s">
         <v>234</v>
@@ -14619,7 +14619,7 @@
         <v>164</v>
       </c>
       <c r="AO75" s="14" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ75" s="14" t="s">
         <v>166</v>
@@ -14634,7 +14634,7 @@
         <v>152</v>
       </c>
       <c r="AU75" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV75" s="14" t="s">
         <v>201</v>
@@ -14643,7 +14643,7 @@
         <v>211</v>
       </c>
       <c r="AX75" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14717,7 +14717,7 @@
         <v>69</v>
       </c>
       <c r="Z76" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA76" s="10">
         <v>3</v>
@@ -14741,7 +14741,7 @@
         <v>132</v>
       </c>
       <c r="AL76" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM76" s="10" t="s">
         <v>234</v>
@@ -14750,7 +14750,7 @@
         <v>162</v>
       </c>
       <c r="AO76" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ76" s="10" t="s">
         <v>166</v>
@@ -14765,7 +14765,7 @@
         <v>152</v>
       </c>
       <c r="AU76" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV76" s="10" t="s">
         <v>201</v>
@@ -14774,7 +14774,7 @@
         <v>211</v>
       </c>
       <c r="AX76" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14848,7 +14848,7 @@
         <v>69</v>
       </c>
       <c r="Z77" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA77" s="10">
         <v>3</v>
@@ -14872,7 +14872,7 @@
         <v>140</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM77" s="10" t="s">
         <v>234</v>
@@ -14881,7 +14881,7 @@
         <v>162</v>
       </c>
       <c r="AO77" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ77" s="10" t="s">
         <v>166</v>
@@ -14896,7 +14896,7 @@
         <v>152</v>
       </c>
       <c r="AU77" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV77" s="10" t="s">
         <v>201</v>
@@ -14905,7 +14905,7 @@
         <v>211</v>
       </c>
       <c r="AX77" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14979,7 +14979,7 @@
         <v>69</v>
       </c>
       <c r="Z78" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA78" s="10">
         <v>3</v>
@@ -15000,7 +15000,7 @@
         <v>222</v>
       </c>
       <c r="AL78" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM78" s="10" t="s">
         <v>234</v>
@@ -15009,7 +15009,7 @@
         <v>164</v>
       </c>
       <c r="AO78" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ78" s="10" t="s">
         <v>166</v>
@@ -15021,7 +15021,7 @@
         <v>152</v>
       </c>
       <c r="AU78" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV78" s="10" t="s">
         <v>201</v>
@@ -15030,7 +15030,7 @@
         <v>211</v>
       </c>
       <c r="AX78" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15104,7 +15104,7 @@
         <v>69</v>
       </c>
       <c r="Z79" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA79" s="10">
         <v>3</v>
@@ -15128,7 +15128,7 @@
         <v>132</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM79" s="10" t="s">
         <v>234</v>
@@ -15137,7 +15137,7 @@
         <v>162</v>
       </c>
       <c r="AO79" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ79" s="10" t="s">
         <v>166</v>
@@ -15149,7 +15149,7 @@
         <v>152</v>
       </c>
       <c r="AU79" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV79" s="10" t="s">
         <v>201</v>
@@ -15158,7 +15158,7 @@
         <v>211</v>
       </c>
       <c r="AX79" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15232,7 +15232,7 @@
         <v>69</v>
       </c>
       <c r="Z80" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA80" s="10">
         <v>3</v>
@@ -15256,7 +15256,7 @@
         <v>140</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM80" s="10" t="s">
         <v>234</v>
@@ -15265,7 +15265,7 @@
         <v>162</v>
       </c>
       <c r="AO80" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ80" s="10" t="s">
         <v>166</v>
@@ -15277,7 +15277,7 @@
         <v>152</v>
       </c>
       <c r="AU80" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV80" s="10" t="s">
         <v>201</v>
@@ -15286,7 +15286,7 @@
         <v>211</v>
       </c>
       <c r="AX80" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15360,7 +15360,7 @@
         <v>69</v>
       </c>
       <c r="Z81" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA81" s="10">
         <v>3</v>
@@ -15381,7 +15381,7 @@
         <v>222</v>
       </c>
       <c r="AL81" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM81" s="10" t="s">
         <v>234</v>
@@ -15390,7 +15390,7 @@
         <v>164</v>
       </c>
       <c r="AO81" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ81" s="10" t="s">
         <v>166</v>
@@ -15402,7 +15402,7 @@
         <v>152</v>
       </c>
       <c r="AU81" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV81" s="10" t="s">
         <v>201</v>
@@ -15411,7 +15411,7 @@
         <v>211</v>
       </c>
       <c r="AX81" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15485,7 +15485,7 @@
         <v>69</v>
       </c>
       <c r="Z82" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA82" s="10">
         <v>3</v>
@@ -15509,7 +15509,7 @@
         <v>132</v>
       </c>
       <c r="AL82" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM82" s="10" t="s">
         <v>234</v>
@@ -15518,7 +15518,7 @@
         <v>162</v>
       </c>
       <c r="AO82" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ82" s="10" t="s">
         <v>166</v>
@@ -15530,7 +15530,7 @@
         <v>152</v>
       </c>
       <c r="AU82" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV82" s="10" t="s">
         <v>201</v>
@@ -15539,7 +15539,7 @@
         <v>211</v>
       </c>
       <c r="AX82" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15613,7 +15613,7 @@
         <v>69</v>
       </c>
       <c r="Z83" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA83" s="10">
         <v>3</v>
@@ -15637,7 +15637,7 @@
         <v>140</v>
       </c>
       <c r="AL83" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM83" s="10" t="s">
         <v>234</v>
@@ -15646,7 +15646,7 @@
         <v>162</v>
       </c>
       <c r="AO83" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ83" s="10" t="s">
         <v>166</v>
@@ -15658,7 +15658,7 @@
         <v>152</v>
       </c>
       <c r="AU83" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV83" s="10" t="s">
         <v>201</v>
@@ -15667,7 +15667,7 @@
         <v>211</v>
       </c>
       <c r="AX83" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15741,7 +15741,7 @@
         <v>69</v>
       </c>
       <c r="Z84" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA84" s="10">
         <v>3</v>
@@ -15762,7 +15762,7 @@
         <v>222</v>
       </c>
       <c r="AL84" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM84" s="10" t="s">
         <v>234</v>
@@ -15771,7 +15771,7 @@
         <v>164</v>
       </c>
       <c r="AO84" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ84" s="10" t="s">
         <v>166</v>
@@ -15786,7 +15786,7 @@
         <v>152</v>
       </c>
       <c r="AU84" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV84" s="10" t="s">
         <v>202</v>
@@ -15795,7 +15795,7 @@
         <v>211</v>
       </c>
       <c r="AX84" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15869,7 +15869,7 @@
         <v>69</v>
       </c>
       <c r="Z85" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA85" s="10">
         <v>3</v>
@@ -15893,7 +15893,7 @@
         <v>132</v>
       </c>
       <c r="AL85" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM85" s="10" t="s">
         <v>234</v>
@@ -15902,7 +15902,7 @@
         <v>162</v>
       </c>
       <c r="AO85" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ85" s="10" t="s">
         <v>166</v>
@@ -15917,7 +15917,7 @@
         <v>152</v>
       </c>
       <c r="AU85" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV85" s="10" t="s">
         <v>202</v>
@@ -15926,7 +15926,7 @@
         <v>211</v>
       </c>
       <c r="AX85" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16000,7 +16000,7 @@
         <v>69</v>
       </c>
       <c r="Z86" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA86" s="10">
         <v>3</v>
@@ -16024,7 +16024,7 @@
         <v>140</v>
       </c>
       <c r="AL86" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM86" s="10" t="s">
         <v>234</v>
@@ -16033,7 +16033,7 @@
         <v>162</v>
       </c>
       <c r="AO86" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ86" s="10" t="s">
         <v>166</v>
@@ -16048,7 +16048,7 @@
         <v>152</v>
       </c>
       <c r="AU86" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV86" s="10" t="s">
         <v>202</v>
@@ -16057,7 +16057,7 @@
         <v>211</v>
       </c>
       <c r="AX86" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16131,7 +16131,7 @@
         <v>69</v>
       </c>
       <c r="Z87" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA87" s="10">
         <v>3</v>
@@ -16152,7 +16152,7 @@
         <v>222</v>
       </c>
       <c r="AL87" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM87" s="10" t="s">
         <v>234</v>
@@ -16161,7 +16161,7 @@
         <v>164</v>
       </c>
       <c r="AO87" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ87" s="10" t="s">
         <v>166</v>
@@ -16173,7 +16173,7 @@
         <v>152</v>
       </c>
       <c r="AU87" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV87" s="10" t="s">
         <v>202</v>
@@ -16182,7 +16182,7 @@
         <v>211</v>
       </c>
       <c r="AX87" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16256,7 +16256,7 @@
         <v>69</v>
       </c>
       <c r="Z88" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA88" s="10">
         <v>3</v>
@@ -16280,7 +16280,7 @@
         <v>132</v>
       </c>
       <c r="AL88" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM88" s="10" t="s">
         <v>234</v>
@@ -16289,7 +16289,7 @@
         <v>162</v>
       </c>
       <c r="AO88" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ88" s="10" t="s">
         <v>166</v>
@@ -16301,7 +16301,7 @@
         <v>152</v>
       </c>
       <c r="AU88" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV88" s="10" t="s">
         <v>202</v>
@@ -16310,7 +16310,7 @@
         <v>211</v>
       </c>
       <c r="AX88" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16384,7 +16384,7 @@
         <v>69</v>
       </c>
       <c r="Z89" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA89" s="10">
         <v>3</v>
@@ -16408,7 +16408,7 @@
         <v>140</v>
       </c>
       <c r="AL89" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM89" s="10" t="s">
         <v>234</v>
@@ -16417,7 +16417,7 @@
         <v>162</v>
       </c>
       <c r="AO89" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ89" s="10" t="s">
         <v>166</v>
@@ -16429,7 +16429,7 @@
         <v>152</v>
       </c>
       <c r="AU89" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV89" s="10" t="s">
         <v>202</v>
@@ -16438,7 +16438,7 @@
         <v>211</v>
       </c>
       <c r="AX89" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16512,7 +16512,7 @@
         <v>69</v>
       </c>
       <c r="Z90" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA90" s="10">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         <v>222</v>
       </c>
       <c r="AL90" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM90" s="10" t="s">
         <v>234</v>
@@ -16542,7 +16542,7 @@
         <v>164</v>
       </c>
       <c r="AO90" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ90" s="10" t="s">
         <v>166</v>
@@ -16554,7 +16554,7 @@
         <v>152</v>
       </c>
       <c r="AU90" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV90" s="10" t="s">
         <v>202</v>
@@ -16563,7 +16563,7 @@
         <v>211</v>
       </c>
       <c r="AX90" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="91" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16637,7 +16637,7 @@
         <v>69</v>
       </c>
       <c r="Z91" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA91" s="10">
         <v>3</v>
@@ -16661,7 +16661,7 @@
         <v>132</v>
       </c>
       <c r="AL91" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM91" s="10" t="s">
         <v>234</v>
@@ -16670,7 +16670,7 @@
         <v>162</v>
       </c>
       <c r="AO91" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ91" s="10" t="s">
         <v>166</v>
@@ -16682,7 +16682,7 @@
         <v>152</v>
       </c>
       <c r="AU91" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV91" s="10" t="s">
         <v>202</v>
@@ -16691,7 +16691,7 @@
         <v>211</v>
       </c>
       <c r="AX91" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16765,7 +16765,7 @@
         <v>69</v>
       </c>
       <c r="Z92" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA92" s="10">
         <v>3</v>
@@ -16789,7 +16789,7 @@
         <v>140</v>
       </c>
       <c r="AL92" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM92" s="10" t="s">
         <v>234</v>
@@ -16798,7 +16798,7 @@
         <v>162</v>
       </c>
       <c r="AO92" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ92" s="10" t="s">
         <v>166</v>
@@ -16810,7 +16810,7 @@
         <v>152</v>
       </c>
       <c r="AU92" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV92" s="10" t="s">
         <v>202</v>
@@ -16819,7 +16819,7 @@
         <v>211</v>
       </c>
       <c r="AX92" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16893,7 +16893,7 @@
         <v>218</v>
       </c>
       <c r="Z93" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA93" s="10">
         <v>3</v>
@@ -16914,7 +16914,7 @@
         <v>222</v>
       </c>
       <c r="AL93" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM93" s="10" t="s">
         <v>234</v>
@@ -16923,7 +16923,7 @@
         <v>162</v>
       </c>
       <c r="AO93" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ93" s="10" t="s">
         <v>166</v>
@@ -16938,7 +16938,7 @@
         <v>152</v>
       </c>
       <c r="AU93" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV93" s="10" t="s">
         <v>201</v>
@@ -16947,7 +16947,7 @@
         <v>211</v>
       </c>
       <c r="AX93" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17021,7 +17021,7 @@
         <v>218</v>
       </c>
       <c r="Z94" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA94" s="10">
         <v>3</v>
@@ -17045,7 +17045,7 @@
         <v>132</v>
       </c>
       <c r="AL94" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM94" s="10" t="s">
         <v>234</v>
@@ -17054,7 +17054,7 @@
         <v>162</v>
       </c>
       <c r="AO94" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ94" s="10" t="s">
         <v>166</v>
@@ -17069,7 +17069,7 @@
         <v>152</v>
       </c>
       <c r="AU94" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV94" s="10" t="s">
         <v>201</v>
@@ -17078,7 +17078,7 @@
         <v>211</v>
       </c>
       <c r="AX94" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17152,7 +17152,7 @@
         <v>218</v>
       </c>
       <c r="Z95" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA95" s="10">
         <v>3</v>
@@ -17176,7 +17176,7 @@
         <v>140</v>
       </c>
       <c r="AL95" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM95" s="10" t="s">
         <v>234</v>
@@ -17185,7 +17185,7 @@
         <v>162</v>
       </c>
       <c r="AO95" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ95" s="10" t="s">
         <v>166</v>
@@ -17200,7 +17200,7 @@
         <v>152</v>
       </c>
       <c r="AU95" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV95" s="10" t="s">
         <v>201</v>
@@ -17209,7 +17209,7 @@
         <v>211</v>
       </c>
       <c r="AX95" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17283,7 +17283,7 @@
         <v>218</v>
       </c>
       <c r="Z96" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA96" s="10">
         <v>3</v>
@@ -17304,7 +17304,7 @@
         <v>222</v>
       </c>
       <c r="AL96" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM96" s="10" t="s">
         <v>234</v>
@@ -17313,7 +17313,7 @@
         <v>162</v>
       </c>
       <c r="AO96" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ96" s="10" t="s">
         <v>166</v>
@@ -17325,7 +17325,7 @@
         <v>152</v>
       </c>
       <c r="AU96" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV96" s="10" t="s">
         <v>201</v>
@@ -17334,7 +17334,7 @@
         <v>211</v>
       </c>
       <c r="AX96" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -17408,7 +17408,7 @@
         <v>218</v>
       </c>
       <c r="Z97" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA97" s="10">
         <v>3</v>
@@ -17432,7 +17432,7 @@
         <v>132</v>
       </c>
       <c r="AL97" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM97" s="10" t="s">
         <v>234</v>
@@ -17441,7 +17441,7 @@
         <v>162</v>
       </c>
       <c r="AO97" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ97" s="10" t="s">
         <v>166</v>
@@ -17453,7 +17453,7 @@
         <v>152</v>
       </c>
       <c r="AU97" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV97" s="10" t="s">
         <v>201</v>
@@ -17462,7 +17462,7 @@
         <v>211</v>
       </c>
       <c r="AX97" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17536,7 +17536,7 @@
         <v>218</v>
       </c>
       <c r="Z98" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA98" s="10">
         <v>3</v>
@@ -17560,7 +17560,7 @@
         <v>140</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM98" s="10" t="s">
         <v>234</v>
@@ -17569,7 +17569,7 @@
         <v>162</v>
       </c>
       <c r="AO98" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ98" s="10" t="s">
         <v>166</v>
@@ -17581,7 +17581,7 @@
         <v>152</v>
       </c>
       <c r="AU98" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV98" s="10" t="s">
         <v>201</v>
@@ -17590,7 +17590,7 @@
         <v>211</v>
       </c>
       <c r="AX98" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17664,7 +17664,7 @@
         <v>218</v>
       </c>
       <c r="Z99" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA99" s="10">
         <v>3</v>
@@ -17685,7 +17685,7 @@
         <v>222</v>
       </c>
       <c r="AL99" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM99" s="10" t="s">
         <v>234</v>
@@ -17694,7 +17694,7 @@
         <v>162</v>
       </c>
       <c r="AO99" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ99" s="10" t="s">
         <v>166</v>
@@ -17709,7 +17709,7 @@
         <v>152</v>
       </c>
       <c r="AU99" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV99" s="10" t="s">
         <v>201</v>
@@ -17718,7 +17718,7 @@
         <v>211</v>
       </c>
       <c r="AX99" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17792,7 +17792,7 @@
         <v>218</v>
       </c>
       <c r="Z100" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA100" s="10">
         <v>3</v>
@@ -17816,7 +17816,7 @@
         <v>132</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM100" s="10" t="s">
         <v>234</v>
@@ -17825,7 +17825,7 @@
         <v>162</v>
       </c>
       <c r="AO100" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ100" s="10" t="s">
         <v>166</v>
@@ -17840,7 +17840,7 @@
         <v>152</v>
       </c>
       <c r="AU100" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV100" s="10" t="s">
         <v>201</v>
@@ -17849,7 +17849,7 @@
         <v>211</v>
       </c>
       <c r="AX100" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17923,7 +17923,7 @@
         <v>218</v>
       </c>
       <c r="Z101" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA101" s="10">
         <v>3</v>
@@ -17947,7 +17947,7 @@
         <v>140</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM101" s="10" t="s">
         <v>234</v>
@@ -17956,7 +17956,7 @@
         <v>162</v>
       </c>
       <c r="AO101" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ101" s="10" t="s">
         <v>166</v>
@@ -17971,7 +17971,7 @@
         <v>152</v>
       </c>
       <c r="AU101" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV101" s="10" t="s">
         <v>201</v>
@@ -17980,7 +17980,7 @@
         <v>211</v>
       </c>
       <c r="AX101" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18054,7 +18054,7 @@
         <v>218</v>
       </c>
       <c r="Z102" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA102" s="10">
         <v>3</v>
@@ -18075,7 +18075,7 @@
         <v>222</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM102" s="10" t="s">
         <v>234</v>
@@ -18084,7 +18084,7 @@
         <v>162</v>
       </c>
       <c r="AO102" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ102" s="10" t="s">
         <v>166</v>
@@ -18096,7 +18096,7 @@
         <v>152</v>
       </c>
       <c r="AU102" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV102" s="10" t="s">
         <v>201</v>
@@ -18105,7 +18105,7 @@
         <v>211</v>
       </c>
       <c r="AX102" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -18179,7 +18179,7 @@
         <v>218</v>
       </c>
       <c r="Z103" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA103" s="10">
         <v>3</v>
@@ -18203,7 +18203,7 @@
         <v>132</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM103" s="10" t="s">
         <v>234</v>
@@ -18212,7 +18212,7 @@
         <v>162</v>
       </c>
       <c r="AO103" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ103" s="10" t="s">
         <v>166</v>
@@ -18224,7 +18224,7 @@
         <v>152</v>
       </c>
       <c r="AU103" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV103" s="10" t="s">
         <v>201</v>
@@ -18233,7 +18233,7 @@
         <v>211</v>
       </c>
       <c r="AX103" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18307,7 +18307,7 @@
         <v>218</v>
       </c>
       <c r="Z104" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA104" s="10">
         <v>3</v>
@@ -18331,7 +18331,7 @@
         <v>140</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM104" s="10" t="s">
         <v>234</v>
@@ -18340,7 +18340,7 @@
         <v>162</v>
       </c>
       <c r="AO104" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ104" s="10" t="s">
         <v>166</v>
@@ -18352,7 +18352,7 @@
         <v>152</v>
       </c>
       <c r="AU104" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV104" s="10" t="s">
         <v>201</v>
@@ -18361,7 +18361,7 @@
         <v>211</v>
       </c>
       <c r="AX104" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18435,7 +18435,7 @@
         <v>218</v>
       </c>
       <c r="Z105" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA105" s="10">
         <v>3</v>
@@ -18456,7 +18456,7 @@
         <v>222</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM105" s="10" t="s">
         <v>234</v>
@@ -18465,7 +18465,7 @@
         <v>162</v>
       </c>
       <c r="AO105" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ105" s="10" t="s">
         <v>166</v>
@@ -18480,7 +18480,7 @@
         <v>152</v>
       </c>
       <c r="AU105" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV105" s="10" t="s">
         <v>201</v>
@@ -18489,7 +18489,7 @@
         <v>211</v>
       </c>
       <c r="AX105" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="106" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18563,7 +18563,7 @@
         <v>218</v>
       </c>
       <c r="Z106" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA106" s="10">
         <v>3</v>
@@ -18587,7 +18587,7 @@
         <v>132</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM106" s="10" t="s">
         <v>234</v>
@@ -18596,7 +18596,7 @@
         <v>162</v>
       </c>
       <c r="AO106" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ106" s="10" t="s">
         <v>166</v>
@@ -18611,7 +18611,7 @@
         <v>152</v>
       </c>
       <c r="AU106" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV106" s="10" t="s">
         <v>201</v>
@@ -18620,7 +18620,7 @@
         <v>211</v>
       </c>
       <c r="AX106" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18694,7 +18694,7 @@
         <v>218</v>
       </c>
       <c r="Z107" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA107" s="10">
         <v>3</v>
@@ -18718,7 +18718,7 @@
         <v>140</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM107" s="10" t="s">
         <v>234</v>
@@ -18727,7 +18727,7 @@
         <v>162</v>
       </c>
       <c r="AO107" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ107" s="10" t="s">
         <v>166</v>
@@ -18742,7 +18742,7 @@
         <v>152</v>
       </c>
       <c r="AU107" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV107" s="10" t="s">
         <v>201</v>
@@ -18751,7 +18751,7 @@
         <v>211</v>
       </c>
       <c r="AX107" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18825,7 +18825,7 @@
         <v>218</v>
       </c>
       <c r="Z108" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA108" s="10">
         <v>3</v>
@@ -18846,7 +18846,7 @@
         <v>222</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM108" s="10" t="s">
         <v>234</v>
@@ -18855,7 +18855,7 @@
         <v>162</v>
       </c>
       <c r="AO108" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ108" s="10" t="s">
         <v>166</v>
@@ -18867,7 +18867,7 @@
         <v>152</v>
       </c>
       <c r="AU108" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV108" s="10" t="s">
         <v>201</v>
@@ -18876,7 +18876,7 @@
         <v>211</v>
       </c>
       <c r="AX108" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -18950,7 +18950,7 @@
         <v>218</v>
       </c>
       <c r="Z109" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA109" s="10">
         <v>3</v>
@@ -18974,7 +18974,7 @@
         <v>132</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM109" s="10" t="s">
         <v>234</v>
@@ -18983,7 +18983,7 @@
         <v>162</v>
       </c>
       <c r="AO109" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ109" s="10" t="s">
         <v>166</v>
@@ -18995,7 +18995,7 @@
         <v>152</v>
       </c>
       <c r="AU109" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV109" s="10" t="s">
         <v>201</v>
@@ -19004,7 +19004,7 @@
         <v>211</v>
       </c>
       <c r="AX109" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -19078,7 +19078,7 @@
         <v>218</v>
       </c>
       <c r="Z110" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA110" s="10">
         <v>3</v>
@@ -19102,7 +19102,7 @@
         <v>140</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM110" s="10" t="s">
         <v>234</v>
@@ -19111,7 +19111,7 @@
         <v>162</v>
       </c>
       <c r="AO110" s="21" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AQ110" s="10" t="s">
         <v>166</v>
@@ -19123,7 +19123,7 @@
         <v>152</v>
       </c>
       <c r="AU110" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AV110" s="10" t="s">
         <v>201</v>
@@ -19132,7 +19132,7 @@
         <v>211</v>
       </c>
       <c r="AX110" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -19206,7 +19206,7 @@
         <v>115</v>
       </c>
       <c r="Y111" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AA111" s="14">
         <v>1</v>
@@ -19218,19 +19218,19 @@
         <v>2</v>
       </c>
       <c r="AD111" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AF111" s="14" t="s">
         <v>443</v>
       </c>
       <c r="AG111" s="14" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH111" s="14" t="s">
         <v>120</v>
       </c>
       <c r="AL111" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AM111" s="14" t="s">
         <v>234</v>
@@ -19239,7 +19239,7 @@
         <v>162</v>
       </c>
       <c r="AO111" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ111" s="14" t="s">
         <v>167</v>
@@ -19248,13 +19248,13 @@
         <v>115</v>
       </c>
       <c r="AS111" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AT111" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AU111" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV111" s="14" t="s">
         <v>206</v>
@@ -19263,7 +19263,7 @@
         <v>210</v>
       </c>
       <c r="AX111" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -19337,7 +19337,7 @@
         <v>115</v>
       </c>
       <c r="Y112" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AA112" s="10">
         <v>1</v>
@@ -19349,19 +19349,19 @@
         <v>2</v>
       </c>
       <c r="AD112" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AF112" s="10" t="s">
         <v>443</v>
       </c>
       <c r="AG112" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH112" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AM112" s="10" t="s">
         <v>234</v>
@@ -19370,7 +19370,7 @@
         <v>162</v>
       </c>
       <c r="AO112" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ112" s="10" t="s">
         <v>167</v>
@@ -19379,13 +19379,13 @@
         <v>115</v>
       </c>
       <c r="AS112" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AT112" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AU112" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV112" s="10" t="s">
         <v>206</v>
@@ -19394,7 +19394,7 @@
         <v>210</v>
       </c>
       <c r="AX112" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -19468,7 +19468,7 @@
         <v>115</v>
       </c>
       <c r="Y113" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AA113" s="10">
         <v>1</v>
@@ -19480,13 +19480,13 @@
         <v>2</v>
       </c>
       <c r="AD113" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AF113" s="10" t="s">
         <v>443</v>
       </c>
       <c r="AG113" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH113" s="10" t="s">
         <v>222</v>
@@ -19495,7 +19495,7 @@
         <v>133</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AM113" s="10" t="s">
         <v>234</v>
@@ -19504,7 +19504,7 @@
         <v>162</v>
       </c>
       <c r="AO113" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ113" s="10" t="s">
         <v>167</v>
@@ -19513,13 +19513,13 @@
         <v>115</v>
       </c>
       <c r="AS113" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AT113" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AU113" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV113" s="10" t="s">
         <v>206</v>
@@ -19528,7 +19528,7 @@
         <v>210</v>
       </c>
       <c r="AX113" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -19602,7 +19602,7 @@
         <v>115</v>
       </c>
       <c r="Y114" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AA114" s="10">
         <v>1</v>
@@ -19614,13 +19614,13 @@
         <v>2</v>
       </c>
       <c r="AD114" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AF114" s="10" t="s">
         <v>443</v>
       </c>
       <c r="AG114" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH114" s="10" t="s">
         <v>222</v>
@@ -19629,7 +19629,7 @@
         <v>147</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AM114" s="10" t="s">
         <v>234</v>
@@ -19638,7 +19638,7 @@
         <v>162</v>
       </c>
       <c r="AO114" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ114" s="10" t="s">
         <v>167</v>
@@ -19647,13 +19647,13 @@
         <v>115</v>
       </c>
       <c r="AS114" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AT114" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AU114" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV114" s="10" t="s">
         <v>206</v>
@@ -19662,7 +19662,7 @@
         <v>210</v>
       </c>
       <c r="AX114" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -19745,7 +19745,7 @@
         <v>2</v>
       </c>
       <c r="AD115" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF115" s="10" t="s">
         <v>443</v>
@@ -19757,7 +19757,7 @@
         <v>120</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AM115" s="10" t="s">
         <v>234</v>
@@ -19766,7 +19766,7 @@
         <v>162</v>
       </c>
       <c r="AO115" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ115" s="10" t="s">
         <v>167</v>
@@ -19775,13 +19775,13 @@
         <v>115</v>
       </c>
       <c r="AS115" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AT115" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AU115" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV115" s="10" t="s">
         <v>206</v>
@@ -19790,7 +19790,7 @@
         <v>210</v>
       </c>
       <c r="AX115" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -19873,7 +19873,7 @@
         <v>2</v>
       </c>
       <c r="AD116" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF116" s="10" t="s">
         <v>443</v>
@@ -19885,7 +19885,7 @@
         <v>119</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AM116" s="10" t="s">
         <v>234</v>
@@ -19894,7 +19894,7 @@
         <v>162</v>
       </c>
       <c r="AO116" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ116" s="10" t="s">
         <v>167</v>
@@ -19903,13 +19903,13 @@
         <v>115</v>
       </c>
       <c r="AS116" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AT116" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AU116" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV116" s="10" t="s">
         <v>206</v>
@@ -19918,7 +19918,7 @@
         <v>210</v>
       </c>
       <c r="AX116" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20001,7 +20001,7 @@
         <v>2</v>
       </c>
       <c r="AD117" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF117" s="10" t="s">
         <v>443</v>
@@ -20016,7 +20016,7 @@
         <v>133</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AM117" s="10" t="s">
         <v>234</v>
@@ -20025,7 +20025,7 @@
         <v>162</v>
       </c>
       <c r="AO117" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ117" s="10" t="s">
         <v>167</v>
@@ -20034,13 +20034,13 @@
         <v>115</v>
       </c>
       <c r="AS117" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AT117" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AU117" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV117" s="10" t="s">
         <v>206</v>
@@ -20049,7 +20049,7 @@
         <v>210</v>
       </c>
       <c r="AX117" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20132,7 +20132,7 @@
         <v>2</v>
       </c>
       <c r="AD118" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF118" s="10" t="s">
         <v>443</v>
@@ -20147,7 +20147,7 @@
         <v>147</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AM118" s="10" t="s">
         <v>234</v>
@@ -20156,7 +20156,7 @@
         <v>162</v>
       </c>
       <c r="AO118" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ118" s="10" t="s">
         <v>167</v>
@@ -20165,13 +20165,13 @@
         <v>115</v>
       </c>
       <c r="AS118" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AT118" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AU118" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AV118" s="10" t="s">
         <v>206</v>
@@ -20180,7 +20180,7 @@
         <v>210</v>
       </c>
       <c r="AX118" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -20254,7 +20254,7 @@
         <v>71</v>
       </c>
       <c r="Z119" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AA119" s="14">
         <v>3</v>
@@ -20275,16 +20275,16 @@
         <v>118</v>
       </c>
       <c r="AL119" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AM119" s="14" t="s">
         <v>161</v>
       </c>
       <c r="AO119" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AP119" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AQ119" s="14" t="s">
         <v>166</v>
@@ -20293,10 +20293,10 @@
         <v>241</v>
       </c>
       <c r="AT119" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AU119" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AV119" s="14" t="s">
         <v>214</v>
@@ -20305,7 +20305,7 @@
         <v>209</v>
       </c>
       <c r="AX119" s="14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20379,7 +20379,7 @@
         <v>71</v>
       </c>
       <c r="Z120" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AA120" s="10">
         <v>3</v>
@@ -20400,16 +20400,16 @@
         <v>118</v>
       </c>
       <c r="AL120" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AM120" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AO120" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AP120" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AQ120" s="10" t="s">
         <v>166</v>
@@ -20418,10 +20418,10 @@
         <v>241</v>
       </c>
       <c r="AT120" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU120" s="10" t="s">
         <v>472</v>
-      </c>
-      <c r="AU120" s="10" t="s">
-        <v>474</v>
       </c>
       <c r="AV120" s="10" t="s">
         <v>214</v>
@@ -20430,7 +20430,7 @@
         <v>209</v>
       </c>
       <c r="AX120" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20504,7 +20504,7 @@
         <v>71</v>
       </c>
       <c r="Z121" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AA121" s="10">
         <v>3</v>
@@ -20525,16 +20525,16 @@
         <v>118</v>
       </c>
       <c r="AL121" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AM121" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AO121" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AP121" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AQ121" s="10" t="s">
         <v>166</v>
@@ -20543,10 +20543,10 @@
         <v>241</v>
       </c>
       <c r="AT121" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AU121" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AV121" s="10" t="s">
         <v>214</v>
@@ -20555,7 +20555,7 @@
         <v>209</v>
       </c>
       <c r="AX121" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="122" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20629,7 +20629,7 @@
         <v>71</v>
       </c>
       <c r="Z122" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AA122" s="10">
         <v>3</v>
@@ -20650,16 +20650,16 @@
         <v>118</v>
       </c>
       <c r="AL122" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AM122" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AO122" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AP122" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AQ122" s="10" t="s">
         <v>166</v>
@@ -20668,10 +20668,10 @@
         <v>242</v>
       </c>
       <c r="AT122" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AU122" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AV122" s="10" t="s">
         <v>214</v>
@@ -20680,7 +20680,7 @@
         <v>209</v>
       </c>
       <c r="AX122" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="123" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -20754,10 +20754,10 @@
         <v>115</v>
       </c>
       <c r="Y123" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Z123" s="14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AA123" s="14">
         <v>3</v>
@@ -20781,7 +20781,7 @@
         <v>134</v>
       </c>
       <c r="AL123" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AM123" s="14" t="s">
         <v>234</v>
@@ -20790,10 +20790,10 @@
         <v>164</v>
       </c>
       <c r="AO123" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AP123" s="14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AQ123" s="14" t="s">
         <v>166</v>
@@ -20805,7 +20805,7 @@
         <v>194</v>
       </c>
       <c r="AU123" s="14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AV123" s="14" t="s">
         <v>201</v>
@@ -20814,7 +20814,7 @@
         <v>210</v>
       </c>
       <c r="AX123" s="14" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="124" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20888,10 +20888,10 @@
         <v>115</v>
       </c>
       <c r="Y124" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Z124" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AA124" s="10">
         <v>3</v>
@@ -20915,13 +20915,13 @@
         <v>134</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AM124" s="10" t="s">
         <v>233</v>
       </c>
       <c r="AO124" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AQ124" s="10" t="s">
         <v>166</v>
@@ -20933,7 +20933,7 @@
         <v>190</v>
       </c>
       <c r="AU124" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AV124" s="10" t="s">
         <v>201</v>
@@ -20942,7 +20942,7 @@
         <v>210</v>
       </c>
       <c r="AX124" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -21019,7 +21019,7 @@
         <v>313</v>
       </c>
       <c r="Z125" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA125" s="14">
         <v>3</v>
@@ -21031,7 +21031,7 @@
         <v>3</v>
       </c>
       <c r="AE125" s="14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AF125" s="14" t="s">
         <v>445</v>
@@ -21043,7 +21043,7 @@
         <v>118</v>
       </c>
       <c r="AL125" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AM125" s="14" t="s">
         <v>234</v>
@@ -21052,7 +21052,7 @@
         <v>164</v>
       </c>
       <c r="AO125" s="14" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AQ125" s="14" t="s">
         <v>166</v>
@@ -21064,7 +21064,7 @@
         <v>177</v>
       </c>
       <c r="AU125" s="14" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV125" s="14" t="s">
         <v>201</v>
@@ -21073,7 +21073,7 @@
         <v>212</v>
       </c>
       <c r="AX125" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21150,7 +21150,7 @@
         <v>313</v>
       </c>
       <c r="Z126" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA126" s="19">
         <v>3</v>
@@ -21162,7 +21162,7 @@
         <v>3</v>
       </c>
       <c r="AE126" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AF126" s="19" t="s">
         <v>445</v>
@@ -21183,10 +21183,10 @@
         <v>235</v>
       </c>
       <c r="AO126" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AP126" s="19" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AQ126" s="19" t="s">
         <v>166</v>
@@ -21198,7 +21198,7 @@
         <v>177</v>
       </c>
       <c r="AU126" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV126" s="19" t="s">
         <v>201</v>
@@ -21207,7 +21207,7 @@
         <v>210</v>
       </c>
       <c r="AX126" s="19" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="127" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21284,7 +21284,7 @@
         <v>313</v>
       </c>
       <c r="Z127" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA127" s="19">
         <v>3</v>
@@ -21296,7 +21296,7 @@
         <v>3</v>
       </c>
       <c r="AE127" s="19" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AF127" s="19" t="s">
         <v>445</v>
@@ -21308,7 +21308,7 @@
         <v>118</v>
       </c>
       <c r="AL127" s="19" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AM127" s="19" t="s">
         <v>234</v>
@@ -21317,7 +21317,7 @@
         <v>164</v>
       </c>
       <c r="AO127" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AQ127" s="19" t="s">
         <v>166</v>
@@ -21329,7 +21329,7 @@
         <v>190</v>
       </c>
       <c r="AU127" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV127" s="19" t="s">
         <v>201</v>
@@ -21338,7 +21338,7 @@
         <v>212</v>
       </c>
       <c r="AX127" s="19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21415,7 +21415,7 @@
         <v>313</v>
       </c>
       <c r="Z128" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA128" s="19">
         <v>3</v>
@@ -21427,7 +21427,7 @@
         <v>3</v>
       </c>
       <c r="AE128" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AF128" s="19" t="s">
         <v>445</v>
@@ -21445,7 +21445,7 @@
         <v>157</v>
       </c>
       <c r="AL128" s="19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AM128" s="19" t="s">
         <v>234</v>
@@ -21454,7 +21454,7 @@
         <v>164</v>
       </c>
       <c r="AO128" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AQ128" s="19" t="s">
         <v>166</v>
@@ -21466,7 +21466,7 @@
         <v>190</v>
       </c>
       <c r="AU128" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV128" s="19" t="s">
         <v>201</v>
@@ -21475,7 +21475,7 @@
         <v>210</v>
       </c>
       <c r="AX128" s="19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21552,7 +21552,7 @@
         <v>313</v>
       </c>
       <c r="Z129" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA129" s="19">
         <v>3</v>
@@ -21564,7 +21564,7 @@
         <v>3</v>
       </c>
       <c r="AE129" s="19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AF129" s="19" t="s">
         <v>445</v>
@@ -21576,7 +21576,7 @@
         <v>118</v>
       </c>
       <c r="AL129" s="19" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AM129" s="19" t="s">
         <v>234</v>
@@ -21585,7 +21585,7 @@
         <v>164</v>
       </c>
       <c r="AO129" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AQ129" s="19" t="s">
         <v>166</v>
@@ -21597,10 +21597,10 @@
         <v>178</v>
       </c>
       <c r="AT129" s="19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AU129" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV129" s="19" t="s">
         <v>201</v>
@@ -21609,7 +21609,7 @@
         <v>212</v>
       </c>
       <c r="AX129" s="19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21686,7 +21686,7 @@
         <v>313</v>
       </c>
       <c r="Z130" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA130" s="19">
         <v>3</v>
@@ -21698,7 +21698,7 @@
         <v>3</v>
       </c>
       <c r="AE130" s="19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AF130" s="19" t="s">
         <v>445</v>
@@ -21719,10 +21719,10 @@
         <v>235</v>
       </c>
       <c r="AO130" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AP130" s="19" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AQ130" s="19" t="s">
         <v>166</v>
@@ -21734,7 +21734,7 @@
         <v>178</v>
       </c>
       <c r="AU130" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV130" s="19" t="s">
         <v>201</v>
@@ -21743,7 +21743,7 @@
         <v>210</v>
       </c>
       <c r="AX130" s="19" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21820,7 +21820,7 @@
         <v>313</v>
       </c>
       <c r="Z131" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA131" s="19">
         <v>3</v>
@@ -21832,7 +21832,7 @@
         <v>3</v>
       </c>
       <c r="AE131" s="19" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AF131" s="19" t="s">
         <v>445</v>
@@ -21844,7 +21844,7 @@
         <v>118</v>
       </c>
       <c r="AL131" s="19" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AM131" s="19" t="s">
         <v>234</v>
@@ -21853,16 +21853,16 @@
         <v>164</v>
       </c>
       <c r="AO131" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AQ131" s="19" t="s">
         <v>166</v>
       </c>
       <c r="AT131" s="19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AU131" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV131" s="19" t="s">
         <v>201</v>
@@ -21871,7 +21871,7 @@
         <v>212</v>
       </c>
       <c r="AX131" s="19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21948,7 +21948,7 @@
         <v>313</v>
       </c>
       <c r="Z132" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA132" s="19">
         <v>3</v>
@@ -21960,7 +21960,7 @@
         <v>3</v>
       </c>
       <c r="AE132" s="19" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AF132" s="19" t="s">
         <v>445</v>
@@ -21978,7 +21978,7 @@
         <v>157</v>
       </c>
       <c r="AL132" s="19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AM132" s="19" t="s">
         <v>234</v>
@@ -21987,7 +21987,7 @@
         <v>164</v>
       </c>
       <c r="AO132" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AQ132" s="19" t="s">
         <v>166</v>
@@ -21996,10 +21996,10 @@
         <v>115</v>
       </c>
       <c r="AT132" s="19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AU132" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV132" s="19" t="s">
         <v>201</v>
@@ -22008,7 +22008,7 @@
         <v>210</v>
       </c>
       <c r="AX132" s="19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -22085,7 +22085,7 @@
         <v>313</v>
       </c>
       <c r="Z133" s="21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AA133" s="21">
         <v>3</v>
@@ -22097,7 +22097,7 @@
         <v>3</v>
       </c>
       <c r="AE133" s="21" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AF133" s="21" t="s">
         <v>445</v>
@@ -22118,19 +22118,19 @@
         <v>235</v>
       </c>
       <c r="AO133" s="21" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AP133" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AQ133" s="21" t="s">
         <v>166</v>
       </c>
       <c r="AT133" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AU133" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV133" s="21" t="s">
         <v>201</v>
@@ -22139,7 +22139,7 @@
         <v>210</v>
       </c>
       <c r="AX133" s="21" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="134" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -22213,7 +22213,7 @@
         <v>72</v>
       </c>
       <c r="Z134" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AA134" s="14">
         <v>3</v>
@@ -22240,16 +22240,16 @@
         <v>157</v>
       </c>
       <c r="AL134" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AM134" s="14" t="s">
         <v>161</v>
       </c>
       <c r="AO134" s="16" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AP134" s="14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AQ134" s="14" t="s">
         <v>166</v>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="AT134" s="16"/>
       <c r="AU134" s="16" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AV134" s="16" t="s">
         <v>214</v>
@@ -22268,7 +22268,7 @@
         <v>211</v>
       </c>
       <c r="AX134" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -22342,7 +22342,7 @@
         <v>72</v>
       </c>
       <c r="Z135" s="21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AA135" s="21">
         <v>3</v>
@@ -22369,16 +22369,16 @@
         <v>157</v>
       </c>
       <c r="AL135" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AM135" s="21" t="s">
         <v>161</v>
       </c>
       <c r="AO135" s="27" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AP135" s="21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AQ135" s="21" t="s">
         <v>166</v>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="AT135" s="27"/>
       <c r="AU135" s="27" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AV135" s="27" t="s">
         <v>214</v>
@@ -22397,7 +22397,7 @@
         <v>211</v>
       </c>
       <c r="AX135" s="27" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="136" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -22471,7 +22471,7 @@
         <v>218</v>
       </c>
       <c r="Z136" s="14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB136" s="14">
         <v>3</v>
@@ -22495,7 +22495,7 @@
         <v>133</v>
       </c>
       <c r="AL136" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AM136" s="14" t="s">
         <v>234</v>
@@ -22504,7 +22504,7 @@
         <v>164</v>
       </c>
       <c r="AO136" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ136" s="14" t="s">
         <v>166</v>
@@ -22513,10 +22513,10 @@
         <v>170</v>
       </c>
       <c r="AT136" s="14" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AU136" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV136" s="14" t="s">
         <v>201</v>
@@ -22525,7 +22525,7 @@
         <v>210</v>
       </c>
       <c r="AX136" s="14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -22599,7 +22599,7 @@
         <v>218</v>
       </c>
       <c r="Z137" s="19" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB137" s="19">
         <v>3</v>
@@ -22623,7 +22623,7 @@
         <v>147</v>
       </c>
       <c r="AL137" s="19" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AM137" s="19" t="s">
         <v>234</v>
@@ -22632,7 +22632,7 @@
         <v>164</v>
       </c>
       <c r="AO137" s="19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ137" s="19" t="s">
         <v>166</v>
@@ -22641,10 +22641,10 @@
         <v>170</v>
       </c>
       <c r="AT137" s="19" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AU137" s="19" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV137" s="19" t="s">
         <v>201</v>
@@ -22653,7 +22653,7 @@
         <v>210</v>
       </c>
       <c r="AX137" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -22727,7 +22727,7 @@
         <v>218</v>
       </c>
       <c r="Z138" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB138" s="21">
         <v>3</v>
@@ -22751,7 +22751,7 @@
         <v>146</v>
       </c>
       <c r="AL138" s="21" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AM138" s="21" t="s">
         <v>234</v>
@@ -22760,7 +22760,7 @@
         <v>164</v>
       </c>
       <c r="AO138" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AQ138" s="21" t="s">
         <v>166</v>
@@ -22769,10 +22769,10 @@
         <v>170</v>
       </c>
       <c r="AT138" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AU138" s="21" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV138" s="21" t="s">
         <v>201</v>
@@ -22781,7 +22781,7 @@
         <v>210</v>
       </c>
       <c r="AX138" s="21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -22855,7 +22855,7 @@
         <v>69</v>
       </c>
       <c r="Z139" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA139" s="10">
         <v>3</v>
@@ -22879,7 +22879,7 @@
         <v>146</v>
       </c>
       <c r="AL139" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AM139" s="10" t="s">
         <v>234</v>
@@ -22888,10 +22888,10 @@
         <v>162</v>
       </c>
       <c r="AO139" s="19" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AP139" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AQ139" s="10" t="s">
         <v>166</v>
@@ -22903,10 +22903,10 @@
         <v>177</v>
       </c>
       <c r="AT139" s="19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AU139" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AV139" s="10" t="s">
         <v>201</v>
@@ -22915,7 +22915,7 @@
         <v>210</v>
       </c>
       <c r="AX139" s="13" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="140" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -22989,7 +22989,7 @@
         <v>69</v>
       </c>
       <c r="Z140" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA140" s="10">
         <v>3</v>
@@ -23010,7 +23010,7 @@
         <v>120</v>
       </c>
       <c r="AL140" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM140" s="10" t="s">
         <v>234</v>
@@ -23019,10 +23019,10 @@
         <v>162</v>
       </c>
       <c r="AO140" s="19" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AP140" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AQ140" s="10" t="s">
         <v>166</v>
@@ -23034,10 +23034,10 @@
         <v>177</v>
       </c>
       <c r="AT140" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AU140" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AV140" s="10" t="s">
         <v>201</v>
@@ -23046,7 +23046,7 @@
         <v>210</v>
       </c>
       <c r="AX140" s="13" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -23121,7 +23121,7 @@
         <v>69</v>
       </c>
       <c r="Z141" s="21" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA141" s="21">
         <v>3</v>
@@ -23151,7 +23151,7 @@
         <v>152</v>
       </c>
       <c r="AL141" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AM141" s="21" t="s">
         <v>234</v>
@@ -23160,10 +23160,10 @@
         <v>162</v>
       </c>
       <c r="AO141" s="21" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AP141" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AQ141" s="21" t="s">
         <v>166</v>
@@ -23175,10 +23175,10 @@
         <v>177</v>
       </c>
       <c r="AT141" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AU141" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AV141" s="21" t="s">
         <v>201</v>
@@ -23187,7 +23187,7 @@
         <v>210</v>
       </c>
       <c r="AX141" s="13" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="142" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23265,7 +23265,7 @@
         <v>313</v>
       </c>
       <c r="Z142" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA142" s="10">
         <v>3</v>
@@ -23289,22 +23289,22 @@
         <v>132</v>
       </c>
       <c r="AL142" s="14" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AM142" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO142" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP142" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ142" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU142" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV142" s="10" t="s">
         <v>201</v>
@@ -23313,7 +23313,7 @@
         <v>209</v>
       </c>
       <c r="AX142" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="143" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23391,7 +23391,7 @@
         <v>313</v>
       </c>
       <c r="Z143" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA143" s="10">
         <v>3</v>
@@ -23415,22 +23415,22 @@
         <v>146</v>
       </c>
       <c r="AL143" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AM143" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO143" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP143" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ143" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU143" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV143" s="10" t="s">
         <v>201</v>
@@ -23439,7 +23439,7 @@
         <v>209</v>
       </c>
       <c r="AX143" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23517,7 +23517,7 @@
         <v>313</v>
       </c>
       <c r="Z144" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA144" s="10">
         <v>3</v>
@@ -23541,22 +23541,22 @@
         <v>149</v>
       </c>
       <c r="AL144" s="19" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AM144" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO144" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP144" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ144" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU144" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV144" s="10" t="s">
         <v>201</v>
@@ -23565,7 +23565,7 @@
         <v>209</v>
       </c>
       <c r="AX144" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="145" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23643,7 +23643,7 @@
         <v>313</v>
       </c>
       <c r="Z145" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA145" s="10">
         <v>3</v>
@@ -23667,22 +23667,22 @@
         <v>133</v>
       </c>
       <c r="AL145" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AM145" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO145" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP145" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ145" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU145" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV145" s="10" t="s">
         <v>201</v>
@@ -23691,7 +23691,7 @@
         <v>209</v>
       </c>
       <c r="AX145" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="146" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23769,7 +23769,7 @@
         <v>313</v>
       </c>
       <c r="Z146" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA146" s="10">
         <v>3</v>
@@ -23793,22 +23793,22 @@
         <v>147</v>
       </c>
       <c r="AL146" s="19" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AM146" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO146" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP146" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ146" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU146" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV146" s="10" t="s">
         <v>201</v>
@@ -23817,7 +23817,7 @@
         <v>209</v>
       </c>
       <c r="AX146" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="147" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23892,7 +23892,7 @@
         <v>217</v>
       </c>
       <c r="Z147" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA147" s="10">
         <v>3</v>
@@ -23916,22 +23916,22 @@
         <v>132</v>
       </c>
       <c r="AL147" s="19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AM147" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO147" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP147" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ147" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU147" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV147" s="10" t="s">
         <v>201</v>
@@ -23940,7 +23940,7 @@
         <v>209</v>
       </c>
       <c r="AX147" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="148" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -24006,7 +24006,7 @@
         <v>59</v>
       </c>
       <c r="V148" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="W148" s="10" t="s">
         <v>53</v>
@@ -24015,7 +24015,7 @@
         <v>217</v>
       </c>
       <c r="Z148" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA148" s="10">
         <v>3</v>
@@ -24039,22 +24039,22 @@
         <v>146</v>
       </c>
       <c r="AL148" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AM148" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO148" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP148" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ148" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU148" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV148" s="10" t="s">
         <v>201</v>
@@ -24063,7 +24063,7 @@
         <v>209</v>
       </c>
       <c r="AX148" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -24138,7 +24138,7 @@
         <v>217</v>
       </c>
       <c r="Z149" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA149" s="10">
         <v>3</v>
@@ -24162,22 +24162,22 @@
         <v>149</v>
       </c>
       <c r="AL149" s="19" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AM149" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO149" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP149" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ149" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU149" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV149" s="10" t="s">
         <v>201</v>
@@ -24186,7 +24186,7 @@
         <v>209</v>
       </c>
       <c r="AX149" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -24252,7 +24252,7 @@
         <v>59</v>
       </c>
       <c r="V150" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="W150" s="10" t="s">
         <v>53</v>
@@ -24261,7 +24261,7 @@
         <v>217</v>
       </c>
       <c r="Z150" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA150" s="10">
         <v>3</v>
@@ -24287,22 +24287,22 @@
       <c r="AJ150" s="19"/>
       <c r="AK150" s="19"/>
       <c r="AL150" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AM150" s="19" t="s">
         <v>234</v>
       </c>
       <c r="AO150" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP150" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ150" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU150" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV150" s="10" t="s">
         <v>201</v>
@@ -24311,7 +24311,7 @@
         <v>209</v>
       </c>
       <c r="AX150" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="151" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -24376,7 +24376,7 @@
         <v>59</v>
       </c>
       <c r="V151" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="W151" s="21" t="s">
         <v>53</v>
@@ -24385,7 +24385,7 @@
         <v>217</v>
       </c>
       <c r="Z151" s="21" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA151" s="21">
         <v>3</v>
@@ -24409,22 +24409,22 @@
         <v>147</v>
       </c>
       <c r="AL151" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AM151" s="21" t="s">
         <v>234</v>
       </c>
       <c r="AO151" s="21" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP151" s="21" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AQ151" s="21" t="s">
         <v>152</v>
       </c>
       <c r="AU151" s="21" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AV151" s="21" t="s">
         <v>201</v>
@@ -24433,7 +24433,7 @@
         <v>209</v>
       </c>
       <c r="AX151" s="21" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -24449,7 +24449,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="106">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q111:Q118 P3:Q110 P123:Q141 P111:P1048576" xr:uid="{067F763E-F721-4644-970C-123CCCB709D1}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN21:AN23 AR27 AR25:AS26 AR24 AR3:AS23 AN3:AO20 AI142:AI151 AJ153 AR28:AS1048576 AN24:AO1048576 AI154:AJ1048576" xr:uid="{32B647B3-AD5A-419A-BC13-814E3BA278E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN21:AN23 AR27 AR25:AS26 AR24 AR3:AS23 AI154:AJ1048576 AI142:AI151 AJ153 AR28:AS1048576 AN24:AO1048576 AN3:AN20 AO4:AO20" xr:uid="{32B647B3-AD5A-419A-BC13-814E3BA278E7}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI109:AJ115 AJ150:AJ151 AI84:AJ84 AJ142 AJ145:AJ147 AI3:AJ21 AI123:AJ123 AI24 AI94 AI43:AI46 AI52 AI76:AJ81 AI23:AJ23 AI69 AI49:AJ49 AI128:AK128 AI125:AJ141 AI91:AJ93 AI41:AJ43 AI57:AJ67 AI56:AI58 AI86:AJ86 AI98:AJ106" xr:uid="{94E0278A-75D4-4556-8D7B-73AD9A2498CF}">
@@ -25457,7 +25457,7 @@
         <v>74</v>
       </c>
       <c r="AG10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AH10" t="s">
         <v>121</v>
@@ -26831,8 +26831,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -26944,23 +26959,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67421503-5B8B-4128-A0F5-17BAB299B679}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -26973,27 +26996,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Altuna-Etxabe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C68834-7ABD-458C-BE14-60537FB2850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995652D2-9672-4AF5-B88A-5B270EAD21E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6344" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="655">
   <si>
     <t>SearchID</t>
   </si>
@@ -3753,9 +3753,6 @@
     <t>The exploitation level of marine recreational fisheries use about 10-16% of energy fixed by the primary production (PPR) but ecosystem effects are still sustainable (Lindex). However, combining catches by MRF with those by small scale fishery completely changes the situation showing an unsustainable condition.</t>
   </si>
   <si>
-    <t>Bolentino (a line provided with 2 hooks and wrapped around a cork), drifting and rod.</t>
-  </si>
-  <si>
     <t>The response rate for the survey was low (%20)</t>
   </si>
   <si>
@@ -3795,9 +3792,6 @@
     <t>Man–Whitney U tests</t>
   </si>
   <si>
-    <t>reserve protection level _ year</t>
-  </si>
-  <si>
     <t>Density</t>
   </si>
   <si>
@@ -4219,9 +4213,6 @@
   </si>
   <si>
     <t>Normal swim _ Fast swim _ Long dive _ Short dive _ Surface finning/sharking _ Breach _ Leap _ Tail slap _ Chin up _ Vertical leap _ Flipper slap _ Lateral breach _ Surface accelerate _ Spy hop _ Chin slap _ Cartwheeling _ Change direction _ Non-quantified dive _ Catching _ Milling _ Departing swim _ Resting _ End sighting</t>
-  </si>
-  <si>
-    <t>Catch _ The primary production required to sustain fishery (PPR)</t>
   </si>
   <si>
     <t>The loss in production index (Lindex) _ Probability to be sustainable exploited (psust)</t>
@@ -4292,6 +4283,15 @@
   </si>
   <si>
     <t>presence of fishing vessel</t>
+  </si>
+  <si>
+    <t>Catches of small scale fisheries</t>
+  </si>
+  <si>
+    <t>Catch _ Primary production required to sustain fishery (PPR)</t>
+  </si>
+  <si>
+    <t>reserve protection level _ duration of protection</t>
   </si>
 </sst>
 </file>
@@ -4805,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO152" sqref="AO152"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5166,7 +5166,7 @@
         <v>162</v>
       </c>
       <c r="AO3" s="26" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AP3" s="26" t="s">
         <v>449</v>
@@ -5181,7 +5181,7 @@
         <v>459</v>
       </c>
       <c r="AU3" s="26" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AV3" s="26" t="s">
         <v>201</v>
@@ -5264,7 +5264,7 @@
         <v>220</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AA4" s="14">
         <v>3</v>
@@ -5297,10 +5297,10 @@
         <v>162</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AQ4" s="14" t="s">
         <v>166</v>
@@ -5315,7 +5315,7 @@
         <v>461</v>
       </c>
       <c r="AU4" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AV4" s="14" t="s">
         <v>214</v>
@@ -5324,7 +5324,7 @@
         <v>210</v>
       </c>
       <c r="AX4" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5399,7 +5399,7 @@
         <v>220</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AA5" s="10">
         <v>3</v>
@@ -5432,10 +5432,10 @@
         <v>162</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP5" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AQ5" s="10" t="s">
         <v>166</v>
@@ -5447,7 +5447,7 @@
         <v>461</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AV5" s="10" t="s">
         <v>214</v>
@@ -5456,7 +5456,7 @@
         <v>210</v>
       </c>
       <c r="AX5" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5531,7 +5531,7 @@
         <v>220</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AA6" s="10">
         <v>3</v>
@@ -5564,10 +5564,10 @@
         <v>162</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AQ6" s="10" t="s">
         <v>167</v>
@@ -5582,7 +5582,7 @@
         <v>461</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AV6" s="10" t="s">
         <v>214</v>
@@ -5591,7 +5591,7 @@
         <v>210</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -5701,7 +5701,7 @@
         <v>462</v>
       </c>
       <c r="AP7" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AQ7" s="14" t="s">
         <v>166</v>
@@ -5716,7 +5716,7 @@
         <v>458</v>
       </c>
       <c r="AU7" s="14" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AV7" s="14" t="s">
         <v>201</v>
@@ -5835,7 +5835,7 @@
         <v>462</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AQ8" s="10" t="s">
         <v>166</v>
@@ -5850,7 +5850,7 @@
         <v>458</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AV8" s="10" t="s">
         <v>240</v>
@@ -5966,7 +5966,7 @@
         <v>462</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AQ9" s="10" t="s">
         <v>166</v>
@@ -5981,7 +5981,7 @@
         <v>458</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AV9" s="10" t="s">
         <v>240</v>
@@ -6100,7 +6100,7 @@
         <v>462</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AQ10" s="10" t="s">
         <v>166</v>
@@ -6115,7 +6115,7 @@
         <v>458</v>
       </c>
       <c r="AU10" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AV10" s="10" t="s">
         <v>115</v>
@@ -6237,7 +6237,7 @@
         <v>463</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AQ11" s="14" t="s">
         <v>166</v>
@@ -6258,7 +6258,7 @@
         <v>209</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6371,7 +6371,7 @@
         <v>463</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AQ12" s="10" t="s">
         <v>166</v>
@@ -6392,7 +6392,7 @@
         <v>209</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6505,7 +6505,7 @@
         <v>463</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AQ13" s="10" t="s">
         <v>166</v>
@@ -6529,7 +6529,7 @@
         <v>209</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6642,7 +6642,7 @@
         <v>463</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AQ14" s="10" t="s">
         <v>166</v>
@@ -6666,7 +6666,7 @@
         <v>209</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -6740,7 +6740,7 @@
         <v>72</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AA15" s="14">
         <v>3</v>
@@ -6764,22 +6764,22 @@
         <v>149</v>
       </c>
       <c r="AL15" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM15" s="14" t="s">
         <v>234</v>
       </c>
       <c r="AO15" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ15" s="14" t="s">
         <v>166</v>
       </c>
       <c r="AT15" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AU15" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AV15" s="14" t="s">
         <v>201</v>
@@ -6788,7 +6788,7 @@
         <v>209</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6862,7 +6862,7 @@
         <v>72</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AA16" s="10">
         <v>3</v>
@@ -6886,22 +6886,22 @@
         <v>149</v>
       </c>
       <c r="AL16" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM16" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ16" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AT16" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AU16" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AV16" s="10" t="s">
         <v>202</v>
@@ -6910,7 +6910,7 @@
         <v>209</v>
       </c>
       <c r="AX16" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6984,7 +6984,7 @@
         <v>72</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AA17" s="10">
         <v>3</v>
@@ -7008,22 +7008,22 @@
         <v>149</v>
       </c>
       <c r="AL17" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM17" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ17" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT17" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AV17" s="10" t="s">
         <v>201</v>
@@ -7032,7 +7032,7 @@
         <v>209</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7106,7 +7106,7 @@
         <v>72</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AA18" s="10">
         <v>3</v>
@@ -7130,22 +7130,22 @@
         <v>149</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM18" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ18" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AV18" s="10" t="s">
         <v>202</v>
@@ -7154,7 +7154,7 @@
         <v>209</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7228,7 +7228,7 @@
         <v>72</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AA19" s="10">
         <v>3</v>
@@ -7252,22 +7252,22 @@
         <v>149</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM19" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>489</v>
+        <v>654</v>
       </c>
       <c r="AQ19" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AV19" s="10" t="s">
         <v>201</v>
@@ -7276,7 +7276,7 @@
         <v>209</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7350,7 +7350,7 @@
         <v>72</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AA20" s="10">
         <v>3</v>
@@ -7374,22 +7374,22 @@
         <v>149</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM20" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>489</v>
+        <v>654</v>
       </c>
       <c r="AQ20" s="10" t="s">
         <v>167</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AV20" s="10" t="s">
         <v>201</v>
@@ -7398,7 +7398,7 @@
         <v>209</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7472,10 +7472,10 @@
         <v>72</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AA21" s="14">
         <v>3</v>
@@ -7502,16 +7502,16 @@
         <v>233</v>
       </c>
       <c r="AO21" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AP21" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AQ21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="AU21" s="14" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AV21" s="14" t="s">
         <v>201</v>
@@ -7520,7 +7520,7 @@
         <v>211</v>
       </c>
       <c r="AX21" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7594,10 +7594,10 @@
         <v>72</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AA22" s="10">
         <v>3</v>
@@ -7624,16 +7624,16 @@
         <v>233</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AP22" s="19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AQ22" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU22" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AV22" s="10" t="s">
         <v>201</v>
@@ -7642,7 +7642,7 @@
         <v>211</v>
       </c>
       <c r="AX22" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7716,10 +7716,10 @@
         <v>72</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AA23" s="10">
         <v>3</v>
@@ -7749,16 +7749,16 @@
         <v>233</v>
       </c>
       <c r="AO23" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AQ23" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AV23" s="10" t="s">
         <v>201</v>
@@ -7767,7 +7767,7 @@
         <v>211</v>
       </c>
       <c r="AX23" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7841,7 +7841,7 @@
         <v>72</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AA24" s="12">
         <v>3</v>
@@ -7868,16 +7868,16 @@
         <v>157</v>
       </c>
       <c r="AL24" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AM24" s="12" t="s">
         <v>161</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AQ24" s="10" t="s">
         <v>166</v>
@@ -7886,7 +7886,7 @@
         <v>241</v>
       </c>
       <c r="AU24" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AV24" s="12" t="s">
         <v>214</v>
@@ -7895,7 +7895,7 @@
         <v>211</v>
       </c>
       <c r="AX24" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7970,7 +7970,7 @@
         <v>72</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AA25" s="14">
         <v>3</v>
@@ -8000,16 +8000,16 @@
         <v>150</v>
       </c>
       <c r="AL25" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AM25" s="14" t="s">
         <v>235</v>
       </c>
       <c r="AO25" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AP25" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AQ25" s="14" t="s">
         <v>167</v>
@@ -8024,7 +8024,7 @@
         <v>152</v>
       </c>
       <c r="AU25" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AV25" s="14" t="s">
         <v>201</v>
@@ -8033,7 +8033,7 @@
         <v>210</v>
       </c>
       <c r="AX25" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8108,7 +8108,7 @@
         <v>72</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AA26" s="10">
         <v>3</v>
@@ -8138,16 +8138,16 @@
         <v>150</v>
       </c>
       <c r="AL26" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AM26" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO26" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AP26" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AQ26" s="10" t="s">
         <v>167</v>
@@ -8162,7 +8162,7 @@
         <v>152</v>
       </c>
       <c r="AU26" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AV26" s="10" t="s">
         <v>201</v>
@@ -8171,7 +8171,7 @@
         <v>210</v>
       </c>
       <c r="AX26" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8246,7 +8246,7 @@
         <v>72</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AA27" s="10">
         <v>3</v>
@@ -8276,16 +8276,16 @@
         <v>150</v>
       </c>
       <c r="AL27" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AM27" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO27" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AP27" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AQ27" s="10" t="s">
         <v>166</v>
@@ -8294,10 +8294,10 @@
         <v>241</v>
       </c>
       <c r="AT27" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AU27" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AV27" s="10" t="s">
         <v>201</v>
@@ -8306,7 +8306,7 @@
         <v>210</v>
       </c>
       <c r="AX27" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -8380,7 +8380,7 @@
         <v>217</v>
       </c>
       <c r="Z28" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AA28" s="14">
         <v>3</v>
@@ -8404,7 +8404,7 @@
         <v>146</v>
       </c>
       <c r="AL28" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AM28" s="14" t="s">
         <v>234</v>
@@ -8413,7 +8413,7 @@
         <v>163</v>
       </c>
       <c r="AO28" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ28" s="14" t="s">
         <v>166</v>
@@ -8422,10 +8422,10 @@
         <v>241</v>
       </c>
       <c r="AT28" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU28" s="14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AV28" s="14" t="s">
         <v>201</v>
@@ -8434,7 +8434,7 @@
         <v>210</v>
       </c>
       <c r="AX28" s="14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8508,7 +8508,7 @@
         <v>217</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AA29" s="10">
         <v>3</v>
@@ -8532,7 +8532,7 @@
         <v>147</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AM29" s="10" t="s">
         <v>234</v>
@@ -8541,7 +8541,7 @@
         <v>163</v>
       </c>
       <c r="AO29" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ29" s="10" t="s">
         <v>166</v>
@@ -8550,10 +8550,10 @@
         <v>241</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AV29" s="10" t="s">
         <v>201</v>
@@ -8562,7 +8562,7 @@
         <v>210</v>
       </c>
       <c r="AX29" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8636,7 +8636,7 @@
         <v>217</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AA30" s="10">
         <v>3</v>
@@ -8660,7 +8660,7 @@
         <v>152</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AM30" s="10" t="s">
         <v>234</v>
@@ -8669,7 +8669,7 @@
         <v>162</v>
       </c>
       <c r="AO30" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ30" s="10" t="s">
         <v>166</v>
@@ -8678,10 +8678,10 @@
         <v>241</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AV30" s="10" t="s">
         <v>201</v>
@@ -8690,7 +8690,7 @@
         <v>210</v>
       </c>
       <c r="AX30" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8764,7 +8764,7 @@
         <v>217</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AA31" s="10">
         <v>3</v>
@@ -8788,7 +8788,7 @@
         <v>146</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AM31" s="10" t="s">
         <v>234</v>
@@ -8797,7 +8797,7 @@
         <v>163</v>
       </c>
       <c r="AO31" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ31" s="10" t="s">
         <v>166</v>
@@ -8806,10 +8806,10 @@
         <v>241</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AV31" s="10" t="s">
         <v>207</v>
@@ -8818,7 +8818,7 @@
         <v>210</v>
       </c>
       <c r="AX31" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8892,7 +8892,7 @@
         <v>217</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AA32" s="10">
         <v>3</v>
@@ -8916,7 +8916,7 @@
         <v>147</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AM32" s="10" t="s">
         <v>234</v>
@@ -8925,7 +8925,7 @@
         <v>163</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ32" s="10" t="s">
         <v>166</v>
@@ -8934,10 +8934,10 @@
         <v>241</v>
       </c>
       <c r="AT32" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AV32" s="10" t="s">
         <v>207</v>
@@ -8946,7 +8946,7 @@
         <v>210</v>
       </c>
       <c r="AX32" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -9020,7 +9020,7 @@
         <v>217</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AA33" s="10">
         <v>3</v>
@@ -9044,7 +9044,7 @@
         <v>152</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AM33" s="10" t="s">
         <v>234</v>
@@ -9053,7 +9053,7 @@
         <v>162</v>
       </c>
       <c r="AO33" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ33" s="10" t="s">
         <v>166</v>
@@ -9062,10 +9062,10 @@
         <v>241</v>
       </c>
       <c r="AT33" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AV33" s="10" t="s">
         <v>207</v>
@@ -9074,7 +9074,7 @@
         <v>210</v>
       </c>
       <c r="AX33" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -9151,7 +9151,7 @@
         <v>313</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA34" s="14">
         <v>3</v>
@@ -9175,7 +9175,7 @@
         <v>132</v>
       </c>
       <c r="AL34" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AM34" s="14" t="s">
         <v>234</v>
@@ -9184,10 +9184,10 @@
         <v>163</v>
       </c>
       <c r="AO34" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP34" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ34" s="14" t="s">
         <v>166</v>
@@ -9199,10 +9199,10 @@
         <v>190</v>
       </c>
       <c r="AT34" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AU34" s="15" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV34" s="14" t="s">
         <v>201</v>
@@ -9211,7 +9211,7 @@
         <v>210</v>
       </c>
       <c r="AX34" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9288,7 +9288,7 @@
         <v>313</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA35" s="19">
         <v>3</v>
@@ -9312,7 +9312,7 @@
         <v>132</v>
       </c>
       <c r="AL35" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AM35" s="19" t="s">
         <v>234</v>
@@ -9321,10 +9321,10 @@
         <v>163</v>
       </c>
       <c r="AO35" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP35" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ35" s="19" t="s">
         <v>166</v>
@@ -9333,10 +9333,10 @@
         <v>241</v>
       </c>
       <c r="AT35" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AU35" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV35" s="19" t="s">
         <v>201</v>
@@ -9345,7 +9345,7 @@
         <v>210</v>
       </c>
       <c r="AX35" s="24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9422,7 +9422,7 @@
         <v>313</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA36" s="19">
         <v>3</v>
@@ -9446,7 +9446,7 @@
         <v>132</v>
       </c>
       <c r="AL36" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AM36" s="19" t="s">
         <v>234</v>
@@ -9455,10 +9455,10 @@
         <v>162</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP36" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ36" s="19" t="s">
         <v>166</v>
@@ -9467,10 +9467,10 @@
         <v>241</v>
       </c>
       <c r="AT36" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU36" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV36" s="19" t="s">
         <v>201</v>
@@ -9479,7 +9479,7 @@
         <v>210</v>
       </c>
       <c r="AX36" s="24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9556,7 +9556,7 @@
         <v>313</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA37" s="19">
         <v>3</v>
@@ -9586,10 +9586,10 @@
         <v>163</v>
       </c>
       <c r="AO37" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP37" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ37" s="19" t="s">
         <v>166</v>
@@ -9601,10 +9601,10 @@
         <v>190</v>
       </c>
       <c r="AT37" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AU37" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV37" s="19" t="s">
         <v>201</v>
@@ -9613,7 +9613,7 @@
         <v>210</v>
       </c>
       <c r="AX37" s="24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9690,7 +9690,7 @@
         <v>313</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA38" s="19">
         <v>3</v>
@@ -9720,10 +9720,10 @@
         <v>163</v>
       </c>
       <c r="AO38" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP38" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ38" s="19" t="s">
         <v>166</v>
@@ -9732,10 +9732,10 @@
         <v>241</v>
       </c>
       <c r="AT38" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AU38" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV38" s="19" t="s">
         <v>201</v>
@@ -9744,7 +9744,7 @@
         <v>210</v>
       </c>
       <c r="AX38" s="24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9821,7 +9821,7 @@
         <v>313</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA39" s="19">
         <v>3</v>
@@ -9851,10 +9851,10 @@
         <v>163</v>
       </c>
       <c r="AO39" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP39" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ39" s="19" t="s">
         <v>166</v>
@@ -9863,10 +9863,10 @@
         <v>241</v>
       </c>
       <c r="AT39" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU39" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV39" s="19" t="s">
         <v>201</v>
@@ -9875,7 +9875,7 @@
         <v>210</v>
       </c>
       <c r="AX39" s="24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9952,7 +9952,7 @@
         <v>313</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AA40" s="19">
         <v>3</v>
@@ -9979,7 +9979,7 @@
         <v>152</v>
       </c>
       <c r="AL40" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AM40" s="19" t="s">
         <v>234</v>
@@ -9988,10 +9988,10 @@
         <v>163</v>
       </c>
       <c r="AO40" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP40" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ40" s="19" t="s">
         <v>166</v>
@@ -10003,10 +10003,10 @@
         <v>190</v>
       </c>
       <c r="AT40" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AU40" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV40" s="19" t="s">
         <v>201</v>
@@ -10015,7 +10015,7 @@
         <v>212</v>
       </c>
       <c r="AX40" s="24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10092,7 +10092,7 @@
         <v>313</v>
       </c>
       <c r="Z41" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AA41" s="19">
         <v>3</v>
@@ -10119,7 +10119,7 @@
         <v>152</v>
       </c>
       <c r="AL41" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AM41" s="19" t="s">
         <v>234</v>
@@ -10128,10 +10128,10 @@
         <v>163</v>
       </c>
       <c r="AO41" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP41" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ41" s="19" t="s">
         <v>166</v>
@@ -10140,10 +10140,10 @@
         <v>241</v>
       </c>
       <c r="AT41" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AU41" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV41" s="19" t="s">
         <v>201</v>
@@ -10152,7 +10152,7 @@
         <v>212</v>
       </c>
       <c r="AX41" s="24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10229,7 +10229,7 @@
         <v>313</v>
       </c>
       <c r="Z42" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AA42" s="19">
         <v>3</v>
@@ -10256,7 +10256,7 @@
         <v>152</v>
       </c>
       <c r="AL42" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AM42" s="19" t="s">
         <v>234</v>
@@ -10265,10 +10265,10 @@
         <v>163</v>
       </c>
       <c r="AO42" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP42" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ42" s="19" t="s">
         <v>166</v>
@@ -10277,10 +10277,10 @@
         <v>241</v>
       </c>
       <c r="AT42" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU42" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV42" s="19" t="s">
         <v>201</v>
@@ -10289,7 +10289,7 @@
         <v>212</v>
       </c>
       <c r="AX42" s="24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10366,7 +10366,7 @@
         <v>313</v>
       </c>
       <c r="Z43" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AA43" s="19">
         <v>3</v>
@@ -10393,16 +10393,16 @@
         <v>152</v>
       </c>
       <c r="AL43" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AM43" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO43" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP43" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ43" s="19" t="s">
         <v>166</v>
@@ -10414,10 +10414,10 @@
         <v>190</v>
       </c>
       <c r="AT43" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AU43" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV43" s="19" t="s">
         <v>201</v>
@@ -10426,7 +10426,7 @@
         <v>209</v>
       </c>
       <c r="AX43" s="24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10503,7 +10503,7 @@
         <v>313</v>
       </c>
       <c r="Z44" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AA44" s="19">
         <v>3</v>
@@ -10530,16 +10530,16 @@
         <v>152</v>
       </c>
       <c r="AL44" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AM44" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO44" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP44" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ44" s="19" t="s">
         <v>166</v>
@@ -10548,10 +10548,10 @@
         <v>241</v>
       </c>
       <c r="AT44" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AU44" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV44" s="19" t="s">
         <v>201</v>
@@ -10560,7 +10560,7 @@
         <v>209</v>
       </c>
       <c r="AX44" s="24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10637,7 +10637,7 @@
         <v>313</v>
       </c>
       <c r="Z45" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AA45" s="19">
         <v>3</v>
@@ -10664,16 +10664,16 @@
         <v>152</v>
       </c>
       <c r="AL45" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AM45" s="19" t="s">
         <v>235</v>
       </c>
       <c r="AO45" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP45" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ45" s="19" t="s">
         <v>166</v>
@@ -10682,10 +10682,10 @@
         <v>241</v>
       </c>
       <c r="AT45" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU45" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AV45" s="19" t="s">
         <v>201</v>
@@ -10694,7 +10694,7 @@
         <v>209</v>
       </c>
       <c r="AX45" s="24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10771,7 +10771,7 @@
         <v>313</v>
       </c>
       <c r="Z46" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AA46" s="19">
         <v>3</v>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="AK46" s="10"/>
       <c r="AL46" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AM46" s="19" t="s">
         <v>234</v>
@@ -10805,10 +10805,10 @@
         <v>162</v>
       </c>
       <c r="AO46" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP46" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ46" s="19" t="s">
         <v>166</v>
@@ -10817,10 +10817,10 @@
         <v>241</v>
       </c>
       <c r="AT46" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU46" s="20" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AV46" s="19" t="s">
         <v>204</v>
@@ -10829,7 +10829,7 @@
         <v>212</v>
       </c>
       <c r="AX46" s="24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10906,7 +10906,7 @@
         <v>313</v>
       </c>
       <c r="Z47" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA47" s="19">
         <v>3</v>
@@ -10930,7 +10930,7 @@
         <v>132</v>
       </c>
       <c r="AL47" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AM47" s="19" t="s">
         <v>234</v>
@@ -10939,10 +10939,10 @@
         <v>163</v>
       </c>
       <c r="AO47" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP47" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ47" s="19" t="s">
         <v>166</v>
@@ -10954,10 +10954,10 @@
         <v>190</v>
       </c>
       <c r="AT47" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AU47" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AV47" s="19" t="s">
         <v>207</v>
@@ -10966,7 +10966,7 @@
         <v>209</v>
       </c>
       <c r="AX47" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11043,7 +11043,7 @@
         <v>313</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA48" s="19">
         <v>3</v>
@@ -11067,7 +11067,7 @@
         <v>132</v>
       </c>
       <c r="AL48" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AM48" s="19" t="s">
         <v>234</v>
@@ -11076,10 +11076,10 @@
         <v>163</v>
       </c>
       <c r="AO48" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP48" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ48" s="19" t="s">
         <v>166</v>
@@ -11088,10 +11088,10 @@
         <v>241</v>
       </c>
       <c r="AT48" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AU48" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AV48" s="19" t="s">
         <v>207</v>
@@ -11100,7 +11100,7 @@
         <v>209</v>
       </c>
       <c r="AX48" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11177,7 +11177,7 @@
         <v>313</v>
       </c>
       <c r="Z49" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA49" s="19">
         <v>3</v>
@@ -11201,7 +11201,7 @@
         <v>132</v>
       </c>
       <c r="AL49" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AM49" s="19" t="s">
         <v>234</v>
@@ -11210,10 +11210,10 @@
         <v>162</v>
       </c>
       <c r="AO49" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP49" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ49" s="19" t="s">
         <v>166</v>
@@ -11222,10 +11222,10 @@
         <v>241</v>
       </c>
       <c r="AT49" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU49" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AV49" s="19" t="s">
         <v>207</v>
@@ -11234,7 +11234,7 @@
         <v>209</v>
       </c>
       <c r="AX49" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11311,7 +11311,7 @@
         <v>313</v>
       </c>
       <c r="Z50" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA50" s="19">
         <v>3</v>
@@ -11341,10 +11341,10 @@
         <v>163</v>
       </c>
       <c r="AO50" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP50" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ50" s="19" t="s">
         <v>166</v>
@@ -11356,10 +11356,10 @@
         <v>190</v>
       </c>
       <c r="AT50" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AU50" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AV50" s="19" t="s">
         <v>207</v>
@@ -11368,7 +11368,7 @@
         <v>209</v>
       </c>
       <c r="AX50" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11445,7 +11445,7 @@
         <v>313</v>
       </c>
       <c r="Z51" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA51" s="19">
         <v>3</v>
@@ -11475,10 +11475,10 @@
         <v>163</v>
       </c>
       <c r="AO51" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP51" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ51" s="19" t="s">
         <v>166</v>
@@ -11487,10 +11487,10 @@
         <v>241</v>
       </c>
       <c r="AT51" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AU51" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AV51" s="19" t="s">
         <v>207</v>
@@ -11499,7 +11499,7 @@
         <v>209</v>
       </c>
       <c r="AX51" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -11576,7 +11576,7 @@
         <v>313</v>
       </c>
       <c r="Z52" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA52" s="19">
         <v>3</v>
@@ -11606,10 +11606,10 @@
         <v>163</v>
       </c>
       <c r="AO52" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP52" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ52" s="19" t="s">
         <v>166</v>
@@ -11618,10 +11618,10 @@
         <v>241</v>
       </c>
       <c r="AT52" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU52" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AV52" s="19" t="s">
         <v>207</v>
@@ -11630,7 +11630,7 @@
         <v>209</v>
       </c>
       <c r="AX52" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -11704,7 +11704,7 @@
         <v>71</v>
       </c>
       <c r="Z53" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA53" s="14">
         <v>3</v>
@@ -11725,7 +11725,7 @@
         <v>118</v>
       </c>
       <c r="AL53" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM53" s="14" t="s">
         <v>234</v>
@@ -11734,10 +11734,10 @@
         <v>164</v>
       </c>
       <c r="AO53" s="14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP53" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ53" s="14" t="s">
         <v>166</v>
@@ -11749,10 +11749,10 @@
         <v>190</v>
       </c>
       <c r="AT53" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AU53" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV53" s="14" t="s">
         <v>201</v>
@@ -11761,7 +11761,7 @@
         <v>210</v>
       </c>
       <c r="AX53" s="14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -11835,7 +11835,7 @@
         <v>71</v>
       </c>
       <c r="Z54" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA54" s="10">
         <v>3</v>
@@ -11856,7 +11856,7 @@
         <v>118</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM54" s="10" t="s">
         <v>234</v>
@@ -11865,10 +11865,10 @@
         <v>164</v>
       </c>
       <c r="AO54" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP54" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ54" s="10" t="s">
         <v>166</v>
@@ -11880,10 +11880,10 @@
         <v>190</v>
       </c>
       <c r="AT54" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU54" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV54" s="10" t="s">
         <v>201</v>
@@ -11892,7 +11892,7 @@
         <v>210</v>
       </c>
       <c r="AX54" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -11966,7 +11966,7 @@
         <v>71</v>
       </c>
       <c r="Z55" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA55" s="10">
         <v>3</v>
@@ -11987,7 +11987,7 @@
         <v>118</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM55" s="10" t="s">
         <v>234</v>
@@ -11996,10 +11996,10 @@
         <v>164</v>
       </c>
       <c r="AO55" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ55" s="10" t="s">
         <v>166</v>
@@ -12011,10 +12011,10 @@
         <v>190</v>
       </c>
       <c r="AT55" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AU55" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV55" s="10" t="s">
         <v>201</v>
@@ -12023,7 +12023,7 @@
         <v>210</v>
       </c>
       <c r="AX55" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12097,7 +12097,7 @@
         <v>71</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA56" s="10">
         <v>3</v>
@@ -12118,7 +12118,7 @@
         <v>118</v>
       </c>
       <c r="AL56" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM56" s="10" t="s">
         <v>234</v>
@@ -12127,10 +12127,10 @@
         <v>164</v>
       </c>
       <c r="AO56" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP56" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ56" s="10" t="s">
         <v>166</v>
@@ -12142,10 +12142,10 @@
         <v>192</v>
       </c>
       <c r="AT56" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU56" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV56" s="10" t="s">
         <v>201</v>
@@ -12154,7 +12154,7 @@
         <v>210</v>
       </c>
       <c r="AX56" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12228,7 +12228,7 @@
         <v>71</v>
       </c>
       <c r="Z57" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA57" s="10">
         <v>3</v>
@@ -12249,7 +12249,7 @@
         <v>118</v>
       </c>
       <c r="AL57" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM57" s="10" t="s">
         <v>234</v>
@@ -12258,10 +12258,10 @@
         <v>164</v>
       </c>
       <c r="AO57" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP57" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ57" s="10" t="s">
         <v>166</v>
@@ -12273,10 +12273,10 @@
         <v>194</v>
       </c>
       <c r="AT57" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AU57" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV57" s="10" t="s">
         <v>201</v>
@@ -12285,7 +12285,7 @@
         <v>210</v>
       </c>
       <c r="AX57" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12359,7 +12359,7 @@
         <v>69</v>
       </c>
       <c r="Z58" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA58" s="10">
         <v>3</v>
@@ -12380,7 +12380,7 @@
         <v>118</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM58" s="10" t="s">
         <v>234</v>
@@ -12389,10 +12389,10 @@
         <v>164</v>
       </c>
       <c r="AO58" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ58" s="10" t="s">
         <v>166</v>
@@ -12404,10 +12404,10 @@
         <v>190</v>
       </c>
       <c r="AT58" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AU58" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV58" s="10" t="s">
         <v>201</v>
@@ -12416,7 +12416,7 @@
         <v>210</v>
       </c>
       <c r="AX58" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="59" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12490,7 +12490,7 @@
         <v>69</v>
       </c>
       <c r="Z59" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA59" s="10">
         <v>3</v>
@@ -12511,7 +12511,7 @@
         <v>118</v>
       </c>
       <c r="AL59" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM59" s="10" t="s">
         <v>234</v>
@@ -12520,10 +12520,10 @@
         <v>164</v>
       </c>
       <c r="AO59" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP59" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ59" s="10" t="s">
         <v>166</v>
@@ -12535,10 +12535,10 @@
         <v>190</v>
       </c>
       <c r="AT59" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU59" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV59" s="10" t="s">
         <v>201</v>
@@ -12547,7 +12547,7 @@
         <v>210</v>
       </c>
       <c r="AX59" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="60" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12621,7 +12621,7 @@
         <v>69</v>
       </c>
       <c r="Z60" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA60" s="10">
         <v>3</v>
@@ -12642,7 +12642,7 @@
         <v>118</v>
       </c>
       <c r="AL60" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM60" s="10" t="s">
         <v>234</v>
@@ -12651,10 +12651,10 @@
         <v>164</v>
       </c>
       <c r="AO60" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP60" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ60" s="10" t="s">
         <v>166</v>
@@ -12666,10 +12666,10 @@
         <v>190</v>
       </c>
       <c r="AT60" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AU60" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV60" s="10" t="s">
         <v>201</v>
@@ -12678,7 +12678,7 @@
         <v>210</v>
       </c>
       <c r="AX60" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12752,7 +12752,7 @@
         <v>69</v>
       </c>
       <c r="Z61" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA61" s="10">
         <v>3</v>
@@ -12773,7 +12773,7 @@
         <v>118</v>
       </c>
       <c r="AL61" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM61" s="10" t="s">
         <v>234</v>
@@ -12782,10 +12782,10 @@
         <v>164</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP61" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ61" s="10" t="s">
         <v>166</v>
@@ -12797,10 +12797,10 @@
         <v>192</v>
       </c>
       <c r="AT61" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU61" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV61" s="10" t="s">
         <v>201</v>
@@ -12809,7 +12809,7 @@
         <v>210</v>
       </c>
       <c r="AX61" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -12883,7 +12883,7 @@
         <v>69</v>
       </c>
       <c r="Z62" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA62" s="10">
         <v>3</v>
@@ -12904,7 +12904,7 @@
         <v>118</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM62" s="10" t="s">
         <v>234</v>
@@ -12913,10 +12913,10 @@
         <v>164</v>
       </c>
       <c r="AO62" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP62" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ62" s="10" t="s">
         <v>166</v>
@@ -12928,10 +12928,10 @@
         <v>194</v>
       </c>
       <c r="AT62" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AU62" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV62" s="10" t="s">
         <v>201</v>
@@ -12940,7 +12940,7 @@
         <v>210</v>
       </c>
       <c r="AX62" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13017,7 +13017,7 @@
         <v>473</v>
       </c>
       <c r="Z63" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA63" s="10">
         <v>3</v>
@@ -13032,13 +13032,13 @@
         <v>446</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH63" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM63" s="10" t="s">
         <v>234</v>
@@ -13047,10 +13047,10 @@
         <v>164</v>
       </c>
       <c r="AO63" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP63" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ63" s="10" t="s">
         <v>166</v>
@@ -13062,10 +13062,10 @@
         <v>190</v>
       </c>
       <c r="AT63" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AU63" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV63" s="10" t="s">
         <v>201</v>
@@ -13074,7 +13074,7 @@
         <v>210</v>
       </c>
       <c r="AX63" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13151,7 +13151,7 @@
         <v>473</v>
       </c>
       <c r="Z64" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA64" s="10">
         <v>3</v>
@@ -13166,13 +13166,13 @@
         <v>446</v>
       </c>
       <c r="AG64" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH64" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM64" s="10" t="s">
         <v>234</v>
@@ -13181,10 +13181,10 @@
         <v>164</v>
       </c>
       <c r="AO64" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP64" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ64" s="10" t="s">
         <v>166</v>
@@ -13196,10 +13196,10 @@
         <v>190</v>
       </c>
       <c r="AT64" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU64" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV64" s="10" t="s">
         <v>201</v>
@@ -13208,7 +13208,7 @@
         <v>210</v>
       </c>
       <c r="AX64" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13285,7 +13285,7 @@
         <v>473</v>
       </c>
       <c r="Z65" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA65" s="10">
         <v>3</v>
@@ -13300,13 +13300,13 @@
         <v>446</v>
       </c>
       <c r="AG65" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH65" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM65" s="10" t="s">
         <v>234</v>
@@ -13315,10 +13315,10 @@
         <v>164</v>
       </c>
       <c r="AO65" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ65" s="10" t="s">
         <v>166</v>
@@ -13330,10 +13330,10 @@
         <v>190</v>
       </c>
       <c r="AT65" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AU65" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV65" s="10" t="s">
         <v>201</v>
@@ -13342,7 +13342,7 @@
         <v>210</v>
       </c>
       <c r="AX65" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13419,7 +13419,7 @@
         <v>473</v>
       </c>
       <c r="Z66" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA66" s="10">
         <v>3</v>
@@ -13434,13 +13434,13 @@
         <v>446</v>
       </c>
       <c r="AG66" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH66" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM66" s="10" t="s">
         <v>234</v>
@@ -13449,10 +13449,10 @@
         <v>164</v>
       </c>
       <c r="AO66" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP66" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ66" s="10" t="s">
         <v>166</v>
@@ -13464,10 +13464,10 @@
         <v>192</v>
       </c>
       <c r="AT66" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU66" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV66" s="10" t="s">
         <v>201</v>
@@ -13476,7 +13476,7 @@
         <v>210</v>
       </c>
       <c r="AX66" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13553,7 +13553,7 @@
         <v>473</v>
       </c>
       <c r="Z67" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA67" s="10">
         <v>3</v>
@@ -13568,13 +13568,13 @@
         <v>446</v>
       </c>
       <c r="AG67" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH67" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM67" s="10" t="s">
         <v>234</v>
@@ -13583,10 +13583,10 @@
         <v>164</v>
       </c>
       <c r="AO67" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AP67" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AQ67" s="10" t="s">
         <v>166</v>
@@ -13598,10 +13598,10 @@
         <v>194</v>
       </c>
       <c r="AT67" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AU67" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AV67" s="10" t="s">
         <v>201</v>
@@ -13610,7 +13610,7 @@
         <v>210</v>
       </c>
       <c r="AX67" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -13684,7 +13684,7 @@
         <v>69</v>
       </c>
       <c r="Z68" s="14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AA68" s="14">
         <v>2</v>
@@ -13705,7 +13705,7 @@
         <v>119</v>
       </c>
       <c r="AL68" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AM68" s="14" t="s">
         <v>234</v>
@@ -13714,7 +13714,7 @@
         <v>162</v>
       </c>
       <c r="AO68" s="14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AQ68" s="14" t="s">
         <v>167</v>
@@ -13723,10 +13723,10 @@
         <v>175</v>
       </c>
       <c r="AT68" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AU68" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AV68" s="14" t="s">
         <v>201</v>
@@ -13735,7 +13735,7 @@
         <v>209</v>
       </c>
       <c r="AX68" s="15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -13809,7 +13809,7 @@
         <v>69</v>
       </c>
       <c r="Z69" s="14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AA69" s="10">
         <v>2</v>
@@ -13830,7 +13830,7 @@
         <v>120</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AM69" s="10" t="s">
         <v>234</v>
@@ -13839,7 +13839,7 @@
         <v>162</v>
       </c>
       <c r="AO69" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AQ69" s="10" t="s">
         <v>167</v>
@@ -13848,10 +13848,10 @@
         <v>175</v>
       </c>
       <c r="AT69" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AU69" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AV69" s="10" t="s">
         <v>201</v>
@@ -13860,7 +13860,7 @@
         <v>209</v>
       </c>
       <c r="AX69" s="13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -13934,7 +13934,7 @@
         <v>217</v>
       </c>
       <c r="Z70" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AA70" s="14">
         <v>3</v>
@@ -13958,16 +13958,16 @@
         <v>152</v>
       </c>
       <c r="AL70" s="14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AM70" s="14" t="s">
         <v>235</v>
       </c>
       <c r="AO70" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP70" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AQ70" s="14" t="s">
         <v>166</v>
@@ -13976,7 +13976,7 @@
         <v>241</v>
       </c>
       <c r="AT70" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AU70" s="14" t="s">
         <v>457</v>
@@ -13988,7 +13988,7 @@
         <v>210</v>
       </c>
       <c r="AX70" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14062,7 +14062,7 @@
         <v>217</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AA71" s="10">
         <v>3</v>
@@ -14083,16 +14083,16 @@
         <v>120</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AM71" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO71" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AQ71" s="10" t="s">
         <v>166</v>
@@ -14101,7 +14101,7 @@
         <v>241</v>
       </c>
       <c r="AT71" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AU71" s="10" t="s">
         <v>457</v>
@@ -14113,7 +14113,7 @@
         <v>210</v>
       </c>
       <c r="AX71" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="72" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14187,7 +14187,7 @@
         <v>217</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AA72" s="10">
         <v>3</v>
@@ -14217,16 +14217,16 @@
         <v>152</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AM72" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO72" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AQ72" s="10" t="s">
         <v>166</v>
@@ -14235,7 +14235,7 @@
         <v>241</v>
       </c>
       <c r="AT72" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AU72" s="10" t="s">
         <v>457</v>
@@ -14247,7 +14247,7 @@
         <v>210</v>
       </c>
       <c r="AX72" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14321,7 +14321,7 @@
         <v>217</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AA73" s="10">
         <v>3</v>
@@ -14351,16 +14351,16 @@
         <v>152</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AM73" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO73" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP73" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AQ73" s="10" t="s">
         <v>166</v>
@@ -14369,7 +14369,7 @@
         <v>241</v>
       </c>
       <c r="AT73" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AU73" s="10" t="s">
         <v>457</v>
@@ -14381,7 +14381,7 @@
         <v>210</v>
       </c>
       <c r="AX73" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14455,7 +14455,7 @@
         <v>217</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AA74" s="10">
         <v>3</v>
@@ -14485,16 +14485,16 @@
         <v>152</v>
       </c>
       <c r="AL74" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AM74" s="10" t="s">
         <v>235</v>
       </c>
       <c r="AO74" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP74" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AQ74" s="10" t="s">
         <v>166</v>
@@ -14503,7 +14503,7 @@
         <v>241</v>
       </c>
       <c r="AT74" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AU74" s="10" t="s">
         <v>457</v>
@@ -14515,7 +14515,7 @@
         <v>210</v>
       </c>
       <c r="AX74" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -14589,7 +14589,7 @@
         <v>69</v>
       </c>
       <c r="Z75" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA75" s="14">
         <v>3</v>
@@ -14610,7 +14610,7 @@
         <v>222</v>
       </c>
       <c r="AL75" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM75" s="14" t="s">
         <v>234</v>
@@ -14619,7 +14619,7 @@
         <v>164</v>
       </c>
       <c r="AO75" s="14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ75" s="14" t="s">
         <v>166</v>
@@ -14634,7 +14634,7 @@
         <v>152</v>
       </c>
       <c r="AU75" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV75" s="14" t="s">
         <v>201</v>
@@ -14643,7 +14643,7 @@
         <v>211</v>
       </c>
       <c r="AX75" s="23" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14717,7 +14717,7 @@
         <v>69</v>
       </c>
       <c r="Z76" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA76" s="10">
         <v>3</v>
@@ -14741,7 +14741,7 @@
         <v>132</v>
       </c>
       <c r="AL76" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM76" s="10" t="s">
         <v>234</v>
@@ -14750,7 +14750,7 @@
         <v>162</v>
       </c>
       <c r="AO76" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ76" s="10" t="s">
         <v>166</v>
@@ -14765,7 +14765,7 @@
         <v>152</v>
       </c>
       <c r="AU76" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV76" s="10" t="s">
         <v>201</v>
@@ -14774,7 +14774,7 @@
         <v>211</v>
       </c>
       <c r="AX76" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14848,7 +14848,7 @@
         <v>69</v>
       </c>
       <c r="Z77" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA77" s="10">
         <v>3</v>
@@ -14872,7 +14872,7 @@
         <v>140</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM77" s="10" t="s">
         <v>234</v>
@@ -14881,7 +14881,7 @@
         <v>162</v>
       </c>
       <c r="AO77" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ77" s="10" t="s">
         <v>166</v>
@@ -14896,7 +14896,7 @@
         <v>152</v>
       </c>
       <c r="AU77" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV77" s="10" t="s">
         <v>201</v>
@@ -14905,7 +14905,7 @@
         <v>211</v>
       </c>
       <c r="AX77" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -14979,7 +14979,7 @@
         <v>69</v>
       </c>
       <c r="Z78" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA78" s="10">
         <v>3</v>
@@ -15000,7 +15000,7 @@
         <v>222</v>
       </c>
       <c r="AL78" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM78" s="10" t="s">
         <v>234</v>
@@ -15009,7 +15009,7 @@
         <v>164</v>
       </c>
       <c r="AO78" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ78" s="10" t="s">
         <v>166</v>
@@ -15021,7 +15021,7 @@
         <v>152</v>
       </c>
       <c r="AU78" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV78" s="10" t="s">
         <v>201</v>
@@ -15030,7 +15030,7 @@
         <v>211</v>
       </c>
       <c r="AX78" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15104,7 +15104,7 @@
         <v>69</v>
       </c>
       <c r="Z79" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA79" s="10">
         <v>3</v>
@@ -15128,7 +15128,7 @@
         <v>132</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM79" s="10" t="s">
         <v>234</v>
@@ -15137,7 +15137,7 @@
         <v>162</v>
       </c>
       <c r="AO79" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ79" s="10" t="s">
         <v>166</v>
@@ -15149,7 +15149,7 @@
         <v>152</v>
       </c>
       <c r="AU79" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV79" s="10" t="s">
         <v>201</v>
@@ -15158,7 +15158,7 @@
         <v>211</v>
       </c>
       <c r="AX79" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15232,7 +15232,7 @@
         <v>69</v>
       </c>
       <c r="Z80" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA80" s="10">
         <v>3</v>
@@ -15256,7 +15256,7 @@
         <v>140</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM80" s="10" t="s">
         <v>234</v>
@@ -15265,7 +15265,7 @@
         <v>162</v>
       </c>
       <c r="AO80" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ80" s="10" t="s">
         <v>166</v>
@@ -15277,7 +15277,7 @@
         <v>152</v>
       </c>
       <c r="AU80" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV80" s="10" t="s">
         <v>201</v>
@@ -15286,7 +15286,7 @@
         <v>211</v>
       </c>
       <c r="AX80" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15360,7 +15360,7 @@
         <v>69</v>
       </c>
       <c r="Z81" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA81" s="10">
         <v>3</v>
@@ -15381,7 +15381,7 @@
         <v>222</v>
       </c>
       <c r="AL81" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM81" s="10" t="s">
         <v>234</v>
@@ -15390,7 +15390,7 @@
         <v>164</v>
       </c>
       <c r="AO81" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ81" s="10" t="s">
         <v>166</v>
@@ -15402,7 +15402,7 @@
         <v>152</v>
       </c>
       <c r="AU81" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV81" s="10" t="s">
         <v>201</v>
@@ -15411,7 +15411,7 @@
         <v>211</v>
       </c>
       <c r="AX81" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15485,7 +15485,7 @@
         <v>69</v>
       </c>
       <c r="Z82" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA82" s="10">
         <v>3</v>
@@ -15509,7 +15509,7 @@
         <v>132</v>
       </c>
       <c r="AL82" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM82" s="10" t="s">
         <v>234</v>
@@ -15518,7 +15518,7 @@
         <v>162</v>
       </c>
       <c r="AO82" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ82" s="10" t="s">
         <v>166</v>
@@ -15530,7 +15530,7 @@
         <v>152</v>
       </c>
       <c r="AU82" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV82" s="10" t="s">
         <v>201</v>
@@ -15539,7 +15539,7 @@
         <v>211</v>
       </c>
       <c r="AX82" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15613,7 +15613,7 @@
         <v>69</v>
       </c>
       <c r="Z83" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA83" s="10">
         <v>3</v>
@@ -15637,7 +15637,7 @@
         <v>140</v>
       </c>
       <c r="AL83" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM83" s="10" t="s">
         <v>234</v>
@@ -15646,7 +15646,7 @@
         <v>162</v>
       </c>
       <c r="AO83" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ83" s="10" t="s">
         <v>166</v>
@@ -15658,7 +15658,7 @@
         <v>152</v>
       </c>
       <c r="AU83" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV83" s="10" t="s">
         <v>201</v>
@@ -15667,7 +15667,7 @@
         <v>211</v>
       </c>
       <c r="AX83" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -15741,7 +15741,7 @@
         <v>69</v>
       </c>
       <c r="Z84" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA84" s="10">
         <v>3</v>
@@ -15762,7 +15762,7 @@
         <v>222</v>
       </c>
       <c r="AL84" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM84" s="10" t="s">
         <v>234</v>
@@ -15771,7 +15771,7 @@
         <v>164</v>
       </c>
       <c r="AO84" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ84" s="10" t="s">
         <v>166</v>
@@ -15786,7 +15786,7 @@
         <v>152</v>
       </c>
       <c r="AU84" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV84" s="10" t="s">
         <v>202</v>
@@ -15795,7 +15795,7 @@
         <v>211</v>
       </c>
       <c r="AX84" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15869,7 +15869,7 @@
         <v>69</v>
       </c>
       <c r="Z85" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA85" s="10">
         <v>3</v>
@@ -15893,7 +15893,7 @@
         <v>132</v>
       </c>
       <c r="AL85" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM85" s="10" t="s">
         <v>234</v>
@@ -15902,7 +15902,7 @@
         <v>162</v>
       </c>
       <c r="AO85" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ85" s="10" t="s">
         <v>166</v>
@@ -15917,7 +15917,7 @@
         <v>152</v>
       </c>
       <c r="AU85" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV85" s="10" t="s">
         <v>202</v>
@@ -15926,7 +15926,7 @@
         <v>211</v>
       </c>
       <c r="AX85" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16000,7 +16000,7 @@
         <v>69</v>
       </c>
       <c r="Z86" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA86" s="10">
         <v>3</v>
@@ -16024,7 +16024,7 @@
         <v>140</v>
       </c>
       <c r="AL86" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM86" s="10" t="s">
         <v>234</v>
@@ -16033,7 +16033,7 @@
         <v>162</v>
       </c>
       <c r="AO86" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ86" s="10" t="s">
         <v>166</v>
@@ -16048,7 +16048,7 @@
         <v>152</v>
       </c>
       <c r="AU86" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV86" s="10" t="s">
         <v>202</v>
@@ -16057,7 +16057,7 @@
         <v>211</v>
       </c>
       <c r="AX86" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16131,7 +16131,7 @@
         <v>69</v>
       </c>
       <c r="Z87" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA87" s="10">
         <v>3</v>
@@ -16152,7 +16152,7 @@
         <v>222</v>
       </c>
       <c r="AL87" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM87" s="10" t="s">
         <v>234</v>
@@ -16161,7 +16161,7 @@
         <v>164</v>
       </c>
       <c r="AO87" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ87" s="10" t="s">
         <v>166</v>
@@ -16173,7 +16173,7 @@
         <v>152</v>
       </c>
       <c r="AU87" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV87" s="10" t="s">
         <v>202</v>
@@ -16182,7 +16182,7 @@
         <v>211</v>
       </c>
       <c r="AX87" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16256,7 +16256,7 @@
         <v>69</v>
       </c>
       <c r="Z88" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA88" s="10">
         <v>3</v>
@@ -16280,7 +16280,7 @@
         <v>132</v>
       </c>
       <c r="AL88" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM88" s="10" t="s">
         <v>234</v>
@@ -16289,7 +16289,7 @@
         <v>162</v>
       </c>
       <c r="AO88" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ88" s="10" t="s">
         <v>166</v>
@@ -16301,7 +16301,7 @@
         <v>152</v>
       </c>
       <c r="AU88" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV88" s="10" t="s">
         <v>202</v>
@@ -16310,7 +16310,7 @@
         <v>211</v>
       </c>
       <c r="AX88" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16384,7 +16384,7 @@
         <v>69</v>
       </c>
       <c r="Z89" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA89" s="10">
         <v>3</v>
@@ -16408,7 +16408,7 @@
         <v>140</v>
       </c>
       <c r="AL89" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM89" s="10" t="s">
         <v>234</v>
@@ -16417,7 +16417,7 @@
         <v>162</v>
       </c>
       <c r="AO89" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ89" s="10" t="s">
         <v>166</v>
@@ -16429,7 +16429,7 @@
         <v>152</v>
       </c>
       <c r="AU89" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV89" s="10" t="s">
         <v>202</v>
@@ -16438,7 +16438,7 @@
         <v>211</v>
       </c>
       <c r="AX89" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16512,7 +16512,7 @@
         <v>69</v>
       </c>
       <c r="Z90" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA90" s="10">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         <v>222</v>
       </c>
       <c r="AL90" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM90" s="10" t="s">
         <v>234</v>
@@ -16542,7 +16542,7 @@
         <v>164</v>
       </c>
       <c r="AO90" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ90" s="10" t="s">
         <v>166</v>
@@ -16554,7 +16554,7 @@
         <v>152</v>
       </c>
       <c r="AU90" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV90" s="10" t="s">
         <v>202</v>
@@ -16563,7 +16563,7 @@
         <v>211</v>
       </c>
       <c r="AX90" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16637,7 +16637,7 @@
         <v>69</v>
       </c>
       <c r="Z91" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA91" s="10">
         <v>3</v>
@@ -16661,7 +16661,7 @@
         <v>132</v>
       </c>
       <c r="AL91" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM91" s="10" t="s">
         <v>234</v>
@@ -16670,7 +16670,7 @@
         <v>162</v>
       </c>
       <c r="AO91" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ91" s="10" t="s">
         <v>166</v>
@@ -16682,7 +16682,7 @@
         <v>152</v>
       </c>
       <c r="AU91" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV91" s="10" t="s">
         <v>202</v>
@@ -16691,7 +16691,7 @@
         <v>211</v>
       </c>
       <c r="AX91" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16765,7 +16765,7 @@
         <v>69</v>
       </c>
       <c r="Z92" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA92" s="10">
         <v>3</v>
@@ -16789,7 +16789,7 @@
         <v>140</v>
       </c>
       <c r="AL92" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM92" s="10" t="s">
         <v>234</v>
@@ -16798,7 +16798,7 @@
         <v>162</v>
       </c>
       <c r="AO92" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ92" s="10" t="s">
         <v>166</v>
@@ -16810,7 +16810,7 @@
         <v>152</v>
       </c>
       <c r="AU92" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AV92" s="10" t="s">
         <v>202</v>
@@ -16819,7 +16819,7 @@
         <v>211</v>
       </c>
       <c r="AX92" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="93" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -16893,7 +16893,7 @@
         <v>218</v>
       </c>
       <c r="Z93" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA93" s="10">
         <v>3</v>
@@ -16914,7 +16914,7 @@
         <v>222</v>
       </c>
       <c r="AL93" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM93" s="10" t="s">
         <v>234</v>
@@ -16923,7 +16923,7 @@
         <v>162</v>
       </c>
       <c r="AO93" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ93" s="10" t="s">
         <v>166</v>
@@ -16938,7 +16938,7 @@
         <v>152</v>
       </c>
       <c r="AU93" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV93" s="10" t="s">
         <v>201</v>
@@ -16947,7 +16947,7 @@
         <v>211</v>
       </c>
       <c r="AX93" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17021,7 +17021,7 @@
         <v>218</v>
       </c>
       <c r="Z94" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA94" s="10">
         <v>3</v>
@@ -17045,7 +17045,7 @@
         <v>132</v>
       </c>
       <c r="AL94" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM94" s="10" t="s">
         <v>234</v>
@@ -17054,7 +17054,7 @@
         <v>162</v>
       </c>
       <c r="AO94" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ94" s="10" t="s">
         <v>166</v>
@@ -17069,7 +17069,7 @@
         <v>152</v>
       </c>
       <c r="AU94" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV94" s="10" t="s">
         <v>201</v>
@@ -17078,7 +17078,7 @@
         <v>211</v>
       </c>
       <c r="AX94" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17152,7 +17152,7 @@
         <v>218</v>
       </c>
       <c r="Z95" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA95" s="10">
         <v>3</v>
@@ -17176,7 +17176,7 @@
         <v>140</v>
       </c>
       <c r="AL95" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM95" s="10" t="s">
         <v>234</v>
@@ -17185,7 +17185,7 @@
         <v>162</v>
       </c>
       <c r="AO95" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ95" s="10" t="s">
         <v>166</v>
@@ -17200,7 +17200,7 @@
         <v>152</v>
       </c>
       <c r="AU95" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV95" s="10" t="s">
         <v>201</v>
@@ -17209,7 +17209,7 @@
         <v>211</v>
       </c>
       <c r="AX95" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="96" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17283,7 +17283,7 @@
         <v>218</v>
       </c>
       <c r="Z96" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA96" s="10">
         <v>3</v>
@@ -17304,7 +17304,7 @@
         <v>222</v>
       </c>
       <c r="AL96" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM96" s="10" t="s">
         <v>234</v>
@@ -17313,7 +17313,7 @@
         <v>162</v>
       </c>
       <c r="AO96" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ96" s="10" t="s">
         <v>166</v>
@@ -17325,7 +17325,7 @@
         <v>152</v>
       </c>
       <c r="AU96" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV96" s="10" t="s">
         <v>201</v>
@@ -17334,7 +17334,7 @@
         <v>211</v>
       </c>
       <c r="AX96" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -17408,7 +17408,7 @@
         <v>218</v>
       </c>
       <c r="Z97" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA97" s="10">
         <v>3</v>
@@ -17432,7 +17432,7 @@
         <v>132</v>
       </c>
       <c r="AL97" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM97" s="10" t="s">
         <v>234</v>
@@ -17441,7 +17441,7 @@
         <v>162</v>
       </c>
       <c r="AO97" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ97" s="10" t="s">
         <v>166</v>
@@ -17453,7 +17453,7 @@
         <v>152</v>
       </c>
       <c r="AU97" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV97" s="10" t="s">
         <v>201</v>
@@ -17462,7 +17462,7 @@
         <v>211</v>
       </c>
       <c r="AX97" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="98" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17536,7 +17536,7 @@
         <v>218</v>
       </c>
       <c r="Z98" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA98" s="10">
         <v>3</v>
@@ -17560,7 +17560,7 @@
         <v>140</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM98" s="10" t="s">
         <v>234</v>
@@ -17569,7 +17569,7 @@
         <v>162</v>
       </c>
       <c r="AO98" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ98" s="10" t="s">
         <v>166</v>
@@ -17581,7 +17581,7 @@
         <v>152</v>
       </c>
       <c r="AU98" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV98" s="10" t="s">
         <v>201</v>
@@ -17590,7 +17590,7 @@
         <v>211</v>
       </c>
       <c r="AX98" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="99" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17664,7 +17664,7 @@
         <v>218</v>
       </c>
       <c r="Z99" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA99" s="10">
         <v>3</v>
@@ -17685,7 +17685,7 @@
         <v>222</v>
       </c>
       <c r="AL99" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM99" s="10" t="s">
         <v>234</v>
@@ -17694,7 +17694,7 @@
         <v>162</v>
       </c>
       <c r="AO99" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ99" s="10" t="s">
         <v>166</v>
@@ -17709,7 +17709,7 @@
         <v>152</v>
       </c>
       <c r="AU99" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV99" s="10" t="s">
         <v>201</v>
@@ -17718,7 +17718,7 @@
         <v>211</v>
       </c>
       <c r="AX99" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17792,7 +17792,7 @@
         <v>218</v>
       </c>
       <c r="Z100" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA100" s="10">
         <v>3</v>
@@ -17816,7 +17816,7 @@
         <v>132</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM100" s="10" t="s">
         <v>234</v>
@@ -17825,7 +17825,7 @@
         <v>162</v>
       </c>
       <c r="AO100" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ100" s="10" t="s">
         <v>166</v>
@@ -17840,7 +17840,7 @@
         <v>152</v>
       </c>
       <c r="AU100" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV100" s="10" t="s">
         <v>201</v>
@@ -17849,7 +17849,7 @@
         <v>211</v>
       </c>
       <c r="AX100" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -17923,7 +17923,7 @@
         <v>218</v>
       </c>
       <c r="Z101" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA101" s="10">
         <v>3</v>
@@ -17947,7 +17947,7 @@
         <v>140</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM101" s="10" t="s">
         <v>234</v>
@@ -17956,7 +17956,7 @@
         <v>162</v>
       </c>
       <c r="AO101" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ101" s="10" t="s">
         <v>166</v>
@@ -17971,7 +17971,7 @@
         <v>152</v>
       </c>
       <c r="AU101" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV101" s="10" t="s">
         <v>201</v>
@@ -17980,7 +17980,7 @@
         <v>211</v>
       </c>
       <c r="AX101" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="102" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18054,7 +18054,7 @@
         <v>218</v>
       </c>
       <c r="Z102" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA102" s="10">
         <v>3</v>
@@ -18075,7 +18075,7 @@
         <v>222</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM102" s="10" t="s">
         <v>234</v>
@@ -18084,7 +18084,7 @@
         <v>162</v>
       </c>
       <c r="AO102" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ102" s="10" t="s">
         <v>166</v>
@@ -18096,7 +18096,7 @@
         <v>152</v>
       </c>
       <c r="AU102" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV102" s="10" t="s">
         <v>201</v>
@@ -18105,7 +18105,7 @@
         <v>211</v>
       </c>
       <c r="AX102" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -18179,7 +18179,7 @@
         <v>218</v>
       </c>
       <c r="Z103" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA103" s="10">
         <v>3</v>
@@ -18203,7 +18203,7 @@
         <v>132</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM103" s="10" t="s">
         <v>234</v>
@@ -18212,7 +18212,7 @@
         <v>162</v>
       </c>
       <c r="AO103" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ103" s="10" t="s">
         <v>166</v>
@@ -18224,7 +18224,7 @@
         <v>152</v>
       </c>
       <c r="AU103" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV103" s="10" t="s">
         <v>201</v>
@@ -18233,7 +18233,7 @@
         <v>211</v>
       </c>
       <c r="AX103" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18307,7 +18307,7 @@
         <v>218</v>
       </c>
       <c r="Z104" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA104" s="10">
         <v>3</v>
@@ -18331,7 +18331,7 @@
         <v>140</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM104" s="10" t="s">
         <v>234</v>
@@ -18340,7 +18340,7 @@
         <v>162</v>
       </c>
       <c r="AO104" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ104" s="10" t="s">
         <v>166</v>
@@ -18352,7 +18352,7 @@
         <v>152</v>
       </c>
       <c r="AU104" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV104" s="10" t="s">
         <v>201</v>
@@ -18361,7 +18361,7 @@
         <v>211</v>
       </c>
       <c r="AX104" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18435,7 +18435,7 @@
         <v>218</v>
       </c>
       <c r="Z105" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA105" s="10">
         <v>3</v>
@@ -18456,7 +18456,7 @@
         <v>222</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM105" s="10" t="s">
         <v>234</v>
@@ -18465,7 +18465,7 @@
         <v>162</v>
       </c>
       <c r="AO105" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ105" s="10" t="s">
         <v>166</v>
@@ -18480,7 +18480,7 @@
         <v>152</v>
       </c>
       <c r="AU105" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV105" s="10" t="s">
         <v>201</v>
@@ -18489,7 +18489,7 @@
         <v>211</v>
       </c>
       <c r="AX105" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18563,7 +18563,7 @@
         <v>218</v>
       </c>
       <c r="Z106" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA106" s="10">
         <v>3</v>
@@ -18587,7 +18587,7 @@
         <v>132</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM106" s="10" t="s">
         <v>234</v>
@@ -18596,7 +18596,7 @@
         <v>162</v>
       </c>
       <c r="AO106" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ106" s="10" t="s">
         <v>166</v>
@@ -18611,7 +18611,7 @@
         <v>152</v>
       </c>
       <c r="AU106" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV106" s="10" t="s">
         <v>201</v>
@@ -18620,7 +18620,7 @@
         <v>211</v>
       </c>
       <c r="AX106" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18694,7 +18694,7 @@
         <v>218</v>
       </c>
       <c r="Z107" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA107" s="10">
         <v>3</v>
@@ -18718,7 +18718,7 @@
         <v>140</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM107" s="10" t="s">
         <v>234</v>
@@ -18727,7 +18727,7 @@
         <v>162</v>
       </c>
       <c r="AO107" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ107" s="10" t="s">
         <v>166</v>
@@ -18742,7 +18742,7 @@
         <v>152</v>
       </c>
       <c r="AU107" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV107" s="10" t="s">
         <v>201</v>
@@ -18751,7 +18751,7 @@
         <v>211</v>
       </c>
       <c r="AX107" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -18825,7 +18825,7 @@
         <v>218</v>
       </c>
       <c r="Z108" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA108" s="10">
         <v>3</v>
@@ -18846,7 +18846,7 @@
         <v>222</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM108" s="10" t="s">
         <v>234</v>
@@ -18855,7 +18855,7 @@
         <v>162</v>
       </c>
       <c r="AO108" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ108" s="10" t="s">
         <v>166</v>
@@ -18867,7 +18867,7 @@
         <v>152</v>
       </c>
       <c r="AU108" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV108" s="10" t="s">
         <v>201</v>
@@ -18876,7 +18876,7 @@
         <v>211</v>
       </c>
       <c r="AX108" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:50" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -18950,7 +18950,7 @@
         <v>218</v>
       </c>
       <c r="Z109" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA109" s="10">
         <v>3</v>
@@ -18974,7 +18974,7 @@
         <v>132</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM109" s="10" t="s">
         <v>234</v>
@@ -18983,7 +18983,7 @@
         <v>162</v>
       </c>
       <c r="AO109" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ109" s="10" t="s">
         <v>166</v>
@@ -18995,7 +18995,7 @@
         <v>152</v>
       </c>
       <c r="AU109" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV109" s="10" t="s">
         <v>201</v>
@@ -19004,7 +19004,7 @@
         <v>211</v>
       </c>
       <c r="AX109" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -19078,7 +19078,7 @@
         <v>218</v>
       </c>
       <c r="Z110" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA110" s="10">
         <v>3</v>
@@ -19102,7 +19102,7 @@
         <v>140</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM110" s="10" t="s">
         <v>234</v>
@@ -19111,7 +19111,7 @@
         <v>162</v>
       </c>
       <c r="AO110" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ110" s="10" t="s">
         <v>166</v>
@@ -19123,7 +19123,7 @@
         <v>152</v>
       </c>
       <c r="AU110" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AV110" s="10" t="s">
         <v>201</v>
@@ -19132,7 +19132,7 @@
         <v>211</v>
       </c>
       <c r="AX110" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -19218,19 +19218,19 @@
         <v>2</v>
       </c>
       <c r="AD111" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF111" s="14" t="s">
         <v>443</v>
       </c>
       <c r="AG111" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH111" s="14" t="s">
         <v>120</v>
       </c>
       <c r="AL111" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM111" s="14" t="s">
         <v>234</v>
@@ -19239,22 +19239,25 @@
         <v>162</v>
       </c>
       <c r="AO111" s="19" t="s">
-        <v>631</v>
+        <v>653</v>
+      </c>
+      <c r="AP111" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="AQ111" s="14" t="s">
         <v>167</v>
       </c>
       <c r="AR111" s="14" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="AS111" s="14" t="s">
-        <v>475</v>
+        <v>198</v>
       </c>
       <c r="AT111" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU111" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AV111" s="14" t="s">
         <v>206</v>
@@ -19349,19 +19352,19 @@
         <v>2</v>
       </c>
       <c r="AD112" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF112" s="10" t="s">
         <v>443</v>
       </c>
       <c r="AG112" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH112" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AM112" s="10" t="s">
         <v>234</v>
@@ -19370,22 +19373,25 @@
         <v>162</v>
       </c>
       <c r="AO112" s="19" t="s">
-        <v>631</v>
+        <v>653</v>
+      </c>
+      <c r="AP112" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="AQ112" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AR112" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS112" s="10" t="s">
-        <v>475</v>
+      <c r="AR112" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS112" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="AT112" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU112" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AV112" s="10" t="s">
         <v>206</v>
@@ -19480,13 +19486,13 @@
         <v>2</v>
       </c>
       <c r="AD113" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF113" s="10" t="s">
         <v>443</v>
       </c>
       <c r="AG113" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH113" s="10" t="s">
         <v>222</v>
@@ -19495,7 +19501,7 @@
         <v>133</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM113" s="10" t="s">
         <v>234</v>
@@ -19504,22 +19510,25 @@
         <v>162</v>
       </c>
       <c r="AO113" s="19" t="s">
-        <v>631</v>
+        <v>653</v>
+      </c>
+      <c r="AP113" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="AQ113" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AR113" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS113" s="10" t="s">
-        <v>475</v>
+      <c r="AR113" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS113" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="AT113" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU113" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AV113" s="10" t="s">
         <v>206</v>
@@ -19614,13 +19623,13 @@
         <v>2</v>
       </c>
       <c r="AD114" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF114" s="10" t="s">
         <v>443</v>
       </c>
       <c r="AG114" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH114" s="10" t="s">
         <v>222</v>
@@ -19629,7 +19638,7 @@
         <v>147</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AM114" s="10" t="s">
         <v>234</v>
@@ -19638,22 +19647,25 @@
         <v>162</v>
       </c>
       <c r="AO114" s="19" t="s">
-        <v>631</v>
+        <v>653</v>
+      </c>
+      <c r="AP114" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="AQ114" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AR114" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS114" s="10" t="s">
-        <v>475</v>
+      <c r="AR114" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS114" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="AT114" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU114" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AV114" s="10" t="s">
         <v>206</v>
@@ -19745,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="AD115" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF115" s="10" t="s">
         <v>443</v>
@@ -19757,7 +19769,7 @@
         <v>120</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM115" s="10" t="s">
         <v>234</v>
@@ -19766,22 +19778,25 @@
         <v>162</v>
       </c>
       <c r="AO115" s="19" t="s">
-        <v>631</v>
+        <v>653</v>
+      </c>
+      <c r="AP115" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="AQ115" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AR115" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS115" s="10" t="s">
-        <v>475</v>
+      <c r="AR115" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS115" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="AT115" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU115" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AV115" s="10" t="s">
         <v>206</v>
@@ -19873,7 +19888,7 @@
         <v>2</v>
       </c>
       <c r="AD116" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF116" s="10" t="s">
         <v>443</v>
@@ -19885,7 +19900,7 @@
         <v>119</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AM116" s="10" t="s">
         <v>234</v>
@@ -19894,22 +19909,25 @@
         <v>162</v>
       </c>
       <c r="AO116" s="19" t="s">
-        <v>631</v>
+        <v>653</v>
+      </c>
+      <c r="AP116" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="AQ116" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AR116" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS116" s="10" t="s">
-        <v>475</v>
+      <c r="AR116" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS116" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="AT116" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU116" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AV116" s="10" t="s">
         <v>206</v>
@@ -20001,7 +20019,7 @@
         <v>2</v>
       </c>
       <c r="AD117" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF117" s="10" t="s">
         <v>443</v>
@@ -20016,7 +20034,7 @@
         <v>133</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM117" s="10" t="s">
         <v>234</v>
@@ -20025,22 +20043,25 @@
         <v>162</v>
       </c>
       <c r="AO117" s="19" t="s">
-        <v>631</v>
+        <v>653</v>
+      </c>
+      <c r="AP117" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="AQ117" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AR117" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS117" s="10" t="s">
-        <v>475</v>
+      <c r="AR117" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS117" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="AT117" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU117" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AV117" s="10" t="s">
         <v>206</v>
@@ -20132,7 +20153,7 @@
         <v>2</v>
       </c>
       <c r="AD118" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF118" s="10" t="s">
         <v>443</v>
@@ -20147,7 +20168,7 @@
         <v>147</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AM118" s="10" t="s">
         <v>234</v>
@@ -20156,22 +20177,25 @@
         <v>162</v>
       </c>
       <c r="AO118" s="19" t="s">
-        <v>631</v>
+        <v>653</v>
+      </c>
+      <c r="AP118" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="AQ118" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AR118" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS118" s="10" t="s">
-        <v>475</v>
+      <c r="AR118" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS118" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="AT118" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU118" s="21" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AV118" s="10" t="s">
         <v>206</v>
@@ -20254,7 +20278,7 @@
         <v>71</v>
       </c>
       <c r="Z119" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AA119" s="14">
         <v>3</v>
@@ -20281,10 +20305,10 @@
         <v>161</v>
       </c>
       <c r="AO119" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP119" s="14" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AQ119" s="14" t="s">
         <v>166</v>
@@ -20305,7 +20329,7 @@
         <v>209</v>
       </c>
       <c r="AX119" s="14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20379,7 +20403,7 @@
         <v>71</v>
       </c>
       <c r="Z120" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AA120" s="10">
         <v>3</v>
@@ -20406,10 +20430,10 @@
         <v>161</v>
       </c>
       <c r="AO120" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP120" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AQ120" s="10" t="s">
         <v>166</v>
@@ -20430,7 +20454,7 @@
         <v>209</v>
       </c>
       <c r="AX120" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="121" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20504,7 +20528,7 @@
         <v>71</v>
       </c>
       <c r="Z121" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AA121" s="10">
         <v>3</v>
@@ -20531,10 +20555,10 @@
         <v>161</v>
       </c>
       <c r="AO121" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP121" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AQ121" s="10" t="s">
         <v>166</v>
@@ -20555,7 +20579,7 @@
         <v>209</v>
       </c>
       <c r="AX121" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="122" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20629,7 +20653,7 @@
         <v>71</v>
       </c>
       <c r="Z122" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AA122" s="10">
         <v>3</v>
@@ -20656,10 +20680,10 @@
         <v>161</v>
       </c>
       <c r="AO122" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP122" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AQ122" s="10" t="s">
         <v>166</v>
@@ -20680,7 +20704,7 @@
         <v>209</v>
       </c>
       <c r="AX122" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -20754,10 +20778,10 @@
         <v>115</v>
       </c>
       <c r="Y123" s="14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Z123" s="14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AA123" s="14">
         <v>3</v>
@@ -20781,7 +20805,7 @@
         <v>134</v>
       </c>
       <c r="AL123" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AM123" s="14" t="s">
         <v>234</v>
@@ -20790,10 +20814,10 @@
         <v>164</v>
       </c>
       <c r="AO123" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AP123" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AQ123" s="14" t="s">
         <v>166</v>
@@ -20805,7 +20829,7 @@
         <v>194</v>
       </c>
       <c r="AU123" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AV123" s="14" t="s">
         <v>201</v>
@@ -20814,7 +20838,7 @@
         <v>210</v>
       </c>
       <c r="AX123" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -20888,10 +20912,10 @@
         <v>115</v>
       </c>
       <c r="Y124" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Z124" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AA124" s="10">
         <v>3</v>
@@ -20915,13 +20939,13 @@
         <v>134</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AM124" s="10" t="s">
         <v>233</v>
       </c>
       <c r="AO124" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AQ124" s="10" t="s">
         <v>166</v>
@@ -20933,7 +20957,7 @@
         <v>190</v>
       </c>
       <c r="AU124" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AV124" s="10" t="s">
         <v>201</v>
@@ -20942,7 +20966,7 @@
         <v>210</v>
       </c>
       <c r="AX124" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="125" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -21019,7 +21043,7 @@
         <v>313</v>
       </c>
       <c r="Z125" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA125" s="14">
         <v>3</v>
@@ -21031,7 +21055,7 @@
         <v>3</v>
       </c>
       <c r="AE125" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AF125" s="14" t="s">
         <v>445</v>
@@ -21043,7 +21067,7 @@
         <v>118</v>
       </c>
       <c r="AL125" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM125" s="14" t="s">
         <v>234</v>
@@ -21052,7 +21076,7 @@
         <v>164</v>
       </c>
       <c r="AO125" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AQ125" s="14" t="s">
         <v>166</v>
@@ -21064,7 +21088,7 @@
         <v>177</v>
       </c>
       <c r="AU125" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV125" s="14" t="s">
         <v>201</v>
@@ -21073,7 +21097,7 @@
         <v>212</v>
       </c>
       <c r="AX125" s="14" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="126" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21150,7 +21174,7 @@
         <v>313</v>
       </c>
       <c r="Z126" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA126" s="19">
         <v>3</v>
@@ -21162,7 +21186,7 @@
         <v>3</v>
       </c>
       <c r="AE126" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AF126" s="19" t="s">
         <v>445</v>
@@ -21183,10 +21207,10 @@
         <v>235</v>
       </c>
       <c r="AO126" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP126" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AQ126" s="19" t="s">
         <v>166</v>
@@ -21198,7 +21222,7 @@
         <v>177</v>
       </c>
       <c r="AU126" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV126" s="19" t="s">
         <v>201</v>
@@ -21207,7 +21231,7 @@
         <v>210</v>
       </c>
       <c r="AX126" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21284,7 +21308,7 @@
         <v>313</v>
       </c>
       <c r="Z127" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA127" s="19">
         <v>3</v>
@@ -21296,7 +21320,7 @@
         <v>3</v>
       </c>
       <c r="AE127" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AF127" s="19" t="s">
         <v>445</v>
@@ -21308,7 +21332,7 @@
         <v>118</v>
       </c>
       <c r="AL127" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM127" s="19" t="s">
         <v>234</v>
@@ -21317,7 +21341,7 @@
         <v>164</v>
       </c>
       <c r="AO127" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AQ127" s="19" t="s">
         <v>166</v>
@@ -21329,7 +21353,7 @@
         <v>190</v>
       </c>
       <c r="AU127" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV127" s="19" t="s">
         <v>201</v>
@@ -21338,7 +21362,7 @@
         <v>212</v>
       </c>
       <c r="AX127" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21415,7 +21439,7 @@
         <v>313</v>
       </c>
       <c r="Z128" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA128" s="19">
         <v>3</v>
@@ -21427,7 +21451,7 @@
         <v>3</v>
       </c>
       <c r="AE128" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AF128" s="19" t="s">
         <v>445</v>
@@ -21445,7 +21469,7 @@
         <v>157</v>
       </c>
       <c r="AL128" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AM128" s="19" t="s">
         <v>234</v>
@@ -21454,7 +21478,7 @@
         <v>164</v>
       </c>
       <c r="AO128" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AQ128" s="19" t="s">
         <v>166</v>
@@ -21466,7 +21490,7 @@
         <v>190</v>
       </c>
       <c r="AU128" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV128" s="19" t="s">
         <v>201</v>
@@ -21475,7 +21499,7 @@
         <v>210</v>
       </c>
       <c r="AX128" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="129" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21552,7 +21576,7 @@
         <v>313</v>
       </c>
       <c r="Z129" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA129" s="19">
         <v>3</v>
@@ -21564,7 +21588,7 @@
         <v>3</v>
       </c>
       <c r="AE129" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AF129" s="19" t="s">
         <v>445</v>
@@ -21576,7 +21600,7 @@
         <v>118</v>
       </c>
       <c r="AL129" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM129" s="19" t="s">
         <v>234</v>
@@ -21585,7 +21609,7 @@
         <v>164</v>
       </c>
       <c r="AO129" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AQ129" s="19" t="s">
         <v>166</v>
@@ -21597,10 +21621,10 @@
         <v>178</v>
       </c>
       <c r="AT129" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AU129" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV129" s="19" t="s">
         <v>201</v>
@@ -21609,7 +21633,7 @@
         <v>212</v>
       </c>
       <c r="AX129" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="130" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21686,7 +21710,7 @@
         <v>313</v>
       </c>
       <c r="Z130" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA130" s="19">
         <v>3</v>
@@ -21698,7 +21722,7 @@
         <v>3</v>
       </c>
       <c r="AE130" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AF130" s="19" t="s">
         <v>445</v>
@@ -21719,10 +21743,10 @@
         <v>235</v>
       </c>
       <c r="AO130" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP130" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AQ130" s="19" t="s">
         <v>166</v>
@@ -21734,7 +21758,7 @@
         <v>178</v>
       </c>
       <c r="AU130" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV130" s="19" t="s">
         <v>201</v>
@@ -21743,7 +21767,7 @@
         <v>210</v>
       </c>
       <c r="AX130" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21820,7 +21844,7 @@
         <v>313</v>
       </c>
       <c r="Z131" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA131" s="19">
         <v>3</v>
@@ -21832,7 +21856,7 @@
         <v>3</v>
       </c>
       <c r="AE131" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AF131" s="19" t="s">
         <v>445</v>
@@ -21844,7 +21868,7 @@
         <v>118</v>
       </c>
       <c r="AL131" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM131" s="19" t="s">
         <v>234</v>
@@ -21853,16 +21877,16 @@
         <v>164</v>
       </c>
       <c r="AO131" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AQ131" s="19" t="s">
         <v>166</v>
       </c>
       <c r="AT131" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AU131" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV131" s="19" t="s">
         <v>201</v>
@@ -21871,7 +21895,7 @@
         <v>212</v>
       </c>
       <c r="AX131" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21948,7 +21972,7 @@
         <v>313</v>
       </c>
       <c r="Z132" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA132" s="19">
         <v>3</v>
@@ -21960,7 +21984,7 @@
         <v>3</v>
       </c>
       <c r="AE132" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AF132" s="19" t="s">
         <v>445</v>
@@ -21978,7 +22002,7 @@
         <v>157</v>
       </c>
       <c r="AL132" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AM132" s="19" t="s">
         <v>234</v>
@@ -21987,7 +22011,7 @@
         <v>164</v>
       </c>
       <c r="AO132" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AQ132" s="19" t="s">
         <v>166</v>
@@ -21996,10 +22020,10 @@
         <v>115</v>
       </c>
       <c r="AT132" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AU132" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV132" s="19" t="s">
         <v>201</v>
@@ -22008,7 +22032,7 @@
         <v>210</v>
       </c>
       <c r="AX132" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="133" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -22085,7 +22109,7 @@
         <v>313</v>
       </c>
       <c r="Z133" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA133" s="21">
         <v>3</v>
@@ -22097,7 +22121,7 @@
         <v>3</v>
       </c>
       <c r="AE133" s="21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AF133" s="21" t="s">
         <v>445</v>
@@ -22118,19 +22142,19 @@
         <v>235</v>
       </c>
       <c r="AO133" s="21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP133" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AQ133" s="21" t="s">
         <v>166</v>
       </c>
       <c r="AT133" s="21" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AU133" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV133" s="21" t="s">
         <v>201</v>
@@ -22139,7 +22163,7 @@
         <v>210</v>
       </c>
       <c r="AX133" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="134" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -22213,7 +22237,7 @@
         <v>72</v>
       </c>
       <c r="Z134" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AA134" s="14">
         <v>3</v>
@@ -22240,16 +22264,16 @@
         <v>157</v>
       </c>
       <c r="AL134" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AM134" s="14" t="s">
         <v>161</v>
       </c>
       <c r="AO134" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AP134" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AQ134" s="14" t="s">
         <v>166</v>
@@ -22259,7 +22283,7 @@
       </c>
       <c r="AT134" s="16"/>
       <c r="AU134" s="16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AV134" s="16" t="s">
         <v>214</v>
@@ -22268,7 +22292,7 @@
         <v>211</v>
       </c>
       <c r="AX134" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="135" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -22342,7 +22366,7 @@
         <v>72</v>
       </c>
       <c r="Z135" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AA135" s="21">
         <v>3</v>
@@ -22369,16 +22393,16 @@
         <v>157</v>
       </c>
       <c r="AL135" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AM135" s="21" t="s">
         <v>161</v>
       </c>
       <c r="AO135" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AP135" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AQ135" s="21" t="s">
         <v>166</v>
@@ -22388,7 +22412,7 @@
       </c>
       <c r="AT135" s="27"/>
       <c r="AU135" s="27" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AV135" s="27" t="s">
         <v>214</v>
@@ -22397,7 +22421,7 @@
         <v>211</v>
       </c>
       <c r="AX135" s="27" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="136" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -22471,7 +22495,7 @@
         <v>218</v>
       </c>
       <c r="Z136" s="14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AB136" s="14">
         <v>3</v>
@@ -22495,7 +22519,7 @@
         <v>133</v>
       </c>
       <c r="AL136" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM136" s="14" t="s">
         <v>234</v>
@@ -22504,7 +22528,7 @@
         <v>164</v>
       </c>
       <c r="AO136" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ136" s="14" t="s">
         <v>166</v>
@@ -22513,10 +22537,10 @@
         <v>170</v>
       </c>
       <c r="AT136" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AU136" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AV136" s="14" t="s">
         <v>201</v>
@@ -22525,7 +22549,7 @@
         <v>210</v>
       </c>
       <c r="AX136" s="14" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -22599,7 +22623,7 @@
         <v>218</v>
       </c>
       <c r="Z137" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AB137" s="19">
         <v>3</v>
@@ -22623,7 +22647,7 @@
         <v>147</v>
       </c>
       <c r="AL137" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AM137" s="19" t="s">
         <v>234</v>
@@ -22632,7 +22656,7 @@
         <v>164</v>
       </c>
       <c r="AO137" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ137" s="19" t="s">
         <v>166</v>
@@ -22641,10 +22665,10 @@
         <v>170</v>
       </c>
       <c r="AT137" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AU137" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AV137" s="19" t="s">
         <v>201</v>
@@ -22653,7 +22677,7 @@
         <v>210</v>
       </c>
       <c r="AX137" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -22727,7 +22751,7 @@
         <v>218</v>
       </c>
       <c r="Z138" s="21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AB138" s="21">
         <v>3</v>
@@ -22751,7 +22775,7 @@
         <v>146</v>
       </c>
       <c r="AL138" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AM138" s="21" t="s">
         <v>234</v>
@@ -22760,7 +22784,7 @@
         <v>164</v>
       </c>
       <c r="AO138" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AQ138" s="21" t="s">
         <v>166</v>
@@ -22769,10 +22793,10 @@
         <v>170</v>
       </c>
       <c r="AT138" s="21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AU138" s="21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AV138" s="21" t="s">
         <v>201</v>
@@ -22781,7 +22805,7 @@
         <v>210</v>
       </c>
       <c r="AX138" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="139" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -22855,7 +22879,7 @@
         <v>69</v>
       </c>
       <c r="Z139" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AA139" s="10">
         <v>3</v>
@@ -22888,10 +22912,10 @@
         <v>162</v>
       </c>
       <c r="AO139" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AP139" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AQ139" s="10" t="s">
         <v>166</v>
@@ -22903,10 +22927,10 @@
         <v>177</v>
       </c>
       <c r="AT139" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AU139" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AV139" s="10" t="s">
         <v>201</v>
@@ -22915,7 +22939,7 @@
         <v>210</v>
       </c>
       <c r="AX139" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="140" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -22989,7 +23013,7 @@
         <v>69</v>
       </c>
       <c r="Z140" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AA140" s="10">
         <v>3</v>
@@ -23019,10 +23043,10 @@
         <v>162</v>
       </c>
       <c r="AO140" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AP140" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AQ140" s="10" t="s">
         <v>166</v>
@@ -23034,10 +23058,10 @@
         <v>177</v>
       </c>
       <c r="AT140" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AU140" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AV140" s="10" t="s">
         <v>201</v>
@@ -23046,7 +23070,7 @@
         <v>210</v>
       </c>
       <c r="AX140" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="141" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -23121,7 +23145,7 @@
         <v>69</v>
       </c>
       <c r="Z141" s="21" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AA141" s="21">
         <v>3</v>
@@ -23160,10 +23184,10 @@
         <v>162</v>
       </c>
       <c r="AO141" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AP141" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AQ141" s="21" t="s">
         <v>166</v>
@@ -23175,10 +23199,10 @@
         <v>177</v>
       </c>
       <c r="AT141" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AU141" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AV141" s="21" t="s">
         <v>201</v>
@@ -23187,7 +23211,7 @@
         <v>210</v>
       </c>
       <c r="AX141" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="142" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23265,7 +23289,7 @@
         <v>313</v>
       </c>
       <c r="Z142" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA142" s="10">
         <v>3</v>
@@ -23289,22 +23313,22 @@
         <v>132</v>
       </c>
       <c r="AL142" s="14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AM142" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO142" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP142" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ142" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU142" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV142" s="10" t="s">
         <v>201</v>
@@ -23313,7 +23337,7 @@
         <v>209</v>
       </c>
       <c r="AX142" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="143" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23391,7 +23415,7 @@
         <v>313</v>
       </c>
       <c r="Z143" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA143" s="10">
         <v>3</v>
@@ -23415,22 +23439,22 @@
         <v>146</v>
       </c>
       <c r="AL143" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AM143" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO143" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP143" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ143" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU143" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV143" s="10" t="s">
         <v>201</v>
@@ -23439,7 +23463,7 @@
         <v>209</v>
       </c>
       <c r="AX143" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="144" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23517,7 +23541,7 @@
         <v>313</v>
       </c>
       <c r="Z144" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA144" s="10">
         <v>3</v>
@@ -23541,22 +23565,22 @@
         <v>149</v>
       </c>
       <c r="AL144" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AM144" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO144" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP144" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ144" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU144" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV144" s="10" t="s">
         <v>201</v>
@@ -23565,7 +23589,7 @@
         <v>209</v>
       </c>
       <c r="AX144" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="145" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23643,7 +23667,7 @@
         <v>313</v>
       </c>
       <c r="Z145" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA145" s="10">
         <v>3</v>
@@ -23667,22 +23691,22 @@
         <v>133</v>
       </c>
       <c r="AL145" s="19" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AM145" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO145" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP145" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ145" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU145" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV145" s="10" t="s">
         <v>201</v>
@@ -23691,7 +23715,7 @@
         <v>209</v>
       </c>
       <c r="AX145" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="146" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23769,7 +23793,7 @@
         <v>313</v>
       </c>
       <c r="Z146" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA146" s="10">
         <v>3</v>
@@ -23793,22 +23817,22 @@
         <v>147</v>
       </c>
       <c r="AL146" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AM146" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO146" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP146" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ146" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU146" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV146" s="10" t="s">
         <v>201</v>
@@ -23817,7 +23841,7 @@
         <v>209</v>
       </c>
       <c r="AX146" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="147" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -23892,7 +23916,7 @@
         <v>217</v>
       </c>
       <c r="Z147" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA147" s="10">
         <v>3</v>
@@ -23916,22 +23940,22 @@
         <v>132</v>
       </c>
       <c r="AL147" s="19" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AM147" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO147" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP147" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ147" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU147" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV147" s="10" t="s">
         <v>201</v>
@@ -23940,7 +23964,7 @@
         <v>209</v>
       </c>
       <c r="AX147" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="148" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -24006,7 +24030,7 @@
         <v>59</v>
       </c>
       <c r="V148" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="W148" s="10" t="s">
         <v>53</v>
@@ -24015,7 +24039,7 @@
         <v>217</v>
       </c>
       <c r="Z148" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA148" s="10">
         <v>3</v>
@@ -24039,22 +24063,22 @@
         <v>146</v>
       </c>
       <c r="AL148" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AM148" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO148" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP148" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ148" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU148" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV148" s="10" t="s">
         <v>201</v>
@@ -24063,7 +24087,7 @@
         <v>209</v>
       </c>
       <c r="AX148" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -24138,7 +24162,7 @@
         <v>217</v>
       </c>
       <c r="Z149" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA149" s="10">
         <v>3</v>
@@ -24162,22 +24186,22 @@
         <v>149</v>
       </c>
       <c r="AL149" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AM149" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AO149" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP149" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ149" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU149" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV149" s="10" t="s">
         <v>201</v>
@@ -24186,7 +24210,7 @@
         <v>209</v>
       </c>
       <c r="AX149" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="150" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -24252,7 +24276,7 @@
         <v>59</v>
       </c>
       <c r="V150" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="W150" s="10" t="s">
         <v>53</v>
@@ -24261,7 +24285,7 @@
         <v>217</v>
       </c>
       <c r="Z150" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA150" s="10">
         <v>3</v>
@@ -24287,22 +24311,22 @@
       <c r="AJ150" s="19"/>
       <c r="AK150" s="19"/>
       <c r="AL150" s="19" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AM150" s="19" t="s">
         <v>234</v>
       </c>
       <c r="AO150" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP150" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ150" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AU150" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV150" s="10" t="s">
         <v>201</v>
@@ -24311,7 +24335,7 @@
         <v>209</v>
       </c>
       <c r="AX150" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="151" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -24376,7 +24400,7 @@
         <v>59</v>
       </c>
       <c r="V151" s="21" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="W151" s="21" t="s">
         <v>53</v>
@@ -24385,7 +24409,7 @@
         <v>217</v>
       </c>
       <c r="Z151" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA151" s="21">
         <v>3</v>
@@ -24409,22 +24433,22 @@
         <v>147</v>
       </c>
       <c r="AL151" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AM151" s="21" t="s">
         <v>234</v>
       </c>
       <c r="AO151" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP151" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ151" s="21" t="s">
         <v>152</v>
       </c>
       <c r="AU151" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AV151" s="21" t="s">
         <v>201</v>
@@ -24433,7 +24457,7 @@
         <v>209</v>
       </c>
       <c r="AX151" s="21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -24449,7 +24473,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="106">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q111:Q118 P3:Q110 P123:Q141 P111:P1048576" xr:uid="{067F763E-F721-4644-970C-123CCCB709D1}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN21:AN23 AR27 AR25:AS26 AR24 AR3:AS23 AI154:AJ1048576 AI142:AI151 AJ153 AR28:AS1048576 AN24:AO1048576 AN3:AN20 AO4:AO20" xr:uid="{32B647B3-AD5A-419A-BC13-814E3BA278E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR27 AR25:AS26 AR24 AR3:AS23 AI154:AJ1048576 AI142:AI151 AJ153 AO119:AO1048576 AR28:AS1048576 AN3:AN1048576 AO24:AO110 AO4:AO20" xr:uid="{32B647B3-AD5A-419A-BC13-814E3BA278E7}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI109:AJ115 AJ150:AJ151 AI84:AJ84 AJ142 AJ145:AJ147 AI3:AJ21 AI123:AJ123 AI24 AI94 AI43:AI46 AI52 AI76:AJ81 AI23:AJ23 AI69 AI49:AJ49 AI128:AK128 AI125:AJ141 AI91:AJ93 AI41:AJ43 AI57:AJ67 AI56:AI58 AI86:AJ86 AI98:AJ106" xr:uid="{94E0278A-75D4-4556-8D7B-73AD9A2498CF}">
@@ -25457,7 +25481,7 @@
         <v>74</v>
       </c>
       <c r="AG10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AH10" t="s">
         <v>121</v>
@@ -26970,14 +26994,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
